--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F8E55-9411-4F59-A7EA-126D54978B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B156BD-A6A4-40A6-84A7-BA57B0500553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -78,8 +78,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="355">
   <si>
     <t>SAP</t>
   </si>
@@ -232,9 +254,6 @@
   </si>
   <si>
     <t>Duplicates</t>
-  </si>
-  <si>
-    <t>Apartment</t>
   </si>
   <si>
     <t xml:space="preserve">House </t>
@@ -603,9 +622,6 @@
     <t>LEVELS</t>
   </si>
   <si>
-    <t>Ground-contact floor area</t>
-  </si>
-  <si>
     <t>Party ceiling</t>
   </si>
   <si>
@@ -651,9 +667,6 @@
     <t>Level ref.</t>
   </si>
   <si>
-    <t>Party roof area</t>
-  </si>
-  <si>
     <t>Tot no. storeys in block</t>
   </si>
   <si>
@@ -732,9 +745,6 @@
     <t>Sheltered wall U-value</t>
   </si>
   <si>
-    <t>Ground-contact floor U-value</t>
-  </si>
-  <si>
     <t>Heat loss floor</t>
   </si>
   <si>
@@ -768,9 +778,6 @@
     <t>R11</t>
   </si>
   <si>
-    <t>Unit 1</t>
-  </si>
-  <si>
     <t>Level of opaque element</t>
   </si>
   <si>
@@ -1132,6 +1139,45 @@
   </si>
   <si>
     <t>External roof U-value</t>
+  </si>
+  <si>
+    <t>External roof 1</t>
+  </si>
+  <si>
+    <t>Heat loss floor 1</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Heat loss floor type</t>
+  </si>
+  <si>
+    <t>GroundSolid</t>
+  </si>
+  <si>
+    <t>GroundTimber</t>
+  </si>
+  <si>
+    <t>ExposedSolid</t>
+  </si>
+  <si>
+    <t>ExposedTimber</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>Sheltered wall shelter factor</t>
+  </si>
+  <si>
+    <t>Heat loss floor shelter factor</t>
+  </si>
+  <si>
+    <t>External roof shelter factor</t>
+  </si>
+  <si>
+    <t>Party ceiling area</t>
   </si>
 </sst>
 </file>
@@ -2340,8 +2386,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2351,33 +2424,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2408,7 +2454,14 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total line above" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4187,10 +4240,10 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="114"/>
+      <c r="J8" s="117"/>
       <c r="K8" s="44"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
@@ -4203,10 +4256,10 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="114"/>
+      <c r="J9" s="117"/>
       <c r="K9" s="44"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
@@ -4221,10 +4274,10 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="114"/>
+      <c r="J10" s="117"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
@@ -4235,10 +4288,10 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="114"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
     </row>
     <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
@@ -4249,10 +4302,10 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="114"/>
+      <c r="J12" s="117"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
     </row>
     <row r="13" spans="1:13" s="12" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
@@ -4264,7 +4317,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="114"/>
+      <c r="J13" s="117"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
@@ -4278,10 +4331,10 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="114"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
@@ -4294,10 +4347,10 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="114"/>
+      <c r="J15" s="117"/>
       <c r="K15" s="44"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
     </row>
     <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -4309,10 +4362,10 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="114"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
     </row>
     <row r="17" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
@@ -4334,10 +4387,10 @@
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="114"/>
+      <c r="J17" s="117"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
     </row>
     <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
@@ -4349,10 +4402,10 @@
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="114"/>
+      <c r="J18" s="117"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
     </row>
     <row r="19" spans="1:13" s="12" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
@@ -4364,7 +4417,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="114"/>
+      <c r="J19" s="117"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
@@ -4376,7 +4429,7 @@
       <c r="D20" s="53"/>
       <c r="E20" s="31"/>
       <c r="F20" s="13"/>
-      <c r="J20" s="114"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
@@ -4385,7 +4438,7 @@
       <c r="D21" s="53"/>
       <c r="E21" s="31"/>
       <c r="F21" s="13"/>
-      <c r="J21" s="114"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
@@ -4394,7 +4447,7 @@
       <c r="D22" s="53"/>
       <c r="E22" s="31"/>
       <c r="F22" s="13"/>
-      <c r="J22" s="114"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
@@ -4403,7 +4456,7 @@
       <c r="D23" s="53"/>
       <c r="E23" s="31"/>
       <c r="F23" s="13"/>
-      <c r="J23" s="114"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
@@ -4412,7 +4465,7 @@
       <c r="D24" s="53"/>
       <c r="E24" s="31"/>
       <c r="F24" s="13"/>
-      <c r="J24" s="114"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
@@ -4421,7 +4474,7 @@
       <c r="D25" s="53"/>
       <c r="E25" s="31"/>
       <c r="F25" s="13"/>
-      <c r="J25" s="114"/>
+      <c r="J25" s="117"/>
     </row>
     <row r="26" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
@@ -4430,7 +4483,7 @@
       <c r="D26" s="53"/>
       <c r="E26" s="31"/>
       <c r="F26" s="13"/>
-      <c r="J26" s="114"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
@@ -4439,7 +4492,7 @@
       <c r="D27" s="53"/>
       <c r="E27" s="31"/>
       <c r="F27" s="13"/>
-      <c r="J27" s="114"/>
+      <c r="J27" s="117"/>
     </row>
     <row r="28" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
@@ -4448,7 +4501,7 @@
       <c r="D28" s="53"/>
       <c r="E28" s="31"/>
       <c r="F28" s="13"/>
-      <c r="J28" s="114"/>
+      <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
@@ -4457,7 +4510,7 @@
       <c r="D29" s="53"/>
       <c r="E29" s="31"/>
       <c r="F29" s="13"/>
-      <c r="J29" s="114"/>
+      <c r="J29" s="117"/>
     </row>
     <row r="30" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
@@ -4466,7 +4519,7 @@
       <c r="D30" s="53"/>
       <c r="E30" s="31"/>
       <c r="F30" s="13"/>
-      <c r="J30" s="114"/>
+      <c r="J30" s="117"/>
     </row>
     <row r="31" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
@@ -4475,7 +4528,7 @@
       <c r="D31" s="53"/>
       <c r="E31" s="31"/>
       <c r="F31" s="13"/>
-      <c r="J31" s="114"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
@@ -4484,7 +4537,7 @@
       <c r="D32" s="53"/>
       <c r="E32" s="31"/>
       <c r="F32" s="13"/>
-      <c r="J32" s="114"/>
+      <c r="J32" s="117"/>
     </row>
     <row r="33" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
@@ -4493,7 +4546,7 @@
       <c r="D33" s="53"/>
       <c r="E33" s="31"/>
       <c r="F33" s="13"/>
-      <c r="J33" s="114"/>
+      <c r="J33" s="117"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
@@ -4502,7 +4555,7 @@
       <c r="D34" s="53"/>
       <c r="E34" s="31"/>
       <c r="F34" s="13"/>
-      <c r="J34" s="114"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
@@ -4511,7 +4564,7 @@
       <c r="D35" s="53"/>
       <c r="E35" s="31"/>
       <c r="F35" s="13"/>
-      <c r="J35" s="114"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
@@ -4520,7 +4573,7 @@
       <c r="D36" s="53"/>
       <c r="E36" s="31"/>
       <c r="F36" s="13"/>
-      <c r="J36" s="114"/>
+      <c r="J36" s="117"/>
     </row>
     <row r="37" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
@@ -4529,7 +4582,7 @@
       <c r="D37" s="53"/>
       <c r="E37" s="31"/>
       <c r="F37" s="13"/>
-      <c r="J37" s="114"/>
+      <c r="J37" s="117"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
@@ -4538,7 +4591,7 @@
       <c r="D38" s="53"/>
       <c r="E38" s="31"/>
       <c r="F38" s="13"/>
-      <c r="J38" s="114"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
@@ -4547,7 +4600,7 @@
       <c r="D39" s="53"/>
       <c r="E39" s="31"/>
       <c r="F39" s="13"/>
-      <c r="J39" s="114"/>
+      <c r="J39" s="117"/>
     </row>
     <row r="40" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
@@ -4556,7 +4609,7 @@
       <c r="D40" s="53"/>
       <c r="E40" s="31"/>
       <c r="F40" s="13"/>
-      <c r="J40" s="114"/>
+      <c r="J40" s="117"/>
     </row>
     <row r="41" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
@@ -4565,7 +4618,7 @@
       <c r="D41" s="53"/>
       <c r="E41" s="31"/>
       <c r="F41" s="13"/>
-      <c r="J41" s="114"/>
+      <c r="J41" s="117"/>
     </row>
     <row r="42" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
@@ -4574,7 +4627,7 @@
       <c r="D42" s="53"/>
       <c r="E42" s="31"/>
       <c r="F42" s="13"/>
-      <c r="J42" s="114"/>
+      <c r="J42" s="117"/>
     </row>
     <row r="43" spans="1:13" s="44" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
@@ -4583,11 +4636,11 @@
       <c r="D43" s="53"/>
       <c r="E43" s="31"/>
       <c r="F43" s="13"/>
-      <c r="J43" s="114"/>
+      <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -4597,10 +4650,10 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
-      <c r="J44" s="114"/>
+      <c r="J44" s="117"/>
       <c r="K44" s="44"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
     </row>
     <row r="45" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
@@ -4612,10 +4665,10 @@
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="114"/>
+      <c r="J45" s="117"/>
       <c r="K45" s="44"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="44"/>
@@ -4626,10 +4679,10 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="114"/>
+      <c r="J46" s="117"/>
       <c r="K46" s="44"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
     </row>
     <row r="47" spans="1:13" s="12" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="44"/>
@@ -4641,7 +4694,7 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="114"/>
+      <c r="J47" s="117"/>
       <c r="K47" s="44"/>
       <c r="L47" s="44"/>
       <c r="M47" s="44"/>
@@ -4655,10 +4708,10 @@
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="114"/>
+      <c r="J48" s="117"/>
       <c r="K48" s="44"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
     </row>
     <row r="49" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44"/>
@@ -4669,14 +4722,14 @@
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="114"/>
+      <c r="J49" s="117"/>
       <c r="K49" s="44"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4686,10 +4739,10 @@
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
-      <c r="J50" s="114"/>
+      <c r="J50" s="117"/>
       <c r="K50" s="44"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
     </row>
     <row r="51" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
@@ -4701,33 +4754,33 @@
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
-      <c r="J51" s="114"/>
+      <c r="J51" s="117"/>
       <c r="K51" s="44"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
     </row>
     <row r="52" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D52" s="51" t="s">
         <v>57</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>58</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
-      <c r="J52" s="114"/>
+      <c r="J52" s="117"/>
       <c r="K52" s="44"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
     </row>
     <row r="53" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
@@ -4737,10 +4790,10 @@
       <c r="E53" s="13"/>
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
-      <c r="J53" s="114"/>
+      <c r="J53" s="117"/>
       <c r="K53" s="44"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="117"/>
     </row>
     <row r="54" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -4748,139 +4801,139 @@
       <c r="C54" s="1"/>
       <c r="D54" s="49"/>
       <c r="E54" s="44"/>
-      <c r="H54" s="114"/>
+      <c r="H54" s="117"/>
       <c r="I54" s="44"/>
-      <c r="J54" s="114"/>
+      <c r="J54" s="117"/>
       <c r="K54" s="44"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
     </row>
     <row r="55" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
       <c r="E55" s="44"/>
-      <c r="H55" s="114"/>
+      <c r="H55" s="117"/>
       <c r="I55" s="44"/>
-      <c r="J55" s="114"/>
+      <c r="J55" s="117"/>
       <c r="K55" s="44"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
     </row>
     <row r="56" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
       <c r="E56" s="44"/>
-      <c r="H56" s="114"/>
+      <c r="H56" s="117"/>
       <c r="I56" s="44"/>
-      <c r="J56" s="114"/>
+      <c r="J56" s="117"/>
       <c r="K56" s="44"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
     </row>
     <row r="57" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="114"/>
+      <c r="H57" s="117"/>
       <c r="I57" s="44"/>
-      <c r="J57" s="114"/>
+      <c r="J57" s="117"/>
       <c r="K57" s="44"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
     </row>
     <row r="58" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="114"/>
+      <c r="H58" s="117"/>
       <c r="I58" s="44"/>
-      <c r="J58" s="114"/>
+      <c r="J58" s="117"/>
       <c r="K58" s="44"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
+      <c r="L58" s="117"/>
+      <c r="M58" s="117"/>
     </row>
     <row r="59" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="114"/>
+      <c r="H59" s="117"/>
       <c r="I59" s="44"/>
-      <c r="J59" s="114"/>
+      <c r="J59" s="117"/>
       <c r="K59" s="44"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
+      <c r="L59" s="117"/>
+      <c r="M59" s="117"/>
     </row>
     <row r="60" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
-      <c r="J60" s="114"/>
+      <c r="J60" s="117"/>
       <c r="K60" s="44"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
     </row>
     <row r="61" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
-      <c r="J61" s="114"/>
+      <c r="J61" s="117"/>
       <c r="K61" s="44"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
+      <c r="L61" s="117"/>
+      <c r="M61" s="117"/>
     </row>
     <row r="62" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
-      <c r="J62" s="114"/>
+      <c r="J62" s="117"/>
       <c r="K62" s="44"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
+      <c r="L62" s="117"/>
+      <c r="M62" s="117"/>
     </row>
     <row r="63" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
-      <c r="J63" s="114"/>
+      <c r="J63" s="117"/>
       <c r="K63" s="44"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
+      <c r="L63" s="117"/>
+      <c r="M63" s="117"/>
     </row>
     <row r="64" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
-      <c r="J64" s="114"/>
+      <c r="J64" s="117"/>
       <c r="K64" s="44"/>
-      <c r="L64" s="114"/>
-      <c r="M64" s="114"/>
+      <c r="L64" s="117"/>
+      <c r="M64" s="117"/>
     </row>
     <row r="65" spans="8:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
-      <c r="J65" s="114"/>
+      <c r="J65" s="117"/>
       <c r="K65" s="44"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="114"/>
+      <c r="L65" s="117"/>
+      <c r="M65" s="117"/>
     </row>
     <row r="66" spans="8:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
-      <c r="J66" s="114"/>
+      <c r="J66" s="117"/>
       <c r="K66" s="44"/>
-      <c r="L66" s="114"/>
-      <c r="M66" s="114"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
     </row>
     <row r="67" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
-      <c r="J67" s="114"/>
+      <c r="J67" s="117"/>
       <c r="K67" s="44"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
+      <c r="L67" s="117"/>
+      <c r="M67" s="117"/>
     </row>
     <row r="68" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H68" s="44"/>
       <c r="I68" s="44"/>
-      <c r="J68" s="114"/>
+      <c r="J68" s="117"/>
       <c r="K68" s="44"/>
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
     </row>
     <row r="69" spans="8:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I69" s="44"/>
-      <c r="J69" s="114"/>
+      <c r="J69" s="117"/>
       <c r="K69" s="44"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
       <c r="N69" s="44"/>
       <c r="O69" s="44"/>
       <c r="P69" s="44"/>
@@ -4889,10 +4942,10 @@
     </row>
     <row r="70" spans="8:18" x14ac:dyDescent="0.2">
       <c r="I70" s="44"/>
-      <c r="J70" s="114"/>
+      <c r="J70" s="117"/>
       <c r="K70" s="44"/>
-      <c r="L70" s="114"/>
-      <c r="M70" s="114"/>
+      <c r="L70" s="117"/>
+      <c r="M70" s="117"/>
       <c r="N70" s="44"/>
       <c r="O70" s="44"/>
       <c r="P70" s="44"/>
@@ -5021,26 +5074,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -5054,69 +5096,80 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
-    <cfRule type="expression" dxfId="46" priority="11">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>($E$17="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O20 O23:O24 O36:O70">
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45 E47:E54 E58:E61 E63 E67:E71 P8:P20 P23:P24 P36:P70">
-    <cfRule type="expression" dxfId="44" priority="59">
+    <cfRule type="expression" dxfId="45" priority="59">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O22">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21:P22">
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25 O33:O35">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25 P33:P35">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O32">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P32">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:O28">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P28">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5142,10 +5195,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:DP83"/>
+  <dimension ref="A1:DQ83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5174,623 +5227,629 @@
     <col min="22" max="22" width="16.33203125" style="101" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="3.6640625" style="77" customWidth="1"/>
     <col min="24" max="24" width="21.21875" style="73" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" style="73" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.77734375" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.33203125" style="73" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.21875" style="72" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="9.6640625" style="72" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9.6640625" style="101" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="11.21875" style="72" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="9.6640625" style="72" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="9.6640625" style="101" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="11.21875" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9.6640625" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="12.5546875" style="72" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="11.21875" style="72" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="9.6640625" style="101" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="8" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="38" width="11.21875" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="8.109375" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="39" width="11.21875" style="72" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="10.33203125" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="13" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="8.88671875" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="14.44140625" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="16.6640625" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="3.6640625" style="77" customWidth="1"/>
-    <col min="46" max="46" width="16.6640625" style="72" customWidth="1"/>
-    <col min="47" max="48" width="7.33203125" style="73" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="51" width="23.109375" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="3.6640625" style="77" customWidth="1"/>
-    <col min="53" max="53" width="16.44140625" style="73" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="10.44140625" style="73" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="13.77734375" style="73" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.88671875" style="73" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="59" width="14.44140625" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="8.44140625" style="101" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="12.6640625" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="17.33203125" style="77" customWidth="1"/>
-    <col min="63" max="63" width="15" style="104" customWidth="1"/>
-    <col min="64" max="107" width="9.44140625" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="108" max="108" width="8.88671875" style="76"/>
-    <col min="109" max="109" width="12.44140625" style="104" customWidth="1"/>
-    <col min="110" max="110" width="10.109375" style="104" customWidth="1" outlineLevel="1"/>
-    <col min="111" max="111" width="8.88671875" style="74" customWidth="1" outlineLevel="1"/>
-    <col min="112" max="120" width="8.88671875" style="76"/>
-    <col min="121" max="16384" width="8.88671875" style="44"/>
+    <col min="41" max="43" width="13" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="8.109375" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="8.88671875" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="3.6640625" style="77" customWidth="1"/>
+    <col min="47" max="47" width="16.6640625" style="72" customWidth="1"/>
+    <col min="48" max="49" width="7.33203125" style="73" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="52" width="23.109375" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="3.6640625" style="77" customWidth="1"/>
+    <col min="54" max="54" width="16.44140625" style="73" customWidth="1"/>
+    <col min="55" max="55" width="18.109375" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="10.44140625" style="73" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="13.77734375" style="73" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.88671875" style="73" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="60" width="14.44140625" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="8.44140625" style="101" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="12.6640625" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="17.33203125" style="77" customWidth="1"/>
+    <col min="64" max="64" width="15" style="104" customWidth="1"/>
+    <col min="65" max="108" width="9.44140625" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="109" max="109" width="8.88671875" style="76"/>
+    <col min="110" max="110" width="12.44140625" style="104" customWidth="1"/>
+    <col min="111" max="111" width="10.109375" style="104" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="8.88671875" style="74" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="121" width="8.88671875" style="76"/>
+    <col min="122" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:112" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="115" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="122" t="s">
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="116"/>
+      <c r="AL1" s="116"/>
+      <c r="AM1" s="116"/>
+      <c r="AN1" s="116"/>
+      <c r="AO1" s="116"/>
+      <c r="AP1" s="116"/>
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="115" t="s">
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC1" s="125"/>
+      <c r="BD1" s="125"/>
+      <c r="BE1" s="125"/>
+      <c r="BF1" s="125"/>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="103"/>
+      <c r="BL1" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM1" s="125"/>
+      <c r="BN1" s="125"/>
+      <c r="BO1" s="125"/>
+      <c r="BP1" s="125"/>
+      <c r="BQ1" s="125"/>
+      <c r="BR1" s="125"/>
+      <c r="BS1" s="125"/>
+      <c r="BT1" s="125"/>
+      <c r="BU1" s="125"/>
+      <c r="BV1" s="125"/>
+      <c r="BW1" s="125"/>
+      <c r="BX1" s="125"/>
+      <c r="BY1" s="125"/>
+      <c r="BZ1" s="125"/>
+      <c r="CA1" s="125"/>
+      <c r="CB1" s="125"/>
+      <c r="CC1" s="125"/>
+      <c r="CD1" s="125"/>
+      <c r="CE1" s="125"/>
+      <c r="CF1" s="125"/>
+      <c r="CG1" s="125"/>
+      <c r="CH1" s="125"/>
+      <c r="CI1" s="125"/>
+      <c r="CJ1" s="125"/>
+      <c r="CK1" s="125"/>
+      <c r="CL1" s="125"/>
+      <c r="CM1" s="125"/>
+      <c r="CN1" s="125"/>
+      <c r="CO1" s="125"/>
+      <c r="CP1" s="125"/>
+      <c r="CQ1" s="125"/>
+      <c r="CR1" s="125"/>
+      <c r="CS1" s="125"/>
+      <c r="CT1" s="125"/>
+      <c r="CU1" s="125"/>
+      <c r="CV1" s="125"/>
+      <c r="CW1" s="125"/>
+      <c r="CX1" s="125"/>
+      <c r="CY1" s="125"/>
+      <c r="CZ1" s="125"/>
+      <c r="DA1" s="125"/>
+      <c r="DB1" s="125"/>
+      <c r="DC1" s="125"/>
+      <c r="DD1" s="126"/>
+      <c r="DF1" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="DG1" s="123"/>
+      <c r="DH1" s="123"/>
+    </row>
+    <row r="2" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="S2" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="T2" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="U2" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="76"/>
+      <c r="X2" s="119" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y2" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB2" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC2" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE2" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF2" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG2" s="121" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH2" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI2" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK2" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM2" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN2" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO2" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP2" s="121" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ2" s="121" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR2" s="121" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS2" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV2" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="AU1" s="116"/>
-      <c r="AV1" s="116"/>
-      <c r="AW1" s="116"/>
-      <c r="AX1" s="116"/>
-      <c r="AY1" s="116"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="116"/>
-      <c r="BC1" s="116"/>
-      <c r="BD1" s="116"/>
-      <c r="BE1" s="116"/>
-      <c r="BF1" s="116"/>
-      <c r="BG1" s="116"/>
-      <c r="BH1" s="116"/>
-      <c r="BI1" s="116"/>
-      <c r="BJ1" s="103"/>
-      <c r="BK1" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL1" s="116"/>
-      <c r="BM1" s="116"/>
-      <c r="BN1" s="116"/>
-      <c r="BO1" s="116"/>
-      <c r="BP1" s="116"/>
-      <c r="BQ1" s="116"/>
-      <c r="BR1" s="116"/>
-      <c r="BS1" s="116"/>
-      <c r="BT1" s="116"/>
-      <c r="BU1" s="116"/>
-      <c r="BV1" s="116"/>
-      <c r="BW1" s="116"/>
-      <c r="BX1" s="116"/>
-      <c r="BY1" s="116"/>
-      <c r="BZ1" s="116"/>
-      <c r="CA1" s="116"/>
-      <c r="CB1" s="116"/>
-      <c r="CC1" s="116"/>
-      <c r="CD1" s="116"/>
-      <c r="CE1" s="116"/>
-      <c r="CF1" s="116"/>
-      <c r="CG1" s="116"/>
-      <c r="CH1" s="116"/>
-      <c r="CI1" s="116"/>
-      <c r="CJ1" s="116"/>
-      <c r="CK1" s="116"/>
-      <c r="CL1" s="116"/>
-      <c r="CM1" s="116"/>
-      <c r="CN1" s="116"/>
-      <c r="CO1" s="116"/>
-      <c r="CP1" s="116"/>
-      <c r="CQ1" s="116"/>
-      <c r="CR1" s="116"/>
-      <c r="CS1" s="116"/>
-      <c r="CT1" s="116"/>
-      <c r="CU1" s="116"/>
-      <c r="CV1" s="116"/>
-      <c r="CW1" s="116"/>
-      <c r="CX1" s="116"/>
-      <c r="CY1" s="116"/>
-      <c r="CZ1" s="116"/>
-      <c r="DA1" s="116"/>
-      <c r="DB1" s="116"/>
-      <c r="DC1" s="117"/>
-      <c r="DE1" s="119" t="s">
+      <c r="AW2" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX2" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY2" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ2" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC2" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE2" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF2" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH2" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI2" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS2" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW2" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX2" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY2" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA2" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="CD2" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="CE2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="CF2" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG2" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH2" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI2" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ2" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK2" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="CM2" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN2" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="CO2" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP2" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ2" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="CR2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="CS2" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="CT2" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="CU2" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="CV2" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW2" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="CX2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="CY2" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ2" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="DA2" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="DB2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="DC2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="DD2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="DF2" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="DG2" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="DF1" s="119"/>
-      <c r="DG1" s="119"/>
-    </row>
-    <row r="2" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="118" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="118" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="118" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="118" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="S2" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="T2" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="U2" s="118" t="s">
-        <v>163</v>
-      </c>
-      <c r="V2" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="76"/>
-      <c r="X2" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y2" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z2" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB2" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC2" s="118" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD2" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE2" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF2" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG2" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH2" s="118" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI2" s="118" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ2" s="126" t="s">
-        <v>345</v>
-      </c>
-      <c r="AK2" s="126" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL2" s="126" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM2" s="118" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN2" s="118" t="s">
-        <v>215</v>
-      </c>
-      <c r="AO2" s="118" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP2" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ2" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR2" s="118" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU2" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV2" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW2" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX2" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB2" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC2" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD2" s="120" t="s">
+      <c r="DH2" s="118" t="s">
         <v>181</v>
       </c>
-      <c r="BE2" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG2" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH2" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI2" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ2" s="76"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM2" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN2" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO2" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP2" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ2" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="BR2" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU2" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV2" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW2" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX2" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY2" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ2" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA2" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="CB2" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC2" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="CD2" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE2" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF2" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG2" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH2" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI2" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ2" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK2" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL2" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM2" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN2" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO2" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="CP2" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="CQ2" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="CR2" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="CS2" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="CT2" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU2" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="CV2" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="CW2" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="CX2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY2" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="CZ2" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="DA2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="DB2" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="DC2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="DE2" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="DF2" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="DG2" s="124" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
+    </row>
+    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
       <c r="P3" s="76"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
       <c r="W3" s="76"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM3" s="118"/>
-      <c r="AN3" s="118"/>
-      <c r="AO3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" s="118"/>
-      <c r="AQ3" s="118"/>
-      <c r="AR3" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="121"/>
-      <c r="AU3" s="121"/>
-      <c r="AV3" s="121"/>
-      <c r="AW3" s="121"/>
-      <c r="AX3" s="121"/>
-      <c r="AY3" s="121"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="121"/>
-      <c r="BB3" s="121"/>
-      <c r="BC3" s="121"/>
-      <c r="BD3" s="121"/>
-      <c r="BE3" s="121"/>
-      <c r="BF3" s="121"/>
-      <c r="BG3" s="121"/>
-      <c r="BH3" s="121"/>
-      <c r="BI3" s="121"/>
-      <c r="BJ3" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="109">
+      <c r="X3" s="120"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL3" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ3" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="120"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="120"/>
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="120"/>
+      <c r="BE3" s="120"/>
+      <c r="BF3" s="120"/>
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="120"/>
+      <c r="BI3" s="120"/>
+      <c r="BJ3" s="120"/>
+      <c r="BK3" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL3" s="100"/>
+      <c r="BM3" s="109">
         <v>0.2</v>
       </c>
-      <c r="BM3" s="109"/>
-      <c r="BN3" s="109">
+      <c r="BN3" s="109"/>
+      <c r="BO3" s="109">
         <v>0.05</v>
       </c>
-      <c r="BO3" s="109"/>
       <c r="BP3" s="109"/>
-      <c r="BQ3" s="109">
+      <c r="BQ3" s="109"/>
+      <c r="BR3" s="109">
         <v>0.3</v>
       </c>
-      <c r="BR3" s="109"/>
       <c r="BS3" s="109"/>
       <c r="BT3" s="109"/>
-      <c r="BU3" s="109">
+      <c r="BU3" s="109"/>
+      <c r="BV3" s="109">
         <v>0.1</v>
       </c>
-      <c r="BV3" s="109"/>
       <c r="BW3" s="109"/>
-      <c r="BX3" s="109">
+      <c r="BX3" s="109"/>
+      <c r="BY3" s="109">
         <v>0.2</v>
       </c>
-      <c r="BY3" s="109"/>
       <c r="BZ3" s="109"/>
-      <c r="CA3" s="109">
+      <c r="CA3" s="109"/>
+      <c r="CB3" s="109">
         <v>0.5</v>
       </c>
-      <c r="CB3" s="109"/>
       <c r="CC3" s="109"/>
       <c r="CD3" s="109"/>
-      <c r="CE3" s="109">
+      <c r="CE3" s="109"/>
+      <c r="CF3" s="109">
         <v>0.5</v>
       </c>
-      <c r="CF3" s="109">
+      <c r="CG3" s="109">
         <v>0.3</v>
       </c>
-      <c r="CG3" s="109"/>
       <c r="CH3" s="109"/>
       <c r="CI3" s="109"/>
       <c r="CJ3" s="109"/>
@@ -5800,19 +5859,19 @@
       <c r="CN3" s="109"/>
       <c r="CO3" s="109"/>
       <c r="CP3" s="109"/>
-      <c r="CQ3" s="109">
+      <c r="CQ3" s="109"/>
+      <c r="CR3" s="109">
         <v>0.1</v>
       </c>
-      <c r="CR3" s="109">
+      <c r="CS3" s="109">
         <v>0.2</v>
       </c>
-      <c r="CS3" s="109">
+      <c r="CT3" s="109">
         <v>0.3</v>
       </c>
-      <c r="CT3" s="109">
+      <c r="CU3" s="109">
         <v>0.4</v>
       </c>
-      <c r="CU3" s="109"/>
       <c r="CV3" s="109"/>
       <c r="CW3" s="109"/>
       <c r="CX3" s="109"/>
@@ -5821,31 +5880,33 @@
       <c r="DA3" s="109"/>
       <c r="DB3" s="109"/>
       <c r="DC3" s="109"/>
-      <c r="DE3" s="124"/>
-      <c r="DF3" s="124"/>
-      <c r="DG3" s="124"/>
-    </row>
-    <row r="4" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
-        <v>225</v>
+      <c r="DD3" s="109"/>
+      <c r="DF3" s="118"/>
+      <c r="DG3" s="118"/>
+      <c r="DH3" s="118"/>
+    </row>
+    <row r="4" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="str" cm="1">
+        <f t="array" aca="1" ref="A4" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
+        <v>Unit 1</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>160</v>
+        <v>344</v>
       </c>
       <c r="F4" s="108" t="s">
         <v>151</v>
       </c>
       <c r="G4" s="108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="105">
         <v>1</v>
@@ -5863,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N4" s="109">
         <v>250</v>
@@ -5894,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="Y4" s="110" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Z4" s="109" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA4" s="109">
         <v>15</v>
@@ -5915,9 +5976,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="109"/>
-      <c r="AG4" s="109">
-        <v>0</v>
-      </c>
+      <c r="AG4" s="109"/>
       <c r="AH4" s="109"/>
       <c r="AI4" s="101">
         <f>_xlfn.IFNA(AH4*VLOOKUP($X4,$Q$4:$T$50,3,FALSE),"")</f>
@@ -5932,59 +5991,59 @@
       <c r="AP4" s="109"/>
       <c r="AQ4" s="109"/>
       <c r="AR4" s="109"/>
-      <c r="AT4" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU4" s="110" t="s">
-        <v>166</v>
+      <c r="AS4" s="109"/>
+      <c r="AU4" s="109" t="s">
+        <v>165</v>
       </c>
       <c r="AV4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW4" s="109">
+        <v>165</v>
+      </c>
+      <c r="AW4" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX4" s="109">
         <v>1.4</v>
       </c>
-      <c r="AX4" s="109">
+      <c r="AY4" s="109">
         <v>0.5</v>
       </c>
-      <c r="AY4" s="109">
+      <c r="AZ4" s="109">
         <v>0.8</v>
       </c>
-      <c r="BA4" s="110">
+      <c r="BB4" s="110">
         <v>1</v>
       </c>
-      <c r="BB4" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC4" s="112" t="s">
-        <v>166</v>
+      <c r="BC4" s="111" t="s">
+        <v>173</v>
       </c>
       <c r="BD4" s="112" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="BE4" s="112" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF4" s="111">
+        <v>195</v>
+      </c>
+      <c r="BF4" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG4" s="111">
         <v>1</v>
       </c>
-      <c r="BG4" s="111">
+      <c r="BH4" s="111">
         <v>1.5</v>
       </c>
-      <c r="BH4" s="101">
-        <f t="shared" ref="BH4:BH50" si="0">IF(AND(BF4&gt;0,BG4&gt;0),BF4*BG4,"")</f>
+      <c r="BI4" s="101">
+        <f t="shared" ref="BI4:BI50" si="0">IF(AND(BG4&gt;0,BH4&gt;0),BG4*BH4,"")</f>
         <v>1.5</v>
       </c>
-      <c r="BI4" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ4" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK4" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL4" s="100"/>
+      <c r="BJ4" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK4" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL4" s="71" t="s">
+        <v>183</v>
+      </c>
       <c r="BM4" s="100"/>
       <c r="BN4" s="100"/>
       <c r="BO4" s="100"/>
@@ -6028,11 +6087,12 @@
       <c r="DA4" s="100"/>
       <c r="DB4" s="100"/>
       <c r="DC4" s="100"/>
-      <c r="DE4" s="124"/>
-      <c r="DF4" s="124"/>
-      <c r="DG4" s="124"/>
-    </row>
-    <row r="5" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="DD4" s="100"/>
+      <c r="DF4" s="118"/>
+      <c r="DG4" s="118"/>
+      <c r="DH4" s="118"/>
+    </row>
+    <row r="5" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="79"/>
@@ -6051,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="Y5" s="110" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Z5" s="109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA5" s="109">
         <v>11</v>
@@ -6072,9 +6132,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="109"/>
-      <c r="AG5" s="109">
-        <v>0</v>
-      </c>
+      <c r="AG5" s="109"/>
       <c r="AH5" s="109"/>
       <c r="AI5" s="101">
         <f t="shared" ref="AI5:AI50" si="3">_xlfn.IFNA(AH5*VLOOKUP($X5,$Q$4:$T$50,3,FALSE),"")</f>
@@ -6089,90 +6147,90 @@
       <c r="AP5" s="109"/>
       <c r="AQ5" s="109"/>
       <c r="AR5" s="109"/>
-      <c r="AT5" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU5" s="110" t="s">
-        <v>217</v>
-      </c>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="109">
+      <c r="AS5" s="109"/>
+      <c r="AU5" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV5" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="109">
         <v>1.6</v>
       </c>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109">
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109">
         <v>0.7</v>
       </c>
-      <c r="BA5" s="110">
+      <c r="BB5" s="110">
         <v>1</v>
       </c>
-      <c r="BB5" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC5" s="110" t="s">
-        <v>166</v>
+      <c r="BC5" s="109" t="s">
+        <v>174</v>
       </c>
       <c r="BD5" s="110" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="BE5" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF5" s="109">
+        <v>195</v>
+      </c>
+      <c r="BF5" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG5" s="109">
         <v>1</v>
       </c>
-      <c r="BG5" s="109">
+      <c r="BH5" s="109">
         <v>1.5</v>
       </c>
-      <c r="BH5" s="101">
+      <c r="BI5" s="101">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="BI5" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK5" s="104">
-        <f t="shared" ref="BK5:BK50" si="4">IF($Q4="","",$Q4)</f>
+      <c r="BJ5" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL5" s="104">
+        <f t="shared" ref="BL5:BL50" si="4">IF($Q4="","",$Q4)</f>
         <v>1</v>
       </c>
-      <c r="BL5" s="109">
+      <c r="BM5" s="109">
         <v>2</v>
       </c>
-      <c r="BM5" s="109"/>
-      <c r="BN5" s="109">
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="109">
         <v>5.5</v>
       </c>
-      <c r="BO5" s="109"/>
       <c r="BP5" s="109"/>
-      <c r="BQ5" s="109">
+      <c r="BQ5" s="109"/>
+      <c r="BR5" s="109">
         <v>6</v>
       </c>
-      <c r="BR5" s="109"/>
       <c r="BS5" s="109"/>
       <c r="BT5" s="109"/>
-      <c r="BU5" s="109">
+      <c r="BU5" s="109"/>
+      <c r="BV5" s="109">
         <v>2</v>
       </c>
-      <c r="BV5" s="109"/>
       <c r="BW5" s="109"/>
-      <c r="BX5" s="109">
+      <c r="BX5" s="109"/>
+      <c r="BY5" s="109">
         <v>2</v>
       </c>
-      <c r="BY5" s="109"/>
       <c r="BZ5" s="109"/>
-      <c r="CA5" s="109">
+      <c r="CA5" s="109"/>
+      <c r="CB5" s="109">
         <v>2</v>
       </c>
-      <c r="CB5" s="109"/>
       <c r="CC5" s="109"/>
       <c r="CD5" s="109"/>
-      <c r="CE5" s="109">
+      <c r="CE5" s="109"/>
+      <c r="CF5" s="109">
         <v>3</v>
       </c>
-      <c r="CF5" s="109">
+      <c r="CG5" s="109">
         <v>5</v>
       </c>
-      <c r="CG5" s="109"/>
       <c r="CH5" s="109"/>
       <c r="CI5" s="109"/>
       <c r="CJ5" s="109"/>
@@ -6182,19 +6240,19 @@
       <c r="CN5" s="109"/>
       <c r="CO5" s="109"/>
       <c r="CP5" s="109"/>
-      <c r="CQ5" s="109">
-        <v>5</v>
-      </c>
+      <c r="CQ5" s="109"/>
       <c r="CR5" s="109">
         <v>5</v>
       </c>
       <c r="CS5" s="109">
+        <v>5</v>
+      </c>
+      <c r="CT5" s="109">
         <v>6</v>
       </c>
-      <c r="CT5" s="109">
+      <c r="CU5" s="109">
         <v>2</v>
       </c>
-      <c r="CU5" s="109"/>
       <c r="CV5" s="109"/>
       <c r="CW5" s="109"/>
       <c r="CX5" s="109"/>
@@ -6203,17 +6261,18 @@
       <c r="DA5" s="109"/>
       <c r="DB5" s="109"/>
       <c r="DC5" s="109"/>
-      <c r="DE5" s="104">
+      <c r="DD5" s="109"/>
+      <c r="DF5" s="104">
         <f>IF($Q4="","",$Q4)</f>
         <v>1</v>
       </c>
-      <c r="DF5" s="104" t="str">
-        <f>IF(DE5="","",IF(SUMIF($X$4:$X$50,DE5,$AA$4:$AA$50)+SUMIF($X$4:$X$50,DE5,$AD$4:$AD$50)+SUMIF($X$4:$X$50,DE5,$AH$4:$AH$50)=SUM(BL5:CN5)+SUM(CY5:CZ5),"CORRECT","ERROR"))</f>
+      <c r="DG5" s="104" t="str">
+        <f>IF(DF5="","",IF(SUMIF($X$4:$X$50,DF5,$AA$4:$AA$50)+SUMIF($X$4:$X$50,DF5,$AD$4:$AD$50)+SUMIF($X$4:$X$50,DF5,$AH$4:$AH$50)=SUM(BM5:CO5)+SUM(CZ5:DA5),"CORRECT","ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="DG5" s="75"/>
-    </row>
-    <row r="6" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="DH5" s="75"/>
+    </row>
+    <row r="6" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
@@ -6227,10 +6286,10 @@
         <v>1</v>
       </c>
       <c r="Y6" s="110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z6" s="109" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA6" s="109"/>
       <c r="AB6" s="101">
@@ -6249,7 +6308,7 @@
         <v>0.3</v>
       </c>
       <c r="AG6" s="109">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AH6" s="109"/>
       <c r="AI6" s="101">
@@ -6265,45 +6324,45 @@
       <c r="AP6" s="109"/>
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="110"/>
+      <c r="AS6" s="109"/>
+      <c r="AU6" s="109"/>
       <c r="AV6" s="110"/>
-      <c r="AW6" s="109"/>
+      <c r="AW6" s="110"/>
       <c r="AX6" s="109"/>
       <c r="AY6" s="109"/>
-      <c r="BA6" s="110">
+      <c r="AZ6" s="109"/>
+      <c r="BB6" s="110">
         <v>1</v>
       </c>
-      <c r="BB6" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC6" s="110" t="s">
-        <v>167</v>
+      <c r="BC6" s="109" t="s">
+        <v>166</v>
       </c>
       <c r="BD6" s="110" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="BE6" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF6" s="109">
+        <v>194</v>
+      </c>
+      <c r="BF6" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG6" s="109">
         <v>1</v>
       </c>
-      <c r="BG6" s="109">
+      <c r="BH6" s="109">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BH6" s="101">
+      <c r="BI6" s="101">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="BI6" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK6" s="104" t="str">
+      <c r="BJ6" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL6" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL6" s="109"/>
       <c r="BM6" s="109"/>
       <c r="BN6" s="109"/>
       <c r="BO6" s="109"/>
@@ -6347,16 +6406,17 @@
       <c r="DA6" s="109"/>
       <c r="DB6" s="109"/>
       <c r="DC6" s="109"/>
-      <c r="DE6" s="104" t="str">
-        <f t="shared" ref="DE6:DE50" si="6">IF($Q5="","",$Q5)</f>
-        <v/>
-      </c>
+      <c r="DD6" s="109"/>
       <c r="DF6" s="104" t="str">
-        <f t="shared" ref="DF6:DF50" si="7">IF(DE6="","",IF(SUMIF($X$4:$X$50,DE6,$AA$4:$AA$50)+SUMIF($X$4:$X$50,DE6,$AD$4:$AD$50)+SUMIF($X$4:$X$50,DE6,$AH$4:$AH$50)=SUM(BL6:CN6)+SUM(CY6:CZ6),"CORRECT","ERROR"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="DF6:DF50" si="6">IF($Q5="","",$Q5)</f>
+        <v/>
+      </c>
+      <c r="DG6" s="104" t="str">
+        <f t="shared" ref="DG6:DG50" si="7">IF(DF6="","",IF(SUMIF($X$4:$X$50,DF6,$AA$4:$AA$50)+SUMIF($X$4:$X$50,DF6,$AD$4:$AD$50)+SUMIF($X$4:$X$50,DF6,$AH$4:$AH$50)=SUM(BM6:CO6)+SUM(CZ6:DA6),"CORRECT","ERROR"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="79"/>
       <c r="J7" s="79"/>
       <c r="L7" s="78"/>
@@ -6373,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="Y7" s="110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Z7" s="109" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA7" s="109"/>
       <c r="AB7" s="101">
@@ -6390,9 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="109"/>
-      <c r="AG7" s="109">
-        <v>0</v>
-      </c>
+      <c r="AG7" s="109"/>
       <c r="AH7" s="109">
         <v>14</v>
       </c>
@@ -6409,25 +6467,25 @@
       <c r="AP7" s="109"/>
       <c r="AQ7" s="109"/>
       <c r="AR7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="110"/>
+      <c r="AS7" s="109"/>
+      <c r="AU7" s="109"/>
       <c r="AV7" s="110"/>
-      <c r="AW7" s="109"/>
+      <c r="AW7" s="110"/>
       <c r="AX7" s="109"/>
       <c r="AY7" s="109"/>
-      <c r="BA7" s="110"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="110"/>
+      <c r="AZ7" s="109"/>
+      <c r="BB7" s="110"/>
+      <c r="BC7" s="109"/>
       <c r="BD7" s="110"/>
       <c r="BE7" s="110"/>
-      <c r="BF7" s="109"/>
+      <c r="BF7" s="110"/>
       <c r="BG7" s="109"/>
-      <c r="BI7" s="109"/>
-      <c r="BK7" s="104" t="str">
+      <c r="BH7" s="109"/>
+      <c r="BJ7" s="109"/>
+      <c r="BL7" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL7" s="109"/>
       <c r="BM7" s="109"/>
       <c r="BN7" s="109"/>
       <c r="BO7" s="109"/>
@@ -6471,16 +6529,17 @@
       <c r="DA7" s="109"/>
       <c r="DB7" s="109"/>
       <c r="DC7" s="109"/>
-      <c r="DE7" s="104" t="str">
+      <c r="DD7" s="109"/>
+      <c r="DF7" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF7" s="104" t="str">
+      <c r="DG7" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="79"/>
@@ -6501,10 +6560,10 @@
         <v>1</v>
       </c>
       <c r="Y8" s="110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z8" s="109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AA8" s="109"/>
       <c r="AB8" s="101">
@@ -6518,9 +6577,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="109"/>
-      <c r="AG8" s="109">
-        <v>0</v>
-      </c>
+      <c r="AG8" s="109"/>
       <c r="AH8" s="109"/>
       <c r="AI8" s="101">
         <f t="shared" si="3"/>
@@ -6529,33 +6586,33 @@
       <c r="AJ8" s="109"/>
       <c r="AK8" s="109"/>
       <c r="AL8" s="73"/>
-      <c r="AM8" s="109">
-        <v>20</v>
-      </c>
+      <c r="AM8" s="109"/>
       <c r="AN8" s="109"/>
       <c r="AO8" s="109"/>
       <c r="AP8" s="109"/>
       <c r="AQ8" s="109"/>
-      <c r="AR8" s="109"/>
-      <c r="AT8" s="109"/>
-      <c r="AU8" s="110"/>
+      <c r="AR8" s="109">
+        <v>20</v>
+      </c>
+      <c r="AS8" s="109"/>
+      <c r="AU8" s="109"/>
       <c r="AV8" s="110"/>
-      <c r="AW8" s="109"/>
+      <c r="AW8" s="110"/>
       <c r="AX8" s="109"/>
       <c r="AY8" s="109"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="109"/>
-      <c r="BC8" s="110"/>
+      <c r="AZ8" s="109"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="109"/>
       <c r="BD8" s="110"/>
       <c r="BE8" s="110"/>
-      <c r="BF8" s="109"/>
+      <c r="BF8" s="110"/>
       <c r="BG8" s="109"/>
-      <c r="BI8" s="109"/>
-      <c r="BK8" s="104" t="str">
+      <c r="BH8" s="109"/>
+      <c r="BJ8" s="109"/>
+      <c r="BL8" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL8" s="109"/>
       <c r="BM8" s="109"/>
       <c r="BN8" s="109"/>
       <c r="BO8" s="109"/>
@@ -6599,16 +6656,17 @@
       <c r="DA8" s="109"/>
       <c r="DB8" s="109"/>
       <c r="DC8" s="109"/>
-      <c r="DE8" s="104" t="str">
+      <c r="DD8" s="109"/>
+      <c r="DF8" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF8" s="104" t="str">
+      <c r="DG8" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="78"/>
       <c r="D9" s="78"/>
       <c r="E9" s="79"/>
@@ -6629,10 +6687,10 @@
         <v>1</v>
       </c>
       <c r="Y9" s="110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z9" s="109" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AA9" s="109"/>
       <c r="AB9" s="101">
@@ -6646,9 +6704,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="109"/>
-      <c r="AG9" s="109">
-        <v>0</v>
-      </c>
+      <c r="AG9" s="109"/>
       <c r="AH9" s="109"/>
       <c r="AI9" s="101">
         <f t="shared" si="3"/>
@@ -6660,30 +6716,30 @@
       <c r="AM9" s="109"/>
       <c r="AN9" s="109"/>
       <c r="AO9" s="109"/>
-      <c r="AP9" s="109">
-        <v>20</v>
-      </c>
+      <c r="AP9" s="109"/>
       <c r="AQ9" s="109"/>
       <c r="AR9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="110"/>
+      <c r="AS9" s="109">
+        <v>20</v>
+      </c>
+      <c r="AU9" s="109"/>
       <c r="AV9" s="110"/>
-      <c r="AW9" s="109"/>
+      <c r="AW9" s="110"/>
       <c r="AX9" s="109"/>
       <c r="AY9" s="109"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="109"/>
-      <c r="BC9" s="110"/>
+      <c r="AZ9" s="109"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="109"/>
       <c r="BD9" s="110"/>
       <c r="BE9" s="110"/>
-      <c r="BF9" s="109"/>
+      <c r="BF9" s="110"/>
       <c r="BG9" s="109"/>
-      <c r="BI9" s="109"/>
-      <c r="BK9" s="104" t="str">
+      <c r="BH9" s="109"/>
+      <c r="BJ9" s="109"/>
+      <c r="BL9" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL9" s="109"/>
       <c r="BM9" s="109"/>
       <c r="BN9" s="109"/>
       <c r="BO9" s="109"/>
@@ -6727,16 +6783,17 @@
       <c r="DA9" s="109"/>
       <c r="DB9" s="109"/>
       <c r="DC9" s="109"/>
-      <c r="DE9" s="104" t="str">
+      <c r="DD9" s="109"/>
+      <c r="DF9" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF9" s="104" t="str">
+      <c r="DG9" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="79"/>
@@ -6753,55 +6810,69 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="109"/>
+      <c r="X10" s="110">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="109" t="s">
+        <v>342</v>
+      </c>
       <c r="AA10" s="109"/>
-      <c r="AB10" s="101" t="str">
+      <c r="AB10" s="101">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AC10" s="109"/>
       <c r="AD10" s="109"/>
-      <c r="AE10" s="101" t="str">
+      <c r="AE10" s="101">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AF10" s="109"/>
       <c r="AG10" s="109"/>
       <c r="AH10" s="109"/>
-      <c r="AI10" s="101" t="str">
+      <c r="AI10" s="101">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="109">
+        <v>10</v>
+      </c>
+      <c r="AK10" s="109">
+        <v>0.15</v>
+      </c>
+      <c r="AL10" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM10" s="109">
+        <v>0.4</v>
+      </c>
       <c r="AN10" s="109"/>
       <c r="AO10" s="109"/>
       <c r="AP10" s="109"/>
       <c r="AQ10" s="109"/>
       <c r="AR10" s="109"/>
-      <c r="AT10" s="109"/>
-      <c r="AU10" s="110"/>
+      <c r="AS10" s="109"/>
+      <c r="AU10" s="109"/>
       <c r="AV10" s="110"/>
-      <c r="AW10" s="109"/>
+      <c r="AW10" s="110"/>
       <c r="AX10" s="109"/>
       <c r="AY10" s="109"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="109"/>
-      <c r="BC10" s="110"/>
+      <c r="AZ10" s="109"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="109"/>
       <c r="BD10" s="110"/>
       <c r="BE10" s="110"/>
-      <c r="BF10" s="109"/>
+      <c r="BF10" s="110"/>
       <c r="BG10" s="109"/>
-      <c r="BI10" s="109"/>
-      <c r="BK10" s="104" t="str">
+      <c r="BH10" s="109"/>
+      <c r="BJ10" s="109"/>
+      <c r="BL10" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL10" s="109"/>
       <c r="BM10" s="109"/>
       <c r="BN10" s="109"/>
       <c r="BO10" s="109"/>
@@ -6845,16 +6916,17 @@
       <c r="DA10" s="109"/>
       <c r="DB10" s="109"/>
       <c r="DC10" s="109"/>
-      <c r="DE10" s="104" t="str">
+      <c r="DD10" s="109"/>
+      <c r="DF10" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF10" s="104" t="str">
+      <c r="DG10" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q11" s="109"/>
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
@@ -6864,55 +6936,69 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="109"/>
+      <c r="X11" s="110">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z11" s="109" t="s">
+        <v>343</v>
+      </c>
       <c r="AA11" s="109"/>
-      <c r="AB11" s="101" t="str">
+      <c r="AB11" s="101">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AC11" s="109"/>
       <c r="AD11" s="109"/>
-      <c r="AE11" s="101" t="str">
+      <c r="AE11" s="101">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AF11" s="109"/>
       <c r="AG11" s="109"/>
       <c r="AH11" s="109"/>
-      <c r="AI11" s="101" t="str">
+      <c r="AI11" s="101">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ11" s="109"/>
       <c r="AK11" s="109"/>
       <c r="AL11" s="73"/>
       <c r="AM11" s="109"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="109"/>
+      <c r="AN11" s="109">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="109">
+        <v>0.1</v>
+      </c>
+      <c r="AP11" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ11" s="109">
+        <v>0.1</v>
+      </c>
       <c r="AR11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="110"/>
+      <c r="AS11" s="109"/>
+      <c r="AU11" s="109"/>
       <c r="AV11" s="110"/>
-      <c r="AW11" s="109"/>
+      <c r="AW11" s="110"/>
       <c r="AX11" s="109"/>
       <c r="AY11" s="109"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="109"/>
-      <c r="BC11" s="110"/>
+      <c r="AZ11" s="109"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="109"/>
       <c r="BD11" s="110"/>
       <c r="BE11" s="110"/>
-      <c r="BF11" s="109"/>
+      <c r="BF11" s="110"/>
       <c r="BG11" s="109"/>
-      <c r="BI11" s="109"/>
-      <c r="BK11" s="104" t="str">
+      <c r="BH11" s="109"/>
+      <c r="BJ11" s="109"/>
+      <c r="BL11" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL11" s="109"/>
       <c r="BM11" s="109"/>
       <c r="BN11" s="109"/>
       <c r="BO11" s="109"/>
@@ -6956,16 +7042,17 @@
       <c r="DA11" s="109"/>
       <c r="DB11" s="109"/>
       <c r="DC11" s="109"/>
-      <c r="DE11" s="104" t="str">
+      <c r="DD11" s="109"/>
+      <c r="DF11" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF11" s="104" t="str">
+      <c r="DG11" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82"/>
       <c r="D12" s="82"/>
       <c r="F12" s="82"/>
@@ -7014,25 +7101,25 @@
       <c r="AP12" s="109"/>
       <c r="AQ12" s="109"/>
       <c r="AR12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="110"/>
+      <c r="AS12" s="109"/>
+      <c r="AU12" s="109"/>
       <c r="AV12" s="110"/>
-      <c r="AW12" s="109"/>
+      <c r="AW12" s="110"/>
       <c r="AX12" s="109"/>
       <c r="AY12" s="109"/>
-      <c r="BA12" s="110"/>
-      <c r="BB12" s="109"/>
-      <c r="BC12" s="110"/>
+      <c r="AZ12" s="109"/>
+      <c r="BB12" s="110"/>
+      <c r="BC12" s="109"/>
       <c r="BD12" s="110"/>
       <c r="BE12" s="110"/>
-      <c r="BF12" s="109"/>
+      <c r="BF12" s="110"/>
       <c r="BG12" s="109"/>
-      <c r="BI12" s="109"/>
-      <c r="BK12" s="104" t="str">
+      <c r="BH12" s="109"/>
+      <c r="BJ12" s="109"/>
+      <c r="BL12" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL12" s="109"/>
       <c r="BM12" s="109"/>
       <c r="BN12" s="109"/>
       <c r="BO12" s="109"/>
@@ -7076,16 +7163,17 @@
       <c r="DA12" s="109"/>
       <c r="DB12" s="109"/>
       <c r="DC12" s="109"/>
-      <c r="DE12" s="104" t="str">
+      <c r="DD12" s="109"/>
+      <c r="DF12" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF12" s="104" t="str">
+      <c r="DG12" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="83"/>
       <c r="D13" s="83"/>
       <c r="F13" s="83"/>
@@ -7133,25 +7221,25 @@
       <c r="AP13" s="109"/>
       <c r="AQ13" s="109"/>
       <c r="AR13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="110"/>
+      <c r="AS13" s="109"/>
+      <c r="AU13" s="109"/>
       <c r="AV13" s="110"/>
-      <c r="AW13" s="109"/>
+      <c r="AW13" s="110"/>
       <c r="AX13" s="109"/>
       <c r="AY13" s="109"/>
-      <c r="BA13" s="110"/>
-      <c r="BB13" s="109"/>
-      <c r="BC13" s="110"/>
+      <c r="AZ13" s="109"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="109"/>
       <c r="BD13" s="110"/>
       <c r="BE13" s="110"/>
-      <c r="BF13" s="109"/>
+      <c r="BF13" s="110"/>
       <c r="BG13" s="109"/>
-      <c r="BI13" s="109"/>
-      <c r="BK13" s="104" t="str">
+      <c r="BH13" s="109"/>
+      <c r="BJ13" s="109"/>
+      <c r="BL13" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL13" s="109"/>
       <c r="BM13" s="109"/>
       <c r="BN13" s="109"/>
       <c r="BO13" s="109"/>
@@ -7195,16 +7283,17 @@
       <c r="DA13" s="109"/>
       <c r="DB13" s="109"/>
       <c r="DC13" s="109"/>
-      <c r="DE13" s="104" t="str">
+      <c r="DD13" s="109"/>
+      <c r="DF13" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF13" s="104" t="str">
+      <c r="DG13" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="84"/>
       <c r="D14" s="84"/>
       <c r="F14" s="84"/>
@@ -7253,25 +7342,25 @@
       <c r="AP14" s="109"/>
       <c r="AQ14" s="109"/>
       <c r="AR14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="110"/>
+      <c r="AS14" s="109"/>
+      <c r="AU14" s="109"/>
       <c r="AV14" s="110"/>
-      <c r="AW14" s="109"/>
+      <c r="AW14" s="110"/>
       <c r="AX14" s="109"/>
       <c r="AY14" s="109"/>
-      <c r="BA14" s="110"/>
-      <c r="BB14" s="109"/>
-      <c r="BC14" s="110"/>
+      <c r="AZ14" s="109"/>
+      <c r="BB14" s="110"/>
+      <c r="BC14" s="109"/>
       <c r="BD14" s="110"/>
       <c r="BE14" s="110"/>
-      <c r="BF14" s="109"/>
+      <c r="BF14" s="110"/>
       <c r="BG14" s="109"/>
-      <c r="BI14" s="109"/>
-      <c r="BK14" s="104" t="str">
+      <c r="BH14" s="109"/>
+      <c r="BJ14" s="109"/>
+      <c r="BL14" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL14" s="109"/>
       <c r="BM14" s="109"/>
       <c r="BN14" s="109"/>
       <c r="BO14" s="109"/>
@@ -7315,16 +7404,17 @@
       <c r="DA14" s="109"/>
       <c r="DB14" s="109"/>
       <c r="DC14" s="109"/>
-      <c r="DE14" s="104" t="str">
+      <c r="DD14" s="109"/>
+      <c r="DF14" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF14" s="104" t="str">
+      <c r="DG14" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="84"/>
       <c r="D15" s="84"/>
       <c r="F15" s="84"/>
@@ -7372,25 +7462,25 @@
       <c r="AP15" s="109"/>
       <c r="AQ15" s="109"/>
       <c r="AR15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="110"/>
+      <c r="AS15" s="109"/>
+      <c r="AU15" s="109"/>
       <c r="AV15" s="110"/>
-      <c r="AW15" s="109"/>
+      <c r="AW15" s="110"/>
       <c r="AX15" s="109"/>
       <c r="AY15" s="109"/>
-      <c r="BA15" s="110"/>
-      <c r="BB15" s="109"/>
-      <c r="BC15" s="110"/>
+      <c r="AZ15" s="109"/>
+      <c r="BB15" s="110"/>
+      <c r="BC15" s="109"/>
       <c r="BD15" s="110"/>
       <c r="BE15" s="110"/>
-      <c r="BF15" s="109"/>
+      <c r="BF15" s="110"/>
       <c r="BG15" s="109"/>
-      <c r="BI15" s="109"/>
-      <c r="BK15" s="104" t="str">
+      <c r="BH15" s="109"/>
+      <c r="BJ15" s="109"/>
+      <c r="BL15" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL15" s="109"/>
       <c r="BM15" s="109"/>
       <c r="BN15" s="109"/>
       <c r="BO15" s="109"/>
@@ -7434,16 +7524,17 @@
       <c r="DA15" s="109"/>
       <c r="DB15" s="109"/>
       <c r="DC15" s="109"/>
-      <c r="DE15" s="104" t="str">
+      <c r="DD15" s="109"/>
+      <c r="DF15" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF15" s="104" t="str">
+      <c r="DG15" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:112" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="84"/>
       <c r="D16" s="84"/>
       <c r="F16" s="84"/>
@@ -7493,29 +7584,29 @@
       <c r="AP16" s="109"/>
       <c r="AQ16" s="109"/>
       <c r="AR16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="110"/>
+      <c r="AS16" s="109"/>
+      <c r="AU16" s="109"/>
       <c r="AV16" s="110"/>
-      <c r="AW16" s="109"/>
+      <c r="AW16" s="110"/>
       <c r="AX16" s="109"/>
       <c r="AY16" s="109"/>
-      <c r="BA16" s="110"/>
-      <c r="BB16" s="109"/>
-      <c r="BC16" s="110"/>
+      <c r="AZ16" s="109"/>
+      <c r="BB16" s="110"/>
+      <c r="BC16" s="109"/>
       <c r="BD16" s="110"/>
       <c r="BE16" s="110"/>
-      <c r="BF16" s="109"/>
+      <c r="BF16" s="110"/>
       <c r="BG16" s="109"/>
-      <c r="BH16" s="101" t="str">
+      <c r="BH16" s="109"/>
+      <c r="BI16" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI16" s="109"/>
-      <c r="BK16" s="104" t="str">
+      <c r="BJ16" s="109"/>
+      <c r="BL16" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL16" s="109"/>
       <c r="BM16" s="109"/>
       <c r="BN16" s="109"/>
       <c r="BO16" s="109"/>
@@ -7559,16 +7650,17 @@
       <c r="DA16" s="109"/>
       <c r="DB16" s="109"/>
       <c r="DC16" s="109"/>
-      <c r="DE16" s="104" t="str">
+      <c r="DD16" s="109"/>
+      <c r="DF16" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF16" s="104" t="str">
+      <c r="DG16" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="83"/>
       <c r="C17" s="86"/>
@@ -7620,29 +7712,29 @@
       <c r="AP17" s="109"/>
       <c r="AQ17" s="109"/>
       <c r="AR17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="110"/>
+      <c r="AS17" s="109"/>
+      <c r="AU17" s="109"/>
       <c r="AV17" s="110"/>
-      <c r="AW17" s="109"/>
+      <c r="AW17" s="110"/>
       <c r="AX17" s="109"/>
       <c r="AY17" s="109"/>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="109"/>
-      <c r="BC17" s="110"/>
+      <c r="AZ17" s="109"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="109"/>
       <c r="BD17" s="110"/>
       <c r="BE17" s="110"/>
-      <c r="BF17" s="109"/>
+      <c r="BF17" s="110"/>
       <c r="BG17" s="109"/>
-      <c r="BH17" s="101" t="str">
+      <c r="BH17" s="109"/>
+      <c r="BI17" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI17" s="109"/>
-      <c r="BK17" s="104" t="str">
+      <c r="BJ17" s="109"/>
+      <c r="BL17" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL17" s="109"/>
       <c r="BM17" s="109"/>
       <c r="BN17" s="109"/>
       <c r="BO17" s="109"/>
@@ -7686,16 +7778,17 @@
       <c r="DA17" s="109"/>
       <c r="DB17" s="109"/>
       <c r="DC17" s="109"/>
-      <c r="DE17" s="104" t="str">
+      <c r="DD17" s="109"/>
+      <c r="DF17" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF17" s="104" t="str">
+      <c r="DG17" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="84"/>
       <c r="D18" s="84"/>
       <c r="F18" s="84"/>
@@ -7745,29 +7838,29 @@
       <c r="AP18" s="109"/>
       <c r="AQ18" s="109"/>
       <c r="AR18" s="109"/>
-      <c r="AT18" s="109"/>
-      <c r="AU18" s="110"/>
+      <c r="AS18" s="109"/>
+      <c r="AU18" s="109"/>
       <c r="AV18" s="110"/>
-      <c r="AW18" s="109"/>
+      <c r="AW18" s="110"/>
       <c r="AX18" s="109"/>
       <c r="AY18" s="109"/>
-      <c r="BA18" s="110"/>
-      <c r="BB18" s="109"/>
-      <c r="BC18" s="110"/>
+      <c r="AZ18" s="109"/>
+      <c r="BB18" s="110"/>
+      <c r="BC18" s="109"/>
       <c r="BD18" s="110"/>
       <c r="BE18" s="110"/>
-      <c r="BF18" s="109"/>
+      <c r="BF18" s="110"/>
       <c r="BG18" s="109"/>
-      <c r="BH18" s="101" t="str">
+      <c r="BH18" s="109"/>
+      <c r="BI18" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI18" s="109"/>
-      <c r="BK18" s="104" t="str">
+      <c r="BJ18" s="109"/>
+      <c r="BL18" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL18" s="109"/>
       <c r="BM18" s="109"/>
       <c r="BN18" s="109"/>
       <c r="BO18" s="109"/>
@@ -7811,16 +7904,17 @@
       <c r="DA18" s="109"/>
       <c r="DB18" s="109"/>
       <c r="DC18" s="109"/>
-      <c r="DE18" s="104" t="str">
+      <c r="DD18" s="109"/>
+      <c r="DF18" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF18" s="104" t="str">
+      <c r="DG18" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86"/>
       <c r="B19" s="84"/>
       <c r="C19" s="86"/>
@@ -7871,29 +7965,29 @@
       <c r="AP19" s="109"/>
       <c r="AQ19" s="109"/>
       <c r="AR19" s="109"/>
-      <c r="AT19" s="109"/>
-      <c r="AU19" s="110"/>
+      <c r="AS19" s="109"/>
+      <c r="AU19" s="109"/>
       <c r="AV19" s="110"/>
-      <c r="AW19" s="109"/>
+      <c r="AW19" s="110"/>
       <c r="AX19" s="109"/>
       <c r="AY19" s="109"/>
-      <c r="BA19" s="110"/>
-      <c r="BB19" s="109"/>
-      <c r="BC19" s="110"/>
+      <c r="AZ19" s="109"/>
+      <c r="BB19" s="110"/>
+      <c r="BC19" s="109"/>
       <c r="BD19" s="110"/>
       <c r="BE19" s="110"/>
-      <c r="BF19" s="109"/>
+      <c r="BF19" s="110"/>
       <c r="BG19" s="109"/>
-      <c r="BH19" s="101" t="str">
+      <c r="BH19" s="109"/>
+      <c r="BI19" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI19" s="109"/>
-      <c r="BK19" s="104" t="str">
+      <c r="BJ19" s="109"/>
+      <c r="BL19" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL19" s="109"/>
       <c r="BM19" s="109"/>
       <c r="BN19" s="109"/>
       <c r="BO19" s="109"/>
@@ -7937,16 +8031,17 @@
       <c r="DA19" s="109"/>
       <c r="DB19" s="109"/>
       <c r="DC19" s="109"/>
-      <c r="DE19" s="104" t="str">
+      <c r="DD19" s="109"/>
+      <c r="DF19" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF19" s="104" t="str">
+      <c r="DG19" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="84"/>
       <c r="D20" s="84"/>
       <c r="F20" s="84"/>
@@ -7995,29 +8090,29 @@
       <c r="AP20" s="109"/>
       <c r="AQ20" s="109"/>
       <c r="AR20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="110"/>
+      <c r="AS20" s="109"/>
+      <c r="AU20" s="109"/>
       <c r="AV20" s="110"/>
-      <c r="AW20" s="109"/>
+      <c r="AW20" s="110"/>
       <c r="AX20" s="109"/>
       <c r="AY20" s="109"/>
-      <c r="BA20" s="110"/>
-      <c r="BB20" s="109"/>
-      <c r="BC20" s="110"/>
+      <c r="AZ20" s="109"/>
+      <c r="BB20" s="110"/>
+      <c r="BC20" s="109"/>
       <c r="BD20" s="110"/>
       <c r="BE20" s="110"/>
-      <c r="BF20" s="109"/>
+      <c r="BF20" s="110"/>
       <c r="BG20" s="109"/>
-      <c r="BH20" s="101" t="str">
+      <c r="BH20" s="109"/>
+      <c r="BI20" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI20" s="109"/>
-      <c r="BK20" s="104" t="str">
+      <c r="BJ20" s="109"/>
+      <c r="BL20" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL20" s="109"/>
       <c r="BM20" s="109"/>
       <c r="BN20" s="109"/>
       <c r="BO20" s="109"/>
@@ -8061,16 +8156,17 @@
       <c r="DA20" s="109"/>
       <c r="DB20" s="109"/>
       <c r="DC20" s="109"/>
-      <c r="DE20" s="104" t="str">
+      <c r="DD20" s="109"/>
+      <c r="DF20" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF20" s="104" t="str">
+      <c r="DG20" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="86"/>
       <c r="B21" s="84"/>
       <c r="C21" s="86"/>
@@ -8121,29 +8217,29 @@
       <c r="AP21" s="109"/>
       <c r="AQ21" s="109"/>
       <c r="AR21" s="109"/>
-      <c r="AT21" s="109"/>
-      <c r="AU21" s="110"/>
+      <c r="AS21" s="109"/>
+      <c r="AU21" s="109"/>
       <c r="AV21" s="110"/>
-      <c r="AW21" s="109"/>
+      <c r="AW21" s="110"/>
       <c r="AX21" s="109"/>
       <c r="AY21" s="109"/>
-      <c r="BA21" s="110"/>
-      <c r="BB21" s="109"/>
-      <c r="BC21" s="110"/>
+      <c r="AZ21" s="109"/>
+      <c r="BB21" s="110"/>
+      <c r="BC21" s="109"/>
       <c r="BD21" s="110"/>
       <c r="BE21" s="110"/>
-      <c r="BF21" s="109"/>
+      <c r="BF21" s="110"/>
       <c r="BG21" s="109"/>
-      <c r="BH21" s="101" t="str">
+      <c r="BH21" s="109"/>
+      <c r="BI21" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI21" s="109"/>
-      <c r="BK21" s="104" t="str">
+      <c r="BJ21" s="109"/>
+      <c r="BL21" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL21" s="109"/>
       <c r="BM21" s="109"/>
       <c r="BN21" s="109"/>
       <c r="BO21" s="109"/>
@@ -8187,16 +8283,17 @@
       <c r="DA21" s="109"/>
       <c r="DB21" s="109"/>
       <c r="DC21" s="109"/>
-      <c r="DE21" s="104" t="str">
+      <c r="DD21" s="109"/>
+      <c r="DF21" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF21" s="104" t="str">
+      <c r="DG21" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="86"/>
       <c r="B22" s="84"/>
       <c r="C22" s="86"/>
@@ -8248,29 +8345,29 @@
       <c r="AP22" s="109"/>
       <c r="AQ22" s="109"/>
       <c r="AR22" s="109"/>
-      <c r="AT22" s="109"/>
-      <c r="AU22" s="110"/>
+      <c r="AS22" s="109"/>
+      <c r="AU22" s="109"/>
       <c r="AV22" s="110"/>
-      <c r="AW22" s="109"/>
+      <c r="AW22" s="110"/>
       <c r="AX22" s="109"/>
       <c r="AY22" s="109"/>
-      <c r="BA22" s="110"/>
-      <c r="BB22" s="109"/>
-      <c r="BC22" s="110"/>
+      <c r="AZ22" s="109"/>
+      <c r="BB22" s="110"/>
+      <c r="BC22" s="109"/>
       <c r="BD22" s="110"/>
       <c r="BE22" s="110"/>
-      <c r="BF22" s="109"/>
+      <c r="BF22" s="110"/>
       <c r="BG22" s="109"/>
-      <c r="BH22" s="101" t="str">
+      <c r="BH22" s="109"/>
+      <c r="BI22" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI22" s="109"/>
-      <c r="BK22" s="104" t="str">
+      <c r="BJ22" s="109"/>
+      <c r="BL22" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL22" s="109"/>
       <c r="BM22" s="109"/>
       <c r="BN22" s="109"/>
       <c r="BO22" s="109"/>
@@ -8314,16 +8411,17 @@
       <c r="DA22" s="109"/>
       <c r="DB22" s="109"/>
       <c r="DC22" s="109"/>
-      <c r="DE22" s="104" t="str">
+      <c r="DD22" s="109"/>
+      <c r="DF22" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF22" s="104" t="str">
+      <c r="DG22" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86"/>
       <c r="B23" s="84"/>
       <c r="C23" s="86"/>
@@ -8374,29 +8472,29 @@
       <c r="AP23" s="109"/>
       <c r="AQ23" s="109"/>
       <c r="AR23" s="109"/>
-      <c r="AT23" s="109"/>
-      <c r="AU23" s="110"/>
+      <c r="AS23" s="109"/>
+      <c r="AU23" s="109"/>
       <c r="AV23" s="110"/>
-      <c r="AW23" s="109"/>
+      <c r="AW23" s="110"/>
       <c r="AX23" s="109"/>
       <c r="AY23" s="109"/>
-      <c r="BA23" s="110"/>
-      <c r="BB23" s="109"/>
-      <c r="BC23" s="110"/>
+      <c r="AZ23" s="109"/>
+      <c r="BB23" s="110"/>
+      <c r="BC23" s="109"/>
       <c r="BD23" s="110"/>
       <c r="BE23" s="110"/>
-      <c r="BF23" s="109"/>
+      <c r="BF23" s="110"/>
       <c r="BG23" s="109"/>
-      <c r="BH23" s="101" t="str">
+      <c r="BH23" s="109"/>
+      <c r="BI23" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI23" s="109"/>
-      <c r="BK23" s="104" t="str">
+      <c r="BJ23" s="109"/>
+      <c r="BL23" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL23" s="109"/>
       <c r="BM23" s="109"/>
       <c r="BN23" s="109"/>
       <c r="BO23" s="109"/>
@@ -8440,16 +8538,17 @@
       <c r="DA23" s="109"/>
       <c r="DB23" s="109"/>
       <c r="DC23" s="109"/>
-      <c r="DE23" s="104" t="str">
+      <c r="DD23" s="109"/>
+      <c r="DF23" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF23" s="104" t="str">
+      <c r="DG23" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="86"/>
       <c r="B24" s="84"/>
       <c r="C24" s="86"/>
@@ -8501,29 +8600,29 @@
       <c r="AP24" s="109"/>
       <c r="AQ24" s="109"/>
       <c r="AR24" s="109"/>
-      <c r="AT24" s="109"/>
-      <c r="AU24" s="110"/>
+      <c r="AS24" s="109"/>
+      <c r="AU24" s="109"/>
       <c r="AV24" s="110"/>
-      <c r="AW24" s="109"/>
+      <c r="AW24" s="110"/>
       <c r="AX24" s="109"/>
       <c r="AY24" s="109"/>
-      <c r="BA24" s="110"/>
-      <c r="BB24" s="109"/>
-      <c r="BC24" s="110"/>
+      <c r="AZ24" s="109"/>
+      <c r="BB24" s="110"/>
+      <c r="BC24" s="109"/>
       <c r="BD24" s="110"/>
       <c r="BE24" s="110"/>
-      <c r="BF24" s="109"/>
+      <c r="BF24" s="110"/>
       <c r="BG24" s="109"/>
-      <c r="BH24" s="101" t="str">
+      <c r="BH24" s="109"/>
+      <c r="BI24" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI24" s="109"/>
-      <c r="BK24" s="104" t="str">
+      <c r="BJ24" s="109"/>
+      <c r="BL24" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL24" s="109"/>
       <c r="BM24" s="109"/>
       <c r="BN24" s="109"/>
       <c r="BO24" s="109"/>
@@ -8567,16 +8666,17 @@
       <c r="DA24" s="109"/>
       <c r="DB24" s="109"/>
       <c r="DC24" s="109"/>
-      <c r="DE24" s="104" t="str">
+      <c r="DD24" s="109"/>
+      <c r="DF24" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF24" s="104" t="str">
+      <c r="DG24" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q25" s="109"/>
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
@@ -8616,29 +8716,29 @@
       <c r="AP25" s="109"/>
       <c r="AQ25" s="109"/>
       <c r="AR25" s="109"/>
-      <c r="AT25" s="109"/>
-      <c r="AU25" s="110"/>
+      <c r="AS25" s="109"/>
+      <c r="AU25" s="109"/>
       <c r="AV25" s="110"/>
-      <c r="AW25" s="109"/>
+      <c r="AW25" s="110"/>
       <c r="AX25" s="109"/>
       <c r="AY25" s="109"/>
-      <c r="BA25" s="110"/>
-      <c r="BB25" s="109"/>
-      <c r="BC25" s="110"/>
+      <c r="AZ25" s="109"/>
+      <c r="BB25" s="110"/>
+      <c r="BC25" s="109"/>
       <c r="BD25" s="110"/>
       <c r="BE25" s="110"/>
-      <c r="BF25" s="109"/>
+      <c r="BF25" s="110"/>
       <c r="BG25" s="109"/>
-      <c r="BH25" s="101" t="str">
+      <c r="BH25" s="109"/>
+      <c r="BI25" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI25" s="109"/>
-      <c r="BK25" s="104" t="str">
+      <c r="BJ25" s="109"/>
+      <c r="BL25" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL25" s="109"/>
       <c r="BM25" s="109"/>
       <c r="BN25" s="109"/>
       <c r="BO25" s="109"/>
@@ -8682,16 +8782,17 @@
       <c r="DA25" s="109"/>
       <c r="DB25" s="109"/>
       <c r="DC25" s="109"/>
-      <c r="DE25" s="104" t="str">
+      <c r="DD25" s="109"/>
+      <c r="DF25" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF25" s="104" t="str">
+      <c r="DG25" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="89"/>
       <c r="B26" s="90"/>
       <c r="C26" s="89"/>
@@ -8744,29 +8845,29 @@
       <c r="AP26" s="109"/>
       <c r="AQ26" s="109"/>
       <c r="AR26" s="109"/>
-      <c r="AT26" s="109"/>
-      <c r="AU26" s="110"/>
+      <c r="AS26" s="109"/>
+      <c r="AU26" s="109"/>
       <c r="AV26" s="110"/>
-      <c r="AW26" s="109"/>
+      <c r="AW26" s="110"/>
       <c r="AX26" s="109"/>
       <c r="AY26" s="109"/>
-      <c r="BA26" s="110"/>
-      <c r="BB26" s="109"/>
-      <c r="BC26" s="110"/>
+      <c r="AZ26" s="109"/>
+      <c r="BB26" s="110"/>
+      <c r="BC26" s="109"/>
       <c r="BD26" s="110"/>
       <c r="BE26" s="110"/>
-      <c r="BF26" s="109"/>
+      <c r="BF26" s="110"/>
       <c r="BG26" s="109"/>
-      <c r="BH26" s="101" t="str">
+      <c r="BH26" s="109"/>
+      <c r="BI26" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI26" s="109"/>
-      <c r="BK26" s="104" t="str">
+      <c r="BJ26" s="109"/>
+      <c r="BL26" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL26" s="109"/>
       <c r="BM26" s="109"/>
       <c r="BN26" s="109"/>
       <c r="BO26" s="109"/>
@@ -8810,16 +8911,17 @@
       <c r="DA26" s="109"/>
       <c r="DB26" s="109"/>
       <c r="DC26" s="109"/>
-      <c r="DE26" s="104" t="str">
+      <c r="DD26" s="109"/>
+      <c r="DF26" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF26" s="104" t="str">
+      <c r="DG26" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="83"/>
       <c r="D27" s="83"/>
       <c r="F27" s="83"/>
@@ -8868,29 +8970,29 @@
       <c r="AP27" s="109"/>
       <c r="AQ27" s="109"/>
       <c r="AR27" s="109"/>
-      <c r="AT27" s="109"/>
-      <c r="AU27" s="110"/>
+      <c r="AS27" s="109"/>
+      <c r="AU27" s="109"/>
       <c r="AV27" s="110"/>
-      <c r="AW27" s="109"/>
+      <c r="AW27" s="110"/>
       <c r="AX27" s="109"/>
       <c r="AY27" s="109"/>
-      <c r="BA27" s="110"/>
-      <c r="BB27" s="109"/>
-      <c r="BC27" s="110"/>
+      <c r="AZ27" s="109"/>
+      <c r="BB27" s="110"/>
+      <c r="BC27" s="109"/>
       <c r="BD27" s="110"/>
       <c r="BE27" s="110"/>
-      <c r="BF27" s="109"/>
+      <c r="BF27" s="110"/>
       <c r="BG27" s="109"/>
-      <c r="BH27" s="101" t="str">
+      <c r="BH27" s="109"/>
+      <c r="BI27" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI27" s="109"/>
-      <c r="BK27" s="104" t="str">
+      <c r="BJ27" s="109"/>
+      <c r="BL27" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL27" s="109"/>
       <c r="BM27" s="109"/>
       <c r="BN27" s="109"/>
       <c r="BO27" s="109"/>
@@ -8934,16 +9036,17 @@
       <c r="DA27" s="109"/>
       <c r="DB27" s="109"/>
       <c r="DC27" s="109"/>
-      <c r="DE27" s="104" t="str">
+      <c r="DD27" s="109"/>
+      <c r="DF27" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF27" s="104" t="str">
+      <c r="DG27" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86"/>
       <c r="B28" s="84"/>
       <c r="C28" s="86"/>
@@ -8996,29 +9099,29 @@
       <c r="AP28" s="109"/>
       <c r="AQ28" s="109"/>
       <c r="AR28" s="109"/>
-      <c r="AT28" s="109"/>
-      <c r="AU28" s="110"/>
+      <c r="AS28" s="109"/>
+      <c r="AU28" s="109"/>
       <c r="AV28" s="110"/>
-      <c r="AW28" s="109"/>
+      <c r="AW28" s="110"/>
       <c r="AX28" s="109"/>
       <c r="AY28" s="109"/>
-      <c r="BA28" s="110"/>
-      <c r="BB28" s="109"/>
-      <c r="BC28" s="110"/>
+      <c r="AZ28" s="109"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="109"/>
       <c r="BD28" s="110"/>
       <c r="BE28" s="110"/>
-      <c r="BF28" s="109"/>
+      <c r="BF28" s="110"/>
       <c r="BG28" s="109"/>
-      <c r="BH28" s="101" t="str">
+      <c r="BH28" s="109"/>
+      <c r="BI28" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI28" s="109"/>
-      <c r="BK28" s="104" t="str">
+      <c r="BJ28" s="109"/>
+      <c r="BL28" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL28" s="109"/>
       <c r="BM28" s="109"/>
       <c r="BN28" s="109"/>
       <c r="BO28" s="109"/>
@@ -9062,16 +9165,17 @@
       <c r="DA28" s="109"/>
       <c r="DB28" s="109"/>
       <c r="DC28" s="109"/>
-      <c r="DE28" s="104" t="str">
+      <c r="DD28" s="109"/>
+      <c r="DF28" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF28" s="104" t="str">
+      <c r="DG28" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="86"/>
       <c r="B29" s="84"/>
       <c r="C29" s="86"/>
@@ -9123,29 +9227,29 @@
       <c r="AP29" s="109"/>
       <c r="AQ29" s="109"/>
       <c r="AR29" s="109"/>
-      <c r="AT29" s="109"/>
-      <c r="AU29" s="110"/>
+      <c r="AS29" s="109"/>
+      <c r="AU29" s="109"/>
       <c r="AV29" s="110"/>
-      <c r="AW29" s="109"/>
+      <c r="AW29" s="110"/>
       <c r="AX29" s="109"/>
       <c r="AY29" s="109"/>
-      <c r="BA29" s="110"/>
-      <c r="BB29" s="109"/>
-      <c r="BC29" s="110"/>
+      <c r="AZ29" s="109"/>
+      <c r="BB29" s="110"/>
+      <c r="BC29" s="109"/>
       <c r="BD29" s="110"/>
       <c r="BE29" s="110"/>
-      <c r="BF29" s="109"/>
+      <c r="BF29" s="110"/>
       <c r="BG29" s="109"/>
-      <c r="BH29" s="101" t="str">
+      <c r="BH29" s="109"/>
+      <c r="BI29" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI29" s="109"/>
-      <c r="BK29" s="104" t="str">
+      <c r="BJ29" s="109"/>
+      <c r="BL29" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL29" s="109"/>
       <c r="BM29" s="109"/>
       <c r="BN29" s="109"/>
       <c r="BO29" s="109"/>
@@ -9189,16 +9293,17 @@
       <c r="DA29" s="109"/>
       <c r="DB29" s="109"/>
       <c r="DC29" s="109"/>
-      <c r="DE29" s="104" t="str">
+      <c r="DD29" s="109"/>
+      <c r="DF29" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF29" s="104" t="str">
+      <c r="DG29" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="86"/>
       <c r="B30" s="84"/>
       <c r="C30" s="86"/>
@@ -9251,29 +9356,29 @@
       <c r="AP30" s="109"/>
       <c r="AQ30" s="109"/>
       <c r="AR30" s="109"/>
-      <c r="AT30" s="109"/>
-      <c r="AU30" s="110"/>
+      <c r="AS30" s="109"/>
+      <c r="AU30" s="109"/>
       <c r="AV30" s="110"/>
-      <c r="AW30" s="109"/>
+      <c r="AW30" s="110"/>
       <c r="AX30" s="109"/>
       <c r="AY30" s="109"/>
-      <c r="BA30" s="110"/>
-      <c r="BB30" s="109"/>
-      <c r="BC30" s="110"/>
+      <c r="AZ30" s="109"/>
+      <c r="BB30" s="110"/>
+      <c r="BC30" s="109"/>
       <c r="BD30" s="110"/>
       <c r="BE30" s="110"/>
-      <c r="BF30" s="109"/>
+      <c r="BF30" s="110"/>
       <c r="BG30" s="109"/>
-      <c r="BH30" s="101" t="str">
+      <c r="BH30" s="109"/>
+      <c r="BI30" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI30" s="109"/>
-      <c r="BK30" s="104" t="str">
+      <c r="BJ30" s="109"/>
+      <c r="BL30" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL30" s="109"/>
       <c r="BM30" s="109"/>
       <c r="BN30" s="109"/>
       <c r="BO30" s="109"/>
@@ -9317,16 +9422,17 @@
       <c r="DA30" s="109"/>
       <c r="DB30" s="109"/>
       <c r="DC30" s="109"/>
-      <c r="DE30" s="104" t="str">
+      <c r="DD30" s="109"/>
+      <c r="DF30" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF30" s="104" t="str">
+      <c r="DG30" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="86"/>
       <c r="B31" s="83"/>
       <c r="C31" s="86"/>
@@ -9378,29 +9484,29 @@
       <c r="AP31" s="109"/>
       <c r="AQ31" s="109"/>
       <c r="AR31" s="109"/>
-      <c r="AT31" s="109"/>
-      <c r="AU31" s="110"/>
+      <c r="AS31" s="109"/>
+      <c r="AU31" s="109"/>
       <c r="AV31" s="110"/>
-      <c r="AW31" s="109"/>
+      <c r="AW31" s="110"/>
       <c r="AX31" s="109"/>
       <c r="AY31" s="109"/>
-      <c r="BA31" s="110"/>
-      <c r="BB31" s="109"/>
-      <c r="BC31" s="110"/>
+      <c r="AZ31" s="109"/>
+      <c r="BB31" s="110"/>
+      <c r="BC31" s="109"/>
       <c r="BD31" s="110"/>
       <c r="BE31" s="110"/>
-      <c r="BF31" s="109"/>
+      <c r="BF31" s="110"/>
       <c r="BG31" s="109"/>
-      <c r="BH31" s="101" t="str">
+      <c r="BH31" s="109"/>
+      <c r="BI31" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI31" s="109"/>
-      <c r="BK31" s="104" t="str">
+      <c r="BJ31" s="109"/>
+      <c r="BL31" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL31" s="109"/>
       <c r="BM31" s="109"/>
       <c r="BN31" s="109"/>
       <c r="BO31" s="109"/>
@@ -9444,16 +9550,17 @@
       <c r="DA31" s="109"/>
       <c r="DB31" s="109"/>
       <c r="DC31" s="109"/>
-      <c r="DE31" s="104" t="str">
+      <c r="DD31" s="109"/>
+      <c r="DF31" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF31" s="104" t="str">
+      <c r="DG31" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="91"/>
       <c r="D32" s="91"/>
       <c r="F32" s="91"/>
@@ -9503,29 +9610,29 @@
       <c r="AP32" s="109"/>
       <c r="AQ32" s="109"/>
       <c r="AR32" s="109"/>
-      <c r="AT32" s="109"/>
-      <c r="AU32" s="110"/>
+      <c r="AS32" s="109"/>
+      <c r="AU32" s="109"/>
       <c r="AV32" s="110"/>
-      <c r="AW32" s="109"/>
+      <c r="AW32" s="110"/>
       <c r="AX32" s="109"/>
       <c r="AY32" s="109"/>
-      <c r="BA32" s="110"/>
-      <c r="BB32" s="109"/>
-      <c r="BC32" s="110"/>
+      <c r="AZ32" s="109"/>
+      <c r="BB32" s="110"/>
+      <c r="BC32" s="109"/>
       <c r="BD32" s="110"/>
       <c r="BE32" s="110"/>
-      <c r="BF32" s="109"/>
+      <c r="BF32" s="110"/>
       <c r="BG32" s="109"/>
-      <c r="BH32" s="101" t="str">
+      <c r="BH32" s="109"/>
+      <c r="BI32" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI32" s="109"/>
-      <c r="BK32" s="104" t="str">
+      <c r="BJ32" s="109"/>
+      <c r="BL32" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL32" s="109"/>
       <c r="BM32" s="109"/>
       <c r="BN32" s="109"/>
       <c r="BO32" s="109"/>
@@ -9569,16 +9676,17 @@
       <c r="DA32" s="109"/>
       <c r="DB32" s="109"/>
       <c r="DC32" s="109"/>
-      <c r="DE32" s="104" t="str">
+      <c r="DD32" s="109"/>
+      <c r="DF32" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF32" s="104" t="str">
+      <c r="DG32" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q33" s="109"/>
       <c r="R33" s="109"/>
       <c r="S33" s="109"/>
@@ -9618,29 +9726,29 @@
       <c r="AP33" s="109"/>
       <c r="AQ33" s="109"/>
       <c r="AR33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="110"/>
+      <c r="AS33" s="109"/>
+      <c r="AU33" s="109"/>
       <c r="AV33" s="110"/>
-      <c r="AW33" s="109"/>
+      <c r="AW33" s="110"/>
       <c r="AX33" s="109"/>
       <c r="AY33" s="109"/>
-      <c r="BA33" s="110"/>
-      <c r="BB33" s="109"/>
-      <c r="BC33" s="110"/>
+      <c r="AZ33" s="109"/>
+      <c r="BB33" s="110"/>
+      <c r="BC33" s="109"/>
       <c r="BD33" s="110"/>
       <c r="BE33" s="110"/>
-      <c r="BF33" s="109"/>
+      <c r="BF33" s="110"/>
       <c r="BG33" s="109"/>
-      <c r="BH33" s="101" t="str">
+      <c r="BH33" s="109"/>
+      <c r="BI33" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI33" s="109"/>
-      <c r="BK33" s="104" t="str">
+      <c r="BJ33" s="109"/>
+      <c r="BL33" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL33" s="109"/>
       <c r="BM33" s="109"/>
       <c r="BN33" s="109"/>
       <c r="BO33" s="109"/>
@@ -9684,16 +9792,17 @@
       <c r="DA33" s="109"/>
       <c r="DB33" s="109"/>
       <c r="DC33" s="109"/>
-      <c r="DE33" s="104" t="str">
+      <c r="DD33" s="109"/>
+      <c r="DF33" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF33" s="104" t="str">
+      <c r="DG33" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="89"/>
       <c r="B34" s="90"/>
       <c r="C34" s="89"/>
@@ -9745,29 +9854,29 @@
       <c r="AP34" s="109"/>
       <c r="AQ34" s="109"/>
       <c r="AR34" s="109"/>
-      <c r="AT34" s="109"/>
-      <c r="AU34" s="110"/>
+      <c r="AS34" s="109"/>
+      <c r="AU34" s="109"/>
       <c r="AV34" s="110"/>
-      <c r="AW34" s="109"/>
+      <c r="AW34" s="110"/>
       <c r="AX34" s="109"/>
       <c r="AY34" s="109"/>
-      <c r="BA34" s="110"/>
-      <c r="BB34" s="109"/>
-      <c r="BC34" s="110"/>
+      <c r="AZ34" s="109"/>
+      <c r="BB34" s="110"/>
+      <c r="BC34" s="109"/>
       <c r="BD34" s="110"/>
       <c r="BE34" s="110"/>
-      <c r="BF34" s="109"/>
+      <c r="BF34" s="110"/>
       <c r="BG34" s="109"/>
-      <c r="BH34" s="101" t="str">
+      <c r="BH34" s="109"/>
+      <c r="BI34" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI34" s="109"/>
-      <c r="BK34" s="104" t="str">
+      <c r="BJ34" s="109"/>
+      <c r="BL34" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL34" s="109"/>
       <c r="BM34" s="109"/>
       <c r="BN34" s="109"/>
       <c r="BO34" s="109"/>
@@ -9811,16 +9920,17 @@
       <c r="DA34" s="109"/>
       <c r="DB34" s="109"/>
       <c r="DC34" s="109"/>
-      <c r="DE34" s="104" t="str">
+      <c r="DD34" s="109"/>
+      <c r="DF34" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF34" s="104" t="str">
+      <c r="DG34" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="83"/>
       <c r="D35" s="83"/>
       <c r="E35" s="93"/>
@@ -9871,29 +9981,29 @@
       <c r="AP35" s="109"/>
       <c r="AQ35" s="109"/>
       <c r="AR35" s="109"/>
-      <c r="AT35" s="109"/>
-      <c r="AU35" s="110"/>
+      <c r="AS35" s="109"/>
+      <c r="AU35" s="109"/>
       <c r="AV35" s="110"/>
-      <c r="AW35" s="109"/>
+      <c r="AW35" s="110"/>
       <c r="AX35" s="109"/>
       <c r="AY35" s="109"/>
-      <c r="BA35" s="110"/>
-      <c r="BB35" s="109"/>
-      <c r="BC35" s="110"/>
+      <c r="AZ35" s="109"/>
+      <c r="BB35" s="110"/>
+      <c r="BC35" s="109"/>
       <c r="BD35" s="110"/>
       <c r="BE35" s="110"/>
-      <c r="BF35" s="109"/>
+      <c r="BF35" s="110"/>
       <c r="BG35" s="109"/>
-      <c r="BH35" s="101" t="str">
+      <c r="BH35" s="109"/>
+      <c r="BI35" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI35" s="109"/>
-      <c r="BK35" s="104" t="str">
+      <c r="BJ35" s="109"/>
+      <c r="BL35" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL35" s="109"/>
       <c r="BM35" s="109"/>
       <c r="BN35" s="109"/>
       <c r="BO35" s="109"/>
@@ -9937,16 +10047,17 @@
       <c r="DA35" s="109"/>
       <c r="DB35" s="109"/>
       <c r="DC35" s="109"/>
-      <c r="DE35" s="104" t="str">
+      <c r="DD35" s="109"/>
+      <c r="DF35" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF35" s="104" t="str">
+      <c r="DG35" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="86"/>
       <c r="B36" s="84"/>
       <c r="C36" s="86"/>
@@ -10001,29 +10112,29 @@
       <c r="AP36" s="109"/>
       <c r="AQ36" s="109"/>
       <c r="AR36" s="109"/>
-      <c r="AT36" s="109"/>
-      <c r="AU36" s="110"/>
+      <c r="AS36" s="109"/>
+      <c r="AU36" s="109"/>
       <c r="AV36" s="110"/>
-      <c r="AW36" s="109"/>
+      <c r="AW36" s="110"/>
       <c r="AX36" s="109"/>
       <c r="AY36" s="109"/>
-      <c r="BA36" s="110"/>
-      <c r="BB36" s="109"/>
-      <c r="BC36" s="110"/>
+      <c r="AZ36" s="109"/>
+      <c r="BB36" s="110"/>
+      <c r="BC36" s="109"/>
       <c r="BD36" s="110"/>
       <c r="BE36" s="110"/>
-      <c r="BF36" s="109"/>
+      <c r="BF36" s="110"/>
       <c r="BG36" s="109"/>
-      <c r="BH36" s="101" t="str">
+      <c r="BH36" s="109"/>
+      <c r="BI36" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI36" s="109"/>
-      <c r="BK36" s="104" t="str">
+      <c r="BJ36" s="109"/>
+      <c r="BL36" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL36" s="109"/>
       <c r="BM36" s="109"/>
       <c r="BN36" s="109"/>
       <c r="BO36" s="109"/>
@@ -10067,16 +10178,17 @@
       <c r="DA36" s="109"/>
       <c r="DB36" s="109"/>
       <c r="DC36" s="109"/>
-      <c r="DE36" s="104" t="str">
+      <c r="DD36" s="109"/>
+      <c r="DF36" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF36" s="104" t="str">
+      <c r="DG36" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="86"/>
       <c r="B37" s="84"/>
       <c r="C37" s="86"/>
@@ -10130,29 +10242,29 @@
       <c r="AP37" s="109"/>
       <c r="AQ37" s="109"/>
       <c r="AR37" s="109"/>
-      <c r="AT37" s="109"/>
-      <c r="AU37" s="110"/>
+      <c r="AS37" s="109"/>
+      <c r="AU37" s="109"/>
       <c r="AV37" s="110"/>
-      <c r="AW37" s="109"/>
+      <c r="AW37" s="110"/>
       <c r="AX37" s="109"/>
       <c r="AY37" s="109"/>
-      <c r="BA37" s="110"/>
-      <c r="BB37" s="109"/>
-      <c r="BC37" s="110"/>
+      <c r="AZ37" s="109"/>
+      <c r="BB37" s="110"/>
+      <c r="BC37" s="109"/>
       <c r="BD37" s="110"/>
       <c r="BE37" s="110"/>
-      <c r="BF37" s="109"/>
+      <c r="BF37" s="110"/>
       <c r="BG37" s="109"/>
-      <c r="BH37" s="101" t="str">
+      <c r="BH37" s="109"/>
+      <c r="BI37" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI37" s="109"/>
-      <c r="BK37" s="104" t="str">
+      <c r="BJ37" s="109"/>
+      <c r="BL37" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL37" s="109"/>
       <c r="BM37" s="109"/>
       <c r="BN37" s="109"/>
       <c r="BO37" s="109"/>
@@ -10196,16 +10308,17 @@
       <c r="DA37" s="109"/>
       <c r="DB37" s="109"/>
       <c r="DC37" s="109"/>
-      <c r="DE37" s="104" t="str">
+      <c r="DD37" s="109"/>
+      <c r="DF37" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF37" s="104" t="str">
+      <c r="DG37" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="86"/>
       <c r="B38" s="84"/>
       <c r="C38" s="86"/>
@@ -10260,29 +10373,29 @@
       <c r="AP38" s="109"/>
       <c r="AQ38" s="109"/>
       <c r="AR38" s="109"/>
-      <c r="AT38" s="109"/>
-      <c r="AU38" s="110"/>
+      <c r="AS38" s="109"/>
+      <c r="AU38" s="109"/>
       <c r="AV38" s="110"/>
-      <c r="AW38" s="109"/>
+      <c r="AW38" s="110"/>
       <c r="AX38" s="109"/>
       <c r="AY38" s="109"/>
-      <c r="BA38" s="110"/>
-      <c r="BB38" s="109"/>
-      <c r="BC38" s="110"/>
+      <c r="AZ38" s="109"/>
+      <c r="BB38" s="110"/>
+      <c r="BC38" s="109"/>
       <c r="BD38" s="110"/>
       <c r="BE38" s="110"/>
-      <c r="BF38" s="109"/>
+      <c r="BF38" s="110"/>
       <c r="BG38" s="109"/>
-      <c r="BH38" s="101" t="str">
+      <c r="BH38" s="109"/>
+      <c r="BI38" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI38" s="109"/>
-      <c r="BK38" s="104" t="str">
+      <c r="BJ38" s="109"/>
+      <c r="BL38" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL38" s="109"/>
       <c r="BM38" s="109"/>
       <c r="BN38" s="109"/>
       <c r="BO38" s="109"/>
@@ -10326,16 +10439,17 @@
       <c r="DA38" s="109"/>
       <c r="DB38" s="109"/>
       <c r="DC38" s="109"/>
-      <c r="DE38" s="104" t="str">
+      <c r="DD38" s="109"/>
+      <c r="DF38" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF38" s="104" t="str">
+      <c r="DG38" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="83"/>
       <c r="D39" s="83"/>
       <c r="F39" s="83"/>
@@ -10383,29 +10497,29 @@
       <c r="AP39" s="109"/>
       <c r="AQ39" s="109"/>
       <c r="AR39" s="109"/>
-      <c r="AT39" s="109"/>
-      <c r="AU39" s="110"/>
+      <c r="AS39" s="109"/>
+      <c r="AU39" s="109"/>
       <c r="AV39" s="110"/>
-      <c r="AW39" s="109"/>
+      <c r="AW39" s="110"/>
       <c r="AX39" s="109"/>
       <c r="AY39" s="109"/>
-      <c r="BA39" s="110"/>
-      <c r="BB39" s="109"/>
-      <c r="BC39" s="110"/>
+      <c r="AZ39" s="109"/>
+      <c r="BB39" s="110"/>
+      <c r="BC39" s="109"/>
       <c r="BD39" s="110"/>
       <c r="BE39" s="110"/>
-      <c r="BF39" s="109"/>
+      <c r="BF39" s="110"/>
       <c r="BG39" s="109"/>
-      <c r="BH39" s="101" t="str">
+      <c r="BH39" s="109"/>
+      <c r="BI39" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI39" s="109"/>
-      <c r="BK39" s="104" t="str">
+      <c r="BJ39" s="109"/>
+      <c r="BL39" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL39" s="109"/>
       <c r="BM39" s="109"/>
       <c r="BN39" s="109"/>
       <c r="BO39" s="109"/>
@@ -10449,16 +10563,17 @@
       <c r="DA39" s="109"/>
       <c r="DB39" s="109"/>
       <c r="DC39" s="109"/>
-      <c r="DE39" s="104" t="str">
+      <c r="DD39" s="109"/>
+      <c r="DF39" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF39" s="104" t="str">
+      <c r="DG39" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B40" s="95"/>
       <c r="D40" s="95"/>
       <c r="F40" s="95"/>
@@ -10507,29 +10622,29 @@
       <c r="AP40" s="109"/>
       <c r="AQ40" s="109"/>
       <c r="AR40" s="109"/>
-      <c r="AT40" s="109"/>
-      <c r="AU40" s="110"/>
+      <c r="AS40" s="109"/>
+      <c r="AU40" s="109"/>
       <c r="AV40" s="110"/>
-      <c r="AW40" s="109"/>
+      <c r="AW40" s="110"/>
       <c r="AX40" s="109"/>
       <c r="AY40" s="109"/>
-      <c r="BA40" s="110"/>
-      <c r="BB40" s="109"/>
-      <c r="BC40" s="110"/>
+      <c r="AZ40" s="109"/>
+      <c r="BB40" s="110"/>
+      <c r="BC40" s="109"/>
       <c r="BD40" s="110"/>
       <c r="BE40" s="110"/>
-      <c r="BF40" s="109"/>
+      <c r="BF40" s="110"/>
       <c r="BG40" s="109"/>
-      <c r="BH40" s="101" t="str">
+      <c r="BH40" s="109"/>
+      <c r="BI40" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI40" s="109"/>
-      <c r="BK40" s="104" t="str">
+      <c r="BJ40" s="109"/>
+      <c r="BL40" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL40" s="109"/>
       <c r="BM40" s="109"/>
       <c r="BN40" s="109"/>
       <c r="BO40" s="109"/>
@@ -10573,16 +10688,17 @@
       <c r="DA40" s="109"/>
       <c r="DB40" s="109"/>
       <c r="DC40" s="109"/>
-      <c r="DE40" s="104" t="str">
+      <c r="DD40" s="109"/>
+      <c r="DF40" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF40" s="104" t="str">
+      <c r="DG40" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:111" x14ac:dyDescent="0.2">
       <c r="Q41" s="109"/>
       <c r="R41" s="109"/>
       <c r="S41" s="109"/>
@@ -10622,29 +10738,29 @@
       <c r="AP41" s="109"/>
       <c r="AQ41" s="109"/>
       <c r="AR41" s="109"/>
-      <c r="AT41" s="109"/>
-      <c r="AU41" s="110"/>
+      <c r="AS41" s="109"/>
+      <c r="AU41" s="109"/>
       <c r="AV41" s="110"/>
-      <c r="AW41" s="109"/>
+      <c r="AW41" s="110"/>
       <c r="AX41" s="109"/>
       <c r="AY41" s="109"/>
-      <c r="BA41" s="110"/>
-      <c r="BB41" s="109"/>
-      <c r="BC41" s="110"/>
+      <c r="AZ41" s="109"/>
+      <c r="BB41" s="110"/>
+      <c r="BC41" s="109"/>
       <c r="BD41" s="110"/>
       <c r="BE41" s="110"/>
-      <c r="BF41" s="109"/>
+      <c r="BF41" s="110"/>
       <c r="BG41" s="109"/>
-      <c r="BH41" s="101" t="str">
+      <c r="BH41" s="109"/>
+      <c r="BI41" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI41" s="109"/>
-      <c r="BK41" s="104" t="str">
+      <c r="BJ41" s="109"/>
+      <c r="BL41" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL41" s="109"/>
       <c r="BM41" s="109"/>
       <c r="BN41" s="109"/>
       <c r="BO41" s="109"/>
@@ -10688,16 +10804,17 @@
       <c r="DA41" s="109"/>
       <c r="DB41" s="109"/>
       <c r="DC41" s="109"/>
-      <c r="DE41" s="104" t="str">
+      <c r="DD41" s="109"/>
+      <c r="DF41" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF41" s="104" t="str">
+      <c r="DG41" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="89"/>
       <c r="B42" s="90"/>
       <c r="C42" s="89"/>
@@ -10749,29 +10866,29 @@
       <c r="AP42" s="109"/>
       <c r="AQ42" s="109"/>
       <c r="AR42" s="109"/>
-      <c r="AT42" s="109"/>
-      <c r="AU42" s="110"/>
+      <c r="AS42" s="109"/>
+      <c r="AU42" s="109"/>
       <c r="AV42" s="110"/>
-      <c r="AW42" s="109"/>
+      <c r="AW42" s="110"/>
       <c r="AX42" s="109"/>
       <c r="AY42" s="109"/>
-      <c r="BA42" s="110"/>
-      <c r="BB42" s="109"/>
-      <c r="BC42" s="110"/>
+      <c r="AZ42" s="109"/>
+      <c r="BB42" s="110"/>
+      <c r="BC42" s="109"/>
       <c r="BD42" s="110"/>
       <c r="BE42" s="110"/>
-      <c r="BF42" s="109"/>
+      <c r="BF42" s="110"/>
       <c r="BG42" s="109"/>
-      <c r="BH42" s="101" t="str">
+      <c r="BH42" s="109"/>
+      <c r="BI42" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI42" s="109"/>
-      <c r="BK42" s="104" t="str">
+      <c r="BJ42" s="109"/>
+      <c r="BL42" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL42" s="109"/>
       <c r="BM42" s="109"/>
       <c r="BN42" s="109"/>
       <c r="BO42" s="109"/>
@@ -10815,16 +10932,17 @@
       <c r="DA42" s="109"/>
       <c r="DB42" s="109"/>
       <c r="DC42" s="109"/>
-      <c r="DE42" s="104" t="str">
+      <c r="DD42" s="109"/>
+      <c r="DF42" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF42" s="104" t="str">
+      <c r="DG42" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="87"/>
       <c r="D43" s="87"/>
       <c r="F43" s="87"/>
@@ -10872,29 +10990,29 @@
       <c r="AP43" s="109"/>
       <c r="AQ43" s="109"/>
       <c r="AR43" s="109"/>
-      <c r="AT43" s="109"/>
-      <c r="AU43" s="110"/>
+      <c r="AS43" s="109"/>
+      <c r="AU43" s="109"/>
       <c r="AV43" s="110"/>
-      <c r="AW43" s="109"/>
+      <c r="AW43" s="110"/>
       <c r="AX43" s="109"/>
       <c r="AY43" s="109"/>
-      <c r="BA43" s="110"/>
-      <c r="BB43" s="109"/>
-      <c r="BC43" s="110"/>
+      <c r="AZ43" s="109"/>
+      <c r="BB43" s="110"/>
+      <c r="BC43" s="109"/>
       <c r="BD43" s="110"/>
       <c r="BE43" s="110"/>
-      <c r="BF43" s="109"/>
+      <c r="BF43" s="110"/>
       <c r="BG43" s="109"/>
-      <c r="BH43" s="101" t="str">
+      <c r="BH43" s="109"/>
+      <c r="BI43" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI43" s="109"/>
-      <c r="BK43" s="104" t="str">
+      <c r="BJ43" s="109"/>
+      <c r="BL43" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL43" s="109"/>
       <c r="BM43" s="109"/>
       <c r="BN43" s="109"/>
       <c r="BO43" s="109"/>
@@ -10938,16 +11056,17 @@
       <c r="DA43" s="109"/>
       <c r="DB43" s="109"/>
       <c r="DC43" s="109"/>
-      <c r="DE43" s="104" t="str">
+      <c r="DD43" s="109"/>
+      <c r="DF43" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF43" s="104" t="str">
+      <c r="DG43" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="87"/>
       <c r="D44" s="87"/>
       <c r="E44" s="93"/>
@@ -10999,29 +11118,29 @@
       <c r="AP44" s="109"/>
       <c r="AQ44" s="109"/>
       <c r="AR44" s="109"/>
-      <c r="AT44" s="109"/>
-      <c r="AU44" s="110"/>
+      <c r="AS44" s="109"/>
+      <c r="AU44" s="109"/>
       <c r="AV44" s="110"/>
-      <c r="AW44" s="109"/>
+      <c r="AW44" s="110"/>
       <c r="AX44" s="109"/>
       <c r="AY44" s="109"/>
-      <c r="BA44" s="110"/>
-      <c r="BB44" s="109"/>
-      <c r="BC44" s="110"/>
+      <c r="AZ44" s="109"/>
+      <c r="BB44" s="110"/>
+      <c r="BC44" s="109"/>
       <c r="BD44" s="110"/>
       <c r="BE44" s="110"/>
-      <c r="BF44" s="109"/>
+      <c r="BF44" s="110"/>
       <c r="BG44" s="109"/>
-      <c r="BH44" s="101" t="str">
+      <c r="BH44" s="109"/>
+      <c r="BI44" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI44" s="109"/>
-      <c r="BK44" s="104" t="str">
+      <c r="BJ44" s="109"/>
+      <c r="BL44" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL44" s="109"/>
       <c r="BM44" s="109"/>
       <c r="BN44" s="109"/>
       <c r="BO44" s="109"/>
@@ -11065,16 +11184,17 @@
       <c r="DA44" s="109"/>
       <c r="DB44" s="109"/>
       <c r="DC44" s="109"/>
-      <c r="DE44" s="104" t="str">
+      <c r="DD44" s="109"/>
+      <c r="DF44" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF44" s="104" t="str">
+      <c r="DG44" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86"/>
       <c r="B45" s="96"/>
       <c r="C45" s="86"/>
@@ -11128,29 +11248,29 @@
       <c r="AP45" s="109"/>
       <c r="AQ45" s="109"/>
       <c r="AR45" s="109"/>
-      <c r="AT45" s="109"/>
-      <c r="AU45" s="110"/>
+      <c r="AS45" s="109"/>
+      <c r="AU45" s="109"/>
       <c r="AV45" s="110"/>
-      <c r="AW45" s="109"/>
+      <c r="AW45" s="110"/>
       <c r="AX45" s="109"/>
       <c r="AY45" s="109"/>
-      <c r="BA45" s="110"/>
-      <c r="BB45" s="109"/>
-      <c r="BC45" s="110"/>
+      <c r="AZ45" s="109"/>
+      <c r="BB45" s="110"/>
+      <c r="BC45" s="109"/>
       <c r="BD45" s="110"/>
       <c r="BE45" s="110"/>
-      <c r="BF45" s="109"/>
+      <c r="BF45" s="110"/>
       <c r="BG45" s="109"/>
-      <c r="BH45" s="101" t="str">
+      <c r="BH45" s="109"/>
+      <c r="BI45" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI45" s="109"/>
-      <c r="BK45" s="104" t="str">
+      <c r="BJ45" s="109"/>
+      <c r="BL45" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL45" s="109"/>
       <c r="BM45" s="109"/>
       <c r="BN45" s="109"/>
       <c r="BO45" s="109"/>
@@ -11194,16 +11314,17 @@
       <c r="DA45" s="109"/>
       <c r="DB45" s="109"/>
       <c r="DC45" s="109"/>
-      <c r="DE45" s="104" t="str">
+      <c r="DD45" s="109"/>
+      <c r="DF45" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF45" s="104" t="str">
+      <c r="DG45" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="86"/>
       <c r="B46" s="96"/>
       <c r="C46" s="86"/>
@@ -11258,29 +11379,29 @@
       <c r="AP46" s="109"/>
       <c r="AQ46" s="109"/>
       <c r="AR46" s="109"/>
-      <c r="AT46" s="109"/>
-      <c r="AU46" s="110"/>
+      <c r="AS46" s="109"/>
+      <c r="AU46" s="109"/>
       <c r="AV46" s="110"/>
-      <c r="AW46" s="109"/>
+      <c r="AW46" s="110"/>
       <c r="AX46" s="109"/>
       <c r="AY46" s="109"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="109"/>
-      <c r="BC46" s="110"/>
+      <c r="AZ46" s="109"/>
+      <c r="BB46" s="110"/>
+      <c r="BC46" s="109"/>
       <c r="BD46" s="110"/>
       <c r="BE46" s="110"/>
-      <c r="BF46" s="109"/>
+      <c r="BF46" s="110"/>
       <c r="BG46" s="109"/>
-      <c r="BH46" s="101" t="str">
+      <c r="BH46" s="109"/>
+      <c r="BI46" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI46" s="109"/>
-      <c r="BK46" s="104" t="str">
+      <c r="BJ46" s="109"/>
+      <c r="BL46" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL46" s="109"/>
       <c r="BM46" s="109"/>
       <c r="BN46" s="109"/>
       <c r="BO46" s="109"/>
@@ -11324,16 +11445,17 @@
       <c r="DA46" s="109"/>
       <c r="DB46" s="109"/>
       <c r="DC46" s="109"/>
-      <c r="DE46" s="104" t="str">
+      <c r="DD46" s="109"/>
+      <c r="DF46" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF46" s="104" t="str">
+      <c r="DG46" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="86"/>
       <c r="B47" s="96"/>
       <c r="C47" s="86"/>
@@ -11387,29 +11509,29 @@
       <c r="AP47" s="109"/>
       <c r="AQ47" s="109"/>
       <c r="AR47" s="109"/>
-      <c r="AT47" s="109"/>
-      <c r="AU47" s="110"/>
+      <c r="AS47" s="109"/>
+      <c r="AU47" s="109"/>
       <c r="AV47" s="110"/>
-      <c r="AW47" s="109"/>
+      <c r="AW47" s="110"/>
       <c r="AX47" s="109"/>
       <c r="AY47" s="109"/>
-      <c r="BA47" s="110"/>
-      <c r="BB47" s="109"/>
-      <c r="BC47" s="110"/>
+      <c r="AZ47" s="109"/>
+      <c r="BB47" s="110"/>
+      <c r="BC47" s="109"/>
       <c r="BD47" s="110"/>
       <c r="BE47" s="110"/>
-      <c r="BF47" s="109"/>
+      <c r="BF47" s="110"/>
       <c r="BG47" s="109"/>
-      <c r="BH47" s="101" t="str">
+      <c r="BH47" s="109"/>
+      <c r="BI47" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI47" s="109"/>
-      <c r="BK47" s="104" t="str">
+      <c r="BJ47" s="109"/>
+      <c r="BL47" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL47" s="109"/>
       <c r="BM47" s="109"/>
       <c r="BN47" s="109"/>
       <c r="BO47" s="109"/>
@@ -11453,16 +11575,17 @@
       <c r="DA47" s="109"/>
       <c r="DB47" s="109"/>
       <c r="DC47" s="109"/>
-      <c r="DE47" s="104" t="str">
+      <c r="DD47" s="109"/>
+      <c r="DF47" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF47" s="104" t="str">
+      <c r="DG47" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87"/>
       <c r="D48" s="87"/>
       <c r="F48" s="87"/>
@@ -11511,29 +11634,29 @@
       <c r="AP48" s="109"/>
       <c r="AQ48" s="109"/>
       <c r="AR48" s="109"/>
-      <c r="AT48" s="109"/>
-      <c r="AU48" s="110"/>
+      <c r="AS48" s="109"/>
+      <c r="AU48" s="109"/>
       <c r="AV48" s="110"/>
-      <c r="AW48" s="109"/>
+      <c r="AW48" s="110"/>
       <c r="AX48" s="109"/>
       <c r="AY48" s="109"/>
-      <c r="BA48" s="110"/>
-      <c r="BB48" s="109"/>
-      <c r="BC48" s="110"/>
+      <c r="AZ48" s="109"/>
+      <c r="BB48" s="110"/>
+      <c r="BC48" s="109"/>
       <c r="BD48" s="110"/>
       <c r="BE48" s="110"/>
-      <c r="BF48" s="109"/>
+      <c r="BF48" s="110"/>
       <c r="BG48" s="109"/>
-      <c r="BH48" s="101" t="str">
+      <c r="BH48" s="109"/>
+      <c r="BI48" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI48" s="109"/>
-      <c r="BK48" s="104" t="str">
+      <c r="BJ48" s="109"/>
+      <c r="BL48" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL48" s="109"/>
       <c r="BM48" s="109"/>
       <c r="BN48" s="109"/>
       <c r="BO48" s="109"/>
@@ -11577,16 +11700,17 @@
       <c r="DA48" s="109"/>
       <c r="DB48" s="109"/>
       <c r="DC48" s="109"/>
-      <c r="DE48" s="104" t="str">
+      <c r="DD48" s="109"/>
+      <c r="DF48" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF48" s="104" t="str">
+      <c r="DG48" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B49" s="97"/>
       <c r="D49" s="97"/>
       <c r="F49" s="97"/>
@@ -11634,29 +11758,29 @@
       <c r="AP49" s="109"/>
       <c r="AQ49" s="109"/>
       <c r="AR49" s="109"/>
-      <c r="AT49" s="109"/>
-      <c r="AU49" s="110"/>
+      <c r="AS49" s="109"/>
+      <c r="AU49" s="109"/>
       <c r="AV49" s="110"/>
-      <c r="AW49" s="109"/>
+      <c r="AW49" s="110"/>
       <c r="AX49" s="109"/>
       <c r="AY49" s="109"/>
-      <c r="BA49" s="110"/>
-      <c r="BB49" s="109"/>
-      <c r="BC49" s="110"/>
+      <c r="AZ49" s="109"/>
+      <c r="BB49" s="110"/>
+      <c r="BC49" s="109"/>
       <c r="BD49" s="110"/>
       <c r="BE49" s="110"/>
-      <c r="BF49" s="109"/>
+      <c r="BF49" s="110"/>
       <c r="BG49" s="109"/>
-      <c r="BH49" s="101" t="str">
+      <c r="BH49" s="109"/>
+      <c r="BI49" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI49" s="109"/>
-      <c r="BK49" s="104" t="str">
+      <c r="BJ49" s="109"/>
+      <c r="BL49" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL49" s="109"/>
       <c r="BM49" s="109"/>
       <c r="BN49" s="109"/>
       <c r="BO49" s="109"/>
@@ -11700,16 +11824,17 @@
       <c r="DA49" s="109"/>
       <c r="DB49" s="109"/>
       <c r="DC49" s="109"/>
-      <c r="DE49" s="104" t="str">
+      <c r="DD49" s="109"/>
+      <c r="DF49" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF49" s="104" t="str">
+      <c r="DG49" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L50" s="78"/>
       <c r="Q50" s="109"/>
       <c r="R50" s="109"/>
@@ -11750,29 +11875,29 @@
       <c r="AP50" s="109"/>
       <c r="AQ50" s="109"/>
       <c r="AR50" s="109"/>
-      <c r="AT50" s="109"/>
-      <c r="AU50" s="110"/>
+      <c r="AS50" s="109"/>
+      <c r="AU50" s="109"/>
       <c r="AV50" s="110"/>
-      <c r="AW50" s="109"/>
+      <c r="AW50" s="110"/>
       <c r="AX50" s="109"/>
       <c r="AY50" s="109"/>
-      <c r="BA50" s="110"/>
-      <c r="BB50" s="109"/>
-      <c r="BC50" s="110"/>
+      <c r="AZ50" s="109"/>
+      <c r="BB50" s="110"/>
+      <c r="BC50" s="109"/>
       <c r="BD50" s="110"/>
       <c r="BE50" s="110"/>
-      <c r="BF50" s="109"/>
+      <c r="BF50" s="110"/>
       <c r="BG50" s="109"/>
-      <c r="BH50" s="101" t="str">
+      <c r="BH50" s="109"/>
+      <c r="BI50" s="101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BI50" s="109"/>
-      <c r="BK50" s="104" t="str">
+      <c r="BJ50" s="109"/>
+      <c r="BL50" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BL50" s="109"/>
       <c r="BM50" s="109"/>
       <c r="BN50" s="109"/>
       <c r="BO50" s="109"/>
@@ -11816,16 +11941,17 @@
       <c r="DA50" s="109"/>
       <c r="DB50" s="109"/>
       <c r="DC50" s="109"/>
-      <c r="DE50" s="104" t="str">
+      <c r="DD50" s="109"/>
+      <c r="DF50" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DF50" s="104" t="str">
+      <c r="DG50" s="104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
       <c r="C51" s="89"/>
@@ -11837,8 +11963,10 @@
       <c r="K51" s="89"/>
       <c r="M51" s="90"/>
       <c r="N51" s="90"/>
-    </row>
-    <row r="52" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM51" s="109"/>
+      <c r="AQ51" s="109"/>
+    </row>
+    <row r="52" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="87"/>
       <c r="D52" s="87"/>
       <c r="F52" s="87"/>
@@ -11848,8 +11976,10 @@
       <c r="L52" s="78"/>
       <c r="M52" s="87"/>
       <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM52" s="109"/>
+      <c r="AQ52" s="109"/>
+    </row>
+    <row r="53" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="87"/>
       <c r="D53" s="87"/>
       <c r="E53" s="93"/>
@@ -11861,8 +11991,10 @@
       <c r="M53" s="87"/>
       <c r="N53" s="87"/>
       <c r="O53" s="87"/>
-    </row>
-    <row r="54" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM53" s="109"/>
+      <c r="AQ53" s="109"/>
+    </row>
+    <row r="54" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="96"/>
       <c r="D54" s="96"/>
       <c r="E54" s="98"/>
@@ -11876,7 +12008,7 @@
       <c r="N54" s="96"/>
       <c r="O54" s="88"/>
     </row>
-    <row r="55" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="96"/>
       <c r="D55" s="96"/>
       <c r="E55" s="98"/>
@@ -11889,7 +12021,7 @@
       <c r="N55" s="96"/>
       <c r="O55" s="88"/>
     </row>
-    <row r="56" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="96"/>
       <c r="D56" s="96"/>
       <c r="E56" s="98"/>
@@ -11903,7 +12035,7 @@
       <c r="N56" s="96"/>
       <c r="O56" s="88"/>
     </row>
-    <row r="57" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="96"/>
       <c r="D57" s="96"/>
       <c r="E57" s="98"/>
@@ -11916,7 +12048,7 @@
       <c r="N57" s="96"/>
       <c r="O57" s="88"/>
     </row>
-    <row r="58" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="96"/>
       <c r="D58" s="96"/>
       <c r="E58" s="98"/>
@@ -11930,7 +12062,7 @@
       <c r="N58" s="96"/>
       <c r="O58" s="88"/>
     </row>
-    <row r="59" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="86"/>
       <c r="B59" s="96"/>
       <c r="C59" s="86"/>
@@ -11946,7 +12078,7 @@
       <c r="N59" s="96"/>
       <c r="O59" s="88"/>
     </row>
-    <row r="60" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="86"/>
       <c r="B60" s="96"/>
       <c r="C60" s="86"/>
@@ -11963,7 +12095,7 @@
       <c r="N60" s="96"/>
       <c r="O60" s="88"/>
     </row>
-    <row r="61" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="86"/>
       <c r="B61" s="96"/>
       <c r="C61" s="86"/>
@@ -11979,11 +12111,11 @@
       <c r="N61" s="96"/>
       <c r="O61" s="88"/>
     </row>
-    <row r="62" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="78"/>
     </row>
-    <row r="63" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:110" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:111" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="87"/>
       <c r="D64" s="87"/>
       <c r="F64" s="87"/>
@@ -12162,29 +12294,9 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <mergeCells count="67">
-    <mergeCell ref="DF2:DF4"/>
-    <mergeCell ref="DG2:DG4"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="DE2:DE4"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="BL1:DD1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AS2:AS3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AF2:AF3"/>
@@ -12193,11 +12305,22 @@
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="BA1:BI1"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BB1:BJ1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
@@ -12213,224 +12336,238 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="BK1:DC1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="DE1:DG1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="X1:AR1"/>
-    <mergeCell ref="AT1:AY1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="DG2:DG4"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="DF2:DF4"/>
   </mergeCells>
-  <conditionalFormatting sqref="DF5:DG5 DF6:DF50">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",DF5)))</formula>
+  <conditionalFormatting sqref="DG5:DH5 DG6:DG50">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",DG5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="correct">
-      <formula>NOT(ISERROR(SEARCH("correct",DF5)))</formula>
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="correct">
+      <formula>NOT(ISERROR(SEARCH("correct",DG5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:U1048576 BA4:BA1048576 BC4:BE1048576 BB5:BB1048576">
-    <cfRule type="containsBlanks" dxfId="33" priority="36">
+  <conditionalFormatting sqref="Q4:U1048576 BB4:BB1048576 BD4:BF1048576 BC5:BC1048576 AN4:AN1048576 AR4:AR1048576">
+    <cfRule type="containsBlanks" dxfId="34" priority="38">
       <formula>LEN(TRIM(Q4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="containsBlanks" dxfId="32" priority="33">
+    <cfRule type="containsBlanks" dxfId="33" priority="35">
       <formula>LEN(TRIM(V5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V1048576">
-    <cfRule type="containsBlanks" dxfId="31" priority="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="34">
       <formula>LEN(TRIM(V4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:Y1048576">
-    <cfRule type="containsBlanks" dxfId="30" priority="31">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
       <formula>LEN(TRIM(X4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AA1048576">
-    <cfRule type="containsBlanks" dxfId="29" priority="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="32">
       <formula>LEN(TRIM(Z4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB1048576">
-    <cfRule type="containsBlanks" dxfId="28" priority="29">
+    <cfRule type="containsBlanks" dxfId="29" priority="31">
       <formula>LEN(TRIM(AB4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA18">
-    <cfRule type="containsBlanks" dxfId="27" priority="28">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(AA4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD1048576">
-    <cfRule type="containsBlanks" dxfId="26" priority="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="29">
       <formula>LEN(TRIM(AD4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AJ1048576 AM4:AN1048576 AP4:AQ1048576">
-    <cfRule type="containsBlanks" dxfId="25" priority="26">
+  <conditionalFormatting sqref="AJ4:AJ1048576 AS4:AS1048576">
+    <cfRule type="containsBlanks" dxfId="26" priority="28">
       <formula>LEN(TRIM(AJ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE1048576">
-    <cfRule type="containsBlanks" dxfId="24" priority="25">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(AE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI1048576">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
+    <cfRule type="containsBlanks" dxfId="24" priority="26">
       <formula>LEN(TRIM(AI4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2 AT4:AT1048576">
-    <cfRule type="containsBlanks" dxfId="22" priority="23">
-      <formula>LEN(TRIM(AT2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU4:AU1048576">
-    <cfRule type="containsBlanks" dxfId="21" priority="22">
-      <formula>LEN(TRIM(AU4))=0</formula>
+  <conditionalFormatting sqref="AU2 AU4:AU1048576">
+    <cfRule type="containsBlanks" dxfId="23" priority="25">
+      <formula>LEN(TRIM(AU2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV4:AV1048576">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(AV4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW4:AY1048576">
-    <cfRule type="containsBlanks" dxfId="19" priority="20">
+  <conditionalFormatting sqref="AW4:AW1048576">
+    <cfRule type="containsBlanks" dxfId="21" priority="23">
       <formula>LEN(TRIM(AW4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AY2">
-    <cfRule type="containsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(AU2))=0</formula>
+  <conditionalFormatting sqref="AX4:AZ1048576">
+    <cfRule type="containsBlanks" dxfId="20" priority="22">
+      <formula>LEN(TRIM(AX4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF5:BG1048576">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
-      <formula>LEN(TRIM(BF5))=0</formula>
+  <conditionalFormatting sqref="AV2:AZ2">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
+      <formula>LEN(TRIM(AV2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI5:BI1048576">
-    <cfRule type="containsBlanks" dxfId="16" priority="17">
-      <formula>LEN(TRIM(BI5))=0</formula>
+  <conditionalFormatting sqref="BG5:BH1048576">
+    <cfRule type="containsBlanks" dxfId="18" priority="20">
+      <formula>LEN(TRIM(BG5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH1048576">
-    <cfRule type="containsBlanks" dxfId="15" priority="16">
-      <formula>LEN(TRIM(BH4))=0</formula>
+  <conditionalFormatting sqref="BJ5:BJ1048576">
+    <cfRule type="containsBlanks" dxfId="17" priority="19">
+      <formula>LEN(TRIM(BJ5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BI2">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
-      <formula>LEN(TRIM(BA2))=0</formula>
+  <conditionalFormatting sqref="BI4:BI1048576">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
+      <formula>LEN(TRIM(BI4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL3:CN3 BL5:CN1048576 DA3:DC3 CX5:CY1048576 CX3:CY3 CQ5:CU1048576 CQ3:CU3 DA5:DC1048576">
-    <cfRule type="containsBlanks" dxfId="13" priority="14">
-      <formula>LEN(TRIM(BL3))=0</formula>
+  <conditionalFormatting sqref="BB2:BJ2">
+    <cfRule type="containsBlanks" dxfId="15" priority="17">
+      <formula>LEN(TRIM(BB2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM3:CO3 BM5:CO1048576 DB3:DD3 CY5:CZ1048576 CY3:CZ3 CR5:CV1048576 CR3:CV3 DB5:DD1048576">
+    <cfRule type="containsBlanks" dxfId="14" priority="16">
+      <formula>LEN(TRIM(BM3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG1048576">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(AG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG1048576">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(AG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR4:AR1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(AR4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(AC4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF1048576">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(AF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH1048576">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(AH4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AL1048576 AK4">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(AK4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO4:AO1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="AO4:AR1048576">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(AO4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ3 CZ5:CZ1048576">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(CZ3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CV3 CV5:CV1048576">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(CV3))=0</formula>
+  <conditionalFormatting sqref="DA3 DA5:DA1048576">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(DA3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW3 CW5:CW1048576">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(CW3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO3:CP3 CO5:CP1048576">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(CO3))=0</formula>
+  <conditionalFormatting sqref="CX3 CX5:CX1048576">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(CX3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP3:CQ3 CP5:CQ1048576">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(CP3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AL50">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(AL4))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AM4:AM1048576">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(AM4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC4:BC50" xr:uid="{7D5BEB02-59BB-4A62-A979-6A8481CE1E2D}">
-      <formula1>$AT$4:$AT$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD4:BD50" xr:uid="{7D5BEB02-59BB-4A62-A979-6A8481CE1E2D}">
+      <formula1>$AU$4:$AU$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD4:BD13" xr:uid="{24AA5190-19B2-40FB-96CD-40550DFAFFE5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE13" xr:uid="{24AA5190-19B2-40FB-96CD-40550DFAFFE5}">
       <formula1>$Z$4:$Z$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA4:BA50 X4:X50" xr:uid="{DA3A2F29-75F7-4B49-A904-2F19044CB127}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4:BB50 X4:X50" xr:uid="{DA3A2F29-75F7-4B49-A904-2F19044CB127}">
       <formula1>$Q$4:$Q$50</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Value Error" error="The input needs to be a whole number." sqref="Q4:Q50" xr:uid="{D3D40A0D-405B-4317-B10B-E57CF87A93D4}">
       <formula1>-10</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type error" error="The input needs to be a number." sqref="BL5:DC50" xr:uid="{3262D78B-491B-4D0B-AA18-A6B707FB8B01}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type error" error="The input needs to be a number." sqref="BM5:DD50" xr:uid="{3262D78B-491B-4D0B-AA18-A6B707FB8B01}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BL3:DC3" xr:uid="{E08A3806-DCF8-43AB-844C-F4AE2E50C59C}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BM3:DD3" xr:uid="{E08A3806-DCF8-43AB-844C-F4AE2E50C59C}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BF4:BG50 AW4:AY50 R4:U50 AF4:AH50 AC4:AD50 AA4:AA50 AJ4:AK50 AM4:AR50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BG4:BH50 AX4:AZ50 R4:U50 AF4:AH50 AC4:AD50 AA4:AA50 AJ4:AK50 AS4:AS50 AM4:AM53 AQ4:AR53 AN4:AO50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
@@ -12455,7 +12592,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29F37514-715B-4E45-8390-C030EDEE0CF4}">
           <x14:formula1>
             <xm:f>'Drop down list'!#REF!</xm:f>
@@ -12472,13 +12609,13 @@
           <x14:formula1>
             <xm:f>'Drop down list'!$K$2:$K$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4:AV1048576</xm:sqref>
+          <xm:sqref>AW4:AW1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8267759E-BE5A-4EA9-B487-F765CD2304E3}">
           <x14:formula1>
             <xm:f>'Drop down list'!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AU4:AU1048576</xm:sqref>
+          <xm:sqref>AV4:AV1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{133B4B7A-3B85-43EB-880B-FE59D8F31870}">
           <x14:formula1>
@@ -12520,19 +12657,25 @@
           <x14:formula1>
             <xm:f>'Drop down list'!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>BI4:BI50 AN54:AN61</xm:sqref>
+          <xm:sqref>BJ4:BJ50 AN54:AN61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9A127F1-04CC-4CF3-99FC-1433CE68F064}">
           <x14:formula1>
             <xm:f>'Drop down list'!$G$2:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 E70:E74 J70:K74 E54:E61 J54:K61 BE4:BE50</xm:sqref>
+          <xm:sqref>B4 E70:E74 J70:K74 E54:E61 J54:K61 BF4:BF50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC738D98-21A2-4DF4-A416-F4CE7024C88E}">
           <x14:formula1>
             <xm:f>'Drop down list'!$L$2:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>AL4:AL50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." xr:uid="{6C228BF1-0D7E-4E3E-8F9B-90CEA5F39F06}">
+          <x14:formula1>
+            <xm:f>'Drop down list'!$M$2:$M$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP4:AP50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12559,21 +12702,21 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="113" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G2" s="113" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C3">
         <v>0.18</v>
@@ -12582,18 +12725,18 @@
         <v>0.18</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -12602,10 +12745,10 @@
         <v>1.2</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I4">
         <v>0.05</v>
@@ -12613,7 +12756,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C5">
         <v>0.45</v>
@@ -12622,10 +12765,10 @@
         <v>0.45</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I5">
         <v>0.05</v>
@@ -12633,7 +12776,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C6">
         <v>0.8</v>
@@ -12642,10 +12785,10 @@
         <v>0.8</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I6">
         <v>0.05</v>
@@ -12653,7 +12796,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C7">
         <v>0.11</v>
@@ -12662,10 +12805,10 @@
         <v>0.11</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I7">
         <v>0.05</v>
@@ -12673,7 +12816,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C8">
         <v>0.13</v>
@@ -12682,10 +12825,10 @@
         <v>0.13</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I8">
         <v>0.16</v>
@@ -12693,7 +12836,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C9">
         <v>0.15</v>
@@ -12702,10 +12845,10 @@
         <v>0.15</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I9">
         <v>7.0000000000000007E-2</v>
@@ -12713,7 +12856,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>0.2</v>
@@ -12722,10 +12865,10 @@
         <v>0.2</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I10">
         <v>0.32</v>
@@ -12733,7 +12876,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11">
         <v>0.6</v>
@@ -12742,10 +12885,10 @@
         <v>0.6</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I11">
         <v>0.32</v>
@@ -12753,7 +12896,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12762,10 +12905,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I12">
         <v>7.0000000000000007E-2</v>
@@ -12773,10 +12916,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -12784,13 +12927,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I14">
         <v>7.0000000000000007E-2</v>
@@ -12798,19 +12941,19 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -12818,19 +12961,19 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I16">
         <v>0.02</v>
@@ -12838,19 +12981,19 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I17">
         <v>0.02</v>
@@ -12858,7 +13001,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C18">
         <v>0.65</v>
@@ -12867,10 +13010,10 @@
         <v>0.65</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I18">
         <v>0.06</v>
@@ -12878,7 +13021,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C19">
         <v>85</v>
@@ -12887,10 +13030,10 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I19">
         <v>0.24</v>
@@ -12898,7 +13041,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -12907,10 +13050,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I20">
         <v>0.04</v>
@@ -12918,19 +13061,19 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I21">
         <v>0.06</v>
@@ -12938,7 +13081,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -12947,10 +13090,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I22">
         <v>0.08</v>
@@ -12958,19 +13101,19 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I23">
         <v>0.08</v>
@@ -12978,19 +13121,19 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I24">
         <v>0.56000000000000005</v>
@@ -12998,7 +13141,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -13007,10 +13150,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I25">
         <v>0.09</v>
@@ -13018,10 +13161,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I26">
         <v>-0.09</v>
@@ -13029,13 +13172,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="113" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I27">
         <v>0.06</v>
@@ -13043,19 +13186,19 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I28">
         <v>0.06</v>
@@ -13063,7 +13206,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C29">
         <v>90</v>
@@ -13072,10 +13215,10 @@
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I29">
         <v>0.08</v>
@@ -13083,19 +13226,19 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I30">
         <v>7.0000000000000007E-2</v>
@@ -13103,19 +13246,19 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -13123,19 +13266,19 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -13143,7 +13286,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -13152,10 +13295,10 @@
         <v>1.29</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I33">
         <v>0.16</v>
@@ -13163,7 +13306,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C34">
         <v>2306</v>
@@ -13172,10 +13315,10 @@
         <v>2306</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I34">
         <v>0.24</v>
@@ -13183,19 +13326,19 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I35">
         <v>0.12</v>
@@ -13203,19 +13346,19 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I36">
         <v>0.08</v>
@@ -13223,7 +13366,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -13232,10 +13375,10 @@
         <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I37">
         <v>0.08</v>
@@ -13243,7 +13386,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C38">
         <v>92</v>
@@ -13252,10 +13395,10 @@
         <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I38">
         <v>0.06</v>
@@ -13263,10 +13406,10 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I39">
         <v>0.08</v>
@@ -13274,13 +13417,13 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="113" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I40">
         <v>0.08</v>
@@ -13288,19 +13431,19 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D41" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I41">
         <v>0.04</v>
@@ -13308,19 +13451,19 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I42">
         <v>0.06</v>
@@ -13328,19 +13471,19 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D43" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I43">
         <v>0.04</v>
@@ -13348,19 +13491,19 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I44">
         <v>0.06</v>
@@ -13368,19 +13511,19 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I45">
         <v>0.04</v>
@@ -13388,10 +13531,10 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I46">
         <v>0.08</v>
@@ -13399,13 +13542,13 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="113" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H47" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I47">
         <v>0.08</v>
@@ -13413,54 +13556,54 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D49" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C51" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -13468,57 +13611,57 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C57" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D57" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -13531,10 +13674,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3058C5-3D0B-4065-9D8C-3B40D72D2CE1}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -13550,215 +13693,234 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="114" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="114" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="114" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="114" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="125" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="125" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>210</v>
+      </c>
+      <c r="M6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
         <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="125" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="125" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -13770,26 +13932,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -14012,7 +14165,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -14029,23 +14199,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14062,4 +14216,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99458F4-A75B-40AA-8B03-657F779FD9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04150AF-878C-46DD-8207-3C9BDF7B7A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14655" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="446">
   <si>
     <t>SAP</t>
   </si>
@@ -1188,12 +1188,6 @@
   </si>
   <si>
     <t>Party ceiling area</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>-</t>
@@ -1293,9 +1287,6 @@
     <t>Sheltered wal shelter factor</t>
   </si>
   <si>
-    <t>Default value</t>
-  </si>
-  <si>
     <t>W/m.K</t>
   </si>
   <si>
@@ -1521,7 +1512,16 @@
     <t>Lighting name</t>
   </si>
   <si>
-    <t>HEATING</t>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+  </si>
+  <si>
+    <t>DEFAULT VALUE</t>
+  </si>
+  <si>
+    <t>UNITS</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2413,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2759,9 +2759,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2822,6 +2819,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="30" borderId="20" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2834,16 +2838,22 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2855,27 +2865,14 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="30" borderId="20" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4440,7 +4437,7 @@
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4459,9 +4456,9 @@
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4718,10 +4715,10 @@
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
-      <c r="J8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="41"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
     </row>
     <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
@@ -4734,10 +4731,10 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="132"/>
+      <c r="J9" s="133"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
@@ -4752,10 +4749,10 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="132"/>
+      <c r="J10" s="133"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
     </row>
     <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
@@ -4766,10 +4763,10 @@
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="132"/>
+      <c r="J11" s="133"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
     </row>
     <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
@@ -4780,10 +4777,10 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="132"/>
+      <c r="J12" s="133"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
     </row>
     <row r="13" spans="1:13" s="12" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
@@ -4795,7 +4792,7 @@
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="132"/>
+      <c r="J13" s="133"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -4809,10 +4806,10 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="132"/>
+      <c r="J14" s="133"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -4825,10 +4822,10 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="132"/>
+      <c r="J15" s="133"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
     </row>
     <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -4840,10 +4837,10 @@
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="132"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
     </row>
     <row r="17" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
@@ -4865,10 +4862,10 @@
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="132"/>
+      <c r="J17" s="133"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
     </row>
     <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
@@ -4880,10 +4877,10 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="132"/>
+      <c r="J18" s="133"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
     </row>
     <row r="19" spans="1:13" s="12" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
@@ -4895,7 +4892,7 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="132"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -4907,7 +4904,7 @@
       <c r="D20" s="50"/>
       <c r="E20" s="28"/>
       <c r="F20" s="13"/>
-      <c r="J20" s="132"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
@@ -4916,7 +4913,7 @@
       <c r="D21" s="50"/>
       <c r="E21" s="28"/>
       <c r="F21" s="13"/>
-      <c r="J21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
@@ -4925,7 +4922,7 @@
       <c r="D22" s="50"/>
       <c r="E22" s="28"/>
       <c r="F22" s="13"/>
-      <c r="J22" s="132"/>
+      <c r="J22" s="133"/>
     </row>
     <row r="23" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
@@ -4934,7 +4931,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="28"/>
       <c r="F23" s="13"/>
-      <c r="J23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
@@ -4943,7 +4940,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="28"/>
       <c r="F24" s="13"/>
-      <c r="J24" s="132"/>
+      <c r="J24" s="133"/>
     </row>
     <row r="25" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
@@ -4952,7 +4949,7 @@
       <c r="D25" s="50"/>
       <c r="E25" s="28"/>
       <c r="F25" s="13"/>
-      <c r="J25" s="132"/>
+      <c r="J25" s="133"/>
     </row>
     <row r="26" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
@@ -4961,7 +4958,7 @@
       <c r="D26" s="50"/>
       <c r="E26" s="28"/>
       <c r="F26" s="13"/>
-      <c r="J26" s="132"/>
+      <c r="J26" s="133"/>
     </row>
     <row r="27" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
@@ -4970,7 +4967,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="28"/>
       <c r="F27" s="13"/>
-      <c r="J27" s="132"/>
+      <c r="J27" s="133"/>
     </row>
     <row r="28" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
@@ -4979,7 +4976,7 @@
       <c r="D28" s="50"/>
       <c r="E28" s="28"/>
       <c r="F28" s="13"/>
-      <c r="J28" s="132"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
@@ -4988,7 +4985,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="28"/>
       <c r="F29" s="13"/>
-      <c r="J29" s="132"/>
+      <c r="J29" s="133"/>
     </row>
     <row r="30" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
@@ -4997,7 +4994,7 @@
       <c r="D30" s="50"/>
       <c r="E30" s="28"/>
       <c r="F30" s="13"/>
-      <c r="J30" s="132"/>
+      <c r="J30" s="133"/>
     </row>
     <row r="31" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
@@ -5006,7 +5003,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="28"/>
       <c r="F31" s="13"/>
-      <c r="J31" s="132"/>
+      <c r="J31" s="133"/>
     </row>
     <row r="32" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
@@ -5015,7 +5012,7 @@
       <c r="D32" s="50"/>
       <c r="E32" s="28"/>
       <c r="F32" s="13"/>
-      <c r="J32" s="132"/>
+      <c r="J32" s="133"/>
     </row>
     <row r="33" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
@@ -5024,7 +5021,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="28"/>
       <c r="F33" s="13"/>
-      <c r="J33" s="132"/>
+      <c r="J33" s="133"/>
     </row>
     <row r="34" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
@@ -5033,7 +5030,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="28"/>
       <c r="F34" s="13"/>
-      <c r="J34" s="132"/>
+      <c r="J34" s="133"/>
     </row>
     <row r="35" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
@@ -5042,7 +5039,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="28"/>
       <c r="F35" s="13"/>
-      <c r="J35" s="132"/>
+      <c r="J35" s="133"/>
     </row>
     <row r="36" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
@@ -5051,7 +5048,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="28"/>
       <c r="F36" s="13"/>
-      <c r="J36" s="132"/>
+      <c r="J36" s="133"/>
     </row>
     <row r="37" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
@@ -5060,7 +5057,7 @@
       <c r="D37" s="50"/>
       <c r="E37" s="28"/>
       <c r="F37" s="13"/>
-      <c r="J37" s="132"/>
+      <c r="J37" s="133"/>
     </row>
     <row r="38" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
@@ -5069,7 +5066,7 @@
       <c r="D38" s="50"/>
       <c r="E38" s="28"/>
       <c r="F38" s="13"/>
-      <c r="J38" s="132"/>
+      <c r="J38" s="133"/>
     </row>
     <row r="39" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
@@ -5078,7 +5075,7 @@
       <c r="D39" s="50"/>
       <c r="E39" s="28"/>
       <c r="F39" s="13"/>
-      <c r="J39" s="132"/>
+      <c r="J39" s="133"/>
     </row>
     <row r="40" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
@@ -5087,7 +5084,7 @@
       <c r="D40" s="50"/>
       <c r="E40" s="28"/>
       <c r="F40" s="13"/>
-      <c r="J40" s="132"/>
+      <c r="J40" s="133"/>
     </row>
     <row r="41" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
@@ -5096,7 +5093,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="28"/>
       <c r="F41" s="13"/>
-      <c r="J41" s="132"/>
+      <c r="J41" s="133"/>
     </row>
     <row r="42" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
@@ -5105,7 +5102,7 @@
       <c r="D42" s="50"/>
       <c r="E42" s="28"/>
       <c r="F42" s="13"/>
-      <c r="J42" s="132"/>
+      <c r="J42" s="133"/>
     </row>
     <row r="43" spans="1:13" s="41" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
@@ -5114,7 +5111,7 @@
       <c r="D43" s="50"/>
       <c r="E43" s="28"/>
       <c r="F43" s="13"/>
-      <c r="J43" s="132"/>
+      <c r="J43" s="133"/>
     </row>
     <row r="44" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
@@ -5128,10 +5125,10 @@
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
-      <c r="J44" s="132"/>
+      <c r="J44" s="133"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
     </row>
     <row r="45" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
@@ -5143,10 +5140,10 @@
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="132"/>
+      <c r="J45" s="133"/>
       <c r="K45" s="41"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
@@ -5157,10 +5154,10 @@
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="132"/>
+      <c r="J46" s="133"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:13" s="12" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
@@ -5172,7 +5169,7 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
-      <c r="J47" s="132"/>
+      <c r="J47" s="133"/>
       <c r="K47" s="41"/>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -5186,10 +5183,10 @@
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
-      <c r="J48" s="132"/>
+      <c r="J48" s="133"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
     </row>
     <row r="49" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
@@ -5200,10 +5197,10 @@
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
-      <c r="J49" s="132"/>
+      <c r="J49" s="133"/>
       <c r="K49" s="41"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
@@ -5217,10 +5214,10 @@
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
-      <c r="J50" s="132"/>
+      <c r="J50" s="133"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
     </row>
     <row r="51" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
@@ -5232,10 +5229,10 @@
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="132"/>
+      <c r="J51" s="133"/>
       <c r="K51" s="41"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
     </row>
     <row r="52" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
@@ -5255,10 +5252,10 @@
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
-      <c r="J52" s="132"/>
+      <c r="J52" s="133"/>
       <c r="K52" s="41"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
     </row>
     <row r="53" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="29"/>
@@ -5268,10 +5265,10 @@
       <c r="E53" s="13"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
-      <c r="J53" s="132"/>
+      <c r="J53" s="133"/>
       <c r="K53" s="41"/>
-      <c r="L53" s="132"/>
-      <c r="M53" s="132"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
     </row>
     <row r="54" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -5279,139 +5276,139 @@
       <c r="C54" s="1"/>
       <c r="D54" s="46"/>
       <c r="E54" s="41"/>
-      <c r="H54" s="132"/>
+      <c r="H54" s="133"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="132"/>
+      <c r="J54" s="133"/>
       <c r="K54" s="41"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="132"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
     </row>
     <row r="55" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
       <c r="E55" s="41"/>
-      <c r="H55" s="132"/>
+      <c r="H55" s="133"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="132"/>
+      <c r="J55" s="133"/>
       <c r="K55" s="41"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="133"/>
     </row>
     <row r="56" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
       <c r="E56" s="41"/>
-      <c r="H56" s="132"/>
+      <c r="H56" s="133"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="132"/>
+      <c r="J56" s="133"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="132"/>
-      <c r="M56" s="132"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
     </row>
     <row r="57" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="132"/>
+      <c r="H57" s="133"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="132"/>
+      <c r="J57" s="133"/>
       <c r="K57" s="41"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133"/>
     </row>
     <row r="58" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="132"/>
+      <c r="H58" s="133"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="132"/>
+      <c r="J58" s="133"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
     </row>
     <row r="59" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="132"/>
+      <c r="H59" s="133"/>
       <c r="I59" s="41"/>
-      <c r="J59" s="132"/>
+      <c r="J59" s="133"/>
       <c r="K59" s="41"/>
-      <c r="L59" s="132"/>
-      <c r="M59" s="132"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
     </row>
     <row r="60" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="132"/>
+      <c r="J60" s="133"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="132"/>
-      <c r="M60" s="132"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
     </row>
     <row r="61" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="132"/>
+      <c r="J61" s="133"/>
       <c r="K61" s="41"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
     </row>
     <row r="62" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="132"/>
+      <c r="J62" s="133"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
     </row>
     <row r="63" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="132"/>
+      <c r="J63" s="133"/>
       <c r="K63" s="41"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
     </row>
     <row r="64" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="132"/>
+      <c r="J64" s="133"/>
       <c r="K64" s="41"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
     </row>
     <row r="65" spans="8:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="132"/>
+      <c r="J65" s="133"/>
       <c r="K65" s="41"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
     </row>
     <row r="66" spans="8:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="132"/>
+      <c r="J66" s="133"/>
       <c r="K66" s="41"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
     </row>
     <row r="67" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="132"/>
+      <c r="J67" s="133"/>
       <c r="K67" s="41"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
     </row>
     <row r="68" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="132"/>
+      <c r="J68" s="133"/>
       <c r="K68" s="41"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
     </row>
     <row r="69" spans="8:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I69" s="41"/>
-      <c r="J69" s="132"/>
+      <c r="J69" s="133"/>
       <c r="K69" s="41"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
+      <c r="L69" s="133"/>
+      <c r="M69" s="133"/>
       <c r="N69" s="41"/>
       <c r="O69" s="41"/>
       <c r="P69" s="41"/>
@@ -5420,10 +5417,10 @@
     </row>
     <row r="70" spans="8:18" x14ac:dyDescent="0.2">
       <c r="I70" s="41"/>
-      <c r="J70" s="132"/>
+      <c r="J70" s="133"/>
       <c r="K70" s="41"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="132"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
       <c r="N70" s="41"/>
       <c r="O70" s="41"/>
       <c r="P70" s="41"/>
@@ -5552,15 +5549,26 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -5574,26 +5582,15 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
@@ -5675,1085 +5672,1091 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="129" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="128" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>369</v>
+        <v>443</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>444</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="A2" s="134" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="125">
         <v>0.18</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A4" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="126">
+      <c r="B4" s="125">
         <v>0.11</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="125">
         <v>0</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="126">
+      <c r="B6" s="125">
         <v>0.13</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="126">
+      <c r="B7" s="125">
         <v>0</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="126">
+      <c r="B8" s="125">
         <v>0.2</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="110" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="126">
+        <v>366</v>
+      </c>
+      <c r="B9" s="125">
         <v>0.6</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A10" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="126">
+      <c r="B10" s="125">
         <v>1.2</v>
       </c>
       <c r="C10" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="126">
+      <c r="B11" s="125">
         <v>0.45</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="126">
+      <c r="B12" s="125">
         <v>0.8</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A13" s="111" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="126">
+        <v>353</v>
+      </c>
+      <c r="B13" s="125">
         <v>1</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="134" t="s">
         <v>312</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="125" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="110" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="126" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="125" t="s">
         <v>301</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="126" t="s">
-        <v>431</v>
+      <c r="B17" s="125" t="s">
+        <v>428</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="125" t="s">
         <v>310</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="126">
+      <c r="B19" s="125">
         <v>0.65</v>
       </c>
       <c r="C19" s="110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="126">
         <v>85</v>
       </c>
       <c r="C20" s="110" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="110" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" s="128">
+        <v>359</v>
+      </c>
+      <c r="B21" s="127">
         <v>1</v>
       </c>
       <c r="C21" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="126" t="s">
-        <v>433</v>
+        <v>360</v>
+      </c>
+      <c r="B22" s="125" t="s">
+        <v>430</v>
       </c>
       <c r="C22" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="110" t="s">
-        <v>430</v>
-      </c>
-      <c r="B23" s="126" t="s">
-        <v>432</v>
+        <v>427</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>429</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="110" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="125" t="s">
         <v>364</v>
       </c>
-      <c r="B24" s="126" t="s">
-        <v>366</v>
-      </c>
       <c r="C24" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A25" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="125">
         <v>3</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="127">
+      <c r="B27" s="126">
         <v>7</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="127">
+      <c r="B28" s="126">
         <v>90</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="128">
+      <c r="B29" s="127">
         <v>10</v>
       </c>
       <c r="C29" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="110"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="110"/>
+      <c r="A30" s="134" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="110" t="s">
-        <v>420</v>
-      </c>
-      <c r="B31" s="126" t="s">
-        <v>287</v>
+        <v>442</v>
+      </c>
+      <c r="B31" s="125" t="s">
+        <v>220</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="125" t="s">
         <v>275</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="110" t="s">
-        <v>415</v>
-      </c>
-      <c r="B33" s="127">
-        <v>1</v>
+        <v>417</v>
+      </c>
+      <c r="B33" s="125" t="s">
+        <v>287</v>
       </c>
       <c r="C33" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="110" t="s">
-        <v>416</v>
-      </c>
-      <c r="B34" s="127">
-        <v>2306</v>
+        <v>412</v>
+      </c>
+      <c r="B34" s="126">
+        <v>1</v>
       </c>
       <c r="C34" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="B35" s="126" t="s">
-        <v>278</v>
+        <v>413</v>
+      </c>
+      <c r="B35" s="126">
+        <v>2306</v>
       </c>
       <c r="C35" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="110" t="s">
-        <v>417</v>
-      </c>
-      <c r="B36" s="126" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="B36" s="125" t="s">
+        <v>278</v>
       </c>
       <c r="C36" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="110" t="s">
-        <v>418</v>
-      </c>
-      <c r="B37" s="127">
-        <v>100</v>
+        <v>414</v>
+      </c>
+      <c r="B37" s="125" t="s">
+        <v>284</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="110" t="s">
-        <v>419</v>
-      </c>
-      <c r="B38" s="127">
+        <v>415</v>
+      </c>
+      <c r="B38" s="126">
+        <v>100</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="110" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="126">
         <v>92</v>
       </c>
-      <c r="C38" s="110" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="133" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
+      <c r="C39" s="110" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="110" t="s">
-        <v>422</v>
-      </c>
-      <c r="B40" s="126" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="125" t="s">
         <v>290</v>
       </c>
       <c r="C40" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="B41" s="126" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" s="125" t="s">
         <v>292</v>
       </c>
       <c r="C41" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="110" t="s">
-        <v>424</v>
-      </c>
-      <c r="B42" s="126" t="s">
-        <v>294</v>
+        <v>421</v>
+      </c>
+      <c r="B42" s="127">
+        <v>1</v>
       </c>
       <c r="C42" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="110" t="s">
-        <v>426</v>
-      </c>
-      <c r="B43" s="126" t="s">
-        <v>294</v>
+        <v>423</v>
+      </c>
+      <c r="B43" s="127">
+        <v>1</v>
       </c>
       <c r="C43" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="110" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="126" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="125" t="s">
         <v>297</v>
       </c>
       <c r="C44" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="134" t="s">
         <v>315</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="110" t="s">
         <v>316</v>
       </c>
-      <c r="B46" s="126" t="s">
+      <c r="B46" s="125" t="s">
         <v>317</v>
       </c>
       <c r="C46" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="110" t="s">
-        <v>428</v>
-      </c>
-      <c r="B47" s="126" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="125" t="s">
         <v>299</v>
       </c>
       <c r="C47" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="110" t="s">
-        <v>423</v>
-      </c>
-      <c r="B48" s="126" t="s">
+        <v>420</v>
+      </c>
+      <c r="B48" s="125" t="s">
         <v>321</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="110" t="s">
-        <v>429</v>
-      </c>
-      <c r="B49" s="126" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" s="125" t="s">
         <v>321</v>
       </c>
       <c r="C49" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="B50" s="126">
+      <c r="B50" s="125">
         <v>0</v>
       </c>
       <c r="C50" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="126" t="s">
+      <c r="B51" s="125" t="s">
         <v>294</v>
       </c>
       <c r="C51" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="126" t="s">
+      <c r="B52" s="125" t="s">
         <v>294</v>
       </c>
       <c r="C52" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="B53" s="126" t="s">
+      <c r="B53" s="125" t="s">
         <v>294</v>
       </c>
       <c r="C53" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="B54" s="126" t="s">
+      <c r="B54" s="125" t="s">
         <v>294</v>
       </c>
       <c r="C54" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="B55" s="126" t="s">
+      <c r="B55" s="125" t="s">
         <v>328</v>
       </c>
       <c r="C55" s="110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="110" t="s">
-        <v>371</v>
-      </c>
-      <c r="B57" s="126">
+        <v>368</v>
+      </c>
+      <c r="B57" s="125">
         <v>0.05</v>
       </c>
       <c r="C57" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="110" t="s">
-        <v>372</v>
-      </c>
-      <c r="B58" s="126">
+        <v>369</v>
+      </c>
+      <c r="B58" s="125">
         <v>0.05</v>
       </c>
       <c r="C58" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="110" t="s">
-        <v>373</v>
-      </c>
-      <c r="B59" s="126">
+        <v>370</v>
+      </c>
+      <c r="B59" s="125">
         <v>0.05</v>
       </c>
       <c r="C59" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="110" t="s">
-        <v>374</v>
-      </c>
-      <c r="B60" s="126">
+        <v>371</v>
+      </c>
+      <c r="B60" s="125">
         <v>0.05</v>
       </c>
       <c r="C60" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="110" t="s">
-        <v>375</v>
-      </c>
-      <c r="B61" s="126">
+        <v>372</v>
+      </c>
+      <c r="B61" s="125">
         <v>0.16</v>
       </c>
       <c r="C61" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="110" t="s">
-        <v>376</v>
-      </c>
-      <c r="B62" s="126">
+        <v>373</v>
+      </c>
+      <c r="B62" s="125">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C62" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="110" t="s">
-        <v>377</v>
-      </c>
-      <c r="B63" s="126">
+        <v>374</v>
+      </c>
+      <c r="B63" s="125">
         <v>0.32</v>
       </c>
       <c r="C63" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="110" t="s">
-        <v>378</v>
-      </c>
-      <c r="B64" s="126">
+        <v>375</v>
+      </c>
+      <c r="B64" s="125">
         <v>0.32</v>
       </c>
       <c r="C64" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="110" t="s">
-        <v>379</v>
-      </c>
-      <c r="B65" s="126">
+        <v>376</v>
+      </c>
+      <c r="B65" s="125">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C65" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="B66" s="126">
+        <v>377</v>
+      </c>
+      <c r="B66" s="125">
         <v>0</v>
       </c>
       <c r="C66" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="110" t="s">
-        <v>381</v>
-      </c>
-      <c r="B67" s="126">
+        <v>378</v>
+      </c>
+      <c r="B67" s="125">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C67" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="110" t="s">
-        <v>382</v>
-      </c>
-      <c r="B68" s="126">
+        <v>379</v>
+      </c>
+      <c r="B68" s="125">
         <v>0</v>
       </c>
       <c r="C68" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="110" t="s">
-        <v>383</v>
-      </c>
-      <c r="B69" s="126">
+        <v>380</v>
+      </c>
+      <c r="B69" s="125">
         <v>0.02</v>
       </c>
       <c r="C69" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="110" t="s">
-        <v>384</v>
-      </c>
-      <c r="B70" s="126">
+        <v>381</v>
+      </c>
+      <c r="B70" s="125">
         <v>0.02</v>
       </c>
       <c r="C70" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="110" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="126">
+        <v>382</v>
+      </c>
+      <c r="B71" s="125">
         <v>0.06</v>
       </c>
       <c r="C71" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="110" t="s">
-        <v>386</v>
-      </c>
-      <c r="B72" s="126">
+        <v>383</v>
+      </c>
+      <c r="B72" s="125">
         <v>0.24</v>
       </c>
       <c r="C72" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="110" t="s">
-        <v>387</v>
-      </c>
-      <c r="B73" s="126">
+        <v>384</v>
+      </c>
+      <c r="B73" s="125">
         <v>0.04</v>
       </c>
       <c r="C73" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="110" t="s">
-        <v>388</v>
-      </c>
-      <c r="B74" s="126">
+        <v>385</v>
+      </c>
+      <c r="B74" s="125">
         <v>0.06</v>
       </c>
       <c r="C74" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="110" t="s">
-        <v>389</v>
-      </c>
-      <c r="B75" s="126">
+        <v>386</v>
+      </c>
+      <c r="B75" s="125">
         <v>0.08</v>
       </c>
       <c r="C75" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="110" t="s">
-        <v>390</v>
-      </c>
-      <c r="B76" s="126">
+        <v>387</v>
+      </c>
+      <c r="B76" s="125">
         <v>0.08</v>
       </c>
       <c r="C76" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="110" t="s">
-        <v>391</v>
-      </c>
-      <c r="B77" s="126">
+        <v>388</v>
+      </c>
+      <c r="B77" s="125">
         <v>0.56000000000000005</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="110" t="s">
-        <v>392</v>
-      </c>
-      <c r="B78" s="126">
+        <v>389</v>
+      </c>
+      <c r="B78" s="125">
         <v>0.09</v>
       </c>
       <c r="C78" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="B79" s="126">
+        <v>390</v>
+      </c>
+      <c r="B79" s="125">
         <v>-0.09</v>
       </c>
       <c r="C79" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="110" t="s">
-        <v>394</v>
-      </c>
-      <c r="B80" s="126">
+        <v>391</v>
+      </c>
+      <c r="B80" s="125">
         <v>0.06</v>
       </c>
       <c r="C80" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="110" t="s">
-        <v>395</v>
-      </c>
-      <c r="B81" s="126">
+        <v>392</v>
+      </c>
+      <c r="B81" s="125">
         <v>0.06</v>
       </c>
       <c r="C81" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="110" t="s">
-        <v>396</v>
-      </c>
-      <c r="B82" s="126">
+        <v>393</v>
+      </c>
+      <c r="B82" s="125">
         <v>0.08</v>
       </c>
       <c r="C82" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="110" t="s">
-        <v>397</v>
-      </c>
-      <c r="B83" s="126">
+        <v>394</v>
+      </c>
+      <c r="B83" s="125">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C83" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="B84" s="126">
+        <v>395</v>
+      </c>
+      <c r="B84" s="125">
         <v>0</v>
       </c>
       <c r="C84" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="110" t="s">
-        <v>399</v>
-      </c>
-      <c r="B85" s="126">
+        <v>396</v>
+      </c>
+      <c r="B85" s="125">
         <v>0</v>
       </c>
       <c r="C85" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="110" t="s">
-        <v>400</v>
-      </c>
-      <c r="B86" s="126">
+        <v>397</v>
+      </c>
+      <c r="B86" s="125">
         <v>0.16</v>
       </c>
       <c r="C86" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="110" t="s">
-        <v>401</v>
-      </c>
-      <c r="B87" s="126">
+        <v>398</v>
+      </c>
+      <c r="B87" s="125">
         <v>0.24</v>
       </c>
       <c r="C87" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="110" t="s">
-        <v>402</v>
-      </c>
-      <c r="B88" s="126">
+        <v>399</v>
+      </c>
+      <c r="B88" s="125">
         <v>0.12</v>
       </c>
       <c r="C88" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="110" t="s">
-        <v>403</v>
-      </c>
-      <c r="B89" s="126">
+        <v>400</v>
+      </c>
+      <c r="B89" s="125">
         <v>0.08</v>
       </c>
       <c r="C89" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="B90" s="126">
+        <v>401</v>
+      </c>
+      <c r="B90" s="125">
         <v>0.08</v>
       </c>
       <c r="C90" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="110" t="s">
-        <v>405</v>
-      </c>
-      <c r="B91" s="126">
+        <v>402</v>
+      </c>
+      <c r="B91" s="125">
         <v>0.06</v>
       </c>
       <c r="C91" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="110" t="s">
-        <v>406</v>
-      </c>
-      <c r="B92" s="126">
+        <v>403</v>
+      </c>
+      <c r="B92" s="125">
         <v>0.08</v>
       </c>
       <c r="C92" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="110" t="s">
-        <v>407</v>
-      </c>
-      <c r="B93" s="126">
+        <v>404</v>
+      </c>
+      <c r="B93" s="125">
         <v>0.08</v>
       </c>
       <c r="C93" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="110" t="s">
-        <v>408</v>
-      </c>
-      <c r="B94" s="126">
+        <v>405</v>
+      </c>
+      <c r="B94" s="125">
         <v>0.04</v>
       </c>
       <c r="C94" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="110" t="s">
-        <v>409</v>
-      </c>
-      <c r="B95" s="126">
+        <v>406</v>
+      </c>
+      <c r="B95" s="125">
         <v>0.06</v>
       </c>
       <c r="C95" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="110" t="s">
-        <v>410</v>
-      </c>
-      <c r="B96" s="126">
+        <v>407</v>
+      </c>
+      <c r="B96" s="125">
         <v>0.04</v>
       </c>
       <c r="C96" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="110" t="s">
-        <v>411</v>
-      </c>
-      <c r="B97" s="126">
+        <v>408</v>
+      </c>
+      <c r="B97" s="125">
         <v>0.06</v>
       </c>
       <c r="C97" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="110" t="s">
-        <v>412</v>
-      </c>
-      <c r="B98" s="126">
+        <v>409</v>
+      </c>
+      <c r="B98" s="125">
         <v>0.04</v>
       </c>
       <c r="C98" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="110" t="s">
-        <v>413</v>
-      </c>
-      <c r="B99" s="126">
+        <v>410</v>
+      </c>
+      <c r="B99" s="125">
         <v>0.08</v>
       </c>
       <c r="C99" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="110" t="s">
-        <v>414</v>
-      </c>
-      <c r="B100" s="126">
+        <v>411</v>
+      </c>
+      <c r="B100" s="125">
         <v>0.08</v>
       </c>
       <c r="C100" s="110" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6763,9 +6766,14 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A45:C45"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{1F7A446C-5D7A-4B50-9048-B28A7F00708E}">
+      <formula1>"Be Lean, Be Green"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6789,10 +6797,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:EI83"/>
+  <dimension ref="A1:EO83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="EF2" sqref="EF2:EF3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="EA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="EB8" sqref="EB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6871,349 +6879,360 @@
     <col min="123" max="123" width="8.21875" style="78" customWidth="1" outlineLevel="1"/>
     <col min="124" max="124" width="20.44140625" style="73" customWidth="1" outlineLevel="1"/>
     <col min="125" max="125" width="3.6640625" style="74" customWidth="1"/>
-    <col min="126" max="130" width="14.6640625" style="73" customWidth="1"/>
-    <col min="131" max="131" width="8.88671875" style="41"/>
-    <col min="132" max="139" width="14.6640625" style="73" customWidth="1"/>
-    <col min="140" max="16384" width="8.88671875" style="41"/>
+    <col min="126" max="126" width="14.6640625" style="73" customWidth="1"/>
+    <col min="127" max="130" width="14.6640625" style="73" customWidth="1" outlineLevel="1"/>
+    <col min="131" max="131" width="3.6640625" style="74" customWidth="1"/>
+    <col min="132" max="132" width="18.109375" style="73" customWidth="1"/>
+    <col min="133" max="133" width="21.5546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18" style="73" customWidth="1"/>
+    <col min="135" max="145" width="14.6640625" style="73" customWidth="1"/>
+    <col min="146" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:145" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="145"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="140"/>
       <c r="P1" s="99"/>
-      <c r="Q1" s="143" t="s">
+      <c r="Q1" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
       <c r="W1" s="99"/>
-      <c r="X1" s="136" t="s">
+      <c r="X1" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="99"/>
-      <c r="AU1" s="143" t="s">
+      <c r="AU1" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" s="144"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="144"/>
-      <c r="AY1" s="144"/>
-      <c r="AZ1" s="144"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
       <c r="BA1" s="99"/>
-      <c r="BB1" s="143" t="s">
+      <c r="BB1" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="BC1" s="144"/>
-      <c r="BD1" s="144"/>
-      <c r="BE1" s="144"/>
-      <c r="BF1" s="144"/>
-      <c r="BG1" s="144"/>
-      <c r="BH1" s="144"/>
-      <c r="BI1" s="144"/>
-      <c r="BJ1" s="144"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
       <c r="BK1" s="100"/>
-      <c r="BL1" s="143" t="s">
+      <c r="BL1" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="BM1" s="144"/>
-      <c r="BN1" s="144"/>
-      <c r="BO1" s="144"/>
-      <c r="BP1" s="144"/>
-      <c r="BQ1" s="144"/>
-      <c r="BR1" s="144"/>
-      <c r="BS1" s="144"/>
-      <c r="BT1" s="144"/>
-      <c r="BU1" s="144"/>
-      <c r="BV1" s="144"/>
-      <c r="BW1" s="144"/>
-      <c r="BX1" s="144"/>
-      <c r="BY1" s="144"/>
-      <c r="BZ1" s="144"/>
-      <c r="CA1" s="144"/>
-      <c r="CB1" s="144"/>
-      <c r="CC1" s="144"/>
-      <c r="CD1" s="144"/>
-      <c r="CE1" s="144"/>
-      <c r="CF1" s="144"/>
-      <c r="CG1" s="144"/>
-      <c r="CH1" s="144"/>
-      <c r="CI1" s="144"/>
-      <c r="CJ1" s="144"/>
-      <c r="CK1" s="144"/>
-      <c r="CL1" s="144"/>
-      <c r="CM1" s="144"/>
-      <c r="CN1" s="144"/>
-      <c r="CO1" s="144"/>
-      <c r="CP1" s="144"/>
-      <c r="CQ1" s="144"/>
-      <c r="CR1" s="144"/>
-      <c r="CS1" s="144"/>
-      <c r="CT1" s="144"/>
-      <c r="CU1" s="144"/>
-      <c r="CV1" s="144"/>
-      <c r="CW1" s="144"/>
-      <c r="CX1" s="144"/>
-      <c r="CY1" s="144"/>
-      <c r="CZ1" s="144"/>
-      <c r="DA1" s="144"/>
-      <c r="DB1" s="144"/>
-      <c r="DC1" s="144"/>
-      <c r="DD1" s="145"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="140"/>
       <c r="DE1" s="99"/>
-      <c r="DF1" s="142" t="s">
+      <c r="DF1" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="DG1" s="142"/>
-      <c r="DH1" s="142"/>
+      <c r="DG1" s="145"/>
+      <c r="DH1" s="145"/>
       <c r="DI1" s="99"/>
-      <c r="DJ1" s="143" t="s">
+      <c r="DJ1" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="DK1" s="144"/>
-      <c r="DL1" s="144"/>
-      <c r="DM1" s="144"/>
-      <c r="DN1" s="144"/>
-      <c r="DO1" s="144"/>
-      <c r="DP1" s="144"/>
-      <c r="DQ1" s="144"/>
-      <c r="DR1" s="144"/>
-      <c r="DS1" s="144"/>
-      <c r="DT1" s="144"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
       <c r="DU1" s="99"/>
-      <c r="DV1" s="143" t="s">
+      <c r="DV1" s="137" t="s">
         <v>311</v>
       </c>
-      <c r="DW1" s="144"/>
-      <c r="DX1" s="144"/>
-      <c r="DY1" s="144"/>
-      <c r="DZ1" s="148"/>
-      <c r="EB1" s="149" t="s">
-        <v>445</v>
-      </c>
-      <c r="EC1" s="114"/>
-      <c r="ED1" s="114"/>
-      <c r="EE1" s="114"/>
-      <c r="EF1" s="114"/>
-      <c r="EG1" s="114"/>
-      <c r="EH1" s="114"/>
-      <c r="EI1" s="114"/>
-    </row>
-    <row r="2" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="139"/>
+      <c r="EA1" s="99"/>
+      <c r="EB1" s="132" t="s">
+        <v>314</v>
+      </c>
+      <c r="EC1" s="132"/>
+      <c r="ED1" s="132"/>
+      <c r="EE1" s="132"/>
+      <c r="EF1" s="132"/>
+      <c r="EG1" s="132"/>
+      <c r="EH1" s="132"/>
+      <c r="EI1" s="132"/>
+      <c r="EJ1" s="132"/>
+      <c r="EK1" s="132"/>
+      <c r="EL1" s="132"/>
+      <c r="EM1" s="132"/>
+      <c r="EN1" s="132"/>
+      <c r="EO1" s="132"/>
+    </row>
+    <row r="2" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I2" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="138" t="s">
+      <c r="J2" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="138" t="s">
+      <c r="K2" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="138" t="s">
+      <c r="L2" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="138" t="s">
+      <c r="M2" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="138" t="s">
+      <c r="N2" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="138" t="s">
+      <c r="O2" s="141" t="s">
         <v>62</v>
       </c>
       <c r="P2" s="73"/>
-      <c r="Q2" s="138" t="s">
+      <c r="Q2" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="138" t="s">
+      <c r="R2" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="S2" s="138" t="s">
+      <c r="S2" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="T2" s="138" t="s">
+      <c r="T2" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="138" t="s">
+      <c r="U2" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="V2" s="138" t="s">
+      <c r="V2" s="141" t="s">
         <v>75</v>
       </c>
       <c r="W2" s="73"/>
-      <c r="X2" s="140" t="s">
+      <c r="X2" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="Y2" s="138" t="s">
+      <c r="Y2" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="Z2" s="138" t="s">
+      <c r="Z2" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" s="138" t="s">
+      <c r="AA2" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="AB2" s="138" t="s">
+      <c r="AB2" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="AC2" s="138" t="s">
+      <c r="AC2" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AD2" s="138" t="s">
+      <c r="AD2" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="AE2" s="138" t="s">
+      <c r="AE2" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="AF2" s="138" t="s">
+      <c r="AF2" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="AG2" s="138" t="s">
+      <c r="AG2" s="141" t="s">
         <v>348</v>
       </c>
-      <c r="AH2" s="138" t="s">
+      <c r="AH2" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="AI2" s="138" t="s">
+      <c r="AI2" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="AJ2" s="146" t="s">
+      <c r="AJ2" s="142" t="s">
         <v>337</v>
       </c>
-      <c r="AK2" s="146" t="s">
+      <c r="AK2" s="142" t="s">
         <v>338</v>
       </c>
-      <c r="AL2" s="146" t="s">
+      <c r="AL2" s="142" t="s">
         <v>333</v>
       </c>
-      <c r="AM2" s="138" t="s">
+      <c r="AM2" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="AN2" s="138" t="s">
+      <c r="AN2" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="138" t="s">
+      <c r="AO2" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="138" t="s">
+      <c r="AP2" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="AQ2" s="138" t="s">
+      <c r="AQ2" s="141" t="s">
         <v>349</v>
       </c>
-      <c r="AR2" s="138" t="s">
+      <c r="AR2" s="141" t="s">
         <v>351</v>
       </c>
-      <c r="AS2" s="138" t="s">
+      <c r="AS2" s="141" t="s">
         <v>183</v>
       </c>
       <c r="AT2" s="73"/>
-      <c r="AU2" s="140" t="s">
+      <c r="AU2" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="AV2" s="140" t="s">
+      <c r="AV2" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="AW2" s="140" t="s">
+      <c r="AW2" s="143" t="s">
         <v>172</v>
       </c>
-      <c r="AX2" s="140" t="s">
+      <c r="AX2" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="AY2" s="140" t="s">
+      <c r="AY2" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="AZ2" s="140" t="s">
+      <c r="AZ2" s="143" t="s">
         <v>112</v>
       </c>
       <c r="BA2" s="73"/>
-      <c r="BB2" s="140" t="s">
+      <c r="BB2" s="143" t="s">
         <v>180</v>
       </c>
-      <c r="BC2" s="140" t="s">
+      <c r="BC2" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" s="140" t="s">
+      <c r="BD2" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="BE2" s="140" t="s">
+      <c r="BE2" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="BF2" s="140" t="s">
+      <c r="BF2" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="BG2" s="140" t="s">
+      <c r="BG2" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="BH2" s="140" t="s">
+      <c r="BH2" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="BI2" s="140" t="s">
+      <c r="BI2" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="BJ2" s="140" t="s">
+      <c r="BJ2" s="143" t="s">
         <v>96</v>
       </c>
       <c r="BK2" s="73"/>
@@ -7351,397 +7370,439 @@
         <v>97</v>
       </c>
       <c r="DE2" s="73"/>
-      <c r="DF2" s="139" t="s">
+      <c r="DF2" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="DG2" s="139" t="s">
+      <c r="DG2" s="148" t="s">
         <v>179</v>
       </c>
-      <c r="DH2" s="139" t="s">
+      <c r="DH2" s="148" t="s">
         <v>178</v>
       </c>
       <c r="DI2" s="73"/>
-      <c r="DJ2" s="134" t="s">
+      <c r="DJ2" s="135" t="s">
         <v>298</v>
       </c>
-      <c r="DK2" s="134" t="s">
+      <c r="DK2" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="DL2" s="135" t="s">
+        <v>432</v>
+      </c>
+      <c r="DM2" s="135" t="s">
+        <v>433</v>
+      </c>
+      <c r="DN2" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="DO2" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="DP2" s="135" t="s">
+        <v>359</v>
+      </c>
+      <c r="DQ2" s="135" t="s">
+        <v>360</v>
+      </c>
+      <c r="DR2" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="DS2" s="135" t="s">
+        <v>362</v>
+      </c>
+      <c r="DT2" s="135" t="s">
+        <v>230</v>
+      </c>
+      <c r="DU2" s="73"/>
+      <c r="DV2" s="135" t="s">
+        <v>441</v>
+      </c>
+      <c r="DW2" s="135" t="s">
+        <v>437</v>
+      </c>
+      <c r="DX2" s="135" t="s">
+        <v>438</v>
+      </c>
+      <c r="DY2" s="135" t="s">
+        <v>439</v>
+      </c>
+      <c r="DZ2" s="135" t="s">
+        <v>440</v>
+      </c>
+      <c r="EA2" s="73"/>
+      <c r="EB2" s="135" t="s">
+        <v>442</v>
+      </c>
+      <c r="EC2" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED2" s="135" t="s">
+        <v>417</v>
+      </c>
+      <c r="EE2" s="135" t="s">
+        <v>412</v>
+      </c>
+      <c r="EF2" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="EG2" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="EH2" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="EI2" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="EJ2" s="135" t="s">
+        <v>416</v>
+      </c>
+      <c r="EK2" s="135" t="s">
+        <v>419</v>
+      </c>
+      <c r="EL2" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="EM2" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="DL2" s="134" t="s">
-        <v>435</v>
-      </c>
-      <c r="DM2" s="134" t="s">
-        <v>436</v>
-      </c>
-      <c r="DN2" s="134" t="s">
-        <v>225</v>
-      </c>
-      <c r="DO2" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="DP2" s="134" t="s">
-        <v>361</v>
-      </c>
-      <c r="DQ2" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="DR2" s="134" t="s">
-        <v>363</v>
-      </c>
-      <c r="DS2" s="134" t="s">
-        <v>364</v>
-      </c>
-      <c r="DT2" s="134" t="s">
-        <v>230</v>
-      </c>
-      <c r="DU2" s="73"/>
-      <c r="DV2" s="134" t="s">
-        <v>444</v>
-      </c>
-      <c r="DW2" s="134" t="s">
-        <v>440</v>
-      </c>
-      <c r="DX2" s="134" t="s">
-        <v>441</v>
-      </c>
-      <c r="DY2" s="134" t="s">
-        <v>442</v>
-      </c>
-      <c r="DZ2" s="134" t="s">
-        <v>443</v>
-      </c>
-      <c r="EB2" s="134"/>
-      <c r="EC2" s="134"/>
-      <c r="ED2" s="134"/>
-      <c r="EE2" s="134"/>
-      <c r="EF2" s="134"/>
-      <c r="EG2" s="134"/>
-      <c r="EH2" s="134"/>
-      <c r="EI2" s="134"/>
-    </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
+      <c r="EN2" s="135" t="s">
+        <v>423</v>
+      </c>
+      <c r="EO2" s="135" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
       <c r="P3" s="73"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
       <c r="W3" s="73"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138" t="s">
+      <c r="X3" s="144"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AB3" s="138" t="s">
+      <c r="AB3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" s="138" t="s">
+      <c r="AC3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AD3" s="138" t="s">
+      <c r="AD3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AE3" s="138" t="s">
+      <c r="AE3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AF3" s="138" t="s">
+      <c r="AF3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138" t="s">
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AI3" s="138" t="s">
+      <c r="AI3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="146" t="s">
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="AL3" s="146" t="s">
+      <c r="AL3" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="AM3" s="138" t="s">
+      <c r="AM3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AN3" s="138"/>
-      <c r="AO3" s="138" t="s">
+      <c r="AN3" s="141"/>
+      <c r="AO3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AP3" s="138" t="s">
+      <c r="AP3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AQ3" s="138" t="s">
+      <c r="AQ3" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="138"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="141"/>
       <c r="AT3" s="73"/>
-      <c r="AU3" s="141"/>
-      <c r="AV3" s="141"/>
-      <c r="AW3" s="141"/>
-      <c r="AX3" s="141"/>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141"/>
+      <c r="AU3" s="144"/>
+      <c r="AV3" s="144"/>
+      <c r="AW3" s="144"/>
+      <c r="AX3" s="144"/>
+      <c r="AY3" s="144"/>
+      <c r="AZ3" s="144"/>
       <c r="BA3" s="73"/>
-      <c r="BB3" s="141"/>
-      <c r="BC3" s="141"/>
-      <c r="BD3" s="141"/>
-      <c r="BE3" s="141"/>
-      <c r="BF3" s="141"/>
-      <c r="BG3" s="141"/>
-      <c r="BH3" s="141"/>
-      <c r="BI3" s="141"/>
-      <c r="BJ3" s="141"/>
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="144"/>
+      <c r="BD3" s="144"/>
+      <c r="BE3" s="144"/>
+      <c r="BF3" s="144"/>
+      <c r="BG3" s="144"/>
+      <c r="BH3" s="144"/>
+      <c r="BI3" s="144"/>
+      <c r="BJ3" s="144"/>
       <c r="BK3" s="96" t="s">
         <v>116</v>
       </c>
       <c r="BL3" s="97"/>
-      <c r="BM3" s="122">
+      <c r="BM3" s="121">
         <f>'Performance inputs'!B61</f>
         <v>0.16</v>
       </c>
-      <c r="BN3" s="122">
+      <c r="BN3" s="121">
         <f>'Performance inputs'!B62</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BO3" s="122">
+      <c r="BO3" s="121">
         <f>'Performance inputs'!B63</f>
         <v>0.32</v>
       </c>
-      <c r="BP3" s="122">
+      <c r="BP3" s="121">
         <f>'Performance inputs'!B64</f>
         <v>0.32</v>
       </c>
-      <c r="BQ3" s="122">
+      <c r="BQ3" s="121">
         <f>'Performance inputs'!B65</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BR3" s="122">
+      <c r="BR3" s="121">
         <f>'Performance inputs'!B66</f>
         <v>0</v>
       </c>
-      <c r="BS3" s="122">
+      <c r="BS3" s="121">
         <f>'Performance inputs'!B67</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BT3" s="122">
+      <c r="BT3" s="121">
         <f>'Performance inputs'!B82</f>
         <v>0.08</v>
       </c>
-      <c r="BU3" s="122">
+      <c r="BU3" s="121">
         <f>'Performance inputs'!B83</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BV3" s="122">
+      <c r="BV3" s="121">
         <f>'Performance inputs'!B86</f>
         <v>0.16</v>
       </c>
-      <c r="BW3" s="122">
+      <c r="BW3" s="121">
         <f>'Performance inputs'!B87</f>
         <v>0.24</v>
       </c>
-      <c r="BX3" s="122">
+      <c r="BX3" s="121">
         <f>'Performance inputs'!B84</f>
         <v>0</v>
       </c>
-      <c r="BY3" s="122">
+      <c r="BY3" s="121">
         <f>'Performance inputs'!B85</f>
         <v>0</v>
       </c>
-      <c r="BZ3" s="122">
+      <c r="BZ3" s="121">
         <f>'Performance inputs'!B71</f>
         <v>0.06</v>
       </c>
-      <c r="CA3" s="122">
+      <c r="CA3" s="121">
         <f>'Performance inputs'!B70</f>
         <v>0.02</v>
       </c>
-      <c r="CB3" s="122">
+      <c r="CB3" s="121">
         <f>'Performance inputs'!B72</f>
         <v>0.24</v>
       </c>
-      <c r="CC3" s="122">
+      <c r="CC3" s="121">
         <f>'Performance inputs'!B73</f>
         <v>0.04</v>
       </c>
-      <c r="CD3" s="122">
+      <c r="CD3" s="121">
         <f>'Performance inputs'!B74</f>
         <v>0.06</v>
       </c>
-      <c r="CE3" s="122">
+      <c r="CE3" s="121">
         <f>'Performance inputs'!B75</f>
         <v>0.08</v>
       </c>
-      <c r="CF3" s="122">
+      <c r="CF3" s="121">
         <f>'Performance inputs'!B76</f>
         <v>0.08</v>
       </c>
-      <c r="CG3" s="122">
+      <c r="CG3" s="121">
         <f>'Performance inputs'!B77</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="CH3" s="122">
+      <c r="CH3" s="121">
         <f>'Performance inputs'!B88</f>
         <v>0.12</v>
       </c>
-      <c r="CI3" s="122">
+      <c r="CI3" s="121">
         <f>'Performance inputs'!B89</f>
         <v>0.08</v>
       </c>
-      <c r="CJ3" s="122">
+      <c r="CJ3" s="121">
         <f>'Performance inputs'!B93</f>
         <v>0.08</v>
       </c>
-      <c r="CK3" s="122">
+      <c r="CK3" s="121">
         <f>'Performance inputs'!B94</f>
         <v>0.04</v>
       </c>
-      <c r="CL3" s="122">
+      <c r="CL3" s="121">
         <f>'Performance inputs'!B95</f>
         <v>0.06</v>
       </c>
-      <c r="CM3" s="122">
+      <c r="CM3" s="121">
         <f>'Performance inputs'!B96</f>
         <v>0.04</v>
       </c>
-      <c r="CN3" s="122">
+      <c r="CN3" s="121">
         <f>'Performance inputs'!B97</f>
         <v>0.06</v>
       </c>
-      <c r="CO3" s="122">
+      <c r="CO3" s="121">
         <f>'Performance inputs'!B98</f>
         <v>0.04</v>
       </c>
-      <c r="CP3" s="122">
+      <c r="CP3" s="121">
         <f>'Performance inputs'!B99</f>
         <v>0.08</v>
       </c>
-      <c r="CQ3" s="122">
+      <c r="CQ3" s="121">
         <f>'Performance inputs'!B100</f>
         <v>0.08</v>
       </c>
-      <c r="CR3" s="122">
+      <c r="CR3" s="121">
         <f>'Performance inputs'!B78</f>
         <v>0.09</v>
       </c>
-      <c r="CS3" s="122">
+      <c r="CS3" s="121">
         <f>'Performance inputs'!B79</f>
         <v>-0.09</v>
       </c>
-      <c r="CT3" s="122">
+      <c r="CT3" s="121">
         <f>'Performance inputs'!B80</f>
         <v>0.06</v>
       </c>
-      <c r="CU3" s="122">
+      <c r="CU3" s="121">
         <f>'Performance inputs'!B81</f>
         <v>0.06</v>
       </c>
-      <c r="CV3" s="122">
+      <c r="CV3" s="121">
         <f>'Performance inputs'!B57</f>
         <v>0.05</v>
       </c>
-      <c r="CW3" s="122">
+      <c r="CW3" s="121">
         <f>'Performance inputs'!B58</f>
         <v>0.05</v>
       </c>
-      <c r="CX3" s="122">
+      <c r="CX3" s="121">
         <f>'Performance inputs'!B59</f>
         <v>0.05</v>
       </c>
-      <c r="CY3" s="122">
+      <c r="CY3" s="121">
         <f>'Performance inputs'!B60</f>
         <v>0.05</v>
       </c>
-      <c r="CZ3" s="122">
+      <c r="CZ3" s="121">
         <f>'Performance inputs'!B68</f>
         <v>0</v>
       </c>
-      <c r="DA3" s="122">
+      <c r="DA3" s="121">
         <f>'Performance inputs'!B69</f>
         <v>0.02</v>
       </c>
-      <c r="DB3" s="122">
+      <c r="DB3" s="121">
         <f>'Performance inputs'!B90</f>
         <v>0.08</v>
       </c>
-      <c r="DC3" s="122">
+      <c r="DC3" s="121">
         <f>'Performance inputs'!B91</f>
         <v>0.06</v>
       </c>
-      <c r="DD3" s="122">
+      <c r="DD3" s="121">
         <f>'Performance inputs'!B92</f>
         <v>0.08</v>
       </c>
       <c r="DE3" s="73"/>
-      <c r="DF3" s="139"/>
-      <c r="DG3" s="139"/>
-      <c r="DH3" s="139"/>
+      <c r="DF3" s="148"/>
+      <c r="DG3" s="148"/>
+      <c r="DH3" s="148"/>
       <c r="DI3" s="73"/>
-      <c r="DJ3" s="135"/>
-      <c r="DK3" s="135"/>
-      <c r="DL3" s="135"/>
-      <c r="DM3" s="135"/>
-      <c r="DN3" s="135"/>
-      <c r="DO3" s="135"/>
-      <c r="DP3" s="135"/>
-      <c r="DQ3" s="135"/>
-      <c r="DR3" s="135"/>
-      <c r="DS3" s="135"/>
-      <c r="DT3" s="135"/>
+      <c r="DJ3" s="136"/>
+      <c r="DK3" s="136"/>
+      <c r="DL3" s="136"/>
+      <c r="DM3" s="136"/>
+      <c r="DN3" s="136"/>
+      <c r="DO3" s="136"/>
+      <c r="DP3" s="136"/>
+      <c r="DQ3" s="136"/>
+      <c r="DR3" s="136"/>
+      <c r="DS3" s="136"/>
+      <c r="DT3" s="136"/>
       <c r="DU3" s="73"/>
-      <c r="DV3" s="135"/>
-      <c r="DW3" s="135"/>
-      <c r="DX3" s="135"/>
-      <c r="DY3" s="135"/>
-      <c r="DZ3" s="135"/>
-      <c r="EB3" s="135"/>
-      <c r="EC3" s="135"/>
-      <c r="ED3" s="135"/>
-      <c r="EE3" s="135"/>
-      <c r="EF3" s="135"/>
-      <c r="EG3" s="135"/>
-      <c r="EH3" s="135"/>
-      <c r="EI3" s="135"/>
-    </row>
-    <row r="4" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="DV3" s="136"/>
+      <c r="DW3" s="136"/>
+      <c r="DX3" s="136"/>
+      <c r="DY3" s="136"/>
+      <c r="DZ3" s="136"/>
+      <c r="EA3" s="73"/>
+      <c r="EB3" s="136"/>
+      <c r="EC3" s="136"/>
+      <c r="ED3" s="136"/>
+      <c r="EE3" s="136"/>
+      <c r="EF3" s="136"/>
+      <c r="EG3" s="136"/>
+      <c r="EH3" s="136"/>
+      <c r="EI3" s="136"/>
+      <c r="EJ3" s="136"/>
+      <c r="EK3" s="136"/>
+      <c r="EL3" s="136"/>
+      <c r="EM3" s="136"/>
+      <c r="EN3" s="136"/>
+      <c r="EO3" s="136"/>
+    </row>
+    <row r="4" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="98" t="str" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Unit 1</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="117" t="s">
         <v>153</v>
       </c>
       <c r="H4" s="102">
@@ -7759,7 +7820,7 @@
       <c r="L4" s="103">
         <v>2</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="115" t="s">
         <v>140</v>
       </c>
       <c r="N4" s="103">
@@ -7787,10 +7848,10 @@
         <f>IF(SUMIF($X$4:$X$50,Q4,$AA$4:$AA$50)+SUMIF($X$4:$X$50,Q4,$AD$4:$AD$50)=0,"",SUMIF($X$4:$X$50,Q4,$AA$4:$AA$50)+SUMIF($X$4:$X$50,Q4,$AD$4:$AD$50))</f>
         <v>31</v>
       </c>
-      <c r="X4" s="121">
+      <c r="X4" s="120">
         <v>1</v>
       </c>
-      <c r="Y4" s="121" t="s">
+      <c r="Y4" s="120" t="s">
         <v>184</v>
       </c>
       <c r="Z4" s="103" t="s">
@@ -7803,7 +7864,7 @@
         <f>_xlfn.IFNA(AA4*VLOOKUP($X4,$Q$4:$T$50,3,FALSE),"")</f>
         <v>42</v>
       </c>
-      <c r="AC4" s="124">
+      <c r="AC4" s="123">
         <f>IF($Y4="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0.18</v>
       </c>
@@ -7812,11 +7873,11 @@
         <f>_xlfn.IFNA(AD4*VLOOKUP($X4,$Q$4:$T$50,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="124">
+      <c r="AF4" s="123">
         <f>IF($Y4="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="124">
+      <c r="AG4" s="123">
         <f>IF($Y4="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -7826,22 +7887,22 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="103"/>
-      <c r="AK4" s="124">
+      <c r="AK4" s="123">
         <f>IF($Y4="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="124">
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="123">
         <f>IF($Y4="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN4" s="103"/>
-      <c r="AO4" s="124">
+      <c r="AO4" s="123">
         <f>IF($Y4="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="124">
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="123">
         <f>IF($Y4="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
@@ -7850,37 +7911,37 @@
       <c r="AU4" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="AV4" s="121" t="s">
+      <c r="AV4" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="AW4" s="121" t="s">
+      <c r="AW4" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="AX4" s="124">
+      <c r="AX4" s="123">
         <f>IF(OR($AV4="Window",$AV4="RoofWindow"),'Performance inputs'!$B$10,IF($AV4="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>1.2</v>
       </c>
-      <c r="AY4" s="124">
+      <c r="AY4" s="123">
         <f>IF(OR($AV4="Window",$AV4="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0.45</v>
       </c>
-      <c r="AZ4" s="124">
+      <c r="AZ4" s="123">
         <f>IF(OR($AV4="Window",$AV4="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0.8</v>
       </c>
-      <c r="BB4" s="121">
+      <c r="BB4" s="120">
         <v>1</v>
       </c>
       <c r="BC4" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="BD4" s="120" t="s">
+      <c r="BD4" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="BE4" s="120" t="s">
+      <c r="BE4" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="BF4" s="120" t="s">
+      <c r="BF4" s="119" t="s">
         <v>117</v>
       </c>
       <c r="BG4" s="104">
@@ -7946,82 +8007,130 @@
       <c r="DB4" s="97"/>
       <c r="DC4" s="97"/>
       <c r="DD4" s="97"/>
-      <c r="DF4" s="139"/>
-      <c r="DG4" s="139"/>
-      <c r="DH4" s="139"/>
-      <c r="DJ4" s="130" t="str">
+      <c r="DF4" s="148"/>
+      <c r="DG4" s="148"/>
+      <c r="DH4" s="148"/>
+      <c r="DJ4" s="129" t="str">
         <f>'Performance inputs'!B15</f>
         <v>Yes</v>
       </c>
-      <c r="DK4" s="130" t="str">
+      <c r="DK4" s="129" t="str">
         <f>'Performance inputs'!B16</f>
         <v>DataSheet</v>
       </c>
-      <c r="DL4" s="130" t="str">
+      <c r="DL4" s="129" t="str">
         <f>'Performance inputs'!B17</f>
         <v>BalancedWithHeatRecovery</v>
       </c>
-      <c r="DM4" s="130" t="str">
+      <c r="DM4" s="129" t="str">
         <f>'Performance inputs'!B18</f>
         <v>Lindab</v>
       </c>
-      <c r="DN4" s="130">
+      <c r="DN4" s="129">
         <f>'Performance inputs'!B19</f>
         <v>0.65</v>
       </c>
-      <c r="DO4" s="115">
+      <c r="DO4" s="114">
         <f>'Performance inputs'!B20</f>
         <v>85</v>
       </c>
-      <c r="DP4" s="131">
+      <c r="DP4" s="130">
         <f>'Performance inputs'!B21</f>
         <v>1</v>
       </c>
-      <c r="DQ4" s="130" t="str">
+      <c r="DQ4" s="129" t="str">
         <f>'Performance inputs'!B22</f>
         <v>Inside</v>
       </c>
-      <c r="DR4" s="130" t="str">
+      <c r="DR4" s="129" t="str">
         <f>'Performance inputs'!B23</f>
         <v>Level1</v>
       </c>
-      <c r="DS4" s="130" t="str">
+      <c r="DS4" s="129" t="str">
         <f>'Performance inputs'!B24</f>
         <v>Rigid</v>
       </c>
-      <c r="DT4" s="130">
+      <c r="DT4" s="129">
         <f>'Performance inputs'!B25</f>
         <v>3</v>
       </c>
-      <c r="DV4" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="DW4" s="130">
+      <c r="DV4" s="129" t="s">
+        <v>436</v>
+      </c>
+      <c r="DW4" s="129">
         <f>'Performance inputs'!B28</f>
         <v>90</v>
       </c>
-      <c r="DX4" s="130">
+      <c r="DX4" s="129">
         <f>'Performance inputs'!B27</f>
         <v>7</v>
       </c>
-      <c r="DY4" s="147">
+      <c r="DY4" s="131">
         <f>DX4*DW4</f>
         <v>630</v>
       </c>
-      <c r="DZ4" s="130">
+      <c r="DZ4" s="129">
         <f>'Performance inputs'!B29</f>
         <v>10</v>
       </c>
-      <c r="EB4" s="130"/>
-      <c r="EC4" s="130"/>
-      <c r="ED4" s="130"/>
-      <c r="EE4" s="130"/>
-      <c r="EF4" s="130"/>
-      <c r="EG4" s="130"/>
-      <c r="EH4" s="130"/>
-      <c r="EI4" s="130"/>
-    </row>
-    <row r="5" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EB4" s="129" t="str">
+        <f>'Performance inputs'!B31</f>
+        <v>Be Green</v>
+      </c>
+      <c r="EC4" s="129" t="str">
+        <f>'Performance inputs'!B32</f>
+        <v>Space and water combined</v>
+      </c>
+      <c r="ED4" s="129" t="str">
+        <f>'Performance inputs'!B33</f>
+        <v>calculated</v>
+      </c>
+      <c r="EE4" s="129">
+        <f>'Performance inputs'!B34</f>
+        <v>1</v>
+      </c>
+      <c r="EF4" s="129">
+        <f>'Performance inputs'!B35</f>
+        <v>2306</v>
+      </c>
+      <c r="EG4" s="129" t="str">
+        <f>'Performance inputs'!B36</f>
+        <v>boiler</v>
+      </c>
+      <c r="EH4" s="129" t="str">
+        <f>'Performance inputs'!B37</f>
+        <v>mains gas</v>
+      </c>
+      <c r="EI4" s="129">
+        <f>'Performance inputs'!B38</f>
+        <v>100</v>
+      </c>
+      <c r="EJ4" s="129">
+        <f>'Performance inputs'!B39</f>
+        <v>92</v>
+      </c>
+      <c r="EK4" s="129" t="str">
+        <f>'Performance inputs'!B40</f>
+        <v>heat networks</v>
+      </c>
+      <c r="EL4" s="129" t="str">
+        <f>'Performance inputs'!B41</f>
+        <v>from mains</v>
+      </c>
+      <c r="EM4" s="129">
+        <f>'Performance inputs'!B42</f>
+        <v>1</v>
+      </c>
+      <c r="EN4" s="129">
+        <f>'Performance inputs'!B43</f>
+        <v>1</v>
+      </c>
+      <c r="EO4" s="129" t="str">
+        <f>'Performance inputs'!B44</f>
+        <v>HIU</v>
+      </c>
+    </row>
+    <row r="5" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="76"/>
@@ -8036,10 +8145,10 @@
         <f>IF(SUMIF($X$4:$X$50,Q5,$AA$4:$AA$50)+SUMIF($X$4:$X$50,Q5,$AD$4:$AD$50)=0,"",SUMIF($X$4:$X$50,Q5,$AA$4:$AA$50)+SUMIF($X$4:$X$50,Q5,$AD$4:$AD$50))</f>
         <v/>
       </c>
-      <c r="X5" s="121">
+      <c r="X5" s="120">
         <v>1</v>
       </c>
-      <c r="Y5" s="121" t="s">
+      <c r="Y5" s="120" t="s">
         <v>184</v>
       </c>
       <c r="Z5" s="103" t="s">
@@ -8052,7 +8161,7 @@
         <f t="shared" ref="AB5:AB50" si="1">_xlfn.IFNA(AA5*VLOOKUP($X5,$Q$4:$T$50,3,FALSE),"")</f>
         <v>30.799999999999997</v>
       </c>
-      <c r="AC5" s="124">
+      <c r="AC5" s="123">
         <f>IF($Y5="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0.18</v>
       </c>
@@ -8061,11 +8170,11 @@
         <f t="shared" ref="AE5:AE50" si="2">_xlfn.IFNA(AD5*VLOOKUP($X5,$Q$4:$T$50,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="124">
+      <c r="AF5" s="123">
         <f>IF($Y5="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="124">
+      <c r="AG5" s="123">
         <f>IF($Y5="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -8075,22 +8184,22 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="103"/>
-      <c r="AK5" s="124">
+      <c r="AK5" s="123">
         <f>IF($Y5="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="124">
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="123">
         <f>IF($Y5="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN5" s="103"/>
-      <c r="AO5" s="124">
+      <c r="AO5" s="123">
         <f>IF($Y5="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="124">
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="123">
         <f>IF($Y5="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
@@ -8099,35 +8208,35 @@
       <c r="AU5" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="AV5" s="121" t="s">
+      <c r="AV5" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="AW5" s="121"/>
-      <c r="AX5" s="124">
+      <c r="AW5" s="120"/>
+      <c r="AX5" s="123">
         <f>IF(OR($AV5="Window",$AV5="RoofWindow"),'Performance inputs'!$B$10,IF($AV5="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>1</v>
       </c>
-      <c r="AY5" s="124">
+      <c r="AY5" s="123">
         <f>IF(OR($AV5="Window",$AV5="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ5" s="124">
+      <c r="AZ5" s="123">
         <f>IF(OR($AV5="Window",$AV5="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB5" s="121">
+      <c r="BB5" s="120">
         <v>1</v>
       </c>
       <c r="BC5" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="BD5" s="121" t="s">
+      <c r="BD5" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="BE5" s="121" t="s">
+      <c r="BE5" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="BF5" s="121" t="s">
+      <c r="BF5" s="120" t="s">
         <v>119</v>
       </c>
       <c r="BG5" s="103">
@@ -8229,7 +8338,7 @@
       <c r="DN5" s="76"/>
       <c r="DS5" s="76"/>
     </row>
-    <row r="6" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6" s="103"/>
       <c r="R6" s="103"/>
       <c r="S6" s="103"/>
@@ -8239,10 +8348,10 @@
         <f t="shared" ref="V6:V50" si="5">IF(SUMIF($X$4:$X$50,Q6,$AA$4:$AA$50)+SUMIF($X$4:$X$50,Q6,$AD$4:$AD$50)=0,"",SUMIF($X$4:$X$50,Q6,$AA$4:$AA$50)+SUMIF($X$4:$X$50,Q6,$AD$4:$AD$50))</f>
         <v/>
       </c>
-      <c r="X6" s="121">
+      <c r="X6" s="120">
         <v>1</v>
       </c>
-      <c r="Y6" s="121" t="s">
+      <c r="Y6" s="120" t="s">
         <v>168</v>
       </c>
       <c r="Z6" s="103" t="s">
@@ -8253,7 +8362,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="124">
+      <c r="AC6" s="123">
         <f>IF($Y6="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -8264,11 +8373,11 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AF6" s="124">
+      <c r="AF6" s="123">
         <f>IF($Y6="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0.2</v>
       </c>
-      <c r="AG6" s="124">
+      <c r="AG6" s="123">
         <f>IF($Y6="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0.6</v>
       </c>
@@ -8278,55 +8387,55 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="103"/>
-      <c r="AK6" s="124">
+      <c r="AK6" s="123">
         <f>IF($Y6="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="124">
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="123">
         <f>IF($Y6="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN6" s="103"/>
-      <c r="AO6" s="124">
+      <c r="AO6" s="123">
         <f>IF($Y6="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="124">
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="123">
         <f>IF($Y6="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR6" s="103"/>
       <c r="AS6" s="103"/>
       <c r="AU6" s="103"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="121"/>
-      <c r="AX6" s="124">
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="120"/>
+      <c r="AX6" s="123">
         <f>IF(OR($AV6="Window",$AV6="RoofWindow"),'Performance inputs'!$B$10,IF($AV6="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="124">
+      <c r="AY6" s="123">
         <f>IF(OR($AV6="Window",$AV6="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ6" s="124">
+      <c r="AZ6" s="123">
         <f>IF(OR($AV6="Window",$AV6="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB6" s="121">
+      <c r="BB6" s="120">
         <v>1</v>
       </c>
       <c r="BC6" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="BD6" s="121" t="s">
+      <c r="BD6" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="BE6" s="121" t="s">
+      <c r="BE6" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="BF6" s="121" t="s">
+      <c r="BF6" s="120" t="s">
         <v>119</v>
       </c>
       <c r="BG6" s="103">
@@ -8403,7 +8512,7 @@
       <c r="DN6" s="76"/>
       <c r="DS6" s="76"/>
     </row>
-    <row r="7" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="76"/>
       <c r="J7" s="76"/>
       <c r="L7" s="75"/>
@@ -8416,10 +8525,10 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X7" s="121">
+      <c r="X7" s="120">
         <v>1</v>
       </c>
-      <c r="Y7" s="121" t="s">
+      <c r="Y7" s="120" t="s">
         <v>169</v>
       </c>
       <c r="Z7" s="103" t="s">
@@ -8430,7 +8539,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="124">
+      <c r="AC7" s="123">
         <f>IF($Y7="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -8439,11 +8548,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="124">
+      <c r="AF7" s="123">
         <f>IF($Y7="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="124">
+      <c r="AG7" s="123">
         <f>IF($Y7="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -8455,47 +8564,47 @@
         <v>39.199999999999996</v>
       </c>
       <c r="AJ7" s="103"/>
-      <c r="AK7" s="124">
+      <c r="AK7" s="123">
         <f>IF($Y7="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="124">
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="123">
         <f>IF($Y7="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN7" s="103"/>
-      <c r="AO7" s="124">
+      <c r="AO7" s="123">
         <f>IF($Y7="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="124">
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="123">
         <f>IF($Y7="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR7" s="103"/>
       <c r="AS7" s="103"/>
       <c r="AU7" s="103"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="124">
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
+      <c r="AX7" s="123">
         <f>IF(OR($AV7="Window",$AV7="RoofWindow"),'Performance inputs'!$B$10,IF($AV7="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="124">
+      <c r="AY7" s="123">
         <f>IF(OR($AV7="Window",$AV7="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ7" s="124">
+      <c r="AZ7" s="123">
         <f>IF(OR($AV7="Window",$AV7="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB7" s="121"/>
+      <c r="BB7" s="120"/>
       <c r="BC7" s="103"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="121"/>
+      <c r="BD7" s="120"/>
+      <c r="BE7" s="120"/>
+      <c r="BF7" s="120"/>
       <c r="BG7" s="103"/>
       <c r="BH7" s="103"/>
       <c r="BJ7" s="103"/>
@@ -8560,7 +8669,7 @@
       <c r="DN7" s="76"/>
       <c r="DS7" s="76"/>
     </row>
-    <row r="8" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="D8" s="75"/>
       <c r="E8" s="76"/>
@@ -8577,10 +8686,10 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X8" s="121">
+      <c r="X8" s="120">
         <v>1</v>
       </c>
-      <c r="Y8" s="121" t="s">
+      <c r="Y8" s="120" t="s">
         <v>166</v>
       </c>
       <c r="Z8" s="103" t="s">
@@ -8591,7 +8700,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="124">
+      <c r="AC8" s="123">
         <f>IF($Y8="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -8600,11 +8709,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="124">
+      <c r="AF8" s="123">
         <f>IF($Y8="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="124">
+      <c r="AG8" s="123">
         <f>IF($Y8="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -8614,22 +8723,22 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="103"/>
-      <c r="AK8" s="124">
+      <c r="AK8" s="123">
         <f>IF($Y8="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="124">
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="123">
         <f>IF($Y8="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN8" s="103"/>
-      <c r="AO8" s="124">
+      <c r="AO8" s="123">
         <f>IF($Y8="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="124">
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="123">
         <f>IF($Y8="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
@@ -8638,25 +8747,25 @@
       </c>
       <c r="AS8" s="103"/>
       <c r="AU8" s="103"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
-      <c r="AX8" s="124">
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="123">
         <f>IF(OR($AV8="Window",$AV8="RoofWindow"),'Performance inputs'!$B$10,IF($AV8="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="124">
+      <c r="AY8" s="123">
         <f>IF(OR($AV8="Window",$AV8="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ8" s="124">
+      <c r="AZ8" s="123">
         <f>IF(OR($AV8="Window",$AV8="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB8" s="121"/>
+      <c r="BB8" s="120"/>
       <c r="BC8" s="103"/>
-      <c r="BD8" s="121"/>
-      <c r="BE8" s="121"/>
-      <c r="BF8" s="121"/>
+      <c r="BD8" s="120"/>
+      <c r="BE8" s="120"/>
+      <c r="BF8" s="120"/>
       <c r="BG8" s="103"/>
       <c r="BH8" s="103"/>
       <c r="BJ8" s="103"/>
@@ -8721,7 +8830,7 @@
       <c r="DN8" s="76"/>
       <c r="DS8" s="76"/>
     </row>
-    <row r="9" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="75"/>
       <c r="D9" s="75"/>
       <c r="E9" s="76"/>
@@ -8738,10 +8847,10 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X9" s="121">
+      <c r="X9" s="120">
         <v>1</v>
       </c>
-      <c r="Y9" s="121" t="s">
+      <c r="Y9" s="120" t="s">
         <v>167</v>
       </c>
       <c r="Z9" s="103" t="s">
@@ -8752,7 +8861,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="124">
+      <c r="AC9" s="123">
         <f>IF($Y9="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -8761,11 +8870,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="124">
+      <c r="AF9" s="123">
         <f>IF($Y9="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="124">
+      <c r="AG9" s="123">
         <f>IF($Y9="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -8775,22 +8884,22 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="103"/>
-      <c r="AK9" s="124">
+      <c r="AK9" s="123">
         <f>IF($Y9="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="124">
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="123">
         <f>IF($Y9="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN9" s="103"/>
-      <c r="AO9" s="124">
+      <c r="AO9" s="123">
         <f>IF($Y9="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="124">
+      <c r="AP9" s="120"/>
+      <c r="AQ9" s="123">
         <f>IF($Y9="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
@@ -8799,25 +8908,25 @@
         <v>20</v>
       </c>
       <c r="AU9" s="103"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
-      <c r="AX9" s="124">
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
+      <c r="AX9" s="123">
         <f>IF(OR($AV9="Window",$AV9="RoofWindow"),'Performance inputs'!$B$10,IF($AV9="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="124">
+      <c r="AY9" s="123">
         <f>IF(OR($AV9="Window",$AV9="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ9" s="124">
+      <c r="AZ9" s="123">
         <f>IF(OR($AV9="Window",$AV9="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB9" s="121"/>
+      <c r="BB9" s="120"/>
       <c r="BC9" s="103"/>
-      <c r="BD9" s="121"/>
-      <c r="BE9" s="121"/>
-      <c r="BF9" s="121"/>
+      <c r="BD9" s="120"/>
+      <c r="BE9" s="120"/>
+      <c r="BF9" s="120"/>
       <c r="BG9" s="103"/>
       <c r="BH9" s="103"/>
       <c r="BJ9" s="103"/>
@@ -8882,7 +8991,7 @@
       <c r="DN9" s="76"/>
       <c r="DS9" s="76"/>
     </row>
-    <row r="10" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="75"/>
       <c r="D10" s="75"/>
       <c r="E10" s="76"/>
@@ -8899,10 +9008,10 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X10" s="121">
+      <c r="X10" s="120">
         <v>1</v>
       </c>
-      <c r="Y10" s="121" t="s">
+      <c r="Y10" s="120" t="s">
         <v>197</v>
       </c>
       <c r="Z10" s="103" t="s">
@@ -8913,7 +9022,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="124">
+      <c r="AC10" s="123">
         <f>IF($Y10="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -8922,11 +9031,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="124">
+      <c r="AF10" s="123">
         <f>IF($Y10="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="124">
+      <c r="AG10" s="123">
         <f>IF($Y10="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -8938,49 +9047,49 @@
       <c r="AJ10" s="103">
         <v>10</v>
       </c>
-      <c r="AK10" s="124">
+      <c r="AK10" s="123">
         <f>IF($Y10="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0.11</v>
       </c>
-      <c r="AL10" s="123" t="s">
+      <c r="AL10" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="AM10" s="124">
+      <c r="AM10" s="123">
         <f>IF($Y10="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN10" s="103"/>
-      <c r="AO10" s="124">
+      <c r="AO10" s="123">
         <f>IF($Y10="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="124">
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="123">
         <f>IF($Y10="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR10" s="103"/>
       <c r="AS10" s="103"/>
       <c r="AU10" s="103"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
-      <c r="AX10" s="124">
+      <c r="AV10" s="120"/>
+      <c r="AW10" s="120"/>
+      <c r="AX10" s="123">
         <f>IF(OR($AV10="Window",$AV10="RoofWindow"),'Performance inputs'!$B$10,IF($AV10="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="124">
+      <c r="AY10" s="123">
         <f>IF(OR($AV10="Window",$AV10="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ10" s="124">
+      <c r="AZ10" s="123">
         <f>IF(OR($AV10="Window",$AV10="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB10" s="121"/>
+      <c r="BB10" s="120"/>
       <c r="BC10" s="103"/>
-      <c r="BD10" s="121"/>
-      <c r="BE10" s="121"/>
-      <c r="BF10" s="121"/>
+      <c r="BD10" s="120"/>
+      <c r="BE10" s="120"/>
+      <c r="BF10" s="120"/>
       <c r="BG10" s="103"/>
       <c r="BH10" s="103"/>
       <c r="BJ10" s="103"/>
@@ -9045,7 +9154,7 @@
       <c r="DN10" s="76"/>
       <c r="DS10" s="76"/>
     </row>
-    <row r="11" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q11" s="103"/>
       <c r="R11" s="103"/>
       <c r="S11" s="103"/>
@@ -9055,10 +9164,10 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X11" s="121">
+      <c r="X11" s="120">
         <v>1</v>
       </c>
-      <c r="Y11" s="121" t="s">
+      <c r="Y11" s="120" t="s">
         <v>207</v>
       </c>
       <c r="Z11" s="103" t="s">
@@ -9069,7 +9178,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="124">
+      <c r="AC11" s="123">
         <f>IF($Y11="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -9078,11 +9187,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="124">
+      <c r="AF11" s="123">
         <f>IF($Y11="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="124">
+      <c r="AG11" s="123">
         <f>IF($Y11="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -9092,51 +9201,51 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="103"/>
-      <c r="AK11" s="124">
+      <c r="AK11" s="123">
         <f>IF($Y11="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="124">
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="123">
         <f>IF($Y11="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN11" s="103">
         <v>10</v>
       </c>
-      <c r="AO11" s="124">
+      <c r="AO11" s="123">
         <f>IF($Y11="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0.13</v>
       </c>
-      <c r="AP11" s="121" t="s">
+      <c r="AP11" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="AQ11" s="124">
+      <c r="AQ11" s="123">
         <f>IF($Y11="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR11" s="103"/>
       <c r="AS11" s="103"/>
       <c r="AU11" s="103"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
-      <c r="AX11" s="124">
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
+      <c r="AX11" s="123">
         <f>IF(OR($AV11="Window",$AV11="RoofWindow"),'Performance inputs'!$B$10,IF($AV11="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="124">
+      <c r="AY11" s="123">
         <f>IF(OR($AV11="Window",$AV11="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ11" s="124">
+      <c r="AZ11" s="123">
         <f>IF(OR($AV11="Window",$AV11="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB11" s="121"/>
+      <c r="BB11" s="120"/>
       <c r="BC11" s="103"/>
-      <c r="BD11" s="121"/>
-      <c r="BE11" s="121"/>
-      <c r="BF11" s="121"/>
+      <c r="BD11" s="120"/>
+      <c r="BE11" s="120"/>
+      <c r="BF11" s="120"/>
       <c r="BG11" s="103"/>
       <c r="BH11" s="103"/>
       <c r="BJ11" s="103"/>
@@ -9197,7 +9306,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="79"/>
       <c r="D12" s="79"/>
       <c r="F12" s="79"/>
@@ -9216,15 +9325,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
       <c r="Z12" s="103"/>
       <c r="AA12" s="103"/>
       <c r="AB12" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC12" s="124">
+      <c r="AC12" s="123">
         <f>IF($Y12="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -9233,11 +9342,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF12" s="124">
+      <c r="AF12" s="123">
         <f>IF($Y12="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="124">
+      <c r="AG12" s="123">
         <f>IF($Y12="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -9247,47 +9356,47 @@
         <v/>
       </c>
       <c r="AJ12" s="103"/>
-      <c r="AK12" s="124">
+      <c r="AK12" s="123">
         <f>IF($Y12="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="124">
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="123">
         <f>IF($Y12="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN12" s="103"/>
-      <c r="AO12" s="124">
+      <c r="AO12" s="123">
         <f>IF($Y12="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="124">
+      <c r="AP12" s="120"/>
+      <c r="AQ12" s="123">
         <f>IF($Y12="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR12" s="103"/>
       <c r="AS12" s="103"/>
       <c r="AU12" s="103"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
-      <c r="AX12" s="124">
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="123">
         <f>IF(OR($AV12="Window",$AV12="RoofWindow"),'Performance inputs'!$B$10,IF($AV12="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="124">
+      <c r="AY12" s="123">
         <f>IF(OR($AV12="Window",$AV12="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ12" s="124">
+      <c r="AZ12" s="123">
         <f>IF(OR($AV12="Window",$AV12="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB12" s="121"/>
+      <c r="BB12" s="120"/>
       <c r="BC12" s="103"/>
-      <c r="BD12" s="121"/>
-      <c r="BE12" s="121"/>
-      <c r="BF12" s="121"/>
+      <c r="BD12" s="120"/>
+      <c r="BE12" s="120"/>
+      <c r="BF12" s="120"/>
       <c r="BG12" s="103"/>
       <c r="BH12" s="103"/>
       <c r="BJ12" s="103"/>
@@ -9354,7 +9463,7 @@
       <c r="DQ12" s="79"/>
       <c r="DR12" s="79"/>
     </row>
-    <row r="13" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="80"/>
       <c r="D13" s="80"/>
       <c r="F13" s="80"/>
@@ -9372,15 +9481,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
       <c r="Z13" s="103"/>
       <c r="AA13" s="103"/>
       <c r="AB13" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC13" s="124">
+      <c r="AC13" s="123">
         <f>IF($Y13="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -9389,11 +9498,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF13" s="124">
+      <c r="AF13" s="123">
         <f>IF($Y13="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="124">
+      <c r="AG13" s="123">
         <f>IF($Y13="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -9403,47 +9512,47 @@
         <v/>
       </c>
       <c r="AJ13" s="103"/>
-      <c r="AK13" s="124">
+      <c r="AK13" s="123">
         <f>IF($Y13="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="123"/>
-      <c r="AM13" s="124">
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="123">
         <f>IF($Y13="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN13" s="103"/>
-      <c r="AO13" s="124">
+      <c r="AO13" s="123">
         <f>IF($Y13="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="124">
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="123">
         <f>IF($Y13="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR13" s="103"/>
       <c r="AS13" s="103"/>
       <c r="AU13" s="103"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
-      <c r="AX13" s="124">
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="123">
         <f>IF(OR($AV13="Window",$AV13="RoofWindow"),'Performance inputs'!$B$10,IF($AV13="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="124">
+      <c r="AY13" s="123">
         <f>IF(OR($AV13="Window",$AV13="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ13" s="124">
+      <c r="AZ13" s="123">
         <f>IF(OR($AV13="Window",$AV13="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB13" s="121"/>
+      <c r="BB13" s="120"/>
       <c r="BC13" s="103"/>
-      <c r="BD13" s="121"/>
-      <c r="BE13" s="121"/>
-      <c r="BF13" s="121"/>
+      <c r="BD13" s="120"/>
+      <c r="BE13" s="120"/>
+      <c r="BF13" s="120"/>
       <c r="BG13" s="103"/>
       <c r="BH13" s="103"/>
       <c r="BJ13" s="103"/>
@@ -9510,7 +9619,7 @@
       <c r="DQ13" s="80"/>
       <c r="DR13" s="80"/>
     </row>
-    <row r="14" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="D14" s="81"/>
       <c r="F14" s="81"/>
@@ -9529,15 +9638,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
       <c r="Z14" s="103"/>
       <c r="AA14" s="103"/>
       <c r="AB14" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC14" s="124">
+      <c r="AC14" s="123">
         <f>IF($Y14="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -9546,11 +9655,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF14" s="124">
+      <c r="AF14" s="123">
         <f>IF($Y14="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="124">
+      <c r="AG14" s="123">
         <f>IF($Y14="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -9560,47 +9669,47 @@
         <v/>
       </c>
       <c r="AJ14" s="103"/>
-      <c r="AK14" s="124">
+      <c r="AK14" s="123">
         <f>IF($Y14="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="124">
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="123">
         <f>IF($Y14="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN14" s="103"/>
-      <c r="AO14" s="124">
+      <c r="AO14" s="123">
         <f>IF($Y14="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="124">
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="123">
         <f>IF($Y14="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR14" s="103"/>
       <c r="AS14" s="103"/>
       <c r="AU14" s="103"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
-      <c r="AX14" s="124">
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="123">
         <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$10,IF($AV14="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="124">
+      <c r="AY14" s="123">
         <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ14" s="124">
+      <c r="AZ14" s="123">
         <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB14" s="121"/>
+      <c r="BB14" s="120"/>
       <c r="BC14" s="103"/>
-      <c r="BD14" s="121"/>
-      <c r="BE14" s="121"/>
-      <c r="BF14" s="121"/>
+      <c r="BD14" s="120"/>
+      <c r="BE14" s="120"/>
+      <c r="BF14" s="120"/>
       <c r="BG14" s="103"/>
       <c r="BH14" s="103"/>
       <c r="BJ14" s="103"/>
@@ -9667,7 +9776,7 @@
       <c r="DQ14" s="81"/>
       <c r="DR14" s="81"/>
     </row>
-    <row r="15" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="81"/>
       <c r="D15" s="81"/>
       <c r="F15" s="81"/>
@@ -9685,15 +9794,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
       <c r="Z15" s="103"/>
       <c r="AA15" s="103"/>
       <c r="AB15" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC15" s="124">
+      <c r="AC15" s="123">
         <f>IF($Y15="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -9702,11 +9811,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF15" s="124">
+      <c r="AF15" s="123">
         <f>IF($Y15="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="124">
+      <c r="AG15" s="123">
         <f>IF($Y15="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -9716,47 +9825,47 @@
         <v/>
       </c>
       <c r="AJ15" s="103"/>
-      <c r="AK15" s="124">
+      <c r="AK15" s="123">
         <f>IF($Y15="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="124">
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="123">
         <f>IF($Y15="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN15" s="103"/>
-      <c r="AO15" s="124">
+      <c r="AO15" s="123">
         <f>IF($Y15="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="124">
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="123">
         <f>IF($Y15="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR15" s="103"/>
       <c r="AS15" s="103"/>
       <c r="AU15" s="103"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
-      <c r="AX15" s="124">
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="123">
         <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$10,IF($AV15="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="124">
+      <c r="AY15" s="123">
         <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ15" s="124">
+      <c r="AZ15" s="123">
         <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB15" s="121"/>
+      <c r="BB15" s="120"/>
       <c r="BC15" s="103"/>
-      <c r="BD15" s="121"/>
-      <c r="BE15" s="121"/>
-      <c r="BF15" s="121"/>
+      <c r="BD15" s="120"/>
+      <c r="BE15" s="120"/>
+      <c r="BF15" s="120"/>
       <c r="BG15" s="103"/>
       <c r="BH15" s="103"/>
       <c r="BJ15" s="103"/>
@@ -9823,7 +9932,7 @@
       <c r="DQ15" s="81"/>
       <c r="DR15" s="81"/>
     </row>
-    <row r="16" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="81"/>
       <c r="D16" s="81"/>
       <c r="F16" s="81"/>
@@ -9843,15 +9952,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
       <c r="Z16" s="103"/>
       <c r="AA16" s="103"/>
       <c r="AB16" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC16" s="124">
+      <c r="AC16" s="123">
         <f>IF($Y16="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -9860,11 +9969,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF16" s="124">
+      <c r="AF16" s="123">
         <f>IF($Y16="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="124">
+      <c r="AG16" s="123">
         <f>IF($Y16="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -9874,47 +9983,47 @@
         <v/>
       </c>
       <c r="AJ16" s="103"/>
-      <c r="AK16" s="124">
+      <c r="AK16" s="123">
         <f>IF($Y16="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="123"/>
-      <c r="AM16" s="124">
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="123">
         <f>IF($Y16="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN16" s="103"/>
-      <c r="AO16" s="124">
+      <c r="AO16" s="123">
         <f>IF($Y16="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="124">
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="123">
         <f>IF($Y16="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR16" s="103"/>
       <c r="AS16" s="103"/>
       <c r="AU16" s="103"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="124">
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="123">
         <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$10,IF($AV16="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY16" s="124">
+      <c r="AY16" s="123">
         <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ16" s="124">
+      <c r="AZ16" s="123">
         <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB16" s="121"/>
+      <c r="BB16" s="120"/>
       <c r="BC16" s="103"/>
-      <c r="BD16" s="121"/>
-      <c r="BE16" s="121"/>
-      <c r="BF16" s="121"/>
+      <c r="BD16" s="120"/>
+      <c r="BE16" s="120"/>
+      <c r="BF16" s="120"/>
       <c r="BG16" s="103"/>
       <c r="BH16" s="103"/>
       <c r="BI16" s="98" t="str">
@@ -9985,7 +10094,7 @@
       <c r="DQ16" s="81"/>
       <c r="DR16" s="81"/>
     </row>
-    <row r="17" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="B17" s="80"/>
       <c r="C17" s="83"/>
@@ -10007,15 +10116,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
       <c r="Z17" s="103"/>
       <c r="AA17" s="103"/>
       <c r="AB17" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC17" s="124">
+      <c r="AC17" s="123">
         <f>IF($Y17="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -10024,11 +10133,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF17" s="124">
+      <c r="AF17" s="123">
         <f>IF($Y17="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="124">
+      <c r="AG17" s="123">
         <f>IF($Y17="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -10038,47 +10147,47 @@
         <v/>
       </c>
       <c r="AJ17" s="103"/>
-      <c r="AK17" s="124">
+      <c r="AK17" s="123">
         <f>IF($Y17="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="123"/>
-      <c r="AM17" s="124">
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="123">
         <f>IF($Y17="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN17" s="103"/>
-      <c r="AO17" s="124">
+      <c r="AO17" s="123">
         <f>IF($Y17="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="124">
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="123">
         <f>IF($Y17="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR17" s="103"/>
       <c r="AS17" s="103"/>
       <c r="AU17" s="103"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
-      <c r="AX17" s="124">
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="123">
         <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$10,IF($AV17="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY17" s="124">
+      <c r="AY17" s="123">
         <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ17" s="124">
+      <c r="AZ17" s="123">
         <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB17" s="121"/>
+      <c r="BB17" s="120"/>
       <c r="BC17" s="103"/>
-      <c r="BD17" s="121"/>
-      <c r="BE17" s="121"/>
-      <c r="BF17" s="121"/>
+      <c r="BD17" s="120"/>
+      <c r="BE17" s="120"/>
+      <c r="BF17" s="120"/>
       <c r="BG17" s="103"/>
       <c r="BH17" s="103"/>
       <c r="BI17" s="98" t="str">
@@ -10164,8 +10273,14 @@
       <c r="EG17" s="83"/>
       <c r="EH17" s="83"/>
       <c r="EI17" s="83"/>
-    </row>
-    <row r="18" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ17" s="83"/>
+      <c r="EK17" s="83"/>
+      <c r="EL17" s="83"/>
+      <c r="EM17" s="83"/>
+      <c r="EN17" s="83"/>
+      <c r="EO17" s="83"/>
+    </row>
+    <row r="18" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="81"/>
       <c r="D18" s="81"/>
       <c r="F18" s="81"/>
@@ -10185,15 +10300,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
       <c r="Z18" s="103"/>
       <c r="AA18" s="103"/>
       <c r="AB18" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC18" s="124">
+      <c r="AC18" s="123">
         <f>IF($Y18="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -10202,11 +10317,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF18" s="124">
+      <c r="AF18" s="123">
         <f>IF($Y18="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="124">
+      <c r="AG18" s="123">
         <f>IF($Y18="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -10216,47 +10331,47 @@
         <v/>
       </c>
       <c r="AJ18" s="103"/>
-      <c r="AK18" s="124">
+      <c r="AK18" s="123">
         <f>IF($Y18="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL18" s="123"/>
-      <c r="AM18" s="124">
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="123">
         <f>IF($Y18="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN18" s="103"/>
-      <c r="AO18" s="124">
+      <c r="AO18" s="123">
         <f>IF($Y18="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP18" s="121"/>
-      <c r="AQ18" s="124">
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="123">
         <f>IF($Y18="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR18" s="103"/>
       <c r="AS18" s="103"/>
       <c r="AU18" s="103"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
-      <c r="AX18" s="124">
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
+      <c r="AX18" s="123">
         <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$10,IF($AV18="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY18" s="124">
+      <c r="AY18" s="123">
         <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ18" s="124">
+      <c r="AZ18" s="123">
         <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB18" s="121"/>
+      <c r="BB18" s="120"/>
       <c r="BC18" s="103"/>
-      <c r="BD18" s="121"/>
-      <c r="BE18" s="121"/>
-      <c r="BF18" s="121"/>
+      <c r="BD18" s="120"/>
+      <c r="BE18" s="120"/>
+      <c r="BF18" s="120"/>
       <c r="BG18" s="103"/>
       <c r="BH18" s="103"/>
       <c r="BI18" s="98" t="str">
@@ -10327,7 +10442,7 @@
       <c r="DQ18" s="81"/>
       <c r="DR18" s="81"/>
     </row>
-    <row r="19" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="B19" s="81"/>
       <c r="C19" s="83"/>
@@ -10348,15 +10463,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
       <c r="Z19" s="103"/>
       <c r="AA19" s="103"/>
       <c r="AB19" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC19" s="124">
+      <c r="AC19" s="123">
         <f>IF($Y19="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -10365,11 +10480,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF19" s="124">
+      <c r="AF19" s="123">
         <f>IF($Y19="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="124">
+      <c r="AG19" s="123">
         <f>IF($Y19="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -10379,47 +10494,47 @@
         <v/>
       </c>
       <c r="AJ19" s="103"/>
-      <c r="AK19" s="124">
+      <c r="AK19" s="123">
         <f>IF($Y19="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="123"/>
-      <c r="AM19" s="124">
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="123">
         <f>IF($Y19="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN19" s="103"/>
-      <c r="AO19" s="124">
+      <c r="AO19" s="123">
         <f>IF($Y19="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="121"/>
-      <c r="AQ19" s="124">
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="123">
         <f>IF($Y19="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR19" s="103"/>
       <c r="AS19" s="103"/>
       <c r="AU19" s="103"/>
-      <c r="AV19" s="121"/>
-      <c r="AW19" s="121"/>
-      <c r="AX19" s="124">
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="123">
         <f>IF(OR($AV19="Window",$AV19="RoofWindow"),'Performance inputs'!$B$10,IF($AV19="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY19" s="124">
+      <c r="AY19" s="123">
         <f>IF(OR($AV19="Window",$AV19="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ19" s="124">
+      <c r="AZ19" s="123">
         <f>IF(OR($AV19="Window",$AV19="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB19" s="121"/>
+      <c r="BB19" s="120"/>
       <c r="BC19" s="103"/>
-      <c r="BD19" s="121"/>
-      <c r="BE19" s="121"/>
-      <c r="BF19" s="121"/>
+      <c r="BD19" s="120"/>
+      <c r="BE19" s="120"/>
+      <c r="BF19" s="120"/>
       <c r="BG19" s="103"/>
       <c r="BH19" s="103"/>
       <c r="BI19" s="98" t="str">
@@ -10505,8 +10620,14 @@
       <c r="EG19" s="83"/>
       <c r="EH19" s="83"/>
       <c r="EI19" s="83"/>
-    </row>
-    <row r="20" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ19" s="83"/>
+      <c r="EK19" s="83"/>
+      <c r="EL19" s="83"/>
+      <c r="EM19" s="83"/>
+      <c r="EN19" s="83"/>
+      <c r="EO19" s="83"/>
+    </row>
+    <row r="20" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="81"/>
       <c r="D20" s="81"/>
       <c r="F20" s="81"/>
@@ -10525,15 +10646,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
       <c r="Z20" s="103"/>
       <c r="AA20" s="103"/>
       <c r="AB20" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC20" s="124">
+      <c r="AC20" s="123">
         <f>IF($Y20="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -10542,11 +10663,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF20" s="124">
+      <c r="AF20" s="123">
         <f>IF($Y20="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="124">
+      <c r="AG20" s="123">
         <f>IF($Y20="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -10556,47 +10677,47 @@
         <v/>
       </c>
       <c r="AJ20" s="103"/>
-      <c r="AK20" s="124">
+      <c r="AK20" s="123">
         <f>IF($Y20="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="123"/>
-      <c r="AM20" s="124">
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="123">
         <f>IF($Y20="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN20" s="103"/>
-      <c r="AO20" s="124">
+      <c r="AO20" s="123">
         <f>IF($Y20="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP20" s="121"/>
-      <c r="AQ20" s="124">
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="123">
         <f>IF($Y20="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR20" s="103"/>
       <c r="AS20" s="103"/>
       <c r="AU20" s="103"/>
-      <c r="AV20" s="121"/>
-      <c r="AW20" s="121"/>
-      <c r="AX20" s="124">
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="123">
         <f>IF(OR($AV20="Window",$AV20="RoofWindow"),'Performance inputs'!$B$10,IF($AV20="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY20" s="124">
+      <c r="AY20" s="123">
         <f>IF(OR($AV20="Window",$AV20="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ20" s="124">
+      <c r="AZ20" s="123">
         <f>IF(OR($AV20="Window",$AV20="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB20" s="121"/>
+      <c r="BB20" s="120"/>
       <c r="BC20" s="103"/>
-      <c r="BD20" s="121"/>
-      <c r="BE20" s="121"/>
-      <c r="BF20" s="121"/>
+      <c r="BD20" s="120"/>
+      <c r="BE20" s="120"/>
+      <c r="BF20" s="120"/>
       <c r="BG20" s="103"/>
       <c r="BH20" s="103"/>
       <c r="BI20" s="98" t="str">
@@ -10667,7 +10788,7 @@
       <c r="DQ20" s="81"/>
       <c r="DR20" s="81"/>
     </row>
-    <row r="21" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
       <c r="B21" s="81"/>
       <c r="C21" s="83"/>
@@ -10688,15 +10809,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
       <c r="Z21" s="103"/>
       <c r="AA21" s="103"/>
       <c r="AB21" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC21" s="124">
+      <c r="AC21" s="123">
         <f>IF($Y21="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -10705,11 +10826,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF21" s="124">
+      <c r="AF21" s="123">
         <f>IF($Y21="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="124">
+      <c r="AG21" s="123">
         <f>IF($Y21="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -10719,47 +10840,47 @@
         <v/>
       </c>
       <c r="AJ21" s="103"/>
-      <c r="AK21" s="124">
+      <c r="AK21" s="123">
         <f>IF($Y21="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="123"/>
-      <c r="AM21" s="124">
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="123">
         <f>IF($Y21="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN21" s="103"/>
-      <c r="AO21" s="124">
+      <c r="AO21" s="123">
         <f>IF($Y21="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP21" s="121"/>
-      <c r="AQ21" s="124">
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="123">
         <f>IF($Y21="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR21" s="103"/>
       <c r="AS21" s="103"/>
       <c r="AU21" s="103"/>
-      <c r="AV21" s="121"/>
-      <c r="AW21" s="121"/>
-      <c r="AX21" s="124">
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="123">
         <f>IF(OR($AV21="Window",$AV21="RoofWindow"),'Performance inputs'!$B$10,IF($AV21="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY21" s="124">
+      <c r="AY21" s="123">
         <f>IF(OR($AV21="Window",$AV21="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ21" s="124">
+      <c r="AZ21" s="123">
         <f>IF(OR($AV21="Window",$AV21="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB21" s="121"/>
+      <c r="BB21" s="120"/>
       <c r="BC21" s="103"/>
-      <c r="BD21" s="121"/>
-      <c r="BE21" s="121"/>
-      <c r="BF21" s="121"/>
+      <c r="BD21" s="120"/>
+      <c r="BE21" s="120"/>
+      <c r="BF21" s="120"/>
       <c r="BG21" s="103"/>
       <c r="BH21" s="103"/>
       <c r="BI21" s="98" t="str">
@@ -10845,8 +10966,14 @@
       <c r="EG21" s="83"/>
       <c r="EH21" s="83"/>
       <c r="EI21" s="83"/>
-    </row>
-    <row r="22" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ21" s="83"/>
+      <c r="EK21" s="83"/>
+      <c r="EL21" s="83"/>
+      <c r="EM21" s="83"/>
+      <c r="EN21" s="83"/>
+      <c r="EO21" s="83"/>
+    </row>
+    <row r="22" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83"/>
       <c r="B22" s="81"/>
       <c r="C22" s="83"/>
@@ -10868,15 +10995,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
       <c r="Z22" s="103"/>
       <c r="AA22" s="103"/>
       <c r="AB22" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC22" s="124">
+      <c r="AC22" s="123">
         <f>IF($Y22="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -10885,11 +11012,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF22" s="124">
+      <c r="AF22" s="123">
         <f>IF($Y22="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="124">
+      <c r="AG22" s="123">
         <f>IF($Y22="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -10899,47 +11026,47 @@
         <v/>
       </c>
       <c r="AJ22" s="103"/>
-      <c r="AK22" s="124">
+      <c r="AK22" s="123">
         <f>IF($Y22="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="123"/>
-      <c r="AM22" s="124">
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="123">
         <f>IF($Y22="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN22" s="103"/>
-      <c r="AO22" s="124">
+      <c r="AO22" s="123">
         <f>IF($Y22="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="124">
+      <c r="AP22" s="120"/>
+      <c r="AQ22" s="123">
         <f>IF($Y22="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR22" s="103"/>
       <c r="AS22" s="103"/>
       <c r="AU22" s="103"/>
-      <c r="AV22" s="121"/>
-      <c r="AW22" s="121"/>
-      <c r="AX22" s="124">
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="123">
         <f>IF(OR($AV22="Window",$AV22="RoofWindow"),'Performance inputs'!$B$10,IF($AV22="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="124">
+      <c r="AY22" s="123">
         <f>IF(OR($AV22="Window",$AV22="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ22" s="124">
+      <c r="AZ22" s="123">
         <f>IF(OR($AV22="Window",$AV22="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB22" s="121"/>
+      <c r="BB22" s="120"/>
       <c r="BC22" s="103"/>
-      <c r="BD22" s="121"/>
-      <c r="BE22" s="121"/>
-      <c r="BF22" s="121"/>
+      <c r="BD22" s="120"/>
+      <c r="BE22" s="120"/>
+      <c r="BF22" s="120"/>
       <c r="BG22" s="103"/>
       <c r="BH22" s="103"/>
       <c r="BI22" s="98" t="str">
@@ -11025,8 +11152,14 @@
       <c r="EG22" s="83"/>
       <c r="EH22" s="83"/>
       <c r="EI22" s="83"/>
-    </row>
-    <row r="23" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ22" s="83"/>
+      <c r="EK22" s="83"/>
+      <c r="EL22" s="83"/>
+      <c r="EM22" s="83"/>
+      <c r="EN22" s="83"/>
+      <c r="EO22" s="83"/>
+    </row>
+    <row r="23" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="83"/>
       <c r="B23" s="81"/>
       <c r="C23" s="83"/>
@@ -11047,15 +11180,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
       <c r="Z23" s="103"/>
       <c r="AA23" s="103"/>
       <c r="AB23" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC23" s="124">
+      <c r="AC23" s="123">
         <f>IF($Y23="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -11064,11 +11197,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF23" s="124">
+      <c r="AF23" s="123">
         <f>IF($Y23="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="124">
+      <c r="AG23" s="123">
         <f>IF($Y23="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -11078,47 +11211,47 @@
         <v/>
       </c>
       <c r="AJ23" s="103"/>
-      <c r="AK23" s="124">
+      <c r="AK23" s="123">
         <f>IF($Y23="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="123"/>
-      <c r="AM23" s="124">
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="123">
         <f>IF($Y23="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN23" s="103"/>
-      <c r="AO23" s="124">
+      <c r="AO23" s="123">
         <f>IF($Y23="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP23" s="121"/>
-      <c r="AQ23" s="124">
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="123">
         <f>IF($Y23="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR23" s="103"/>
       <c r="AS23" s="103"/>
       <c r="AU23" s="103"/>
-      <c r="AV23" s="121"/>
-      <c r="AW23" s="121"/>
-      <c r="AX23" s="124">
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
+      <c r="AX23" s="123">
         <f>IF(OR($AV23="Window",$AV23="RoofWindow"),'Performance inputs'!$B$10,IF($AV23="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="124">
+      <c r="AY23" s="123">
         <f>IF(OR($AV23="Window",$AV23="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ23" s="124">
+      <c r="AZ23" s="123">
         <f>IF(OR($AV23="Window",$AV23="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="121"/>
+      <c r="BB23" s="120"/>
       <c r="BC23" s="103"/>
-      <c r="BD23" s="121"/>
-      <c r="BE23" s="121"/>
-      <c r="BF23" s="121"/>
+      <c r="BD23" s="120"/>
+      <c r="BE23" s="120"/>
+      <c r="BF23" s="120"/>
       <c r="BG23" s="103"/>
       <c r="BH23" s="103"/>
       <c r="BI23" s="98" t="str">
@@ -11204,8 +11337,14 @@
       <c r="EG23" s="83"/>
       <c r="EH23" s="83"/>
       <c r="EI23" s="83"/>
-    </row>
-    <row r="24" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ23" s="83"/>
+      <c r="EK23" s="83"/>
+      <c r="EL23" s="83"/>
+      <c r="EM23" s="83"/>
+      <c r="EN23" s="83"/>
+      <c r="EO23" s="83"/>
+    </row>
+    <row r="24" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
       <c r="B24" s="81"/>
       <c r="C24" s="83"/>
@@ -11227,15 +11366,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
       <c r="Z24" s="103"/>
       <c r="AA24" s="103"/>
       <c r="AB24" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC24" s="124">
+      <c r="AC24" s="123">
         <f>IF($Y24="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -11244,11 +11383,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF24" s="124">
+      <c r="AF24" s="123">
         <f>IF($Y24="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG24" s="124">
+      <c r="AG24" s="123">
         <f>IF($Y24="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -11258,47 +11397,47 @@
         <v/>
       </c>
       <c r="AJ24" s="103"/>
-      <c r="AK24" s="124">
+      <c r="AK24" s="123">
         <f>IF($Y24="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL24" s="123"/>
-      <c r="AM24" s="124">
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="123">
         <f>IF($Y24="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN24" s="103"/>
-      <c r="AO24" s="124">
+      <c r="AO24" s="123">
         <f>IF($Y24="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="124">
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="123">
         <f>IF($Y24="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR24" s="103"/>
       <c r="AS24" s="103"/>
       <c r="AU24" s="103"/>
-      <c r="AV24" s="121"/>
-      <c r="AW24" s="121"/>
-      <c r="AX24" s="124">
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="123">
         <f>IF(OR($AV24="Window",$AV24="RoofWindow"),'Performance inputs'!$B$10,IF($AV24="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY24" s="124">
+      <c r="AY24" s="123">
         <f>IF(OR($AV24="Window",$AV24="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ24" s="124">
+      <c r="AZ24" s="123">
         <f>IF(OR($AV24="Window",$AV24="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB24" s="121"/>
+      <c r="BB24" s="120"/>
       <c r="BC24" s="103"/>
-      <c r="BD24" s="121"/>
-      <c r="BE24" s="121"/>
-      <c r="BF24" s="121"/>
+      <c r="BD24" s="120"/>
+      <c r="BE24" s="120"/>
+      <c r="BF24" s="120"/>
       <c r="BG24" s="103"/>
       <c r="BH24" s="103"/>
       <c r="BI24" s="98" t="str">
@@ -11384,8 +11523,14 @@
       <c r="EG24" s="83"/>
       <c r="EH24" s="83"/>
       <c r="EI24" s="83"/>
-    </row>
-    <row r="25" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ24" s="83"/>
+      <c r="EK24" s="83"/>
+      <c r="EL24" s="83"/>
+      <c r="EM24" s="83"/>
+      <c r="EN24" s="83"/>
+      <c r="EO24" s="83"/>
+    </row>
+    <row r="25" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q25" s="103"/>
       <c r="R25" s="103"/>
       <c r="S25" s="103"/>
@@ -11395,15 +11540,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
       <c r="Z25" s="103"/>
       <c r="AA25" s="103"/>
       <c r="AB25" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC25" s="124">
+      <c r="AC25" s="123">
         <f>IF($Y25="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -11412,11 +11557,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF25" s="124">
+      <c r="AF25" s="123">
         <f>IF($Y25="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="124">
+      <c r="AG25" s="123">
         <f>IF($Y25="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -11426,47 +11571,47 @@
         <v/>
       </c>
       <c r="AJ25" s="103"/>
-      <c r="AK25" s="124">
+      <c r="AK25" s="123">
         <f>IF($Y25="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="123"/>
-      <c r="AM25" s="124">
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="123">
         <f>IF($Y25="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN25" s="103"/>
-      <c r="AO25" s="124">
+      <c r="AO25" s="123">
         <f>IF($Y25="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="121"/>
-      <c r="AQ25" s="124">
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="123">
         <f>IF($Y25="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR25" s="103"/>
       <c r="AS25" s="103"/>
       <c r="AU25" s="103"/>
-      <c r="AV25" s="121"/>
-      <c r="AW25" s="121"/>
-      <c r="AX25" s="124">
+      <c r="AV25" s="120"/>
+      <c r="AW25" s="120"/>
+      <c r="AX25" s="123">
         <f>IF(OR($AV25="Window",$AV25="RoofWindow"),'Performance inputs'!$B$10,IF($AV25="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY25" s="124">
+      <c r="AY25" s="123">
         <f>IF(OR($AV25="Window",$AV25="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="124">
+      <c r="AZ25" s="123">
         <f>IF(OR($AV25="Window",$AV25="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB25" s="121"/>
+      <c r="BB25" s="120"/>
       <c r="BC25" s="103"/>
-      <c r="BD25" s="121"/>
-      <c r="BE25" s="121"/>
-      <c r="BF25" s="121"/>
+      <c r="BD25" s="120"/>
+      <c r="BE25" s="120"/>
+      <c r="BF25" s="120"/>
       <c r="BG25" s="103"/>
       <c r="BH25" s="103"/>
       <c r="BI25" s="98" t="str">
@@ -11531,7 +11676,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="86"/>
       <c r="B26" s="87"/>
       <c r="C26" s="86"/>
@@ -11554,15 +11699,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
       <c r="Z26" s="103"/>
       <c r="AA26" s="103"/>
       <c r="AB26" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="124">
+      <c r="AC26" s="123">
         <f>IF($Y26="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -11571,11 +11716,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF26" s="124">
+      <c r="AF26" s="123">
         <f>IF($Y26="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="124">
+      <c r="AG26" s="123">
         <f>IF($Y26="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -11585,47 +11730,47 @@
         <v/>
       </c>
       <c r="AJ26" s="103"/>
-      <c r="AK26" s="124">
+      <c r="AK26" s="123">
         <f>IF($Y26="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="123"/>
-      <c r="AM26" s="124">
+      <c r="AL26" s="122"/>
+      <c r="AM26" s="123">
         <f>IF($Y26="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN26" s="103"/>
-      <c r="AO26" s="124">
+      <c r="AO26" s="123">
         <f>IF($Y26="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP26" s="121"/>
-      <c r="AQ26" s="124">
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="123">
         <f>IF($Y26="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR26" s="103"/>
       <c r="AS26" s="103"/>
       <c r="AU26" s="103"/>
-      <c r="AV26" s="121"/>
-      <c r="AW26" s="121"/>
-      <c r="AX26" s="124">
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
+      <c r="AX26" s="123">
         <f>IF(OR($AV26="Window",$AV26="RoofWindow"),'Performance inputs'!$B$10,IF($AV26="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="124">
+      <c r="AY26" s="123">
         <f>IF(OR($AV26="Window",$AV26="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ26" s="124">
+      <c r="AZ26" s="123">
         <f>IF(OR($AV26="Window",$AV26="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB26" s="121"/>
+      <c r="BB26" s="120"/>
       <c r="BC26" s="103"/>
-      <c r="BD26" s="121"/>
-      <c r="BE26" s="121"/>
-      <c r="BF26" s="121"/>
+      <c r="BD26" s="120"/>
+      <c r="BE26" s="120"/>
+      <c r="BF26" s="120"/>
       <c r="BG26" s="103"/>
       <c r="BH26" s="103"/>
       <c r="BI26" s="98" t="str">
@@ -11711,8 +11856,14 @@
       <c r="EG26" s="86"/>
       <c r="EH26" s="86"/>
       <c r="EI26" s="86"/>
-    </row>
-    <row r="27" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ26" s="86"/>
+      <c r="EK26" s="86"/>
+      <c r="EL26" s="86"/>
+      <c r="EM26" s="86"/>
+      <c r="EN26" s="86"/>
+      <c r="EO26" s="86"/>
+    </row>
+    <row r="27" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="80"/>
       <c r="D27" s="80"/>
       <c r="F27" s="80"/>
@@ -11731,15 +11882,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
       <c r="Z27" s="103"/>
       <c r="AA27" s="103"/>
       <c r="AB27" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC27" s="124">
+      <c r="AC27" s="123">
         <f>IF($Y27="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -11748,11 +11899,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF27" s="124">
+      <c r="AF27" s="123">
         <f>IF($Y27="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="124">
+      <c r="AG27" s="123">
         <f>IF($Y27="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -11762,47 +11913,47 @@
         <v/>
       </c>
       <c r="AJ27" s="103"/>
-      <c r="AK27" s="124">
+      <c r="AK27" s="123">
         <f>IF($Y27="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL27" s="123"/>
-      <c r="AM27" s="124">
+      <c r="AL27" s="122"/>
+      <c r="AM27" s="123">
         <f>IF($Y27="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN27" s="103"/>
-      <c r="AO27" s="124">
+      <c r="AO27" s="123">
         <f>IF($Y27="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP27" s="121"/>
-      <c r="AQ27" s="124">
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="123">
         <f>IF($Y27="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR27" s="103"/>
       <c r="AS27" s="103"/>
       <c r="AU27" s="103"/>
-      <c r="AV27" s="121"/>
-      <c r="AW27" s="121"/>
-      <c r="AX27" s="124">
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
+      <c r="AX27" s="123">
         <f>IF(OR($AV27="Window",$AV27="RoofWindow"),'Performance inputs'!$B$10,IF($AV27="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="124">
+      <c r="AY27" s="123">
         <f>IF(OR($AV27="Window",$AV27="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ27" s="124">
+      <c r="AZ27" s="123">
         <f>IF(OR($AV27="Window",$AV27="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB27" s="121"/>
+      <c r="BB27" s="120"/>
       <c r="BC27" s="103"/>
-      <c r="BD27" s="121"/>
-      <c r="BE27" s="121"/>
-      <c r="BF27" s="121"/>
+      <c r="BD27" s="120"/>
+      <c r="BE27" s="120"/>
+      <c r="BF27" s="120"/>
       <c r="BG27" s="103"/>
       <c r="BH27" s="103"/>
       <c r="BI27" s="98" t="str">
@@ -11873,7 +12024,7 @@
       <c r="DQ27" s="80"/>
       <c r="DR27" s="80"/>
     </row>
-    <row r="28" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="83"/>
       <c r="B28" s="81"/>
       <c r="C28" s="83"/>
@@ -11896,15 +12047,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
       <c r="Z28" s="103"/>
       <c r="AA28" s="103"/>
       <c r="AB28" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC28" s="124">
+      <c r="AC28" s="123">
         <f>IF($Y28="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -11913,11 +12064,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF28" s="124">
+      <c r="AF28" s="123">
         <f>IF($Y28="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="124">
+      <c r="AG28" s="123">
         <f>IF($Y28="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -11927,47 +12078,47 @@
         <v/>
       </c>
       <c r="AJ28" s="103"/>
-      <c r="AK28" s="124">
+      <c r="AK28" s="123">
         <f>IF($Y28="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL28" s="123"/>
-      <c r="AM28" s="124">
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="123">
         <f>IF($Y28="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN28" s="103"/>
-      <c r="AO28" s="124">
+      <c r="AO28" s="123">
         <f>IF($Y28="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="124">
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="123">
         <f>IF($Y28="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR28" s="103"/>
       <c r="AS28" s="103"/>
       <c r="AU28" s="103"/>
-      <c r="AV28" s="121"/>
-      <c r="AW28" s="121"/>
-      <c r="AX28" s="124">
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="123">
         <f>IF(OR($AV28="Window",$AV28="RoofWindow"),'Performance inputs'!$B$10,IF($AV28="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY28" s="124">
+      <c r="AY28" s="123">
         <f>IF(OR($AV28="Window",$AV28="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ28" s="124">
+      <c r="AZ28" s="123">
         <f>IF(OR($AV28="Window",$AV28="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB28" s="121"/>
+      <c r="BB28" s="120"/>
       <c r="BC28" s="103"/>
-      <c r="BD28" s="121"/>
-      <c r="BE28" s="121"/>
-      <c r="BF28" s="121"/>
+      <c r="BD28" s="120"/>
+      <c r="BE28" s="120"/>
+      <c r="BF28" s="120"/>
       <c r="BG28" s="103"/>
       <c r="BH28" s="103"/>
       <c r="BI28" s="98" t="str">
@@ -12053,8 +12204,14 @@
       <c r="EG28" s="83"/>
       <c r="EH28" s="83"/>
       <c r="EI28" s="83"/>
-    </row>
-    <row r="29" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ28" s="83"/>
+      <c r="EK28" s="83"/>
+      <c r="EL28" s="83"/>
+      <c r="EM28" s="83"/>
+      <c r="EN28" s="83"/>
+      <c r="EO28" s="83"/>
+    </row>
+    <row r="29" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="83"/>
       <c r="B29" s="81"/>
       <c r="C29" s="83"/>
@@ -12076,15 +12233,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
       <c r="Z29" s="103"/>
       <c r="AA29" s="103"/>
       <c r="AB29" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC29" s="124">
+      <c r="AC29" s="123">
         <f>IF($Y29="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -12093,11 +12250,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF29" s="124">
+      <c r="AF29" s="123">
         <f>IF($Y29="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="124">
+      <c r="AG29" s="123">
         <f>IF($Y29="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -12107,47 +12264,47 @@
         <v/>
       </c>
       <c r="AJ29" s="103"/>
-      <c r="AK29" s="124">
+      <c r="AK29" s="123">
         <f>IF($Y29="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="123"/>
-      <c r="AM29" s="124">
+      <c r="AL29" s="122"/>
+      <c r="AM29" s="123">
         <f>IF($Y29="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN29" s="103"/>
-      <c r="AO29" s="124">
+      <c r="AO29" s="123">
         <f>IF($Y29="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP29" s="121"/>
-      <c r="AQ29" s="124">
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="123">
         <f>IF($Y29="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR29" s="103"/>
       <c r="AS29" s="103"/>
       <c r="AU29" s="103"/>
-      <c r="AV29" s="121"/>
-      <c r="AW29" s="121"/>
-      <c r="AX29" s="124">
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="120"/>
+      <c r="AX29" s="123">
         <f>IF(OR($AV29="Window",$AV29="RoofWindow"),'Performance inputs'!$B$10,IF($AV29="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY29" s="124">
+      <c r="AY29" s="123">
         <f>IF(OR($AV29="Window",$AV29="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ29" s="124">
+      <c r="AZ29" s="123">
         <f>IF(OR($AV29="Window",$AV29="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB29" s="121"/>
+      <c r="BB29" s="120"/>
       <c r="BC29" s="103"/>
-      <c r="BD29" s="121"/>
-      <c r="BE29" s="121"/>
-      <c r="BF29" s="121"/>
+      <c r="BD29" s="120"/>
+      <c r="BE29" s="120"/>
+      <c r="BF29" s="120"/>
       <c r="BG29" s="103"/>
       <c r="BH29" s="103"/>
       <c r="BI29" s="98" t="str">
@@ -12233,8 +12390,14 @@
       <c r="EG29" s="83"/>
       <c r="EH29" s="83"/>
       <c r="EI29" s="83"/>
-    </row>
-    <row r="30" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ29" s="83"/>
+      <c r="EK29" s="83"/>
+      <c r="EL29" s="83"/>
+      <c r="EM29" s="83"/>
+      <c r="EN29" s="83"/>
+      <c r="EO29" s="83"/>
+    </row>
+    <row r="30" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="83"/>
       <c r="B30" s="81"/>
       <c r="C30" s="83"/>
@@ -12257,15 +12420,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
       <c r="Z30" s="103"/>
       <c r="AA30" s="103"/>
       <c r="AB30" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC30" s="124">
+      <c r="AC30" s="123">
         <f>IF($Y30="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -12274,11 +12437,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF30" s="124">
+      <c r="AF30" s="123">
         <f>IF($Y30="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG30" s="124">
+      <c r="AG30" s="123">
         <f>IF($Y30="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -12288,47 +12451,47 @@
         <v/>
       </c>
       <c r="AJ30" s="103"/>
-      <c r="AK30" s="124">
+      <c r="AK30" s="123">
         <f>IF($Y30="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="123"/>
-      <c r="AM30" s="124">
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="123">
         <f>IF($Y30="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN30" s="103"/>
-      <c r="AO30" s="124">
+      <c r="AO30" s="123">
         <f>IF($Y30="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP30" s="121"/>
-      <c r="AQ30" s="124">
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="123">
         <f>IF($Y30="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR30" s="103"/>
       <c r="AS30" s="103"/>
       <c r="AU30" s="103"/>
-      <c r="AV30" s="121"/>
-      <c r="AW30" s="121"/>
-      <c r="AX30" s="124">
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="120"/>
+      <c r="AX30" s="123">
         <f>IF(OR($AV30="Window",$AV30="RoofWindow"),'Performance inputs'!$B$10,IF($AV30="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY30" s="124">
+      <c r="AY30" s="123">
         <f>IF(OR($AV30="Window",$AV30="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ30" s="124">
+      <c r="AZ30" s="123">
         <f>IF(OR($AV30="Window",$AV30="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB30" s="121"/>
+      <c r="BB30" s="120"/>
       <c r="BC30" s="103"/>
-      <c r="BD30" s="121"/>
-      <c r="BE30" s="121"/>
-      <c r="BF30" s="121"/>
+      <c r="BD30" s="120"/>
+      <c r="BE30" s="120"/>
+      <c r="BF30" s="120"/>
       <c r="BG30" s="103"/>
       <c r="BH30" s="103"/>
       <c r="BI30" s="98" t="str">
@@ -12414,8 +12577,14 @@
       <c r="EG30" s="83"/>
       <c r="EH30" s="83"/>
       <c r="EI30" s="83"/>
-    </row>
-    <row r="31" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ30" s="83"/>
+      <c r="EK30" s="83"/>
+      <c r="EL30" s="83"/>
+      <c r="EM30" s="83"/>
+      <c r="EN30" s="83"/>
+      <c r="EO30" s="83"/>
+    </row>
+    <row r="31" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="83"/>
       <c r="B31" s="80"/>
       <c r="C31" s="83"/>
@@ -12437,15 +12606,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
       <c r="Z31" s="103"/>
       <c r="AA31" s="103"/>
       <c r="AB31" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC31" s="124">
+      <c r="AC31" s="123">
         <f>IF($Y31="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -12454,11 +12623,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF31" s="124">
+      <c r="AF31" s="123">
         <f>IF($Y31="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG31" s="124">
+      <c r="AG31" s="123">
         <f>IF($Y31="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -12468,47 +12637,47 @@
         <v/>
       </c>
       <c r="AJ31" s="103"/>
-      <c r="AK31" s="124">
+      <c r="AK31" s="123">
         <f>IF($Y31="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL31" s="123"/>
-      <c r="AM31" s="124">
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="123">
         <f>IF($Y31="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN31" s="103"/>
-      <c r="AO31" s="124">
+      <c r="AO31" s="123">
         <f>IF($Y31="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="124">
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="123">
         <f>IF($Y31="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR31" s="103"/>
       <c r="AS31" s="103"/>
       <c r="AU31" s="103"/>
-      <c r="AV31" s="121"/>
-      <c r="AW31" s="121"/>
-      <c r="AX31" s="124">
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="120"/>
+      <c r="AX31" s="123">
         <f>IF(OR($AV31="Window",$AV31="RoofWindow"),'Performance inputs'!$B$10,IF($AV31="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY31" s="124">
+      <c r="AY31" s="123">
         <f>IF(OR($AV31="Window",$AV31="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ31" s="124">
+      <c r="AZ31" s="123">
         <f>IF(OR($AV31="Window",$AV31="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB31" s="121"/>
+      <c r="BB31" s="120"/>
       <c r="BC31" s="103"/>
-      <c r="BD31" s="121"/>
-      <c r="BE31" s="121"/>
-      <c r="BF31" s="121"/>
+      <c r="BD31" s="120"/>
+      <c r="BE31" s="120"/>
+      <c r="BF31" s="120"/>
       <c r="BG31" s="103"/>
       <c r="BH31" s="103"/>
       <c r="BI31" s="98" t="str">
@@ -12594,8 +12763,14 @@
       <c r="EG31" s="83"/>
       <c r="EH31" s="83"/>
       <c r="EI31" s="83"/>
-    </row>
-    <row r="32" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ31" s="83"/>
+      <c r="EK31" s="83"/>
+      <c r="EL31" s="83"/>
+      <c r="EM31" s="83"/>
+      <c r="EN31" s="83"/>
+      <c r="EO31" s="83"/>
+    </row>
+    <row r="32" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="88"/>
       <c r="D32" s="88"/>
       <c r="F32" s="88"/>
@@ -12615,15 +12790,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
       <c r="Z32" s="103"/>
       <c r="AA32" s="103"/>
       <c r="AB32" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC32" s="124">
+      <c r="AC32" s="123">
         <f>IF($Y32="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -12632,11 +12807,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF32" s="124">
+      <c r="AF32" s="123">
         <f>IF($Y32="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="124">
+      <c r="AG32" s="123">
         <f>IF($Y32="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -12646,47 +12821,47 @@
         <v/>
       </c>
       <c r="AJ32" s="103"/>
-      <c r="AK32" s="124">
+      <c r="AK32" s="123">
         <f>IF($Y32="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL32" s="123"/>
-      <c r="AM32" s="124">
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="123">
         <f>IF($Y32="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN32" s="103"/>
-      <c r="AO32" s="124">
+      <c r="AO32" s="123">
         <f>IF($Y32="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP32" s="121"/>
-      <c r="AQ32" s="124">
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="123">
         <f>IF($Y32="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR32" s="103"/>
       <c r="AS32" s="103"/>
       <c r="AU32" s="103"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="121"/>
-      <c r="AX32" s="124">
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
+      <c r="AX32" s="123">
         <f>IF(OR($AV32="Window",$AV32="RoofWindow"),'Performance inputs'!$B$10,IF($AV32="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY32" s="124">
+      <c r="AY32" s="123">
         <f>IF(OR($AV32="Window",$AV32="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="124">
+      <c r="AZ32" s="123">
         <f>IF(OR($AV32="Window",$AV32="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB32" s="121"/>
+      <c r="BB32" s="120"/>
       <c r="BC32" s="103"/>
-      <c r="BD32" s="121"/>
-      <c r="BE32" s="121"/>
-      <c r="BF32" s="121"/>
+      <c r="BD32" s="120"/>
+      <c r="BE32" s="120"/>
+      <c r="BF32" s="120"/>
       <c r="BG32" s="103"/>
       <c r="BH32" s="103"/>
       <c r="BI32" s="98" t="str">
@@ -12757,7 +12932,7 @@
       <c r="DQ32" s="88"/>
       <c r="DR32" s="88"/>
     </row>
-    <row r="33" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q33" s="103"/>
       <c r="R33" s="103"/>
       <c r="S33" s="103"/>
@@ -12767,15 +12942,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
       <c r="Z33" s="103"/>
       <c r="AA33" s="103"/>
       <c r="AB33" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC33" s="124">
+      <c r="AC33" s="123">
         <f>IF($Y33="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -12784,11 +12959,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF33" s="124">
+      <c r="AF33" s="123">
         <f>IF($Y33="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG33" s="124">
+      <c r="AG33" s="123">
         <f>IF($Y33="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -12798,47 +12973,47 @@
         <v/>
       </c>
       <c r="AJ33" s="103"/>
-      <c r="AK33" s="124">
+      <c r="AK33" s="123">
         <f>IF($Y33="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL33" s="123"/>
-      <c r="AM33" s="124">
+      <c r="AL33" s="122"/>
+      <c r="AM33" s="123">
         <f>IF($Y33="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN33" s="103"/>
-      <c r="AO33" s="124">
+      <c r="AO33" s="123">
         <f>IF($Y33="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="124">
+      <c r="AP33" s="120"/>
+      <c r="AQ33" s="123">
         <f>IF($Y33="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR33" s="103"/>
       <c r="AS33" s="103"/>
       <c r="AU33" s="103"/>
-      <c r="AV33" s="121"/>
-      <c r="AW33" s="121"/>
-      <c r="AX33" s="124">
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="120"/>
+      <c r="AX33" s="123">
         <f>IF(OR($AV33="Window",$AV33="RoofWindow"),'Performance inputs'!$B$10,IF($AV33="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY33" s="124">
+      <c r="AY33" s="123">
         <f>IF(OR($AV33="Window",$AV33="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ33" s="124">
+      <c r="AZ33" s="123">
         <f>IF(OR($AV33="Window",$AV33="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB33" s="121"/>
+      <c r="BB33" s="120"/>
       <c r="BC33" s="103"/>
-      <c r="BD33" s="121"/>
-      <c r="BE33" s="121"/>
-      <c r="BF33" s="121"/>
+      <c r="BD33" s="120"/>
+      <c r="BE33" s="120"/>
+      <c r="BF33" s="120"/>
       <c r="BG33" s="103"/>
       <c r="BH33" s="103"/>
       <c r="BI33" s="98" t="str">
@@ -12903,7 +13078,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="86"/>
       <c r="B34" s="87"/>
       <c r="C34" s="86"/>
@@ -12925,15 +13100,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
       <c r="Z34" s="103"/>
       <c r="AA34" s="103"/>
       <c r="AB34" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC34" s="124">
+      <c r="AC34" s="123">
         <f>IF($Y34="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -12942,11 +13117,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF34" s="124">
+      <c r="AF34" s="123">
         <f>IF($Y34="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="124">
+      <c r="AG34" s="123">
         <f>IF($Y34="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -12956,47 +13131,47 @@
         <v/>
       </c>
       <c r="AJ34" s="103"/>
-      <c r="AK34" s="124">
+      <c r="AK34" s="123">
         <f>IF($Y34="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="123"/>
-      <c r="AM34" s="124">
+      <c r="AL34" s="122"/>
+      <c r="AM34" s="123">
         <f>IF($Y34="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN34" s="103"/>
-      <c r="AO34" s="124">
+      <c r="AO34" s="123">
         <f>IF($Y34="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP34" s="121"/>
-      <c r="AQ34" s="124">
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="123">
         <f>IF($Y34="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR34" s="103"/>
       <c r="AS34" s="103"/>
       <c r="AU34" s="103"/>
-      <c r="AV34" s="121"/>
-      <c r="AW34" s="121"/>
-      <c r="AX34" s="124">
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
+      <c r="AX34" s="123">
         <f>IF(OR($AV34="Window",$AV34="RoofWindow"),'Performance inputs'!$B$10,IF($AV34="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="124">
+      <c r="AY34" s="123">
         <f>IF(OR($AV34="Window",$AV34="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ34" s="124">
+      <c r="AZ34" s="123">
         <f>IF(OR($AV34="Window",$AV34="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB34" s="121"/>
+      <c r="BB34" s="120"/>
       <c r="BC34" s="103"/>
-      <c r="BD34" s="121"/>
-      <c r="BE34" s="121"/>
-      <c r="BF34" s="121"/>
+      <c r="BD34" s="120"/>
+      <c r="BE34" s="120"/>
+      <c r="BF34" s="120"/>
       <c r="BG34" s="103"/>
       <c r="BH34" s="103"/>
       <c r="BI34" s="98" t="str">
@@ -13082,8 +13257,14 @@
       <c r="EG34" s="86"/>
       <c r="EH34" s="86"/>
       <c r="EI34" s="86"/>
-    </row>
-    <row r="35" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ34" s="86"/>
+      <c r="EK34" s="86"/>
+      <c r="EL34" s="86"/>
+      <c r="EM34" s="86"/>
+      <c r="EN34" s="86"/>
+      <c r="EO34" s="86"/>
+    </row>
+    <row r="35" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="90"/>
@@ -13104,15 +13285,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
+      <c r="X35" s="120"/>
+      <c r="Y35" s="120"/>
       <c r="Z35" s="103"/>
       <c r="AA35" s="103"/>
       <c r="AB35" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC35" s="124">
+      <c r="AC35" s="123">
         <f>IF($Y35="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -13121,11 +13302,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF35" s="124">
+      <c r="AF35" s="123">
         <f>IF($Y35="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="124">
+      <c r="AG35" s="123">
         <f>IF($Y35="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -13135,47 +13316,47 @@
         <v/>
       </c>
       <c r="AJ35" s="103"/>
-      <c r="AK35" s="124">
+      <c r="AK35" s="123">
         <f>IF($Y35="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL35" s="123"/>
-      <c r="AM35" s="124">
+      <c r="AL35" s="122"/>
+      <c r="AM35" s="123">
         <f>IF($Y35="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN35" s="103"/>
-      <c r="AO35" s="124">
+      <c r="AO35" s="123">
         <f>IF($Y35="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP35" s="121"/>
-      <c r="AQ35" s="124">
+      <c r="AP35" s="120"/>
+      <c r="AQ35" s="123">
         <f>IF($Y35="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR35" s="103"/>
       <c r="AS35" s="103"/>
       <c r="AU35" s="103"/>
-      <c r="AV35" s="121"/>
-      <c r="AW35" s="121"/>
-      <c r="AX35" s="124">
+      <c r="AV35" s="120"/>
+      <c r="AW35" s="120"/>
+      <c r="AX35" s="123">
         <f>IF(OR($AV35="Window",$AV35="RoofWindow"),'Performance inputs'!$B$10,IF($AV35="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="124">
+      <c r="AY35" s="123">
         <f>IF(OR($AV35="Window",$AV35="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ35" s="124">
+      <c r="AZ35" s="123">
         <f>IF(OR($AV35="Window",$AV35="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB35" s="121"/>
+      <c r="BB35" s="120"/>
       <c r="BC35" s="103"/>
-      <c r="BD35" s="121"/>
-      <c r="BE35" s="121"/>
-      <c r="BF35" s="121"/>
+      <c r="BD35" s="120"/>
+      <c r="BE35" s="120"/>
+      <c r="BF35" s="120"/>
       <c r="BG35" s="103"/>
       <c r="BH35" s="103"/>
       <c r="BI35" s="98" t="str">
@@ -13248,7 +13429,7 @@
       <c r="DR35" s="80"/>
       <c r="DS35" s="90"/>
     </row>
-    <row r="36" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83"/>
       <c r="B36" s="81"/>
       <c r="C36" s="83"/>
@@ -13273,15 +13454,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="120"/>
       <c r="Z36" s="103"/>
       <c r="AA36" s="103"/>
       <c r="AB36" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="124">
+      <c r="AC36" s="123">
         <f>IF($Y36="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -13290,11 +13471,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF36" s="124">
+      <c r="AF36" s="123">
         <f>IF($Y36="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="124">
+      <c r="AG36" s="123">
         <f>IF($Y36="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -13304,47 +13485,47 @@
         <v/>
       </c>
       <c r="AJ36" s="103"/>
-      <c r="AK36" s="124">
+      <c r="AK36" s="123">
         <f>IF($Y36="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL36" s="123"/>
-      <c r="AM36" s="124">
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="123">
         <f>IF($Y36="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN36" s="103"/>
-      <c r="AO36" s="124">
+      <c r="AO36" s="123">
         <f>IF($Y36="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP36" s="121"/>
-      <c r="AQ36" s="124">
+      <c r="AP36" s="120"/>
+      <c r="AQ36" s="123">
         <f>IF($Y36="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR36" s="103"/>
       <c r="AS36" s="103"/>
       <c r="AU36" s="103"/>
-      <c r="AV36" s="121"/>
-      <c r="AW36" s="121"/>
-      <c r="AX36" s="124">
+      <c r="AV36" s="120"/>
+      <c r="AW36" s="120"/>
+      <c r="AX36" s="123">
         <f>IF(OR($AV36="Window",$AV36="RoofWindow"),'Performance inputs'!$B$10,IF($AV36="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY36" s="124">
+      <c r="AY36" s="123">
         <f>IF(OR($AV36="Window",$AV36="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ36" s="124">
+      <c r="AZ36" s="123">
         <f>IF(OR($AV36="Window",$AV36="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB36" s="121"/>
+      <c r="BB36" s="120"/>
       <c r="BC36" s="103"/>
-      <c r="BD36" s="121"/>
-      <c r="BE36" s="121"/>
-      <c r="BF36" s="121"/>
+      <c r="BD36" s="120"/>
+      <c r="BE36" s="120"/>
+      <c r="BF36" s="120"/>
       <c r="BG36" s="103"/>
       <c r="BH36" s="103"/>
       <c r="BI36" s="98" t="str">
@@ -13432,8 +13613,14 @@
       <c r="EG36" s="83"/>
       <c r="EH36" s="83"/>
       <c r="EI36" s="83"/>
-    </row>
-    <row r="37" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ36" s="83"/>
+      <c r="EK36" s="83"/>
+      <c r="EL36" s="83"/>
+      <c r="EM36" s="83"/>
+      <c r="EN36" s="83"/>
+      <c r="EO36" s="83"/>
+    </row>
+    <row r="37" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="83"/>
       <c r="B37" s="81"/>
       <c r="C37" s="83"/>
@@ -13457,15 +13644,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
+      <c r="X37" s="120"/>
+      <c r="Y37" s="120"/>
       <c r="Z37" s="103"/>
       <c r="AA37" s="103"/>
       <c r="AB37" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC37" s="124">
+      <c r="AC37" s="123">
         <f>IF($Y37="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -13474,11 +13661,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF37" s="124">
+      <c r="AF37" s="123">
         <f>IF($Y37="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="124">
+      <c r="AG37" s="123">
         <f>IF($Y37="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -13488,47 +13675,47 @@
         <v/>
       </c>
       <c r="AJ37" s="103"/>
-      <c r="AK37" s="124">
+      <c r="AK37" s="123">
         <f>IF($Y37="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL37" s="123"/>
-      <c r="AM37" s="124">
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="123">
         <f>IF($Y37="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN37" s="103"/>
-      <c r="AO37" s="124">
+      <c r="AO37" s="123">
         <f>IF($Y37="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP37" s="121"/>
-      <c r="AQ37" s="124">
+      <c r="AP37" s="120"/>
+      <c r="AQ37" s="123">
         <f>IF($Y37="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR37" s="103"/>
       <c r="AS37" s="103"/>
       <c r="AU37" s="103"/>
-      <c r="AV37" s="121"/>
-      <c r="AW37" s="121"/>
-      <c r="AX37" s="124">
+      <c r="AV37" s="120"/>
+      <c r="AW37" s="120"/>
+      <c r="AX37" s="123">
         <f>IF(OR($AV37="Window",$AV37="RoofWindow"),'Performance inputs'!$B$10,IF($AV37="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY37" s="124">
+      <c r="AY37" s="123">
         <f>IF(OR($AV37="Window",$AV37="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ37" s="124">
+      <c r="AZ37" s="123">
         <f>IF(OR($AV37="Window",$AV37="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB37" s="121"/>
+      <c r="BB37" s="120"/>
       <c r="BC37" s="103"/>
-      <c r="BD37" s="121"/>
-      <c r="BE37" s="121"/>
-      <c r="BF37" s="121"/>
+      <c r="BD37" s="120"/>
+      <c r="BE37" s="120"/>
+      <c r="BF37" s="120"/>
       <c r="BG37" s="103"/>
       <c r="BH37" s="103"/>
       <c r="BI37" s="98" t="str">
@@ -13616,8 +13803,14 @@
       <c r="EG37" s="83"/>
       <c r="EH37" s="83"/>
       <c r="EI37" s="83"/>
-    </row>
-    <row r="38" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ37" s="83"/>
+      <c r="EK37" s="83"/>
+      <c r="EL37" s="83"/>
+      <c r="EM37" s="83"/>
+      <c r="EN37" s="83"/>
+      <c r="EO37" s="83"/>
+    </row>
+    <row r="38" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83"/>
       <c r="B38" s="81"/>
       <c r="C38" s="83"/>
@@ -13642,15 +13835,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X38" s="121"/>
-      <c r="Y38" s="121"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="120"/>
       <c r="Z38" s="103"/>
       <c r="AA38" s="103"/>
       <c r="AB38" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC38" s="124">
+      <c r="AC38" s="123">
         <f>IF($Y38="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -13659,11 +13852,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF38" s="124">
+      <c r="AF38" s="123">
         <f>IF($Y38="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="124">
+      <c r="AG38" s="123">
         <f>IF($Y38="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -13673,47 +13866,47 @@
         <v/>
       </c>
       <c r="AJ38" s="103"/>
-      <c r="AK38" s="124">
+      <c r="AK38" s="123">
         <f>IF($Y38="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL38" s="123"/>
-      <c r="AM38" s="124">
+      <c r="AL38" s="122"/>
+      <c r="AM38" s="123">
         <f>IF($Y38="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN38" s="103"/>
-      <c r="AO38" s="124">
+      <c r="AO38" s="123">
         <f>IF($Y38="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP38" s="121"/>
-      <c r="AQ38" s="124">
+      <c r="AP38" s="120"/>
+      <c r="AQ38" s="123">
         <f>IF($Y38="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR38" s="103"/>
       <c r="AS38" s="103"/>
       <c r="AU38" s="103"/>
-      <c r="AV38" s="121"/>
-      <c r="AW38" s="121"/>
-      <c r="AX38" s="124">
+      <c r="AV38" s="120"/>
+      <c r="AW38" s="120"/>
+      <c r="AX38" s="123">
         <f>IF(OR($AV38="Window",$AV38="RoofWindow"),'Performance inputs'!$B$10,IF($AV38="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="124">
+      <c r="AY38" s="123">
         <f>IF(OR($AV38="Window",$AV38="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ38" s="124">
+      <c r="AZ38" s="123">
         <f>IF(OR($AV38="Window",$AV38="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB38" s="121"/>
+      <c r="BB38" s="120"/>
       <c r="BC38" s="103"/>
-      <c r="BD38" s="121"/>
-      <c r="BE38" s="121"/>
-      <c r="BF38" s="121"/>
+      <c r="BD38" s="120"/>
+      <c r="BE38" s="120"/>
+      <c r="BF38" s="120"/>
       <c r="BG38" s="103"/>
       <c r="BH38" s="103"/>
       <c r="BI38" s="98" t="str">
@@ -13801,8 +13994,14 @@
       <c r="EG38" s="83"/>
       <c r="EH38" s="83"/>
       <c r="EI38" s="83"/>
-    </row>
-    <row r="39" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ38" s="83"/>
+      <c r="EK38" s="83"/>
+      <c r="EL38" s="83"/>
+      <c r="EM38" s="83"/>
+      <c r="EN38" s="83"/>
+      <c r="EO38" s="83"/>
+    </row>
+    <row r="39" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="80"/>
       <c r="D39" s="80"/>
       <c r="F39" s="80"/>
@@ -13820,15 +14019,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X39" s="121"/>
-      <c r="Y39" s="121"/>
+      <c r="X39" s="120"/>
+      <c r="Y39" s="120"/>
       <c r="Z39" s="103"/>
       <c r="AA39" s="103"/>
       <c r="AB39" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC39" s="124">
+      <c r="AC39" s="123">
         <f>IF($Y39="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -13837,11 +14036,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF39" s="124">
+      <c r="AF39" s="123">
         <f>IF($Y39="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="124">
+      <c r="AG39" s="123">
         <f>IF($Y39="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -13851,47 +14050,47 @@
         <v/>
       </c>
       <c r="AJ39" s="103"/>
-      <c r="AK39" s="124">
+      <c r="AK39" s="123">
         <f>IF($Y39="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL39" s="123"/>
-      <c r="AM39" s="124">
+      <c r="AL39" s="122"/>
+      <c r="AM39" s="123">
         <f>IF($Y39="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN39" s="103"/>
-      <c r="AO39" s="124">
+      <c r="AO39" s="123">
         <f>IF($Y39="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP39" s="121"/>
-      <c r="AQ39" s="124">
+      <c r="AP39" s="120"/>
+      <c r="AQ39" s="123">
         <f>IF($Y39="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103"/>
       <c r="AU39" s="103"/>
-      <c r="AV39" s="121"/>
-      <c r="AW39" s="121"/>
-      <c r="AX39" s="124">
+      <c r="AV39" s="120"/>
+      <c r="AW39" s="120"/>
+      <c r="AX39" s="123">
         <f>IF(OR($AV39="Window",$AV39="RoofWindow"),'Performance inputs'!$B$10,IF($AV39="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="124">
+      <c r="AY39" s="123">
         <f>IF(OR($AV39="Window",$AV39="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ39" s="124">
+      <c r="AZ39" s="123">
         <f>IF(OR($AV39="Window",$AV39="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB39" s="121"/>
+      <c r="BB39" s="120"/>
       <c r="BC39" s="103"/>
-      <c r="BD39" s="121"/>
-      <c r="BE39" s="121"/>
-      <c r="BF39" s="121"/>
+      <c r="BD39" s="120"/>
+      <c r="BE39" s="120"/>
+      <c r="BF39" s="120"/>
       <c r="BG39" s="103"/>
       <c r="BH39" s="103"/>
       <c r="BI39" s="98" t="str">
@@ -13962,7 +14161,7 @@
       <c r="DQ39" s="80"/>
       <c r="DR39" s="80"/>
     </row>
-    <row r="40" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:145" x14ac:dyDescent="0.2">
       <c r="B40" s="92"/>
       <c r="D40" s="92"/>
       <c r="F40" s="92"/>
@@ -13981,15 +14180,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X40" s="121"/>
-      <c r="Y40" s="121"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
       <c r="Z40" s="103"/>
       <c r="AA40" s="103"/>
       <c r="AB40" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC40" s="124">
+      <c r="AC40" s="123">
         <f>IF($Y40="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -13998,11 +14197,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF40" s="124">
+      <c r="AF40" s="123">
         <f>IF($Y40="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="124">
+      <c r="AG40" s="123">
         <f>IF($Y40="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -14012,47 +14211,47 @@
         <v/>
       </c>
       <c r="AJ40" s="103"/>
-      <c r="AK40" s="124">
+      <c r="AK40" s="123">
         <f>IF($Y40="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL40" s="123"/>
-      <c r="AM40" s="124">
+      <c r="AL40" s="122"/>
+      <c r="AM40" s="123">
         <f>IF($Y40="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN40" s="103"/>
-      <c r="AO40" s="124">
+      <c r="AO40" s="123">
         <f>IF($Y40="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP40" s="121"/>
-      <c r="AQ40" s="124">
+      <c r="AP40" s="120"/>
+      <c r="AQ40" s="123">
         <f>IF($Y40="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR40" s="103"/>
       <c r="AS40" s="103"/>
       <c r="AU40" s="103"/>
-      <c r="AV40" s="121"/>
-      <c r="AW40" s="121"/>
-      <c r="AX40" s="124">
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="123">
         <f>IF(OR($AV40="Window",$AV40="RoofWindow"),'Performance inputs'!$B$10,IF($AV40="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY40" s="124">
+      <c r="AY40" s="123">
         <f>IF(OR($AV40="Window",$AV40="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ40" s="124">
+      <c r="AZ40" s="123">
         <f>IF(OR($AV40="Window",$AV40="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB40" s="121"/>
+      <c r="BB40" s="120"/>
       <c r="BC40" s="103"/>
-      <c r="BD40" s="121"/>
-      <c r="BE40" s="121"/>
-      <c r="BF40" s="121"/>
+      <c r="BD40" s="120"/>
+      <c r="BE40" s="120"/>
+      <c r="BF40" s="120"/>
       <c r="BG40" s="103"/>
       <c r="BH40" s="103"/>
       <c r="BI40" s="98" t="str">
@@ -14123,7 +14322,7 @@
       <c r="DQ40" s="92"/>
       <c r="DR40" s="92"/>
     </row>
-    <row r="41" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:145" x14ac:dyDescent="0.2">
       <c r="Q41" s="103"/>
       <c r="R41" s="103"/>
       <c r="S41" s="103"/>
@@ -14133,15 +14332,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X41" s="121"/>
-      <c r="Y41" s="121"/>
+      <c r="X41" s="120"/>
+      <c r="Y41" s="120"/>
       <c r="Z41" s="103"/>
       <c r="AA41" s="103"/>
       <c r="AB41" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC41" s="124">
+      <c r="AC41" s="123">
         <f>IF($Y41="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -14150,11 +14349,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF41" s="124">
+      <c r="AF41" s="123">
         <f>IF($Y41="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="124">
+      <c r="AG41" s="123">
         <f>IF($Y41="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -14164,47 +14363,47 @@
         <v/>
       </c>
       <c r="AJ41" s="103"/>
-      <c r="AK41" s="124">
+      <c r="AK41" s="123">
         <f>IF($Y41="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL41" s="123"/>
-      <c r="AM41" s="124">
+      <c r="AL41" s="122"/>
+      <c r="AM41" s="123">
         <f>IF($Y41="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN41" s="103"/>
-      <c r="AO41" s="124">
+      <c r="AO41" s="123">
         <f>IF($Y41="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP41" s="121"/>
-      <c r="AQ41" s="124">
+      <c r="AP41" s="120"/>
+      <c r="AQ41" s="123">
         <f>IF($Y41="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR41" s="103"/>
       <c r="AS41" s="103"/>
       <c r="AU41" s="103"/>
-      <c r="AV41" s="121"/>
-      <c r="AW41" s="121"/>
-      <c r="AX41" s="124">
+      <c r="AV41" s="120"/>
+      <c r="AW41" s="120"/>
+      <c r="AX41" s="123">
         <f>IF(OR($AV41="Window",$AV41="RoofWindow"),'Performance inputs'!$B$10,IF($AV41="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY41" s="124">
+      <c r="AY41" s="123">
         <f>IF(OR($AV41="Window",$AV41="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ41" s="124">
+      <c r="AZ41" s="123">
         <f>IF(OR($AV41="Window",$AV41="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB41" s="121"/>
+      <c r="BB41" s="120"/>
       <c r="BC41" s="103"/>
-      <c r="BD41" s="121"/>
-      <c r="BE41" s="121"/>
-      <c r="BF41" s="121"/>
+      <c r="BD41" s="120"/>
+      <c r="BE41" s="120"/>
+      <c r="BF41" s="120"/>
       <c r="BG41" s="103"/>
       <c r="BH41" s="103"/>
       <c r="BI41" s="98" t="str">
@@ -14269,7 +14468,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="86"/>
       <c r="B42" s="87"/>
       <c r="C42" s="86"/>
@@ -14291,15 +14490,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
+      <c r="X42" s="120"/>
+      <c r="Y42" s="120"/>
       <c r="Z42" s="103"/>
       <c r="AA42" s="103"/>
       <c r="AB42" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC42" s="124">
+      <c r="AC42" s="123">
         <f>IF($Y42="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -14308,11 +14507,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF42" s="124">
+      <c r="AF42" s="123">
         <f>IF($Y42="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="124">
+      <c r="AG42" s="123">
         <f>IF($Y42="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -14322,47 +14521,47 @@
         <v/>
       </c>
       <c r="AJ42" s="103"/>
-      <c r="AK42" s="124">
+      <c r="AK42" s="123">
         <f>IF($Y42="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL42" s="123"/>
-      <c r="AM42" s="124">
+      <c r="AL42" s="122"/>
+      <c r="AM42" s="123">
         <f>IF($Y42="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN42" s="103"/>
-      <c r="AO42" s="124">
+      <c r="AO42" s="123">
         <f>IF($Y42="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP42" s="121"/>
-      <c r="AQ42" s="124">
+      <c r="AP42" s="120"/>
+      <c r="AQ42" s="123">
         <f>IF($Y42="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR42" s="103"/>
       <c r="AS42" s="103"/>
       <c r="AU42" s="103"/>
-      <c r="AV42" s="121"/>
-      <c r="AW42" s="121"/>
-      <c r="AX42" s="124">
+      <c r="AV42" s="120"/>
+      <c r="AW42" s="120"/>
+      <c r="AX42" s="123">
         <f>IF(OR($AV42="Window",$AV42="RoofWindow"),'Performance inputs'!$B$10,IF($AV42="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY42" s="124">
+      <c r="AY42" s="123">
         <f>IF(OR($AV42="Window",$AV42="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ42" s="124">
+      <c r="AZ42" s="123">
         <f>IF(OR($AV42="Window",$AV42="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB42" s="121"/>
+      <c r="BB42" s="120"/>
       <c r="BC42" s="103"/>
-      <c r="BD42" s="121"/>
-      <c r="BE42" s="121"/>
-      <c r="BF42" s="121"/>
+      <c r="BD42" s="120"/>
+      <c r="BE42" s="120"/>
+      <c r="BF42" s="120"/>
       <c r="BG42" s="103"/>
       <c r="BH42" s="103"/>
       <c r="BI42" s="98" t="str">
@@ -14448,8 +14647,14 @@
       <c r="EG42" s="86"/>
       <c r="EH42" s="86"/>
       <c r="EI42" s="86"/>
-    </row>
-    <row r="43" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ42" s="86"/>
+      <c r="EK42" s="86"/>
+      <c r="EL42" s="86"/>
+      <c r="EM42" s="86"/>
+      <c r="EN42" s="86"/>
+      <c r="EO42" s="86"/>
+    </row>
+    <row r="43" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="84"/>
       <c r="D43" s="84"/>
       <c r="F43" s="84"/>
@@ -14467,15 +14672,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="120"/>
       <c r="Z43" s="103"/>
       <c r="AA43" s="103"/>
       <c r="AB43" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC43" s="124">
+      <c r="AC43" s="123">
         <f>IF($Y43="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -14484,11 +14689,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF43" s="124">
+      <c r="AF43" s="123">
         <f>IF($Y43="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="124">
+      <c r="AG43" s="123">
         <f>IF($Y43="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -14498,47 +14703,47 @@
         <v/>
       </c>
       <c r="AJ43" s="103"/>
-      <c r="AK43" s="124">
+      <c r="AK43" s="123">
         <f>IF($Y43="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL43" s="123"/>
-      <c r="AM43" s="124">
+      <c r="AL43" s="122"/>
+      <c r="AM43" s="123">
         <f>IF($Y43="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN43" s="103"/>
-      <c r="AO43" s="124">
+      <c r="AO43" s="123">
         <f>IF($Y43="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP43" s="121"/>
-      <c r="AQ43" s="124">
+      <c r="AP43" s="120"/>
+      <c r="AQ43" s="123">
         <f>IF($Y43="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR43" s="103"/>
       <c r="AS43" s="103"/>
       <c r="AU43" s="103"/>
-      <c r="AV43" s="121"/>
-      <c r="AW43" s="121"/>
-      <c r="AX43" s="124">
+      <c r="AV43" s="120"/>
+      <c r="AW43" s="120"/>
+      <c r="AX43" s="123">
         <f>IF(OR($AV43="Window",$AV43="RoofWindow"),'Performance inputs'!$B$10,IF($AV43="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY43" s="124">
+      <c r="AY43" s="123">
         <f>IF(OR($AV43="Window",$AV43="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ43" s="124">
+      <c r="AZ43" s="123">
         <f>IF(OR($AV43="Window",$AV43="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB43" s="121"/>
+      <c r="BB43" s="120"/>
       <c r="BC43" s="103"/>
-      <c r="BD43" s="121"/>
-      <c r="BE43" s="121"/>
-      <c r="BF43" s="121"/>
+      <c r="BD43" s="120"/>
+      <c r="BE43" s="120"/>
+      <c r="BF43" s="120"/>
       <c r="BG43" s="103"/>
       <c r="BH43" s="103"/>
       <c r="BI43" s="98" t="str">
@@ -14609,7 +14814,7 @@
       <c r="DQ43" s="84"/>
       <c r="DR43" s="84"/>
     </row>
-    <row r="44" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="84"/>
       <c r="D44" s="84"/>
       <c r="E44" s="90"/>
@@ -14631,15 +14836,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
       <c r="Z44" s="103"/>
       <c r="AA44" s="103"/>
       <c r="AB44" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC44" s="124">
+      <c r="AC44" s="123">
         <f>IF($Y44="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -14648,11 +14853,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF44" s="124">
+      <c r="AF44" s="123">
         <f>IF($Y44="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="124">
+      <c r="AG44" s="123">
         <f>IF($Y44="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -14662,47 +14867,47 @@
         <v/>
       </c>
       <c r="AJ44" s="103"/>
-      <c r="AK44" s="124">
+      <c r="AK44" s="123">
         <f>IF($Y44="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL44" s="123"/>
-      <c r="AM44" s="124">
+      <c r="AL44" s="122"/>
+      <c r="AM44" s="123">
         <f>IF($Y44="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN44" s="103"/>
-      <c r="AO44" s="124">
+      <c r="AO44" s="123">
         <f>IF($Y44="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP44" s="121"/>
-      <c r="AQ44" s="124">
+      <c r="AP44" s="120"/>
+      <c r="AQ44" s="123">
         <f>IF($Y44="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR44" s="103"/>
       <c r="AS44" s="103"/>
       <c r="AU44" s="103"/>
-      <c r="AV44" s="121"/>
-      <c r="AW44" s="121"/>
-      <c r="AX44" s="124">
+      <c r="AV44" s="120"/>
+      <c r="AW44" s="120"/>
+      <c r="AX44" s="123">
         <f>IF(OR($AV44="Window",$AV44="RoofWindow"),'Performance inputs'!$B$10,IF($AV44="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY44" s="124">
+      <c r="AY44" s="123">
         <f>IF(OR($AV44="Window",$AV44="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ44" s="124">
+      <c r="AZ44" s="123">
         <f>IF(OR($AV44="Window",$AV44="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB44" s="121"/>
+      <c r="BB44" s="120"/>
       <c r="BC44" s="103"/>
-      <c r="BD44" s="121"/>
-      <c r="BE44" s="121"/>
-      <c r="BF44" s="121"/>
+      <c r="BD44" s="120"/>
+      <c r="BE44" s="120"/>
+      <c r="BF44" s="120"/>
       <c r="BG44" s="103"/>
       <c r="BH44" s="103"/>
       <c r="BI44" s="98" t="str">
@@ -14775,7 +14980,7 @@
       <c r="DR44" s="84"/>
       <c r="DS44" s="90"/>
     </row>
-    <row r="45" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83"/>
       <c r="B45" s="93"/>
       <c r="C45" s="83"/>
@@ -14799,15 +15004,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X45" s="121"/>
-      <c r="Y45" s="121"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
       <c r="Z45" s="103"/>
       <c r="AA45" s="103"/>
       <c r="AB45" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC45" s="124">
+      <c r="AC45" s="123">
         <f>IF($Y45="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -14816,11 +15021,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF45" s="124">
+      <c r="AF45" s="123">
         <f>IF($Y45="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG45" s="124">
+      <c r="AG45" s="123">
         <f>IF($Y45="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -14830,47 +15035,47 @@
         <v/>
       </c>
       <c r="AJ45" s="103"/>
-      <c r="AK45" s="124">
+      <c r="AK45" s="123">
         <f>IF($Y45="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL45" s="123"/>
-      <c r="AM45" s="124">
+      <c r="AL45" s="122"/>
+      <c r="AM45" s="123">
         <f>IF($Y45="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN45" s="103"/>
-      <c r="AO45" s="124">
+      <c r="AO45" s="123">
         <f>IF($Y45="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP45" s="121"/>
-      <c r="AQ45" s="124">
+      <c r="AP45" s="120"/>
+      <c r="AQ45" s="123">
         <f>IF($Y45="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR45" s="103"/>
       <c r="AS45" s="103"/>
       <c r="AU45" s="103"/>
-      <c r="AV45" s="121"/>
-      <c r="AW45" s="121"/>
-      <c r="AX45" s="124">
+      <c r="AV45" s="120"/>
+      <c r="AW45" s="120"/>
+      <c r="AX45" s="123">
         <f>IF(OR($AV45="Window",$AV45="RoofWindow"),'Performance inputs'!$B$10,IF($AV45="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY45" s="124">
+      <c r="AY45" s="123">
         <f>IF(OR($AV45="Window",$AV45="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ45" s="124">
+      <c r="AZ45" s="123">
         <f>IF(OR($AV45="Window",$AV45="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB45" s="121"/>
+      <c r="BB45" s="120"/>
       <c r="BC45" s="103"/>
-      <c r="BD45" s="121"/>
-      <c r="BE45" s="121"/>
-      <c r="BF45" s="121"/>
+      <c r="BD45" s="120"/>
+      <c r="BE45" s="120"/>
+      <c r="BF45" s="120"/>
       <c r="BG45" s="103"/>
       <c r="BH45" s="103"/>
       <c r="BI45" s="98" t="str">
@@ -14958,8 +15163,14 @@
       <c r="EG45" s="83"/>
       <c r="EH45" s="83"/>
       <c r="EI45" s="83"/>
-    </row>
-    <row r="46" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ45" s="83"/>
+      <c r="EK45" s="83"/>
+      <c r="EL45" s="83"/>
+      <c r="EM45" s="83"/>
+      <c r="EN45" s="83"/>
+      <c r="EO45" s="83"/>
+    </row>
+    <row r="46" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83"/>
       <c r="B46" s="93"/>
       <c r="C46" s="83"/>
@@ -14984,15 +15195,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X46" s="121"/>
-      <c r="Y46" s="121"/>
+      <c r="X46" s="120"/>
+      <c r="Y46" s="120"/>
       <c r="Z46" s="103"/>
       <c r="AA46" s="103"/>
       <c r="AB46" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC46" s="124">
+      <c r="AC46" s="123">
         <f>IF($Y46="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -15001,11 +15212,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF46" s="124">
+      <c r="AF46" s="123">
         <f>IF($Y46="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="124">
+      <c r="AG46" s="123">
         <f>IF($Y46="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -15015,47 +15226,47 @@
         <v/>
       </c>
       <c r="AJ46" s="103"/>
-      <c r="AK46" s="124">
+      <c r="AK46" s="123">
         <f>IF($Y46="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL46" s="123"/>
-      <c r="AM46" s="124">
+      <c r="AL46" s="122"/>
+      <c r="AM46" s="123">
         <f>IF($Y46="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN46" s="103"/>
-      <c r="AO46" s="124">
+      <c r="AO46" s="123">
         <f>IF($Y46="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP46" s="121"/>
-      <c r="AQ46" s="124">
+      <c r="AP46" s="120"/>
+      <c r="AQ46" s="123">
         <f>IF($Y46="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR46" s="103"/>
       <c r="AS46" s="103"/>
       <c r="AU46" s="103"/>
-      <c r="AV46" s="121"/>
-      <c r="AW46" s="121"/>
-      <c r="AX46" s="124">
+      <c r="AV46" s="120"/>
+      <c r="AW46" s="120"/>
+      <c r="AX46" s="123">
         <f>IF(OR($AV46="Window",$AV46="RoofWindow"),'Performance inputs'!$B$10,IF($AV46="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="124">
+      <c r="AY46" s="123">
         <f>IF(OR($AV46="Window",$AV46="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ46" s="124">
+      <c r="AZ46" s="123">
         <f>IF(OR($AV46="Window",$AV46="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB46" s="121"/>
+      <c r="BB46" s="120"/>
       <c r="BC46" s="103"/>
-      <c r="BD46" s="121"/>
-      <c r="BE46" s="121"/>
-      <c r="BF46" s="121"/>
+      <c r="BD46" s="120"/>
+      <c r="BE46" s="120"/>
+      <c r="BF46" s="120"/>
       <c r="BG46" s="103"/>
       <c r="BH46" s="103"/>
       <c r="BI46" s="98" t="str">
@@ -15143,8 +15354,14 @@
       <c r="EG46" s="83"/>
       <c r="EH46" s="83"/>
       <c r="EI46" s="83"/>
-    </row>
-    <row r="47" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ46" s="83"/>
+      <c r="EK46" s="83"/>
+      <c r="EL46" s="83"/>
+      <c r="EM46" s="83"/>
+      <c r="EN46" s="83"/>
+      <c r="EO46" s="83"/>
+    </row>
+    <row r="47" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83"/>
       <c r="B47" s="93"/>
       <c r="C47" s="83"/>
@@ -15168,15 +15385,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X47" s="121"/>
-      <c r="Y47" s="121"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="120"/>
       <c r="Z47" s="103"/>
       <c r="AA47" s="103"/>
       <c r="AB47" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC47" s="124">
+      <c r="AC47" s="123">
         <f>IF($Y47="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -15185,11 +15402,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF47" s="124">
+      <c r="AF47" s="123">
         <f>IF($Y47="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="124">
+      <c r="AG47" s="123">
         <f>IF($Y47="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -15199,47 +15416,47 @@
         <v/>
       </c>
       <c r="AJ47" s="103"/>
-      <c r="AK47" s="124">
+      <c r="AK47" s="123">
         <f>IF($Y47="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="123"/>
-      <c r="AM47" s="124">
+      <c r="AL47" s="122"/>
+      <c r="AM47" s="123">
         <f>IF($Y47="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN47" s="103"/>
-      <c r="AO47" s="124">
+      <c r="AO47" s="123">
         <f>IF($Y47="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP47" s="121"/>
-      <c r="AQ47" s="124">
+      <c r="AP47" s="120"/>
+      <c r="AQ47" s="123">
         <f>IF($Y47="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR47" s="103"/>
       <c r="AS47" s="103"/>
       <c r="AU47" s="103"/>
-      <c r="AV47" s="121"/>
-      <c r="AW47" s="121"/>
-      <c r="AX47" s="124">
+      <c r="AV47" s="120"/>
+      <c r="AW47" s="120"/>
+      <c r="AX47" s="123">
         <f>IF(OR($AV47="Window",$AV47="RoofWindow"),'Performance inputs'!$B$10,IF($AV47="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="124">
+      <c r="AY47" s="123">
         <f>IF(OR($AV47="Window",$AV47="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ47" s="124">
+      <c r="AZ47" s="123">
         <f>IF(OR($AV47="Window",$AV47="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB47" s="121"/>
+      <c r="BB47" s="120"/>
       <c r="BC47" s="103"/>
-      <c r="BD47" s="121"/>
-      <c r="BE47" s="121"/>
-      <c r="BF47" s="121"/>
+      <c r="BD47" s="120"/>
+      <c r="BE47" s="120"/>
+      <c r="BF47" s="120"/>
       <c r="BG47" s="103"/>
       <c r="BH47" s="103"/>
       <c r="BI47" s="98" t="str">
@@ -15327,8 +15544,14 @@
       <c r="EG47" s="83"/>
       <c r="EH47" s="83"/>
       <c r="EI47" s="83"/>
-    </row>
-    <row r="48" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ47" s="83"/>
+      <c r="EK47" s="83"/>
+      <c r="EL47" s="83"/>
+      <c r="EM47" s="83"/>
+      <c r="EN47" s="83"/>
+      <c r="EO47" s="83"/>
+    </row>
+    <row r="48" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="84"/>
       <c r="D48" s="84"/>
       <c r="F48" s="84"/>
@@ -15347,15 +15570,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
       <c r="Z48" s="103"/>
       <c r="AA48" s="103"/>
       <c r="AB48" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC48" s="124">
+      <c r="AC48" s="123">
         <f>IF($Y48="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -15364,11 +15587,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF48" s="124">
+      <c r="AF48" s="123">
         <f>IF($Y48="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="124">
+      <c r="AG48" s="123">
         <f>IF($Y48="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -15378,47 +15601,47 @@
         <v/>
       </c>
       <c r="AJ48" s="103"/>
-      <c r="AK48" s="124">
+      <c r="AK48" s="123">
         <f>IF($Y48="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL48" s="123"/>
-      <c r="AM48" s="124">
+      <c r="AL48" s="122"/>
+      <c r="AM48" s="123">
         <f>IF($Y48="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN48" s="103"/>
-      <c r="AO48" s="124">
+      <c r="AO48" s="123">
         <f>IF($Y48="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP48" s="121"/>
-      <c r="AQ48" s="124">
+      <c r="AP48" s="120"/>
+      <c r="AQ48" s="123">
         <f>IF($Y48="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR48" s="103"/>
       <c r="AS48" s="103"/>
       <c r="AU48" s="103"/>
-      <c r="AV48" s="121"/>
-      <c r="AW48" s="121"/>
-      <c r="AX48" s="124">
+      <c r="AV48" s="120"/>
+      <c r="AW48" s="120"/>
+      <c r="AX48" s="123">
         <f>IF(OR($AV48="Window",$AV48="RoofWindow"),'Performance inputs'!$B$10,IF($AV48="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY48" s="124">
+      <c r="AY48" s="123">
         <f>IF(OR($AV48="Window",$AV48="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ48" s="124">
+      <c r="AZ48" s="123">
         <f>IF(OR($AV48="Window",$AV48="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB48" s="121"/>
+      <c r="BB48" s="120"/>
       <c r="BC48" s="103"/>
-      <c r="BD48" s="121"/>
-      <c r="BE48" s="121"/>
-      <c r="BF48" s="121"/>
+      <c r="BD48" s="120"/>
+      <c r="BE48" s="120"/>
+      <c r="BF48" s="120"/>
       <c r="BG48" s="103"/>
       <c r="BH48" s="103"/>
       <c r="BI48" s="98" t="str">
@@ -15489,7 +15712,7 @@
       <c r="DQ48" s="84"/>
       <c r="DR48" s="84"/>
     </row>
-    <row r="49" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:145" x14ac:dyDescent="0.2">
       <c r="B49" s="94"/>
       <c r="D49" s="94"/>
       <c r="F49" s="94"/>
@@ -15507,15 +15730,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X49" s="121"/>
-      <c r="Y49" s="121"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="120"/>
       <c r="Z49" s="103"/>
       <c r="AA49" s="103"/>
       <c r="AB49" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC49" s="124">
+      <c r="AC49" s="123">
         <f>IF($Y49="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -15524,11 +15747,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF49" s="124">
+      <c r="AF49" s="123">
         <f>IF($Y49="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="124">
+      <c r="AG49" s="123">
         <f>IF($Y49="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -15538,47 +15761,47 @@
         <v/>
       </c>
       <c r="AJ49" s="103"/>
-      <c r="AK49" s="124">
+      <c r="AK49" s="123">
         <f>IF($Y49="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="123"/>
-      <c r="AM49" s="124">
+      <c r="AL49" s="122"/>
+      <c r="AM49" s="123">
         <f>IF($Y49="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN49" s="103"/>
-      <c r="AO49" s="124">
+      <c r="AO49" s="123">
         <f>IF($Y49="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP49" s="121"/>
-      <c r="AQ49" s="124">
+      <c r="AP49" s="120"/>
+      <c r="AQ49" s="123">
         <f>IF($Y49="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR49" s="103"/>
       <c r="AS49" s="103"/>
       <c r="AU49" s="103"/>
-      <c r="AV49" s="121"/>
-      <c r="AW49" s="121"/>
-      <c r="AX49" s="124">
+      <c r="AV49" s="120"/>
+      <c r="AW49" s="120"/>
+      <c r="AX49" s="123">
         <f>IF(OR($AV49="Window",$AV49="RoofWindow"),'Performance inputs'!$B$10,IF($AV49="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY49" s="124">
+      <c r="AY49" s="123">
         <f>IF(OR($AV49="Window",$AV49="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ49" s="124">
+      <c r="AZ49" s="123">
         <f>IF(OR($AV49="Window",$AV49="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB49" s="121"/>
+      <c r="BB49" s="120"/>
       <c r="BC49" s="103"/>
-      <c r="BD49" s="121"/>
-      <c r="BE49" s="121"/>
-      <c r="BF49" s="121"/>
+      <c r="BD49" s="120"/>
+      <c r="BE49" s="120"/>
+      <c r="BF49" s="120"/>
       <c r="BG49" s="103"/>
       <c r="BH49" s="103"/>
       <c r="BI49" s="98" t="str">
@@ -15649,7 +15872,7 @@
       <c r="DQ49" s="94"/>
       <c r="DR49" s="94"/>
     </row>
-    <row r="50" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L50" s="75"/>
       <c r="Q50" s="103"/>
       <c r="R50" s="103"/>
@@ -15660,15 +15883,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X50" s="121"/>
-      <c r="Y50" s="121"/>
+      <c r="X50" s="120"/>
+      <c r="Y50" s="120"/>
       <c r="Z50" s="103"/>
       <c r="AA50" s="103"/>
       <c r="AB50" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC50" s="124">
+      <c r="AC50" s="123">
         <f>IF($Y50="External wall",'Performance inputs'!$B$3,0)</f>
         <v>0</v>
       </c>
@@ -15677,11 +15900,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF50" s="124">
+      <c r="AF50" s="123">
         <f>IF($Y50="Sheltered wall",'Performance inputs'!$B$8,0)</f>
         <v>0</v>
       </c>
-      <c r="AG50" s="124">
+      <c r="AG50" s="123">
         <f>IF($Y50="Sheltered wall",'Performance inputs'!$B$9,0)</f>
         <v>0</v>
       </c>
@@ -15691,47 +15914,47 @@
         <v/>
       </c>
       <c r="AJ50" s="103"/>
-      <c r="AK50" s="124">
+      <c r="AK50" s="123">
         <f>IF($Y50="External roof",'Performance inputs'!$B$4,0)</f>
         <v>0</v>
       </c>
-      <c r="AL50" s="123"/>
-      <c r="AM50" s="124">
+      <c r="AL50" s="122"/>
+      <c r="AM50" s="123">
         <f>IF($Y50="External roof",'Performance inputs'!$B$5,0)</f>
         <v>0</v>
       </c>
       <c r="AN50" s="103"/>
-      <c r="AO50" s="124">
+      <c r="AO50" s="123">
         <f>IF($Y50="Heat loss floor",'Performance inputs'!$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="AP50" s="121"/>
-      <c r="AQ50" s="124">
+      <c r="AP50" s="120"/>
+      <c r="AQ50" s="123">
         <f>IF($Y50="Heat loss floor",'Performance inputs'!$B$7,0)</f>
         <v>0</v>
       </c>
       <c r="AR50" s="103"/>
       <c r="AS50" s="103"/>
       <c r="AU50" s="103"/>
-      <c r="AV50" s="121"/>
-      <c r="AW50" s="121"/>
-      <c r="AX50" s="124">
+      <c r="AV50" s="120"/>
+      <c r="AW50" s="120"/>
+      <c r="AX50" s="123">
         <f>IF(OR($AV50="Window",$AV50="RoofWindow"),'Performance inputs'!$B$10,IF($AV50="SolidDoor",'Performance inputs'!$B$13,0))</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="124">
+      <c r="AY50" s="123">
         <f>IF(OR($AV50="Window",$AV50="RoofWindow"),'Performance inputs'!$B$11,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ50" s="124">
+      <c r="AZ50" s="123">
         <f>IF(OR($AV50="Window",$AV50="RoofWindow"),'Performance inputs'!$B$12,0)</f>
         <v>0</v>
       </c>
-      <c r="BB50" s="121"/>
+      <c r="BB50" s="120"/>
       <c r="BC50" s="103"/>
-      <c r="BD50" s="121"/>
-      <c r="BE50" s="121"/>
-      <c r="BF50" s="121"/>
+      <c r="BD50" s="120"/>
+      <c r="BE50" s="120"/>
+      <c r="BF50" s="120"/>
       <c r="BG50" s="103"/>
       <c r="BH50" s="103"/>
       <c r="BI50" s="98" t="str">
@@ -15796,7 +16019,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="86"/>
       <c r="B51" s="87"/>
       <c r="C51" s="86"/>
@@ -15832,8 +16055,14 @@
       <c r="EG51" s="86"/>
       <c r="EH51" s="86"/>
       <c r="EI51" s="86"/>
-    </row>
-    <row r="52" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ51" s="86"/>
+      <c r="EK51" s="86"/>
+      <c r="EL51" s="86"/>
+      <c r="EM51" s="86"/>
+      <c r="EN51" s="86"/>
+      <c r="EO51" s="86"/>
+    </row>
+    <row r="52" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="84"/>
       <c r="D52" s="84"/>
       <c r="F52" s="84"/>
@@ -15852,7 +16081,7 @@
       <c r="DQ52" s="84"/>
       <c r="DR52" s="84"/>
     </row>
-    <row r="53" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="84"/>
       <c r="D53" s="84"/>
       <c r="E53" s="90"/>
@@ -15875,7 +16104,7 @@
       <c r="DR53" s="84"/>
       <c r="DS53" s="90"/>
     </row>
-    <row r="54" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="93"/>
       <c r="D54" s="93"/>
       <c r="E54" s="95"/>
@@ -15897,7 +16126,7 @@
       <c r="DR54" s="93"/>
       <c r="DS54" s="95"/>
     </row>
-    <row r="55" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="93"/>
       <c r="D55" s="93"/>
       <c r="E55" s="95"/>
@@ -15918,7 +16147,7 @@
       <c r="DR55" s="93"/>
       <c r="DS55" s="95"/>
     </row>
-    <row r="56" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="95"/>
@@ -15940,7 +16169,7 @@
       <c r="DR56" s="93"/>
       <c r="DS56" s="95"/>
     </row>
-    <row r="57" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="93"/>
       <c r="D57" s="93"/>
       <c r="E57" s="95"/>
@@ -15961,7 +16190,7 @@
       <c r="DR57" s="93"/>
       <c r="DS57" s="95"/>
     </row>
-    <row r="58" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="93"/>
       <c r="D58" s="93"/>
       <c r="E58" s="95"/>
@@ -15983,7 +16212,7 @@
       <c r="DR58" s="93"/>
       <c r="DS58" s="95"/>
     </row>
-    <row r="59" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="83"/>
       <c r="B59" s="93"/>
       <c r="C59" s="83"/>
@@ -16022,8 +16251,14 @@
       <c r="EG59" s="83"/>
       <c r="EH59" s="83"/>
       <c r="EI59" s="83"/>
-    </row>
-    <row r="60" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ59" s="83"/>
+      <c r="EK59" s="83"/>
+      <c r="EL59" s="83"/>
+      <c r="EM59" s="83"/>
+      <c r="EN59" s="83"/>
+      <c r="EO59" s="83"/>
+    </row>
+    <row r="60" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
       <c r="B60" s="93"/>
       <c r="C60" s="83"/>
@@ -16063,8 +16298,14 @@
       <c r="EG60" s="83"/>
       <c r="EH60" s="83"/>
       <c r="EI60" s="83"/>
-    </row>
-    <row r="61" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ60" s="83"/>
+      <c r="EK60" s="83"/>
+      <c r="EL60" s="83"/>
+      <c r="EM60" s="83"/>
+      <c r="EN60" s="83"/>
+      <c r="EO60" s="83"/>
+    </row>
+    <row r="61" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
       <c r="B61" s="93"/>
       <c r="C61" s="83"/>
@@ -16103,12 +16344,18 @@
       <c r="EG61" s="83"/>
       <c r="EH61" s="83"/>
       <c r="EI61" s="83"/>
-    </row>
-    <row r="62" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ61" s="83"/>
+      <c r="EK61" s="83"/>
+      <c r="EL61" s="83"/>
+      <c r="EM61" s="83"/>
+      <c r="EN61" s="83"/>
+      <c r="EO61" s="83"/>
+    </row>
+    <row r="62" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="75"/>
     </row>
-    <row r="63" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="84"/>
       <c r="D64" s="84"/>
       <c r="F64" s="84"/>
@@ -16125,7 +16372,7 @@
       <c r="DQ64" s="84"/>
       <c r="DR64" s="84"/>
     </row>
-    <row r="65" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="94"/>
       <c r="D65" s="94"/>
       <c r="F65" s="94"/>
@@ -16141,10 +16388,10 @@
       <c r="DQ65" s="94"/>
       <c r="DR65" s="94"/>
     </row>
-    <row r="66" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L66" s="75"/>
     </row>
-    <row r="67" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="86"/>
       <c r="B67" s="87"/>
       <c r="C67" s="86"/>
@@ -16178,8 +16425,14 @@
       <c r="EG67" s="86"/>
       <c r="EH67" s="86"/>
       <c r="EI67" s="86"/>
-    </row>
-    <row r="68" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ67" s="86"/>
+      <c r="EK67" s="86"/>
+      <c r="EL67" s="86"/>
+      <c r="EM67" s="86"/>
+      <c r="EN67" s="86"/>
+      <c r="EO67" s="86"/>
+    </row>
+    <row r="68" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="84"/>
       <c r="D68" s="84"/>
       <c r="F68" s="84"/>
@@ -16196,7 +16449,7 @@
       <c r="DQ68" s="84"/>
       <c r="DR68" s="84"/>
     </row>
-    <row r="69" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="84"/>
       <c r="D69" s="84"/>
       <c r="E69" s="90"/>
@@ -16217,7 +16470,7 @@
       <c r="DR69" s="84"/>
       <c r="DS69" s="90"/>
     </row>
-    <row r="70" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="93"/>
       <c r="C70" s="83"/>
@@ -16257,8 +16510,14 @@
       <c r="EG70" s="83"/>
       <c r="EH70" s="83"/>
       <c r="EI70" s="83"/>
-    </row>
-    <row r="71" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ70" s="83"/>
+      <c r="EK70" s="83"/>
+      <c r="EL70" s="83"/>
+      <c r="EM70" s="83"/>
+      <c r="EN70" s="83"/>
+      <c r="EO70" s="83"/>
+    </row>
+    <row r="71" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="93"/>
       <c r="C71" s="83"/>
@@ -16297,8 +16556,14 @@
       <c r="EG71" s="83"/>
       <c r="EH71" s="83"/>
       <c r="EI71" s="83"/>
-    </row>
-    <row r="72" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ71" s="83"/>
+      <c r="EK71" s="83"/>
+      <c r="EL71" s="83"/>
+      <c r="EM71" s="83"/>
+      <c r="EN71" s="83"/>
+      <c r="EO71" s="83"/>
+    </row>
+    <row r="72" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="93"/>
       <c r="C72" s="83"/>
@@ -16338,8 +16603,14 @@
       <c r="EG72" s="83"/>
       <c r="EH72" s="83"/>
       <c r="EI72" s="83"/>
-    </row>
-    <row r="73" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ72" s="83"/>
+      <c r="EK72" s="83"/>
+      <c r="EL72" s="83"/>
+      <c r="EM72" s="83"/>
+      <c r="EN72" s="83"/>
+      <c r="EO72" s="83"/>
+    </row>
+    <row r="73" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="93"/>
       <c r="C73" s="83"/>
@@ -16378,8 +16649,14 @@
       <c r="EG73" s="83"/>
       <c r="EH73" s="83"/>
       <c r="EI73" s="83"/>
-    </row>
-    <row r="74" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ73" s="83"/>
+      <c r="EK73" s="83"/>
+      <c r="EL73" s="83"/>
+      <c r="EM73" s="83"/>
+      <c r="EN73" s="83"/>
+      <c r="EO73" s="83"/>
+    </row>
+    <row r="74" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="93"/>
       <c r="C74" s="83"/>
@@ -16419,8 +16696,14 @@
       <c r="EG74" s="83"/>
       <c r="EH74" s="83"/>
       <c r="EI74" s="83"/>
-    </row>
-    <row r="75" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EJ74" s="83"/>
+      <c r="EK74" s="83"/>
+      <c r="EL74" s="83"/>
+      <c r="EM74" s="83"/>
+      <c r="EN74" s="83"/>
+      <c r="EO74" s="83"/>
+    </row>
+    <row r="75" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="84"/>
       <c r="D75" s="84"/>
       <c r="F75" s="84"/>
@@ -16436,7 +16719,7 @@
       <c r="DQ75" s="84"/>
       <c r="DR75" s="84"/>
     </row>
-    <row r="76" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="94"/>
       <c r="D76" s="94"/>
       <c r="F76" s="94"/>
@@ -16453,12 +16736,12 @@
       <c r="DQ76" s="94"/>
       <c r="DR76" s="94"/>
     </row>
-    <row r="77" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L78" s="75"/>
     </row>
-    <row r="79" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:139" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:145" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L80" s="75"/>
     </row>
     <row r="81" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16466,22 +16749,70 @@
     <row r="83" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
-  <mergeCells count="94">
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="DJ1:DT1"/>
-    <mergeCell ref="DV1:DZ1"/>
-    <mergeCell ref="EB2:EB3"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="DV2:DV3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
+  <mergeCells count="100">
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="EM2:EM3"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DK3"/>
+    <mergeCell ref="DL2:DL3"/>
+    <mergeCell ref="DM2:DM3"/>
+    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="X1:AS1"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="DG2:DG4"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="DF2:DF4"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="DF1:DH1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="BL1:DD1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="AS2:AS3"/>
@@ -16498,69 +16829,27 @@
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="DF1:DH1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="DJ1:DT1"/>
+    <mergeCell ref="DV1:DZ1"/>
+    <mergeCell ref="EB2:EB3"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="DV2:DV3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
     <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="X1:AS1"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="DG2:DG4"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="DF2:DF4"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
     <mergeCell ref="DO2:DO3"/>
     <mergeCell ref="DP2:DP3"/>
     <mergeCell ref="DQ2:DQ3"/>
     <mergeCell ref="DR2:DR3"/>
     <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DK3"/>
-    <mergeCell ref="DL2:DL3"/>
-    <mergeCell ref="DM2:DM3"/>
-    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="EI2:EI3"/>
   </mergeCells>
   <conditionalFormatting sqref="DG5:DH5 DG6:DG50">
     <cfRule type="containsText" dxfId="46" priority="52" operator="containsText" text="ERROR">
@@ -16944,7 +17233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF8087-7CE3-4512-8F06-7AF60D26904C}">
   <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -18172,7 +18461,7 @@
         <v>342</v>
       </c>
       <c r="N1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -18376,6 +18665,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -18598,20 +18901,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18619,6 +18908,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18633,22 +18938,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFA89F-F33F-4979-AACE-727AEDAC8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609AF642-158A-4759-8B8A-1FF3D1EEC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3106,78 +3106,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="34" borderId="22" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="34" borderId="28" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3212,9 +3140,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="23" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3288,6 +3213,81 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="34" borderId="22" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="34" borderId="28" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -3319,6 +3319,13 @@
     <cellStyle name="Total line above" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="88">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3533,13 +3540,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5286,729 +5286,718 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="146" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="146" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="147" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="146" customWidth="1"/>
-    <col min="6" max="6" width="17" style="146" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="146" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="146" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="146" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="146" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="173" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" style="173" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="146" customWidth="1"/>
-    <col min="14" max="27" width="8.88671875" style="146" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="146"/>
+    <col min="1" max="1" width="22.5546875" style="122" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="122" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="123" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="122" customWidth="1"/>
+    <col min="6" max="6" width="17" style="122" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="122" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="122" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="122" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="122" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="148" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" style="148" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" style="122" customWidth="1"/>
+    <col min="14" max="27" width="8.88671875" style="122" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="122"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="B2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="152"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="B5" s="128"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="115"/>
-      <c r="C6" s="149"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="C6" s="125"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="130" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="116"/>
-      <c r="C7" s="149"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="C7" s="125"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
     </row>
     <row r="8" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
     </row>
     <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="130" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="116"/>
-      <c r="C9" s="149"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
+      <c r="C9" s="125"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
     </row>
     <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="130" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="116"/>
-      <c r="C10" s="158"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
+      <c r="C10" s="133"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
     </row>
     <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="159"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
+      <c r="B11" s="134"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
     </row>
     <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J12" s="157"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
     </row>
     <row r="13" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="157"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="157"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="157"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
     </row>
     <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="152"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="152"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="128"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
     </row>
     <row r="17" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="163" t="s">
+      <c r="D17" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="162" t="s">
+      <c r="E17" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="157"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
     </row>
     <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="116"/>
       <c r="B18" s="116"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="116"/>
-      <c r="F18" s="149"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
+      <c r="F18" s="125"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
     </row>
     <row r="19" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116"/>
       <c r="B19" s="116"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="116"/>
-      <c r="F19" s="149"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
+      <c r="F19" s="125"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="116"/>
       <c r="B20" s="116"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="116"/>
-      <c r="F20" s="149"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
+      <c r="F20" s="125"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="116"/>
       <c r="B21" s="116"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="116"/>
-      <c r="F21" s="149"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
+      <c r="F21" s="125"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="116"/>
       <c r="B22" s="116"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="116"/>
-      <c r="F22" s="149"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
+      <c r="F22" s="125"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
     </row>
     <row r="23" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="116"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="116"/>
-      <c r="F23" s="149"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
+      <c r="F23" s="125"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="116"/>
       <c r="B24" s="116"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="116"/>
-      <c r="F24" s="149"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
+      <c r="F24" s="125"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="116"/>
       <c r="B25" s="116"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
       <c r="E25" s="116"/>
-      <c r="F25" s="149"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
+      <c r="F25" s="125"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="116"/>
       <c r="B26" s="116"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="116"/>
-      <c r="F26" s="149"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
+      <c r="F26" s="125"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
     </row>
     <row r="27" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="116"/>
       <c r="B27" s="116"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="116"/>
-      <c r="F27" s="149"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
+      <c r="F27" s="125"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
     </row>
     <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="116"/>
-      <c r="F28" s="149"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
+      <c r="F28" s="125"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
     </row>
     <row r="29" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="116"/>
-      <c r="F29" s="149"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
+      <c r="F29" s="125"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
       <c r="E30" s="116"/>
-      <c r="F30" s="149"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
+      <c r="F30" s="125"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
     </row>
     <row r="31" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="116"/>
-      <c r="F31" s="149"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
+      <c r="F31" s="125"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="176"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="116"/>
-      <c r="F32" s="149"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
+      <c r="F32" s="125"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
     </row>
     <row r="33" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="116"/>
-      <c r="F33" s="149"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
+      <c r="F33" s="125"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
     </row>
     <row r="34" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="116"/>
-      <c r="F34" s="149"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
+      <c r="F34" s="125"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
     </row>
     <row r="35" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="116"/>
-      <c r="F35" s="149"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
+      <c r="F35" s="125"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="116"/>
-      <c r="F36" s="149"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
+      <c r="F36" s="125"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
     </row>
     <row r="37" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="116"/>
-      <c r="F37" s="149"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
+      <c r="F37" s="125"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
     </row>
     <row r="38" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="116"/>
-      <c r="F38" s="149"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
+      <c r="F38" s="125"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
     </row>
     <row r="39" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="116"/>
-      <c r="F39" s="149"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
+      <c r="F39" s="125"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
     </row>
     <row r="40" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="176"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="116"/>
-      <c r="F40" s="149"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
+      <c r="F40" s="125"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
     </row>
     <row r="41" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="116"/>
-      <c r="F41" s="149"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
+      <c r="F41" s="125"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
     </row>
     <row r="42" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="177"/>
+      <c r="A42" s="152"/>
       <c r="B42" s="116"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="116"/>
-      <c r="F42" s="149"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
+      <c r="F42" s="125"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
     </row>
     <row r="43" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="177"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="116"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="176"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="116"/>
-      <c r="F43" s="149"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
+      <c r="F43" s="125"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
     </row>
     <row r="44" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="165"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="140"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
     </row>
     <row r="45" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="159"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="134"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J46" s="157"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="157"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
     </row>
     <row r="47" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="157"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
     </row>
     <row r="48" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J48" s="157"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
     </row>
     <row r="49" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J49" s="157"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="161"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="136"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
     </row>
     <row r="51" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="168"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
     </row>
     <row r="52" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="171" t="s">
+      <c r="A52" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="171" t="s">
+      <c r="B52" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="171" t="s">
+      <c r="C52" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="172" t="s">
+      <c r="D52" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="149"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
+      <c r="E52" s="125"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
     </row>
     <row r="53" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="149"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="125"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
     </row>
     <row r="54" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="159"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="167"/>
-      <c r="H54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="142"/>
+      <c r="H54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
     </row>
     <row r="55" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="157"/>
+      <c r="H55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
     </row>
     <row r="56" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
+      <c r="H56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
     </row>
     <row r="57" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
+      <c r="H57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
     </row>
     <row r="58" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
+      <c r="H58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
     </row>
     <row r="59" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
+      <c r="H59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
     </row>
     <row r="60" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J60" s="157"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
     </row>
     <row r="61" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J61" s="157"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
     </row>
     <row r="62" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J62" s="157"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
     </row>
     <row r="63" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J63" s="157"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
     </row>
     <row r="64" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J64" s="157"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
     </row>
     <row r="65" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J65" s="157"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
     </row>
     <row r="66" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J66" s="157"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J67" s="157"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
     </row>
     <row r="68" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J68" s="157"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="157"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
     </row>
     <row r="69" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J69" s="157"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
     </row>
     <row r="70" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J70" s="157"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
     </row>
     <row r="71" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
     </row>
     <row r="72" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K72" s="146"/>
-      <c r="L72" s="146"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="122"/>
     </row>
     <row r="73" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K73" s="146"/>
-      <c r="L73" s="146"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
     </row>
     <row r="74" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
+      <c r="K74" s="122"/>
+      <c r="L74" s="122"/>
     </row>
     <row r="75" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R75" s="149"/>
+      <c r="R75" s="125"/>
     </row>
     <row r="76" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R76" s="149"/>
+      <c r="R76" s="125"/>
     </row>
     <row r="77" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R77" s="149"/>
+      <c r="R77" s="125"/>
     </row>
     <row r="78" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R78" s="149"/>
+      <c r="R78" s="125"/>
     </row>
     <row r="79" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R79" s="149"/>
+      <c r="R79" s="125"/>
     </row>
     <row r="80" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R80" s="149"/>
+      <c r="R80" s="125"/>
     </row>
     <row r="81" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I81" s="159"/>
-      <c r="J81" s="159"/>
-      <c r="K81" s="174"/>
-      <c r="L81" s="174"/>
-      <c r="N81" s="159"/>
-      <c r="O81" s="159"/>
-      <c r="P81" s="159"/>
-      <c r="Q81" s="159"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="134"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="149"/>
+      <c r="N81" s="134"/>
+      <c r="O81" s="134"/>
+      <c r="P81" s="134"/>
+      <c r="Q81" s="134"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -6022,15 +6011,26 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
@@ -6112,8 +6112,8 @@
   </sheetPr>
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C55"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -6135,11 +6135,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="158"/>
     </row>
     <row r="3" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3" s="99" t="s">
@@ -6274,11 +6274,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="99" t="s">
@@ -6402,11 +6402,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="158"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
@@ -6442,11 +6442,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="158"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="99" t="s">
@@ -6564,11 +6564,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="156" t="s">
         <v>427</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="123"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="158"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="99" t="s">
@@ -6635,11 +6635,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="158"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="99" t="s">
@@ -6697,11 +6697,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="122"/>
-      <c r="C55" s="123"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="158"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="99" t="s">
@@ -7278,8 +7278,8 @@
   </sheetPr>
   <dimension ref="A1:FR83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7301,267 +7301,267 @@
     <col min="15" max="15" width="9.21875" style="35" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="3.6640625" style="32" customWidth="1"/>
     <col min="17" max="17" width="11.5546875" style="56" customWidth="1"/>
-    <col min="18" max="21" width="12.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="18" max="21" width="12.44140625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.6640625" style="32" customWidth="1"/>
     <col min="24" max="24" width="21.21875" style="30" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="16.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.6640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.6640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="12.5546875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="8" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="39" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="8" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="43" width="13" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="11.88671875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.33203125" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="16.21875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.6640625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.6640625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="12.5546875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="8" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="39" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="8" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="43" width="13" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="11.88671875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="3.6640625" style="32" customWidth="1"/>
     <col min="47" max="47" width="16.6640625" style="29" customWidth="1"/>
-    <col min="48" max="48" width="9" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="11.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="52" width="23.109375" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="9" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="11.33203125" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="52" width="23.109375" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="3.6640625" style="32" customWidth="1"/>
     <col min="54" max="54" width="15.77734375" style="30" customWidth="1"/>
-    <col min="55" max="55" width="14.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="12.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="15" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="12.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="60" width="14.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="12.6640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="17.33203125" style="32" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="14.44140625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="12.33203125" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="15" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="12.33203125" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="60" width="14.44140625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="12.6640625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="17.33203125" style="32" customWidth="1"/>
     <col min="64" max="64" width="15" style="59" customWidth="1"/>
-    <col min="65" max="109" width="9.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="110" max="110" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="65" max="109" width="9.44140625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="110" max="110" width="3.6640625" style="32" customWidth="1"/>
     <col min="111" max="111" width="12" style="59" customWidth="1"/>
     <col min="112" max="112" width="10.109375" style="59" customWidth="1" outlineLevel="1"/>
     <col min="113" max="113" width="3.6640625" style="32" customWidth="1"/>
     <col min="114" max="114" width="20.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.5546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="22.33203125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="14.109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="10.33203125" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="119" max="119" width="12.88671875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="14.44140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="121" max="121" width="13.44140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="122" max="122" width="10.88671875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="19" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="8.21875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="20.44140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="16.5546875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="22.33203125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="14.109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="10.33203125" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="12.88671875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="14.44140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="13.44140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="10.88671875" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="19" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="124" max="124" width="8.21875" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="20.44140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="3.6640625" style="32" customWidth="1"/>
     <col min="127" max="127" width="14.6640625" style="31" customWidth="1"/>
-    <col min="128" max="131" width="14.6640625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="128" max="131" width="14.6640625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="3.6640625" style="32" customWidth="1"/>
     <col min="133" max="133" width="17.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="21" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="17.88671875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="20.21875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="8.33203125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="13.21875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="139" max="139" width="13.33203125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="140" max="140" width="15" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="141" width="14" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="142" width="13.21875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="143" max="143" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="21" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="17.88671875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="20.21875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="8.33203125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="13.21875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="139" max="139" width="13.33203125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="140" max="140" width="15" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="141" max="141" width="14" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="142" width="13.21875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="143" max="143" width="3.6640625" style="32" customWidth="1"/>
     <col min="144" max="144" width="15.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="145" max="149" width="14.6640625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="145" max="149" width="14.6640625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="3.6640625" style="32" customWidth="1"/>
     <col min="151" max="151" width="26" style="31" customWidth="1"/>
-    <col min="152" max="152" width="26" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="156" width="14.6640625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="26" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="156" width="14.6640625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="3.6640625" style="32" customWidth="1"/>
     <col min="158" max="174" width="6.44140625" style="32" customWidth="1" collapsed="1"/>
     <col min="175" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="131"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="177"/>
       <c r="P1" s="57"/>
-      <c r="Q1" s="127" t="s">
+      <c r="Q1" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
       <c r="W1" s="57"/>
-      <c r="X1" s="137" t="s">
+      <c r="X1" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="160"/>
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="160"/>
+      <c r="AL1" s="160"/>
+      <c r="AM1" s="160"/>
+      <c r="AN1" s="160"/>
+      <c r="AO1" s="160"/>
+      <c r="AP1" s="160"/>
+      <c r="AQ1" s="160"/>
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="57"/>
-      <c r="AU1" s="126" t="s">
+      <c r="AU1" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
       <c r="BA1" s="57"/>
-      <c r="BB1" s="137" t="s">
+      <c r="BB1" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138"/>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="138"/>
+      <c r="BC1" s="160"/>
+      <c r="BD1" s="160"/>
+      <c r="BE1" s="160"/>
+      <c r="BF1" s="160"/>
+      <c r="BG1" s="160"/>
+      <c r="BH1" s="160"/>
+      <c r="BI1" s="160"/>
+      <c r="BJ1" s="160"/>
       <c r="BK1" s="58"/>
-      <c r="BL1" s="126" t="s">
+      <c r="BL1" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
-      <c r="BR1" s="127"/>
-      <c r="BS1" s="127"/>
-      <c r="BT1" s="127"/>
-      <c r="BU1" s="127"/>
-      <c r="BV1" s="127"/>
-      <c r="BW1" s="127"/>
-      <c r="BX1" s="127"/>
-      <c r="BY1" s="127"/>
-      <c r="BZ1" s="127"/>
-      <c r="CA1" s="127"/>
-      <c r="CB1" s="127"/>
-      <c r="CC1" s="127"/>
-      <c r="CD1" s="127"/>
-      <c r="CE1" s="127"/>
-      <c r="CF1" s="127"/>
-      <c r="CG1" s="127"/>
-      <c r="CH1" s="127"/>
-      <c r="CI1" s="127"/>
-      <c r="CJ1" s="127"/>
-      <c r="CK1" s="127"/>
-      <c r="CL1" s="127"/>
-      <c r="CM1" s="127"/>
-      <c r="CN1" s="127"/>
-      <c r="CO1" s="127"/>
-      <c r="CP1" s="127"/>
-      <c r="CQ1" s="127"/>
-      <c r="CR1" s="127"/>
-      <c r="CS1" s="127"/>
-      <c r="CT1" s="127"/>
-      <c r="CU1" s="127"/>
-      <c r="CV1" s="127"/>
-      <c r="CW1" s="127"/>
-      <c r="CX1" s="127"/>
-      <c r="CY1" s="127"/>
-      <c r="CZ1" s="127"/>
-      <c r="DA1" s="127"/>
-      <c r="DB1" s="127"/>
-      <c r="DC1" s="127"/>
-      <c r="DD1" s="127"/>
-      <c r="DE1" s="131"/>
+      <c r="BM1" s="163"/>
+      <c r="BN1" s="163"/>
+      <c r="BO1" s="163"/>
+      <c r="BP1" s="163"/>
+      <c r="BQ1" s="163"/>
+      <c r="BR1" s="163"/>
+      <c r="BS1" s="163"/>
+      <c r="BT1" s="163"/>
+      <c r="BU1" s="163"/>
+      <c r="BV1" s="163"/>
+      <c r="BW1" s="163"/>
+      <c r="BX1" s="163"/>
+      <c r="BY1" s="163"/>
+      <c r="BZ1" s="163"/>
+      <c r="CA1" s="163"/>
+      <c r="CB1" s="163"/>
+      <c r="CC1" s="163"/>
+      <c r="CD1" s="163"/>
+      <c r="CE1" s="163"/>
+      <c r="CF1" s="163"/>
+      <c r="CG1" s="163"/>
+      <c r="CH1" s="163"/>
+      <c r="CI1" s="163"/>
+      <c r="CJ1" s="163"/>
+      <c r="CK1" s="163"/>
+      <c r="CL1" s="163"/>
+      <c r="CM1" s="163"/>
+      <c r="CN1" s="163"/>
+      <c r="CO1" s="163"/>
+      <c r="CP1" s="163"/>
+      <c r="CQ1" s="163"/>
+      <c r="CR1" s="163"/>
+      <c r="CS1" s="163"/>
+      <c r="CT1" s="163"/>
+      <c r="CU1" s="163"/>
+      <c r="CV1" s="163"/>
+      <c r="CW1" s="163"/>
+      <c r="CX1" s="163"/>
+      <c r="CY1" s="163"/>
+      <c r="CZ1" s="163"/>
+      <c r="DA1" s="163"/>
+      <c r="DB1" s="163"/>
+      <c r="DC1" s="163"/>
+      <c r="DD1" s="163"/>
+      <c r="DE1" s="177"/>
       <c r="DF1" s="57"/>
-      <c r="DG1" s="144" t="s">
+      <c r="DG1" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="DH1" s="144"/>
+      <c r="DH1" s="161"/>
       <c r="DI1" s="57"/>
-      <c r="DJ1" s="126" t="s">
+      <c r="DJ1" s="162" t="s">
         <v>268</v>
       </c>
-      <c r="DK1" s="127"/>
-      <c r="DL1" s="127"/>
-      <c r="DM1" s="127"/>
-      <c r="DN1" s="127"/>
-      <c r="DO1" s="127"/>
-      <c r="DP1" s="127"/>
-      <c r="DQ1" s="127"/>
-      <c r="DR1" s="127"/>
-      <c r="DS1" s="127"/>
-      <c r="DT1" s="127"/>
-      <c r="DU1" s="127"/>
+      <c r="DK1" s="163"/>
+      <c r="DL1" s="163"/>
+      <c r="DM1" s="163"/>
+      <c r="DN1" s="163"/>
+      <c r="DO1" s="163"/>
+      <c r="DP1" s="163"/>
+      <c r="DQ1" s="163"/>
+      <c r="DR1" s="163"/>
+      <c r="DS1" s="163"/>
+      <c r="DT1" s="163"/>
+      <c r="DU1" s="163"/>
       <c r="DV1" s="57"/>
-      <c r="DW1" s="126" t="s">
+      <c r="DW1" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="DX1" s="127"/>
-      <c r="DY1" s="127"/>
-      <c r="DZ1" s="127"/>
-      <c r="EA1" s="128"/>
+      <c r="DX1" s="163"/>
+      <c r="DY1" s="163"/>
+      <c r="DZ1" s="163"/>
+      <c r="EA1" s="164"/>
       <c r="EB1" s="57"/>
-      <c r="EC1" s="126" t="s">
+      <c r="EC1" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="ED1" s="127"/>
-      <c r="EE1" s="127"/>
-      <c r="EF1" s="127"/>
-      <c r="EG1" s="127"/>
-      <c r="EH1" s="127"/>
-      <c r="EI1" s="127"/>
-      <c r="EJ1" s="127"/>
-      <c r="EK1" s="127"/>
-      <c r="EL1" s="127"/>
+      <c r="ED1" s="163"/>
+      <c r="EE1" s="163"/>
+      <c r="EF1" s="163"/>
+      <c r="EG1" s="163"/>
+      <c r="EH1" s="163"/>
+      <c r="EI1" s="163"/>
+      <c r="EJ1" s="163"/>
+      <c r="EK1" s="163"/>
+      <c r="EL1" s="163"/>
       <c r="EM1" s="57"/>
-      <c r="EN1" s="126" t="s">
+      <c r="EN1" s="162" t="s">
         <v>427</v>
       </c>
-      <c r="EO1" s="127"/>
-      <c r="EP1" s="127"/>
-      <c r="EQ1" s="127"/>
-      <c r="ER1" s="127"/>
-      <c r="ES1" s="127"/>
+      <c r="EO1" s="163"/>
+      <c r="EP1" s="163"/>
+      <c r="EQ1" s="163"/>
+      <c r="ER1" s="163"/>
+      <c r="ES1" s="163"/>
       <c r="ET1" s="57"/>
-      <c r="EU1" s="126" t="s">
+      <c r="EU1" s="162" t="s">
         <v>435</v>
       </c>
-      <c r="EV1" s="127"/>
-      <c r="EW1" s="127"/>
-      <c r="EX1" s="127"/>
-      <c r="EY1" s="127"/>
-      <c r="EZ1" s="128"/>
+      <c r="EV1" s="163"/>
+      <c r="EW1" s="163"/>
+      <c r="EX1" s="163"/>
+      <c r="EY1" s="163"/>
+      <c r="EZ1" s="164"/>
       <c r="FA1" s="57"/>
       <c r="FB1" s="57"/>
       <c r="FC1" s="57"/>
@@ -7582,186 +7582,186 @@
       <c r="FR1" s="57"/>
     </row>
     <row r="2" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J2" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="K2" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="132" t="s">
+      <c r="L2" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="132" t="s">
+      <c r="O2" s="178" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="31"/>
-      <c r="Q2" s="136" t="s">
+      <c r="Q2" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="136" t="s">
+      <c r="R2" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="S2" s="136" t="s">
+      <c r="S2" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="136" t="s">
+      <c r="T2" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="136" t="s">
+      <c r="U2" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="136" t="s">
+      <c r="V2" s="174" t="s">
         <v>67</v>
       </c>
       <c r="W2" s="31"/>
-      <c r="X2" s="134" t="s">
+      <c r="X2" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" s="134" t="s">
+      <c r="Y2" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="Z2" s="134" t="s">
+      <c r="Z2" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="AA2" s="134" t="s">
+      <c r="AA2" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" s="134" t="s">
+      <c r="AB2" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="AC2" s="134" t="s">
+      <c r="AC2" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="AD2" s="134" t="s">
+      <c r="AD2" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="AE2" s="134" t="s">
+      <c r="AE2" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="AF2" s="134" t="s">
+      <c r="AF2" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="AG2" s="134" t="s">
+      <c r="AG2" s="169" t="s">
         <v>303</v>
       </c>
-      <c r="AH2" s="134" t="s">
+      <c r="AH2" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="134" t="s">
+      <c r="AI2" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="134" t="s">
+      <c r="AJ2" s="169" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="134" t="s">
+      <c r="AK2" s="169" t="s">
         <v>293</v>
       </c>
-      <c r="AL2" s="134" t="s">
+      <c r="AL2" s="169" t="s">
         <v>288</v>
       </c>
-      <c r="AM2" s="134" t="s">
+      <c r="AM2" s="169" t="s">
         <v>305</v>
       </c>
-      <c r="AN2" s="134" t="s">
+      <c r="AN2" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="AO2" s="134" t="s">
+      <c r="AO2" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="AP2" s="134" t="s">
+      <c r="AP2" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="AQ2" s="134" t="s">
+      <c r="AQ2" s="169" t="s">
         <v>304</v>
       </c>
-      <c r="AR2" s="134" t="s">
+      <c r="AR2" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="AS2" s="134" t="s">
+      <c r="AS2" s="169" t="s">
         <v>172</v>
       </c>
       <c r="AT2" s="31"/>
-      <c r="AU2" s="134" t="s">
+      <c r="AU2" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="AV2" s="134" t="s">
+      <c r="AV2" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="AW2" s="134" t="s">
+      <c r="AW2" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="AX2" s="139" t="s">
+      <c r="AX2" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="139" t="s">
+      <c r="AY2" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="139" t="s">
+      <c r="AZ2" s="171" t="s">
         <v>104</v>
       </c>
       <c r="BA2" s="31"/>
-      <c r="BB2" s="134" t="s">
+      <c r="BB2" s="169" t="s">
         <v>486</v>
       </c>
-      <c r="BC2" s="134" t="s">
+      <c r="BC2" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="BD2" s="134" t="s">
+      <c r="BD2" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="BE2" s="134" t="s">
+      <c r="BE2" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="BF2" s="134" t="s">
+      <c r="BF2" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="BG2" s="134" t="s">
+      <c r="BG2" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="134" t="s">
+      <c r="BH2" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="136" t="s">
+      <c r="BI2" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="BJ2" s="134" t="s">
+      <c r="BJ2" s="169" t="s">
         <v>88</v>
       </c>
       <c r="BK2" s="31"/>
-      <c r="BL2" s="142" t="s">
+      <c r="BL2" s="175" t="s">
         <v>468</v>
       </c>
       <c r="BM2" s="109" t="s">
@@ -7900,132 +7900,132 @@
         <v>89</v>
       </c>
       <c r="DF2" s="31"/>
-      <c r="DG2" s="141" t="s">
+      <c r="DG2" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="DH2" s="141" t="s">
+      <c r="DH2" s="173" t="s">
         <v>168</v>
       </c>
       <c r="DI2" s="31"/>
-      <c r="DJ2" s="124" t="s">
+      <c r="DJ2" s="167" t="s">
         <v>263</v>
       </c>
-      <c r="DK2" s="129" t="s">
+      <c r="DK2" s="165" t="s">
         <v>373</v>
       </c>
-      <c r="DL2" s="129" t="s">
+      <c r="DL2" s="165" t="s">
         <v>383</v>
       </c>
-      <c r="DM2" s="129" t="s">
+      <c r="DM2" s="165" t="s">
         <v>384</v>
       </c>
-      <c r="DN2" s="129" t="s">
+      <c r="DN2" s="165" t="s">
         <v>208</v>
       </c>
-      <c r="DO2" s="129" t="s">
+      <c r="DO2" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="DP2" s="129" t="s">
+      <c r="DP2" s="165" t="s">
         <v>314</v>
       </c>
-      <c r="DQ2" s="129" t="s">
+      <c r="DQ2" s="165" t="s">
         <v>315</v>
       </c>
-      <c r="DR2" s="129" t="s">
+      <c r="DR2" s="165" t="s">
         <v>411</v>
       </c>
-      <c r="DS2" s="129" t="s">
+      <c r="DS2" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="DT2" s="129" t="s">
+      <c r="DT2" s="165" t="s">
         <v>317</v>
       </c>
-      <c r="DU2" s="129" t="s">
+      <c r="DU2" s="165" t="s">
         <v>213</v>
       </c>
       <c r="DV2" s="31"/>
-      <c r="DW2" s="129" t="s">
+      <c r="DW2" s="165" t="s">
         <v>390</v>
       </c>
-      <c r="DX2" s="129" t="s">
+      <c r="DX2" s="165" t="s">
         <v>386</v>
       </c>
-      <c r="DY2" s="129" t="s">
+      <c r="DY2" s="165" t="s">
         <v>387</v>
       </c>
-      <c r="DZ2" s="129" t="s">
+      <c r="DZ2" s="165" t="s">
         <v>388</v>
       </c>
-      <c r="EA2" s="129" t="s">
+      <c r="EA2" s="165" t="s">
         <v>389</v>
       </c>
       <c r="EB2" s="31"/>
-      <c r="EC2" s="124" t="s">
+      <c r="EC2" s="167" t="s">
         <v>412</v>
       </c>
-      <c r="ED2" s="124" t="s">
+      <c r="ED2" s="167" t="s">
         <v>443</v>
       </c>
-      <c r="EE2" s="124" t="s">
+      <c r="EE2" s="167" t="s">
         <v>413</v>
       </c>
-      <c r="EF2" s="124" t="s">
+      <c r="EF2" s="167" t="s">
         <v>257</v>
       </c>
-      <c r="EG2" s="124" t="s">
+      <c r="EG2" s="167" t="s">
         <v>369</v>
       </c>
-      <c r="EH2" s="124" t="s">
+      <c r="EH2" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="EI2" s="124" t="s">
+      <c r="EI2" s="167" t="s">
         <v>368</v>
       </c>
-      <c r="EJ2" s="124" t="s">
+      <c r="EJ2" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="EK2" s="124" t="s">
+      <c r="EK2" s="167" t="s">
         <v>371</v>
       </c>
-      <c r="EL2" s="124" t="s">
+      <c r="EL2" s="167" t="s">
         <v>415</v>
       </c>
       <c r="EM2" s="31"/>
-      <c r="EN2" s="129" t="s">
+      <c r="EN2" s="165" t="s">
         <v>374</v>
       </c>
-      <c r="EO2" s="129" t="s">
+      <c r="EO2" s="165" t="s">
         <v>376</v>
       </c>
-      <c r="EP2" s="129" t="s">
+      <c r="EP2" s="165" t="s">
         <v>375</v>
       </c>
-      <c r="EQ2" s="129" t="s">
+      <c r="EQ2" s="165" t="s">
         <v>421</v>
       </c>
-      <c r="ER2" s="129" t="s">
+      <c r="ER2" s="165" t="s">
         <v>425</v>
       </c>
-      <c r="ES2" s="129" t="s">
+      <c r="ES2" s="165" t="s">
         <v>377</v>
       </c>
       <c r="ET2" s="31"/>
-      <c r="EU2" s="129" t="s">
+      <c r="EU2" s="165" t="s">
         <v>446</v>
       </c>
-      <c r="EV2" s="129" t="s">
+      <c r="EV2" s="165" t="s">
         <v>271</v>
       </c>
-      <c r="EW2" s="129" t="s">
+      <c r="EW2" s="165" t="s">
         <v>454</v>
       </c>
-      <c r="EX2" s="129" t="s">
+      <c r="EX2" s="165" t="s">
         <v>444</v>
       </c>
-      <c r="EY2" s="129" t="s">
+      <c r="EY2" s="165" t="s">
         <v>436</v>
       </c>
-      <c r="EZ2" s="129" t="s">
+      <c r="EZ2" s="165" t="s">
         <v>442</v>
       </c>
       <c r="FA2" s="31"/>
@@ -8048,72 +8048,72 @@
       <c r="FR2" s="31"/>
     </row>
     <row r="3" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="31"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
       <c r="W3" s="31"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
       <c r="AT3" s="31"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="140"/>
-      <c r="AY3" s="140"/>
-      <c r="AZ3" s="140"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
       <c r="BA3" s="31"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="135"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="170"/>
+      <c r="BE3" s="170"/>
+      <c r="BF3" s="170"/>
+      <c r="BG3" s="170"/>
+      <c r="BH3" s="170"/>
+      <c r="BI3" s="174"/>
+      <c r="BJ3" s="170"/>
       <c r="BK3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="BL3" s="143"/>
+      <c r="BL3" s="176"/>
       <c r="BM3" s="94">
         <f>IF('Performance inputs'!B60&lt;&gt;"",'Performance inputs'!B60,"ERROR")</f>
         <v>0.16</v>
@@ -8295,52 +8295,52 @@
         <v>0.08</v>
       </c>
       <c r="DF3" s="31"/>
-      <c r="DG3" s="141"/>
-      <c r="DH3" s="141"/>
+      <c r="DG3" s="173"/>
+      <c r="DH3" s="173"/>
       <c r="DI3" s="31"/>
-      <c r="DJ3" s="125"/>
-      <c r="DK3" s="130"/>
-      <c r="DL3" s="130"/>
-      <c r="DM3" s="130"/>
-      <c r="DN3" s="130"/>
-      <c r="DO3" s="130"/>
-      <c r="DP3" s="130"/>
-      <c r="DQ3" s="130"/>
-      <c r="DR3" s="130"/>
-      <c r="DS3" s="130"/>
-      <c r="DT3" s="130"/>
-      <c r="DU3" s="130"/>
+      <c r="DJ3" s="168"/>
+      <c r="DK3" s="166"/>
+      <c r="DL3" s="166"/>
+      <c r="DM3" s="166"/>
+      <c r="DN3" s="166"/>
+      <c r="DO3" s="166"/>
+      <c r="DP3" s="166"/>
+      <c r="DQ3" s="166"/>
+      <c r="DR3" s="166"/>
+      <c r="DS3" s="166"/>
+      <c r="DT3" s="166"/>
+      <c r="DU3" s="166"/>
       <c r="DV3" s="31"/>
-      <c r="DW3" s="130"/>
-      <c r="DX3" s="130"/>
-      <c r="DY3" s="130"/>
-      <c r="DZ3" s="130"/>
-      <c r="EA3" s="130"/>
+      <c r="DW3" s="166"/>
+      <c r="DX3" s="166"/>
+      <c r="DY3" s="166"/>
+      <c r="DZ3" s="166"/>
+      <c r="EA3" s="166"/>
       <c r="EB3" s="31"/>
-      <c r="EC3" s="125"/>
-      <c r="ED3" s="125"/>
-      <c r="EE3" s="125"/>
-      <c r="EF3" s="125"/>
-      <c r="EG3" s="125"/>
-      <c r="EH3" s="125"/>
-      <c r="EI3" s="125"/>
-      <c r="EJ3" s="125"/>
-      <c r="EK3" s="125"/>
-      <c r="EL3" s="125"/>
+      <c r="EC3" s="168"/>
+      <c r="ED3" s="168"/>
+      <c r="EE3" s="168"/>
+      <c r="EF3" s="168"/>
+      <c r="EG3" s="168"/>
+      <c r="EH3" s="168"/>
+      <c r="EI3" s="168"/>
+      <c r="EJ3" s="168"/>
+      <c r="EK3" s="168"/>
+      <c r="EL3" s="168"/>
       <c r="EM3" s="31"/>
-      <c r="EN3" s="130"/>
-      <c r="EO3" s="130"/>
-      <c r="EP3" s="130"/>
-      <c r="EQ3" s="130"/>
-      <c r="ER3" s="130"/>
-      <c r="ES3" s="130"/>
+      <c r="EN3" s="166"/>
+      <c r="EO3" s="166"/>
+      <c r="EP3" s="166"/>
+      <c r="EQ3" s="166"/>
+      <c r="ER3" s="166"/>
+      <c r="ES3" s="166"/>
       <c r="ET3" s="31"/>
-      <c r="EU3" s="130"/>
-      <c r="EV3" s="130"/>
-      <c r="EW3" s="130"/>
-      <c r="EX3" s="130"/>
-      <c r="EY3" s="130"/>
-      <c r="EZ3" s="130"/>
+      <c r="EU3" s="166"/>
+      <c r="EV3" s="166"/>
+      <c r="EW3" s="166"/>
+      <c r="EX3" s="166"/>
+      <c r="EY3" s="166"/>
+      <c r="EZ3" s="166"/>
       <c r="FA3" s="31"/>
       <c r="FB3" s="31"/>
       <c r="FC3" s="31"/>
@@ -8594,8 +8594,8 @@
       <c r="DC4" s="55"/>
       <c r="DD4" s="55"/>
       <c r="DE4" s="55"/>
-      <c r="DG4" s="141"/>
-      <c r="DH4" s="141"/>
+      <c r="DG4" s="173"/>
+      <c r="DH4" s="173"/>
       <c r="DJ4" s="72" t="s">
         <v>90</v>
       </c>
@@ -10796,9 +10796,18 @@
       <c r="AU14" s="61"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="72"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="119"/>
+      <c r="AX14" s="119" t="str">
+        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$10,IF($AV14="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY14" s="119" t="str">
+        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ14" s="119" t="str">
+        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$12,IF(AV14="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB14" s="72"/>
       <c r="BC14" s="81"/>
       <c r="BD14" s="72"/>
@@ -10974,9 +10983,18 @@
       <c r="AU15" s="61"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="72"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="119"/>
+      <c r="AX15" s="119" t="str">
+        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$10,IF($AV15="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY15" s="119" t="str">
+        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ15" s="119" t="str">
+        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$12,IF(AV15="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB15" s="72"/>
       <c r="BC15" s="81"/>
       <c r="BD15" s="72"/>
@@ -11154,9 +11172,18 @@
       <c r="AU16" s="61"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="72"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="119"/>
+      <c r="AX16" s="119" t="str">
+        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$10,IF($AV16="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY16" s="119" t="str">
+        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ16" s="119" t="str">
+        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$12,IF(AV16="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB16" s="72"/>
       <c r="BC16" s="81"/>
       <c r="BD16" s="72"/>
@@ -11336,9 +11363,18 @@
       <c r="AU17" s="61"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="72"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
+      <c r="AX17" s="119" t="str">
+        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$10,IF($AV17="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY17" s="119" t="str">
+        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ17" s="119" t="str">
+        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$12,IF(AV17="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB17" s="72"/>
       <c r="BC17" s="81"/>
       <c r="BD17" s="72"/>
@@ -11546,9 +11582,18 @@
       <c r="AU18" s="61"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="72"/>
-      <c r="AX18" s="119"/>
-      <c r="AY18" s="119"/>
-      <c r="AZ18" s="119"/>
+      <c r="AX18" s="119" t="str">
+        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$10,IF($AV18="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY18" s="119" t="str">
+        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ18" s="119" t="str">
+        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$12,IF(AV18="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB18" s="72"/>
       <c r="BC18" s="81"/>
       <c r="BD18" s="72"/>
@@ -18917,6 +18962,94 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="112">
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="DJ1:DU1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DO2:DO3"/>
+    <mergeCell ref="DP2:DP3"/>
+    <mergeCell ref="DQ2:DQ3"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DK3"/>
+    <mergeCell ref="BL1:DE1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="DG2:DG4"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
     <mergeCell ref="X1:AS1"/>
     <mergeCell ref="DG1:DH1"/>
     <mergeCell ref="EU1:EZ1"/>
@@ -18941,94 +19074,6 @@
     <mergeCell ref="EK2:EK3"/>
     <mergeCell ref="DR2:DR3"/>
     <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="DG2:DG4"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="BL1:DE1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="DJ1:DU1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DO2:DO3"/>
-    <mergeCell ref="DP2:DP3"/>
-    <mergeCell ref="DQ2:DQ3"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DK3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="DH5:DH50">
@@ -19210,191 +19255,191 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX50">
-    <cfRule type="containsBlanks" dxfId="40" priority="104">
+    <cfRule type="containsBlanks" dxfId="0" priority="104">
       <formula>LEN(TRIM(AX4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AZ50">
-    <cfRule type="containsBlanks" dxfId="39" priority="105">
+    <cfRule type="containsBlanks" dxfId="40" priority="105">
       <formula>LEN(TRIM(AY4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG50">
-    <cfRule type="containsBlanks" dxfId="38" priority="100">
+    <cfRule type="containsBlanks" dxfId="39" priority="100">
       <formula>LEN(TRIM(AG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM50">
-    <cfRule type="containsBlanks" dxfId="37" priority="101">
+    <cfRule type="containsBlanks" dxfId="38" priority="101">
       <formula>LEN(TRIM(AM4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ50">
-    <cfRule type="containsBlanks" dxfId="36" priority="103">
+    <cfRule type="containsBlanks" dxfId="37" priority="103">
       <formula>LEN(TRIM(AQ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU4">
-    <cfRule type="containsBlanks" dxfId="35" priority="43">
+    <cfRule type="containsBlanks" dxfId="36" priority="43">
       <formula>LEN(TRIM(EU4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EC4">
-    <cfRule type="containsBlanks" dxfId="34" priority="42">
+    <cfRule type="containsBlanks" dxfId="35" priority="42">
       <formula>LEN(TRIM(EC4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DJ4">
-    <cfRule type="containsBlanks" dxfId="33" priority="41">
+    <cfRule type="containsBlanks" dxfId="34" priority="41">
       <formula>LEN(TRIM(DJ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX50">
-    <cfRule type="containsBlanks" dxfId="32" priority="40">
+    <cfRule type="containsBlanks" dxfId="33" priority="40">
       <formula>LEN(TRIM(CX5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF50">
-    <cfRule type="containsBlanks" dxfId="31" priority="98">
+    <cfRule type="containsBlanks" dxfId="32" priority="98">
       <formula>LEN(TRIM(AF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA50">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>AND($Y4="External wall",AA4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="106">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="106">
       <formula>LEN(TRIM(AA4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD50">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>AND($Y4="Sheltered wall",AD4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="88">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="88">
       <formula>LEN(TRIM(AD4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH50">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>AND($Y4="Party wall",AH4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="69">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="69">
       <formula>LEN(TRIM(AH4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AJ50">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>AND($Y4="External roof",AJ4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="87">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="87">
       <formula>LEN(TRIM(AJ4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:L4 N4:O4">
-    <cfRule type="containsBlanks" dxfId="22" priority="28">
+    <cfRule type="containsBlanks" dxfId="23" priority="28">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS4:AS50">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND($Y4="Party floor",AS4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="30">
       <formula>LEN(TRIM(AS4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AR50">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>AND($Y4="Party ceiling",AR4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="23">
       <formula>LEN(TRIM(AR4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB51:AB1048576">
-    <cfRule type="containsBlanks" dxfId="17" priority="21">
+    <cfRule type="containsBlanks" dxfId="18" priority="21">
       <formula>LEN(TRIM(AB51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V51:V1048576">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(V51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:U1048576">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(R4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:U50">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>AND($Y4="External wall",R4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:Q1048576">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(Q51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN1048576">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
+    <cfRule type="containsBlanks" dxfId="13" priority="12">
       <formula>LEN(TRIM(AN4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN50">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>AND($Y4="Heat loss floor",AN4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(AN4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI51:BI1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
+    <cfRule type="containsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(BI51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC5:BC1048576">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(BC5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4:BF1048576">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
       <formula>LEN(TRIM(BF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BF2">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(BD2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE51:BE1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
       <formula>LEN(TRIM(BE51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD1048576">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(BD4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB1048576">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(BB4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:Z49">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND($Y4&lt;&gt;"",Z4&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="91">
       <formula>LEN(TRIM(Z4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE4:BE50">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(BE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19413,7 +19458,7 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="AX4:AX50 AF4:AF50 AA4:AA50 AM51:AM53 R4:U50 AC4:AD50 AQ51:AQ53 AS4:AS50 AN4:AO50 AH4:AH50 AR4:AR53 AJ4:AK50 BG4:BH50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BG4:BH50 AF4:AF50 AA4:AA50 AM51:AM53 R4:U50 AC4:AD50 AQ51:AQ53 AS4:AS50 AN4:AO50 AH4:AH50 AR4:AR53 AJ4:AK50 AX4:AX50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
@@ -20635,20 +20680,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -20871,6 +20902,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20878,22 +20923,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20908,6 +20937,22 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFA89F-F33F-4979-AACE-727AEDAC8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9BF60-BD0B-41E5-A392-7D8A5BB6EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1095" windowWidth="38640" windowHeight="21240" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -3106,78 +3106,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="34" borderId="22" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="34" borderId="28" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3212,9 +3140,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="23" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3287,6 +3212,81 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="23" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="34" borderId="22" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="34" borderId="28" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5067,32 +5067,32 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="126.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3"/>
-    <col min="4" max="4" width="6.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="94.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="126.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="94.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -5284,707 +5284,707 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="146" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="146" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="147" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="146" customWidth="1"/>
-    <col min="6" max="6" width="17" style="146" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="146" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="146" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="146" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="146" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="173" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" style="173" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="146" customWidth="1"/>
-    <col min="14" max="27" width="8.88671875" style="146" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="146"/>
+    <col min="1" max="1" width="22.5703125" style="122" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="122" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="123" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="122" customWidth="1"/>
+    <col min="6" max="6" width="17" style="122" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="122" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="122" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="122" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="122" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="148" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="148" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="122" customWidth="1"/>
+    <col min="14" max="27" width="8.85546875" style="122" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
+      <c r="B2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="152"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-    </row>
-    <row r="6" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="153" t="s">
+      <c r="B5" s="128"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+    </row>
+    <row r="6" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="115"/>
-      <c r="C6" s="149"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-    </row>
-    <row r="7" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="154" t="s">
+      <c r="C6" s="125"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+    </row>
+    <row r="7" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="130" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="116"/>
-      <c r="C7" s="149"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-    </row>
-    <row r="8" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
+      <c r="C7" s="125"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+    </row>
+    <row r="8" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="130" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="116"/>
-      <c r="C9" s="149"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-    </row>
-    <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
+      <c r="C9" s="125"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="130" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="116"/>
-      <c r="C10" s="158"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-    </row>
-    <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="159"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-    </row>
-    <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J12" s="157"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-    </row>
-    <row r="13" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="157"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-    </row>
-    <row r="14" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="157"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
+      <c r="C10" s="133"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+    </row>
+    <row r="11" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="134"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+    </row>
+    <row r="12" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="155"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+    </row>
+    <row r="13" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="155"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+    </row>
+    <row r="14" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="155"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="157"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-    </row>
-    <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="152"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="152"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-    </row>
-    <row r="17" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="162" t="s">
+      <c r="J15" s="155"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+    </row>
+    <row r="16" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="128"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="163" t="s">
+      <c r="D17" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="162" t="s">
+      <c r="E17" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="157"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-    </row>
-    <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="155"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+    </row>
+    <row r="18" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="116"/>
       <c r="B18" s="116"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="116"/>
-      <c r="F18" s="149"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-    </row>
-    <row r="19" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="125"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+    </row>
+    <row r="19" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116"/>
       <c r="B19" s="116"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="116"/>
-      <c r="F19" s="149"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-    </row>
-    <row r="20" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="125"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+    </row>
+    <row r="20" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="116"/>
       <c r="B20" s="116"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="116"/>
-      <c r="F20" s="149"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-    </row>
-    <row r="21" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="125"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+    </row>
+    <row r="21" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="116"/>
       <c r="B21" s="116"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="116"/>
-      <c r="F21" s="149"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-    </row>
-    <row r="22" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="125"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+    </row>
+    <row r="22" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="116"/>
       <c r="B22" s="116"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="116"/>
-      <c r="F22" s="149"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-    </row>
-    <row r="23" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="125"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+    </row>
+    <row r="23" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="116"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="116"/>
-      <c r="F23" s="149"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-    </row>
-    <row r="24" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="125"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+    </row>
+    <row r="24" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="116"/>
       <c r="B24" s="116"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="116"/>
-      <c r="F24" s="149"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-    </row>
-    <row r="25" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="125"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+    </row>
+    <row r="25" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="116"/>
       <c r="B25" s="116"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
       <c r="E25" s="116"/>
-      <c r="F25" s="149"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-    </row>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="125"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="116"/>
       <c r="B26" s="116"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="116"/>
-      <c r="F26" s="149"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-    </row>
-    <row r="27" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="125"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="116"/>
       <c r="B27" s="116"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="116"/>
-      <c r="F27" s="149"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-    </row>
-    <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="125"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="116"/>
-      <c r="F28" s="149"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-    </row>
-    <row r="29" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="125"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+    </row>
+    <row r="29" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="116"/>
-      <c r="F29" s="149"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-    </row>
-    <row r="30" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="125"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+    </row>
+    <row r="30" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
       <c r="E30" s="116"/>
-      <c r="F30" s="149"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-    </row>
-    <row r="31" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="125"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+    </row>
+    <row r="31" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="116"/>
-      <c r="F31" s="149"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-    </row>
-    <row r="32" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="125"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+    </row>
+    <row r="32" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="176"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="116"/>
-      <c r="F32" s="149"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-    </row>
-    <row r="33" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="125"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+    </row>
+    <row r="33" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="116"/>
-      <c r="F33" s="149"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-    </row>
-    <row r="34" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="125"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+    </row>
+    <row r="34" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="116"/>
-      <c r="F34" s="149"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-    </row>
-    <row r="35" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="125"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+    </row>
+    <row r="35" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="116"/>
-      <c r="F35" s="149"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-    </row>
-    <row r="36" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="125"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+    </row>
+    <row r="36" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="116"/>
-      <c r="F36" s="149"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-    </row>
-    <row r="37" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="125"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+    </row>
+    <row r="37" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="116"/>
-      <c r="F37" s="149"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-    </row>
-    <row r="38" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="125"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+    </row>
+    <row r="38" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="116"/>
-      <c r="F38" s="149"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-    </row>
-    <row r="39" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="125"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+    </row>
+    <row r="39" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="116"/>
-      <c r="F39" s="149"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-    </row>
-    <row r="40" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="125"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+    </row>
+    <row r="40" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="176"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="116"/>
-      <c r="F40" s="149"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-    </row>
-    <row r="41" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="125"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+    </row>
+    <row r="41" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="116"/>
-      <c r="F41" s="149"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-    </row>
-    <row r="42" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="177"/>
+      <c r="F41" s="125"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+    </row>
+    <row r="42" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="152"/>
       <c r="B42" s="116"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="116"/>
-      <c r="F42" s="149"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-    </row>
-    <row r="43" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="177"/>
+      <c r="F42" s="125"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+    </row>
+    <row r="43" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="152"/>
       <c r="B43" s="116"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="176"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="116"/>
-      <c r="F43" s="149"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-    </row>
-    <row r="44" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="164" t="s">
+      <c r="F43" s="125"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+    </row>
+    <row r="44" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="165"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-    </row>
-    <row r="45" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="159"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="140"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+    </row>
+    <row r="45" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="134"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J46" s="157"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="157"/>
-    </row>
-    <row r="47" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="157"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-    </row>
-    <row r="48" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J48" s="157"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-    </row>
-    <row r="49" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J49" s="157"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+    </row>
+    <row r="47" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="155"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+    </row>
+    <row r="48" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="155"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+    </row>
+    <row r="49" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="155"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="161"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-    </row>
-    <row r="51" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="168"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-    </row>
-    <row r="52" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="171" t="s">
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="136"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+    </row>
+    <row r="51" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="143"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+    </row>
+    <row r="52" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="171" t="s">
+      <c r="B52" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="171" t="s">
+      <c r="C52" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="172" t="s">
+      <c r="D52" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="149"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-    </row>
-    <row r="53" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="149"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-    </row>
-    <row r="54" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="159"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="167"/>
-      <c r="H54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-    </row>
-    <row r="55" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="157"/>
-    </row>
-    <row r="56" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
-    </row>
-    <row r="57" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-    </row>
-    <row r="58" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-    </row>
-    <row r="59" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
-    </row>
-    <row r="60" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J60" s="157"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-    </row>
-    <row r="61" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J61" s="157"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-    </row>
-    <row r="62" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J62" s="157"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-    </row>
-    <row r="63" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J63" s="157"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-    </row>
-    <row r="64" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J64" s="157"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-    </row>
-    <row r="65" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J65" s="157"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-    </row>
-    <row r="66" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J66" s="157"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
+      <c r="E52" s="125"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+    </row>
+    <row r="53" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="153"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="125"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+    </row>
+    <row r="54" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="142"/>
+      <c r="H54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+    </row>
+    <row r="55" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+    </row>
+    <row r="56" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+    </row>
+    <row r="57" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+    </row>
+    <row r="58" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+    </row>
+    <row r="59" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+    </row>
+    <row r="60" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="155"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+    </row>
+    <row r="61" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="155"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+    </row>
+    <row r="62" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="155"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+    </row>
+    <row r="63" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="155"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
+    </row>
+    <row r="64" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="155"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
+    </row>
+    <row r="65" spans="10:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="155"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+    </row>
+    <row r="66" spans="10:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="155"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J67" s="157"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
     </row>
     <row r="68" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J68" s="157"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="157"/>
-    </row>
-    <row r="69" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J69" s="157"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+    </row>
+    <row r="69" spans="10:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="155"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
     </row>
     <row r="70" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J70" s="157"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
     </row>
     <row r="71" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
     </row>
     <row r="72" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K72" s="146"/>
-      <c r="L72" s="146"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="122"/>
     </row>
     <row r="73" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K73" s="146"/>
-      <c r="L73" s="146"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
     </row>
     <row r="74" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
+      <c r="K74" s="122"/>
+      <c r="L74" s="122"/>
     </row>
     <row r="75" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R75" s="149"/>
+      <c r="R75" s="125"/>
     </row>
     <row r="76" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R76" s="149"/>
+      <c r="R76" s="125"/>
     </row>
     <row r="77" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R77" s="149"/>
+      <c r="R77" s="125"/>
     </row>
     <row r="78" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R78" s="149"/>
+      <c r="R78" s="125"/>
     </row>
     <row r="79" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R79" s="149"/>
+      <c r="R79" s="125"/>
     </row>
     <row r="80" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R80" s="149"/>
+      <c r="R80" s="125"/>
     </row>
     <row r="81" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I81" s="159"/>
-      <c r="J81" s="159"/>
-      <c r="K81" s="174"/>
-      <c r="L81" s="174"/>
-      <c r="N81" s="159"/>
-      <c r="O81" s="159"/>
-      <c r="P81" s="159"/>
-      <c r="Q81" s="159"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="134"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="149"/>
+      <c r="N81" s="134"/>
+      <c r="O81" s="134"/>
+      <c r="P81" s="134"/>
+      <c r="Q81" s="134"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6116,14 +6116,14 @@
       <selection activeCell="A55" sqref="A55:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>392</v>
       </c>
@@ -6135,13 +6135,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-    </row>
-    <row r="3" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="B2" s="157"/>
+      <c r="C2" s="158"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="99" t="s">
         <v>192</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>293</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="99" t="s">
         <v>196</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
         <v>193</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>284</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>308</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
         <v>455</v>
       </c>
@@ -6274,11 +6274,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="99" t="s">
@@ -6379,7 +6379,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="99" t="s">
         <v>317</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="108" t="s">
         <v>213</v>
       </c>
@@ -6402,11 +6402,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="158"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
@@ -6430,7 +6430,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108" t="s">
         <v>212</v>
       </c>
@@ -6442,11 +6442,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="158"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="99" t="s">
@@ -6552,7 +6552,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="108" t="s">
         <v>415</v>
       </c>
@@ -6564,11 +6564,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="156" t="s">
         <v>427</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="123"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="158"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="99" t="s">
@@ -6623,7 +6623,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="108" t="s">
         <v>377</v>
       </c>
@@ -6635,11 +6635,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="158"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="99" t="s">
@@ -6685,7 +6685,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="108" t="s">
         <v>441</v>
       </c>
@@ -6697,11 +6697,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="122"/>
-      <c r="C55" s="123"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="158"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="99" t="s">
@@ -6846,7 +6846,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
         <v>336</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="108" t="s">
         <v>366</v>
       </c>
@@ -7278,290 +7278,289 @@
   </sheetPr>
   <dimension ref="A1:FR83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX12:AY13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="31" customWidth="1"/>
     <col min="2" max="2" width="13" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="18.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.77734375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.33203125" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.88671875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.44140625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="7.6640625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.77734375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.88671875" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.5546875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.5546875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.21875" style="35" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.6640625" style="32" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="56" customWidth="1"/>
-    <col min="18" max="21" width="12.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="21.21875" style="30" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="16.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.6640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.6640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="12.5546875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="8" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="39" width="11.21875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="8" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="43" width="13" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="11.88671875" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="16.6640625" style="29" customWidth="1"/>
-    <col min="48" max="48" width="9" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="11.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="52" width="23.109375" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="15.77734375" style="30" customWidth="1"/>
-    <col min="55" max="55" width="14.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="12.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="18.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.28515625" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.85546875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="14.42578125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.85546875" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.5703125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.5703125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.28515625" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.7109375" style="32" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="56" customWidth="1"/>
+    <col min="18" max="21" width="12.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.7109375" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.28515625" style="30" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="16.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.7109375" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.7109375" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="12.5703125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="8" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="39" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="8" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="43" width="13" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="11.85546875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="3.7109375" style="32" customWidth="1"/>
+    <col min="47" max="47" width="16.7109375" style="29" customWidth="1"/>
+    <col min="48" max="48" width="9" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="11.28515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="52" width="23.140625" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="3.7109375" style="32" customWidth="1"/>
+    <col min="54" max="54" width="15.7109375" style="30" customWidth="1"/>
+    <col min="55" max="55" width="14.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="12.28515625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="57" max="57" width="15" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="12.33203125" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="60" width="14.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.6640625" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="12.6640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="17.33203125" style="32" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="12.28515625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="60" width="14.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.7109375" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="12.7109375" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="17.28515625" style="32" customWidth="1" collapsed="1"/>
     <col min="64" max="64" width="15" style="59" customWidth="1"/>
-    <col min="65" max="109" width="9.44140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="110" max="110" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="65" max="109" width="9.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="110" max="110" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
     <col min="111" max="111" width="12" style="59" customWidth="1"/>
-    <col min="112" max="112" width="10.109375" style="59" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="3.6640625" style="32" customWidth="1"/>
-    <col min="114" max="114" width="20.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.5546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="22.33203125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="14.109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="10.33203125" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="119" max="119" width="12.88671875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="14.44140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="121" max="121" width="13.44140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="122" max="122" width="10.88671875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="10.140625" style="59" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="3.7109375" style="32" customWidth="1"/>
+    <col min="114" max="114" width="20.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="16.5703125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="22.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="14.140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="10.28515625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="12.85546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="14.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="13.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="10.85546875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="123" max="123" width="19" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="8.21875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="20.44140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="14.6640625" style="31" customWidth="1"/>
-    <col min="128" max="131" width="14.6640625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="17.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="8.28515625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="20.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="14.7109375" style="31" customWidth="1"/>
+    <col min="128" max="131" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="21" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="17.88671875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="20.21875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="8.33203125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="13.21875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="139" max="139" width="13.33203125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="17.85546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="20.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="8.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="139" width="13.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="140" max="140" width="15" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="141" max="141" width="14" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="142" width="13.21875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="143" max="143" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="15.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="145" max="149" width="14.6640625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="13.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="143" max="143" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="145" max="149" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
     <col min="151" max="151" width="26" style="31" customWidth="1"/>
     <col min="152" max="152" width="26" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="156" width="14.6640625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="3.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="158" max="174" width="6.44140625" style="32" customWidth="1" collapsed="1"/>
-    <col min="175" max="16384" width="8.88671875" style="15"/>
+    <col min="153" max="156" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="158" max="174" width="6.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="175" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:174" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="131"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="166"/>
       <c r="P1" s="57"/>
-      <c r="Q1" s="127" t="s">
+      <c r="Q1" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
       <c r="W1" s="57"/>
-      <c r="X1" s="137" t="s">
+      <c r="X1" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
+      <c r="AN1" s="173"/>
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="173"/>
       <c r="AT1" s="57"/>
-      <c r="AU1" s="126" t="s">
+      <c r="AU1" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
       <c r="BA1" s="57"/>
-      <c r="BB1" s="137" t="s">
+      <c r="BB1" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138"/>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="138"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="173"/>
+      <c r="BH1" s="173"/>
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="173"/>
       <c r="BK1" s="58"/>
-      <c r="BL1" s="126" t="s">
+      <c r="BL1" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
-      <c r="BR1" s="127"/>
-      <c r="BS1" s="127"/>
-      <c r="BT1" s="127"/>
-      <c r="BU1" s="127"/>
-      <c r="BV1" s="127"/>
-      <c r="BW1" s="127"/>
-      <c r="BX1" s="127"/>
-      <c r="BY1" s="127"/>
-      <c r="BZ1" s="127"/>
-      <c r="CA1" s="127"/>
-      <c r="CB1" s="127"/>
-      <c r="CC1" s="127"/>
-      <c r="CD1" s="127"/>
-      <c r="CE1" s="127"/>
-      <c r="CF1" s="127"/>
-      <c r="CG1" s="127"/>
-      <c r="CH1" s="127"/>
-      <c r="CI1" s="127"/>
-      <c r="CJ1" s="127"/>
-      <c r="CK1" s="127"/>
-      <c r="CL1" s="127"/>
-      <c r="CM1" s="127"/>
-      <c r="CN1" s="127"/>
-      <c r="CO1" s="127"/>
-      <c r="CP1" s="127"/>
-      <c r="CQ1" s="127"/>
-      <c r="CR1" s="127"/>
-      <c r="CS1" s="127"/>
-      <c r="CT1" s="127"/>
-      <c r="CU1" s="127"/>
-      <c r="CV1" s="127"/>
-      <c r="CW1" s="127"/>
-      <c r="CX1" s="127"/>
-      <c r="CY1" s="127"/>
-      <c r="CZ1" s="127"/>
-      <c r="DA1" s="127"/>
-      <c r="DB1" s="127"/>
-      <c r="DC1" s="127"/>
-      <c r="DD1" s="127"/>
-      <c r="DE1" s="131"/>
+      <c r="BM1" s="162"/>
+      <c r="BN1" s="162"/>
+      <c r="BO1" s="162"/>
+      <c r="BP1" s="162"/>
+      <c r="BQ1" s="162"/>
+      <c r="BR1" s="162"/>
+      <c r="BS1" s="162"/>
+      <c r="BT1" s="162"/>
+      <c r="BU1" s="162"/>
+      <c r="BV1" s="162"/>
+      <c r="BW1" s="162"/>
+      <c r="BX1" s="162"/>
+      <c r="BY1" s="162"/>
+      <c r="BZ1" s="162"/>
+      <c r="CA1" s="162"/>
+      <c r="CB1" s="162"/>
+      <c r="CC1" s="162"/>
+      <c r="CD1" s="162"/>
+      <c r="CE1" s="162"/>
+      <c r="CF1" s="162"/>
+      <c r="CG1" s="162"/>
+      <c r="CH1" s="162"/>
+      <c r="CI1" s="162"/>
+      <c r="CJ1" s="162"/>
+      <c r="CK1" s="162"/>
+      <c r="CL1" s="162"/>
+      <c r="CM1" s="162"/>
+      <c r="CN1" s="162"/>
+      <c r="CO1" s="162"/>
+      <c r="CP1" s="162"/>
+      <c r="CQ1" s="162"/>
+      <c r="CR1" s="162"/>
+      <c r="CS1" s="162"/>
+      <c r="CT1" s="162"/>
+      <c r="CU1" s="162"/>
+      <c r="CV1" s="162"/>
+      <c r="CW1" s="162"/>
+      <c r="CX1" s="162"/>
+      <c r="CY1" s="162"/>
+      <c r="CZ1" s="162"/>
+      <c r="DA1" s="162"/>
+      <c r="DB1" s="162"/>
+      <c r="DC1" s="162"/>
+      <c r="DD1" s="162"/>
+      <c r="DE1" s="166"/>
       <c r="DF1" s="57"/>
-      <c r="DG1" s="144" t="s">
+      <c r="DG1" s="179" t="s">
         <v>426</v>
       </c>
-      <c r="DH1" s="144"/>
+      <c r="DH1" s="179"/>
       <c r="DI1" s="57"/>
-      <c r="DJ1" s="126" t="s">
+      <c r="DJ1" s="161" t="s">
         <v>268</v>
       </c>
-      <c r="DK1" s="127"/>
-      <c r="DL1" s="127"/>
-      <c r="DM1" s="127"/>
-      <c r="DN1" s="127"/>
-      <c r="DO1" s="127"/>
-      <c r="DP1" s="127"/>
-      <c r="DQ1" s="127"/>
-      <c r="DR1" s="127"/>
-      <c r="DS1" s="127"/>
-      <c r="DT1" s="127"/>
-      <c r="DU1" s="127"/>
+      <c r="DK1" s="162"/>
+      <c r="DL1" s="162"/>
+      <c r="DM1" s="162"/>
+      <c r="DN1" s="162"/>
+      <c r="DO1" s="162"/>
+      <c r="DP1" s="162"/>
+      <c r="DQ1" s="162"/>
+      <c r="DR1" s="162"/>
+      <c r="DS1" s="162"/>
+      <c r="DT1" s="162"/>
+      <c r="DU1" s="162"/>
       <c r="DV1" s="57"/>
-      <c r="DW1" s="126" t="s">
+      <c r="DW1" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="DX1" s="127"/>
-      <c r="DY1" s="127"/>
-      <c r="DZ1" s="127"/>
-      <c r="EA1" s="128"/>
+      <c r="DX1" s="162"/>
+      <c r="DY1" s="162"/>
+      <c r="DZ1" s="162"/>
+      <c r="EA1" s="163"/>
       <c r="EB1" s="57"/>
-      <c r="EC1" s="126" t="s">
+      <c r="EC1" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="ED1" s="127"/>
-      <c r="EE1" s="127"/>
-      <c r="EF1" s="127"/>
-      <c r="EG1" s="127"/>
-      <c r="EH1" s="127"/>
-      <c r="EI1" s="127"/>
-      <c r="EJ1" s="127"/>
-      <c r="EK1" s="127"/>
-      <c r="EL1" s="127"/>
+      <c r="ED1" s="162"/>
+      <c r="EE1" s="162"/>
+      <c r="EF1" s="162"/>
+      <c r="EG1" s="162"/>
+      <c r="EH1" s="162"/>
+      <c r="EI1" s="162"/>
+      <c r="EJ1" s="162"/>
+      <c r="EK1" s="162"/>
+      <c r="EL1" s="162"/>
       <c r="EM1" s="57"/>
-      <c r="EN1" s="126" t="s">
+      <c r="EN1" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="EO1" s="127"/>
-      <c r="EP1" s="127"/>
-      <c r="EQ1" s="127"/>
-      <c r="ER1" s="127"/>
-      <c r="ES1" s="127"/>
+      <c r="EO1" s="162"/>
+      <c r="EP1" s="162"/>
+      <c r="EQ1" s="162"/>
+      <c r="ER1" s="162"/>
+      <c r="ES1" s="162"/>
       <c r="ET1" s="57"/>
-      <c r="EU1" s="126" t="s">
+      <c r="EU1" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="EV1" s="127"/>
-      <c r="EW1" s="127"/>
-      <c r="EX1" s="127"/>
-      <c r="EY1" s="127"/>
-      <c r="EZ1" s="128"/>
+      <c r="EV1" s="162"/>
+      <c r="EW1" s="162"/>
+      <c r="EX1" s="162"/>
+      <c r="EY1" s="162"/>
+      <c r="EZ1" s="163"/>
       <c r="FA1" s="57"/>
       <c r="FB1" s="57"/>
       <c r="FC1" s="57"/>
@@ -7581,187 +7580,187 @@
       <c r="FQ1" s="57"/>
       <c r="FR1" s="57"/>
     </row>
-    <row r="2" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+    <row r="2" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="167" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J2" s="167" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="K2" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="132" t="s">
+      <c r="L2" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="132" t="s">
+      <c r="O2" s="167" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="31"/>
-      <c r="Q2" s="136" t="s">
+      <c r="Q2" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="136" t="s">
+      <c r="R2" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="S2" s="136" t="s">
+      <c r="S2" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="136" t="s">
+      <c r="T2" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="136" t="s">
+      <c r="U2" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="136" t="s">
+      <c r="V2" s="171" t="s">
         <v>67</v>
       </c>
       <c r="W2" s="31"/>
-      <c r="X2" s="134" t="s">
+      <c r="X2" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" s="134" t="s">
+      <c r="Y2" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="Z2" s="134" t="s">
+      <c r="Z2" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="AA2" s="134" t="s">
+      <c r="AA2" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" s="134" t="s">
+      <c r="AB2" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="AC2" s="134" t="s">
+      <c r="AC2" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="AD2" s="134" t="s">
+      <c r="AD2" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="AE2" s="134" t="s">
+      <c r="AE2" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="AF2" s="134" t="s">
+      <c r="AF2" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="AG2" s="134" t="s">
+      <c r="AG2" s="169" t="s">
         <v>303</v>
       </c>
-      <c r="AH2" s="134" t="s">
+      <c r="AH2" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="134" t="s">
+      <c r="AI2" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="134" t="s">
+      <c r="AJ2" s="169" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="134" t="s">
+      <c r="AK2" s="169" t="s">
         <v>293</v>
       </c>
-      <c r="AL2" s="134" t="s">
+      <c r="AL2" s="169" t="s">
         <v>288</v>
       </c>
-      <c r="AM2" s="134" t="s">
+      <c r="AM2" s="169" t="s">
         <v>305</v>
       </c>
-      <c r="AN2" s="134" t="s">
+      <c r="AN2" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="AO2" s="134" t="s">
+      <c r="AO2" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="AP2" s="134" t="s">
+      <c r="AP2" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="AQ2" s="134" t="s">
+      <c r="AQ2" s="169" t="s">
         <v>304</v>
       </c>
-      <c r="AR2" s="134" t="s">
+      <c r="AR2" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="AS2" s="134" t="s">
+      <c r="AS2" s="169" t="s">
         <v>172</v>
       </c>
       <c r="AT2" s="31"/>
-      <c r="AU2" s="134" t="s">
+      <c r="AU2" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="AV2" s="134" t="s">
+      <c r="AV2" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="AW2" s="134" t="s">
+      <c r="AW2" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="AX2" s="139" t="s">
+      <c r="AX2" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="139" t="s">
+      <c r="AY2" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="139" t="s">
+      <c r="AZ2" s="174" t="s">
         <v>104</v>
       </c>
       <c r="BA2" s="31"/>
-      <c r="BB2" s="134" t="s">
+      <c r="BB2" s="169" t="s">
         <v>486</v>
       </c>
-      <c r="BC2" s="134" t="s">
+      <c r="BC2" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="BD2" s="134" t="s">
+      <c r="BD2" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="BE2" s="134" t="s">
+      <c r="BE2" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="BF2" s="134" t="s">
+      <c r="BF2" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="BG2" s="134" t="s">
+      <c r="BG2" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="134" t="s">
+      <c r="BH2" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="136" t="s">
+      <c r="BI2" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="BJ2" s="134" t="s">
+      <c r="BJ2" s="169" t="s">
         <v>88</v>
       </c>
       <c r="BK2" s="31"/>
-      <c r="BL2" s="142" t="s">
+      <c r="BL2" s="177" t="s">
         <v>468</v>
       </c>
       <c r="BM2" s="109" t="s">
@@ -7900,132 +7899,132 @@
         <v>89</v>
       </c>
       <c r="DF2" s="31"/>
-      <c r="DG2" s="141" t="s">
+      <c r="DG2" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="DH2" s="141" t="s">
+      <c r="DH2" s="176" t="s">
         <v>168</v>
       </c>
       <c r="DI2" s="31"/>
-      <c r="DJ2" s="124" t="s">
+      <c r="DJ2" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="DK2" s="129" t="s">
+      <c r="DK2" s="164" t="s">
         <v>373</v>
       </c>
-      <c r="DL2" s="129" t="s">
+      <c r="DL2" s="164" t="s">
         <v>383</v>
       </c>
-      <c r="DM2" s="129" t="s">
+      <c r="DM2" s="164" t="s">
         <v>384</v>
       </c>
-      <c r="DN2" s="129" t="s">
+      <c r="DN2" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="DO2" s="129" t="s">
+      <c r="DO2" s="164" t="s">
         <v>209</v>
       </c>
-      <c r="DP2" s="129" t="s">
+      <c r="DP2" s="164" t="s">
         <v>314</v>
       </c>
-      <c r="DQ2" s="129" t="s">
+      <c r="DQ2" s="164" t="s">
         <v>315</v>
       </c>
-      <c r="DR2" s="129" t="s">
+      <c r="DR2" s="164" t="s">
         <v>411</v>
       </c>
-      <c r="DS2" s="129" t="s">
+      <c r="DS2" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="DT2" s="129" t="s">
+      <c r="DT2" s="164" t="s">
         <v>317</v>
       </c>
-      <c r="DU2" s="129" t="s">
+      <c r="DU2" s="164" t="s">
         <v>213</v>
       </c>
       <c r="DV2" s="31"/>
-      <c r="DW2" s="129" t="s">
+      <c r="DW2" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="DX2" s="129" t="s">
+      <c r="DX2" s="164" t="s">
         <v>386</v>
       </c>
-      <c r="DY2" s="129" t="s">
+      <c r="DY2" s="164" t="s">
         <v>387</v>
       </c>
-      <c r="DZ2" s="129" t="s">
+      <c r="DZ2" s="164" t="s">
         <v>388</v>
       </c>
-      <c r="EA2" s="129" t="s">
+      <c r="EA2" s="164" t="s">
         <v>389</v>
       </c>
       <c r="EB2" s="31"/>
-      <c r="EC2" s="124" t="s">
+      <c r="EC2" s="159" t="s">
         <v>412</v>
       </c>
-      <c r="ED2" s="124" t="s">
+      <c r="ED2" s="159" t="s">
         <v>443</v>
       </c>
-      <c r="EE2" s="124" t="s">
+      <c r="EE2" s="159" t="s">
         <v>413</v>
       </c>
-      <c r="EF2" s="124" t="s">
+      <c r="EF2" s="159" t="s">
         <v>257</v>
       </c>
-      <c r="EG2" s="124" t="s">
+      <c r="EG2" s="159" t="s">
         <v>369</v>
       </c>
-      <c r="EH2" s="124" t="s">
+      <c r="EH2" s="159" t="s">
         <v>367</v>
       </c>
-      <c r="EI2" s="124" t="s">
+      <c r="EI2" s="159" t="s">
         <v>368</v>
       </c>
-      <c r="EJ2" s="124" t="s">
+      <c r="EJ2" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="EK2" s="124" t="s">
+      <c r="EK2" s="159" t="s">
         <v>371</v>
       </c>
-      <c r="EL2" s="124" t="s">
+      <c r="EL2" s="159" t="s">
         <v>415</v>
       </c>
       <c r="EM2" s="31"/>
-      <c r="EN2" s="129" t="s">
+      <c r="EN2" s="164" t="s">
         <v>374</v>
       </c>
-      <c r="EO2" s="129" t="s">
+      <c r="EO2" s="164" t="s">
         <v>376</v>
       </c>
-      <c r="EP2" s="129" t="s">
+      <c r="EP2" s="164" t="s">
         <v>375</v>
       </c>
-      <c r="EQ2" s="129" t="s">
+      <c r="EQ2" s="164" t="s">
         <v>421</v>
       </c>
-      <c r="ER2" s="129" t="s">
+      <c r="ER2" s="164" t="s">
         <v>425</v>
       </c>
-      <c r="ES2" s="129" t="s">
+      <c r="ES2" s="164" t="s">
         <v>377</v>
       </c>
       <c r="ET2" s="31"/>
-      <c r="EU2" s="129" t="s">
+      <c r="EU2" s="164" t="s">
         <v>446</v>
       </c>
-      <c r="EV2" s="129" t="s">
+      <c r="EV2" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="EW2" s="129" t="s">
+      <c r="EW2" s="164" t="s">
         <v>454</v>
       </c>
-      <c r="EX2" s="129" t="s">
+      <c r="EX2" s="164" t="s">
         <v>444</v>
       </c>
-      <c r="EY2" s="129" t="s">
+      <c r="EY2" s="164" t="s">
         <v>436</v>
       </c>
-      <c r="EZ2" s="129" t="s">
+      <c r="EZ2" s="164" t="s">
         <v>442</v>
       </c>
       <c r="FA2" s="31"/>
@@ -8048,72 +8047,72 @@
       <c r="FR2" s="31"/>
     </row>
     <row r="3" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
       <c r="P3" s="31"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
       <c r="W3" s="31"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
       <c r="AT3" s="31"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="140"/>
-      <c r="AY3" s="140"/>
-      <c r="AZ3" s="140"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
       <c r="BA3" s="31"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="135"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="170"/>
+      <c r="BE3" s="170"/>
+      <c r="BF3" s="170"/>
+      <c r="BG3" s="170"/>
+      <c r="BH3" s="170"/>
+      <c r="BI3" s="171"/>
+      <c r="BJ3" s="170"/>
       <c r="BK3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="BL3" s="143"/>
+      <c r="BL3" s="178"/>
       <c r="BM3" s="94">
         <f>IF('Performance inputs'!B60&lt;&gt;"",'Performance inputs'!B60,"ERROR")</f>
         <v>0.16</v>
@@ -8295,52 +8294,52 @@
         <v>0.08</v>
       </c>
       <c r="DF3" s="31"/>
-      <c r="DG3" s="141"/>
-      <c r="DH3" s="141"/>
+      <c r="DG3" s="176"/>
+      <c r="DH3" s="176"/>
       <c r="DI3" s="31"/>
-      <c r="DJ3" s="125"/>
-      <c r="DK3" s="130"/>
-      <c r="DL3" s="130"/>
-      <c r="DM3" s="130"/>
-      <c r="DN3" s="130"/>
-      <c r="DO3" s="130"/>
-      <c r="DP3" s="130"/>
-      <c r="DQ3" s="130"/>
-      <c r="DR3" s="130"/>
-      <c r="DS3" s="130"/>
-      <c r="DT3" s="130"/>
-      <c r="DU3" s="130"/>
+      <c r="DJ3" s="160"/>
+      <c r="DK3" s="165"/>
+      <c r="DL3" s="165"/>
+      <c r="DM3" s="165"/>
+      <c r="DN3" s="165"/>
+      <c r="DO3" s="165"/>
+      <c r="DP3" s="165"/>
+      <c r="DQ3" s="165"/>
+      <c r="DR3" s="165"/>
+      <c r="DS3" s="165"/>
+      <c r="DT3" s="165"/>
+      <c r="DU3" s="165"/>
       <c r="DV3" s="31"/>
-      <c r="DW3" s="130"/>
-      <c r="DX3" s="130"/>
-      <c r="DY3" s="130"/>
-      <c r="DZ3" s="130"/>
-      <c r="EA3" s="130"/>
+      <c r="DW3" s="165"/>
+      <c r="DX3" s="165"/>
+      <c r="DY3" s="165"/>
+      <c r="DZ3" s="165"/>
+      <c r="EA3" s="165"/>
       <c r="EB3" s="31"/>
-      <c r="EC3" s="125"/>
-      <c r="ED3" s="125"/>
-      <c r="EE3" s="125"/>
-      <c r="EF3" s="125"/>
-      <c r="EG3" s="125"/>
-      <c r="EH3" s="125"/>
-      <c r="EI3" s="125"/>
-      <c r="EJ3" s="125"/>
-      <c r="EK3" s="125"/>
-      <c r="EL3" s="125"/>
+      <c r="EC3" s="160"/>
+      <c r="ED3" s="160"/>
+      <c r="EE3" s="160"/>
+      <c r="EF3" s="160"/>
+      <c r="EG3" s="160"/>
+      <c r="EH3" s="160"/>
+      <c r="EI3" s="160"/>
+      <c r="EJ3" s="160"/>
+      <c r="EK3" s="160"/>
+      <c r="EL3" s="160"/>
       <c r="EM3" s="31"/>
-      <c r="EN3" s="130"/>
-      <c r="EO3" s="130"/>
-      <c r="EP3" s="130"/>
-      <c r="EQ3" s="130"/>
-      <c r="ER3" s="130"/>
-      <c r="ES3" s="130"/>
+      <c r="EN3" s="165"/>
+      <c r="EO3" s="165"/>
+      <c r="EP3" s="165"/>
+      <c r="EQ3" s="165"/>
+      <c r="ER3" s="165"/>
+      <c r="ES3" s="165"/>
       <c r="ET3" s="31"/>
-      <c r="EU3" s="130"/>
-      <c r="EV3" s="130"/>
-      <c r="EW3" s="130"/>
-      <c r="EX3" s="130"/>
-      <c r="EY3" s="130"/>
-      <c r="EZ3" s="130"/>
+      <c r="EU3" s="165"/>
+      <c r="EV3" s="165"/>
+      <c r="EW3" s="165"/>
+      <c r="EX3" s="165"/>
+      <c r="EY3" s="165"/>
+      <c r="EZ3" s="165"/>
       <c r="FA3" s="31"/>
       <c r="FB3" s="31"/>
       <c r="FC3" s="31"/>
@@ -8360,7 +8359,7 @@
       <c r="FQ3" s="31"/>
       <c r="FR3" s="31"/>
     </row>
-    <row r="4" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Unit 1</v>
@@ -8594,8 +8593,8 @@
       <c r="DC4" s="55"/>
       <c r="DD4" s="55"/>
       <c r="DE4" s="55"/>
-      <c r="DG4" s="141"/>
-      <c r="DH4" s="141"/>
+      <c r="DG4" s="176"/>
+      <c r="DH4" s="176"/>
       <c r="DJ4" s="72" t="s">
         <v>90</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>Modest</v>
       </c>
     </row>
-    <row r="5" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
@@ -8985,7 +8984,7 @@
       <c r="DR5" s="34"/>
       <c r="DT5" s="34"/>
     </row>
-    <row r="6" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6" s="89">
         <f t="shared" ref="Q6:Q50" si="8">IF(S6&gt;0,Q5+1,"")</f>
         <v>3</v>
@@ -9204,7 +9203,7 @@
       <c r="DR6" s="34"/>
       <c r="DT6" s="34"/>
     </row>
-    <row r="7" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="34"/>
       <c r="J7" s="34"/>
       <c r="L7" s="33"/>
@@ -9426,7 +9425,7 @@
       <c r="DR7" s="34"/>
       <c r="DT7" s="34"/>
     </row>
-    <row r="8" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
@@ -9654,7 +9653,7 @@
       <c r="DR8" s="34"/>
       <c r="DT8" s="34"/>
     </row>
-    <row r="9" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -9880,7 +9879,7 @@
       <c r="DR9" s="34"/>
       <c r="DT9" s="34"/>
     </row>
-    <row r="10" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
@@ -10088,7 +10087,7 @@
       <c r="DR10" s="34"/>
       <c r="DT10" s="34"/>
     </row>
-    <row r="11" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q11" s="89" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -10284,7 +10283,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
       <c r="D12" s="37"/>
       <c r="F12" s="37"/>
@@ -10495,7 +10494,7 @@
       <c r="DQ12" s="37"/>
       <c r="DS12" s="37"/>
     </row>
-    <row r="13" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
       <c r="D13" s="38"/>
       <c r="F13" s="38"/>
@@ -10705,7 +10704,7 @@
       <c r="DQ13" s="38"/>
       <c r="DS13" s="38"/>
     </row>
-    <row r="14" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="D14" s="39"/>
       <c r="F14" s="39"/>
@@ -10884,7 +10883,7 @@
       <c r="DQ14" s="39"/>
       <c r="DS14" s="39"/>
     </row>
-    <row r="15" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="D15" s="39"/>
       <c r="F15" s="39"/>
@@ -11062,7 +11061,7 @@
       <c r="DQ15" s="39"/>
       <c r="DS15" s="39"/>
     </row>
-    <row r="16" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="D16" s="39"/>
       <c r="F16" s="39"/>
@@ -11242,7 +11241,7 @@
       <c r="DQ16" s="39"/>
       <c r="DS16" s="39"/>
     </row>
-    <row r="17" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="38"/>
       <c r="C17" s="41"/>
@@ -11454,7 +11453,7 @@
       <c r="EY17" s="41"/>
       <c r="EZ17" s="41"/>
     </row>
-    <row r="18" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="D18" s="39"/>
       <c r="F18" s="39"/>
@@ -11634,7 +11633,7 @@
       <c r="DQ18" s="39"/>
       <c r="DS18" s="39"/>
     </row>
-    <row r="19" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="39"/>
       <c r="C19" s="41"/>
@@ -11857,7 +11856,7 @@
       <c r="EY19" s="41"/>
       <c r="EZ19" s="41"/>
     </row>
-    <row r="20" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
       <c r="D20" s="39"/>
       <c r="F20" s="39"/>
@@ -12048,7 +12047,7 @@
       <c r="DQ20" s="39"/>
       <c r="DS20" s="39"/>
     </row>
-    <row r="21" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="39"/>
       <c r="C21" s="41"/>
@@ -12271,7 +12270,7 @@
       <c r="EY21" s="41"/>
       <c r="EZ21" s="41"/>
     </row>
-    <row r="22" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="39"/>
       <c r="C22" s="41"/>
@@ -12487,7 +12486,7 @@
       <c r="EY22" s="41"/>
       <c r="EZ22" s="41"/>
     </row>
-    <row r="23" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="39"/>
       <c r="C23" s="41"/>
@@ -12702,7 +12701,7 @@
       <c r="EY23" s="41"/>
       <c r="EZ23" s="41"/>
     </row>
-    <row r="24" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="39"/>
       <c r="C24" s="41"/>
@@ -12918,7 +12917,7 @@
       <c r="EY24" s="41"/>
       <c r="EZ24" s="41"/>
     </row>
-    <row r="25" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q25" s="89" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13086,7 +13085,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="44"/>
@@ -13303,7 +13302,7 @@
       <c r="EY26" s="44"/>
       <c r="EZ26" s="44"/>
     </row>
-    <row r="27" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="D27" s="38"/>
       <c r="F27" s="38"/>
@@ -13486,7 +13485,7 @@
       <c r="DQ27" s="38"/>
       <c r="DS27" s="38"/>
     </row>
-    <row r="28" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="39"/>
       <c r="C28" s="41"/>
@@ -13703,7 +13702,7 @@
       <c r="EY28" s="41"/>
       <c r="EZ28" s="41"/>
     </row>
-    <row r="29" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="39"/>
       <c r="C29" s="41"/>
@@ -13919,7 +13918,7 @@
       <c r="EY29" s="41"/>
       <c r="EZ29" s="41"/>
     </row>
-    <row r="30" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="39"/>
       <c r="C30" s="41"/>
@@ -14136,7 +14135,7 @@
       <c r="EY30" s="41"/>
       <c r="EZ30" s="41"/>
     </row>
-    <row r="31" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="38"/>
       <c r="C31" s="41"/>
@@ -14352,7 +14351,7 @@
       <c r="EY31" s="41"/>
       <c r="EZ31" s="41"/>
     </row>
-    <row r="32" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="46"/>
       <c r="D32" s="46"/>
       <c r="F32" s="46"/>
@@ -14536,7 +14535,7 @@
       <c r="DQ32" s="46"/>
       <c r="DS32" s="46"/>
     </row>
-    <row r="33" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q33" s="89" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -14704,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44"/>
       <c r="B34" s="45"/>
       <c r="C34" s="44"/>
@@ -14920,7 +14919,7 @@
       <c r="EY34" s="44"/>
       <c r="EZ34" s="44"/>
     </row>
-    <row r="35" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="48"/>
@@ -15108,7 +15107,7 @@
       <c r="DS35" s="38"/>
       <c r="DT35" s="48"/>
     </row>
-    <row r="36" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="39"/>
       <c r="C36" s="41"/>
@@ -15330,7 +15329,7 @@
       <c r="EY36" s="41"/>
       <c r="EZ36" s="41"/>
     </row>
-    <row r="37" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="39"/>
       <c r="C37" s="41"/>
@@ -15551,7 +15550,7 @@
       <c r="EY37" s="41"/>
       <c r="EZ37" s="41"/>
     </row>
-    <row r="38" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="39"/>
       <c r="C38" s="41"/>
@@ -15773,7 +15772,7 @@
       <c r="EY38" s="41"/>
       <c r="EZ38" s="41"/>
     </row>
-    <row r="39" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38"/>
       <c r="D39" s="38"/>
       <c r="F39" s="38"/>
@@ -16306,7 +16305,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
       <c r="C42" s="44"/>
@@ -16522,7 +16521,7 @@
       <c r="EY42" s="44"/>
       <c r="EZ42" s="44"/>
     </row>
-    <row r="43" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="42"/>
       <c r="D43" s="42"/>
       <c r="F43" s="42"/>
@@ -16704,7 +16703,7 @@
       <c r="DQ43" s="42"/>
       <c r="DS43" s="42"/>
     </row>
-    <row r="44" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="48"/>
@@ -16893,7 +16892,7 @@
       <c r="DS44" s="42"/>
       <c r="DT44" s="48"/>
     </row>
-    <row r="45" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="51"/>
       <c r="C45" s="41"/>
@@ -17114,7 +17113,7 @@
       <c r="EY45" s="41"/>
       <c r="EZ45" s="41"/>
     </row>
-    <row r="46" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="51"/>
       <c r="C46" s="41"/>
@@ -17336,7 +17335,7 @@
       <c r="EY46" s="41"/>
       <c r="EZ46" s="41"/>
     </row>
-    <row r="47" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="51"/>
       <c r="C47" s="41"/>
@@ -17557,7 +17556,7 @@
       <c r="EY47" s="41"/>
       <c r="EZ47" s="41"/>
     </row>
-    <row r="48" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="42"/>
       <c r="D48" s="42"/>
       <c r="F48" s="42"/>
@@ -17922,7 +17921,7 @@
       <c r="DQ49" s="52"/>
       <c r="DS49" s="52"/>
     </row>
-    <row r="50" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L50" s="33"/>
       <c r="Q50" s="89" t="str">
         <f t="shared" si="8"/>
@@ -18091,7 +18090,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="44"/>
       <c r="B51" s="45"/>
       <c r="C51" s="44"/>
@@ -18142,7 +18141,7 @@
       <c r="EY51" s="44"/>
       <c r="EZ51" s="44"/>
     </row>
-    <row r="52" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="42"/>
       <c r="D52" s="42"/>
       <c r="F52" s="42"/>
@@ -18161,7 +18160,7 @@
       <c r="DQ52" s="42"/>
       <c r="DS52" s="42"/>
     </row>
-    <row r="53" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="42"/>
       <c r="D53" s="42"/>
       <c r="E53" s="48"/>
@@ -18185,7 +18184,7 @@
       <c r="DS53" s="42"/>
       <c r="DT53" s="48"/>
     </row>
-    <row r="54" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="51"/>
       <c r="D54" s="51"/>
       <c r="E54" s="53"/>
@@ -18208,7 +18207,7 @@
       <c r="DS54" s="51"/>
       <c r="DT54" s="53"/>
     </row>
-    <row r="55" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="53"/>
@@ -18230,7 +18229,7 @@
       <c r="DS55" s="51"/>
       <c r="DT55" s="53"/>
     </row>
-    <row r="56" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="51"/>
       <c r="D56" s="51"/>
       <c r="E56" s="53"/>
@@ -18253,7 +18252,7 @@
       <c r="DS56" s="51"/>
       <c r="DT56" s="53"/>
     </row>
-    <row r="57" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="51"/>
       <c r="D57" s="51"/>
       <c r="E57" s="53"/>
@@ -18275,7 +18274,7 @@
       <c r="DS57" s="51"/>
       <c r="DT57" s="53"/>
     </row>
-    <row r="58" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="51"/>
       <c r="D58" s="51"/>
       <c r="E58" s="53"/>
@@ -18298,7 +18297,7 @@
       <c r="DS58" s="51"/>
       <c r="DT58" s="53"/>
     </row>
-    <row r="59" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="41"/>
       <c r="B59" s="51"/>
       <c r="C59" s="41"/>
@@ -18353,7 +18352,7 @@
       <c r="EY59" s="41"/>
       <c r="EZ59" s="41"/>
     </row>
-    <row r="60" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="41"/>
       <c r="B60" s="51"/>
       <c r="C60" s="41"/>
@@ -18409,7 +18408,7 @@
       <c r="EY60" s="41"/>
       <c r="EZ60" s="41"/>
     </row>
-    <row r="61" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="41"/>
       <c r="B61" s="51"/>
       <c r="C61" s="41"/>
@@ -18464,11 +18463,11 @@
       <c r="EY61" s="41"/>
       <c r="EZ61" s="41"/>
     </row>
-    <row r="62" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="42"/>
       <c r="D64" s="42"/>
       <c r="F64" s="42"/>
@@ -18485,7 +18484,7 @@
       <c r="DQ64" s="42"/>
       <c r="DS64" s="42"/>
     </row>
-    <row r="65" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="52"/>
       <c r="D65" s="52"/>
       <c r="F65" s="52"/>
@@ -18501,10 +18500,10 @@
       <c r="DQ65" s="52"/>
       <c r="DS65" s="52"/>
     </row>
-    <row r="66" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="44"/>
       <c r="B67" s="45"/>
       <c r="C67" s="44"/>
@@ -18553,7 +18552,7 @@
       <c r="EY67" s="44"/>
       <c r="EZ67" s="44"/>
     </row>
-    <row r="68" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
       <c r="D68" s="42"/>
       <c r="F68" s="42"/>
@@ -18570,7 +18569,7 @@
       <c r="DQ68" s="42"/>
       <c r="DS68" s="42"/>
     </row>
-    <row r="69" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="42"/>
       <c r="D69" s="42"/>
       <c r="E69" s="48"/>
@@ -18592,7 +18591,7 @@
       <c r="DS69" s="42"/>
       <c r="DT69" s="48"/>
     </row>
-    <row r="70" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="41"/>
       <c r="B70" s="51"/>
       <c r="C70" s="41"/>
@@ -18648,7 +18647,7 @@
       <c r="EY70" s="41"/>
       <c r="EZ70" s="41"/>
     </row>
-    <row r="71" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="41"/>
       <c r="B71" s="51"/>
       <c r="C71" s="41"/>
@@ -18703,7 +18702,7 @@
       <c r="EY71" s="41"/>
       <c r="EZ71" s="41"/>
     </row>
-    <row r="72" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="41"/>
       <c r="B72" s="51"/>
       <c r="C72" s="41"/>
@@ -18759,7 +18758,7 @@
       <c r="EY72" s="41"/>
       <c r="EZ72" s="41"/>
     </row>
-    <row r="73" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="41"/>
       <c r="B73" s="51"/>
       <c r="C73" s="41"/>
@@ -18814,7 +18813,7 @@
       <c r="EY73" s="41"/>
       <c r="EZ73" s="41"/>
     </row>
-    <row r="74" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="41"/>
       <c r="B74" s="51"/>
       <c r="C74" s="41"/>
@@ -18870,7 +18869,7 @@
       <c r="EY74" s="41"/>
       <c r="EZ74" s="41"/>
     </row>
-    <row r="75" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="42"/>
       <c r="D75" s="42"/>
       <c r="F75" s="42"/>
@@ -18886,7 +18885,7 @@
       <c r="DQ75" s="42"/>
       <c r="DS75" s="42"/>
     </row>
-    <row r="76" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="52"/>
       <c r="D76" s="52"/>
       <c r="F76" s="52"/>
@@ -18903,17 +18902,17 @@
       <c r="DQ76" s="52"/>
       <c r="DS76" s="52"/>
     </row>
-    <row r="77" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L78" s="33"/>
     </row>
-    <row r="79" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L80" s="33"/>
     </row>
-    <row r="81" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="112">
@@ -18941,7 +18940,6 @@
     <mergeCell ref="EK2:EK3"/>
     <mergeCell ref="DR2:DR3"/>
     <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="EI2:EI3"/>
     <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="AW2:AW3"/>
     <mergeCell ref="AX2:AX3"/>
@@ -19008,8 +19006,6 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
     <mergeCell ref="EJ2:EJ3"/>
     <mergeCell ref="DJ1:DU1"/>
     <mergeCell ref="DW1:EA1"/>
@@ -19029,6 +19025,9 @@
     <mergeCell ref="DT2:DT3"/>
     <mergeCell ref="DJ2:DJ3"/>
     <mergeCell ref="DK2:DK3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="DH5:DH50">
@@ -19560,13 +19559,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -20257,29 +20256,29 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="63" customFormat="1" x14ac:dyDescent="0.2">

--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609AF642-158A-4759-8B8A-1FF3D1EEC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C653155-33E5-4E81-9AA1-C6CB2DBD566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -1506,9 +1506,6 @@
     <t>Modest</t>
   </si>
   <si>
-    <t>None Or Little</t>
-  </si>
-  <si>
     <t>PHOTOVOLTAICS</t>
   </si>
   <si>
@@ -1669,6 +1666,9 @@
   </si>
   <si>
     <t>W9</t>
+  </si>
+  <si>
+    <t>NoneOrLittle</t>
   </si>
 </sst>
 </file>
@@ -3225,14 +3225,11 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3249,10 +3246,13 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,6 +3260,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="34" borderId="22" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3270,23 +3279,14 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3319,13 +3319,6 @@
     <cellStyle name="Total line above" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="88">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3540,6 +3533,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5117,11 +5117,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,11 +5129,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5169,13 +5169,13 @@
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="83"/>
       <c r="E13" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5989,15 +5989,26 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -6011,26 +6022,15 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
@@ -6264,7 +6264,7 @@
     </row>
     <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B14" s="75">
         <v>0.8</v>
@@ -6646,7 +6646,7 @@
         <v>271</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="112" t="s">
         <v>307</v>
@@ -6660,7 +6660,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="112" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>280</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="112" t="s">
         <v>307</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="54" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" s="106" t="s">
         <v>433</v>
@@ -7382,186 +7382,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="177"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="166"/>
       <c r="P1" s="57"/>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
       <c r="W1" s="57"/>
-      <c r="X1" s="159" t="s">
+      <c r="X1" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="160"/>
-      <c r="AO1" s="160"/>
-      <c r="AP1" s="160"/>
-      <c r="AQ1" s="160"/>
-      <c r="AR1" s="160"/>
-      <c r="AS1" s="160"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
+      <c r="AN1" s="173"/>
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="173"/>
       <c r="AT1" s="57"/>
-      <c r="AU1" s="162" t="s">
+      <c r="AU1" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163"/>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
       <c r="BA1" s="57"/>
-      <c r="BB1" s="159" t="s">
+      <c r="BB1" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="BC1" s="160"/>
-      <c r="BD1" s="160"/>
-      <c r="BE1" s="160"/>
-      <c r="BF1" s="160"/>
-      <c r="BG1" s="160"/>
-      <c r="BH1" s="160"/>
-      <c r="BI1" s="160"/>
-      <c r="BJ1" s="160"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="173"/>
+      <c r="BH1" s="173"/>
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="173"/>
       <c r="BK1" s="58"/>
-      <c r="BL1" s="162" t="s">
+      <c r="BL1" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="BM1" s="163"/>
-      <c r="BN1" s="163"/>
-      <c r="BO1" s="163"/>
-      <c r="BP1" s="163"/>
-      <c r="BQ1" s="163"/>
-      <c r="BR1" s="163"/>
-      <c r="BS1" s="163"/>
-      <c r="BT1" s="163"/>
-      <c r="BU1" s="163"/>
-      <c r="BV1" s="163"/>
-      <c r="BW1" s="163"/>
-      <c r="BX1" s="163"/>
-      <c r="BY1" s="163"/>
-      <c r="BZ1" s="163"/>
-      <c r="CA1" s="163"/>
-      <c r="CB1" s="163"/>
-      <c r="CC1" s="163"/>
-      <c r="CD1" s="163"/>
-      <c r="CE1" s="163"/>
-      <c r="CF1" s="163"/>
-      <c r="CG1" s="163"/>
-      <c r="CH1" s="163"/>
-      <c r="CI1" s="163"/>
-      <c r="CJ1" s="163"/>
-      <c r="CK1" s="163"/>
-      <c r="CL1" s="163"/>
-      <c r="CM1" s="163"/>
-      <c r="CN1" s="163"/>
-      <c r="CO1" s="163"/>
-      <c r="CP1" s="163"/>
-      <c r="CQ1" s="163"/>
-      <c r="CR1" s="163"/>
-      <c r="CS1" s="163"/>
-      <c r="CT1" s="163"/>
-      <c r="CU1" s="163"/>
-      <c r="CV1" s="163"/>
-      <c r="CW1" s="163"/>
-      <c r="CX1" s="163"/>
-      <c r="CY1" s="163"/>
-      <c r="CZ1" s="163"/>
-      <c r="DA1" s="163"/>
-      <c r="DB1" s="163"/>
-      <c r="DC1" s="163"/>
-      <c r="DD1" s="163"/>
-      <c r="DE1" s="177"/>
+      <c r="BM1" s="162"/>
+      <c r="BN1" s="162"/>
+      <c r="BO1" s="162"/>
+      <c r="BP1" s="162"/>
+      <c r="BQ1" s="162"/>
+      <c r="BR1" s="162"/>
+      <c r="BS1" s="162"/>
+      <c r="BT1" s="162"/>
+      <c r="BU1" s="162"/>
+      <c r="BV1" s="162"/>
+      <c r="BW1" s="162"/>
+      <c r="BX1" s="162"/>
+      <c r="BY1" s="162"/>
+      <c r="BZ1" s="162"/>
+      <c r="CA1" s="162"/>
+      <c r="CB1" s="162"/>
+      <c r="CC1" s="162"/>
+      <c r="CD1" s="162"/>
+      <c r="CE1" s="162"/>
+      <c r="CF1" s="162"/>
+      <c r="CG1" s="162"/>
+      <c r="CH1" s="162"/>
+      <c r="CI1" s="162"/>
+      <c r="CJ1" s="162"/>
+      <c r="CK1" s="162"/>
+      <c r="CL1" s="162"/>
+      <c r="CM1" s="162"/>
+      <c r="CN1" s="162"/>
+      <c r="CO1" s="162"/>
+      <c r="CP1" s="162"/>
+      <c r="CQ1" s="162"/>
+      <c r="CR1" s="162"/>
+      <c r="CS1" s="162"/>
+      <c r="CT1" s="162"/>
+      <c r="CU1" s="162"/>
+      <c r="CV1" s="162"/>
+      <c r="CW1" s="162"/>
+      <c r="CX1" s="162"/>
+      <c r="CY1" s="162"/>
+      <c r="CZ1" s="162"/>
+      <c r="DA1" s="162"/>
+      <c r="DB1" s="162"/>
+      <c r="DC1" s="162"/>
+      <c r="DD1" s="162"/>
+      <c r="DE1" s="166"/>
       <c r="DF1" s="57"/>
-      <c r="DG1" s="161" t="s">
+      <c r="DG1" s="179" t="s">
         <v>426</v>
       </c>
-      <c r="DH1" s="161"/>
+      <c r="DH1" s="179"/>
       <c r="DI1" s="57"/>
-      <c r="DJ1" s="162" t="s">
+      <c r="DJ1" s="161" t="s">
         <v>268</v>
       </c>
-      <c r="DK1" s="163"/>
-      <c r="DL1" s="163"/>
-      <c r="DM1" s="163"/>
-      <c r="DN1" s="163"/>
-      <c r="DO1" s="163"/>
-      <c r="DP1" s="163"/>
-      <c r="DQ1" s="163"/>
-      <c r="DR1" s="163"/>
-      <c r="DS1" s="163"/>
-      <c r="DT1" s="163"/>
-      <c r="DU1" s="163"/>
+      <c r="DK1" s="162"/>
+      <c r="DL1" s="162"/>
+      <c r="DM1" s="162"/>
+      <c r="DN1" s="162"/>
+      <c r="DO1" s="162"/>
+      <c r="DP1" s="162"/>
+      <c r="DQ1" s="162"/>
+      <c r="DR1" s="162"/>
+      <c r="DS1" s="162"/>
+      <c r="DT1" s="162"/>
+      <c r="DU1" s="162"/>
       <c r="DV1" s="57"/>
-      <c r="DW1" s="162" t="s">
+      <c r="DW1" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="DX1" s="163"/>
-      <c r="DY1" s="163"/>
-      <c r="DZ1" s="163"/>
-      <c r="EA1" s="164"/>
+      <c r="DX1" s="162"/>
+      <c r="DY1" s="162"/>
+      <c r="DZ1" s="162"/>
+      <c r="EA1" s="163"/>
       <c r="EB1" s="57"/>
-      <c r="EC1" s="162" t="s">
+      <c r="EC1" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="ED1" s="163"/>
-      <c r="EE1" s="163"/>
-      <c r="EF1" s="163"/>
-      <c r="EG1" s="163"/>
-      <c r="EH1" s="163"/>
-      <c r="EI1" s="163"/>
-      <c r="EJ1" s="163"/>
-      <c r="EK1" s="163"/>
-      <c r="EL1" s="163"/>
+      <c r="ED1" s="162"/>
+      <c r="EE1" s="162"/>
+      <c r="EF1" s="162"/>
+      <c r="EG1" s="162"/>
+      <c r="EH1" s="162"/>
+      <c r="EI1" s="162"/>
+      <c r="EJ1" s="162"/>
+      <c r="EK1" s="162"/>
+      <c r="EL1" s="162"/>
       <c r="EM1" s="57"/>
-      <c r="EN1" s="162" t="s">
+      <c r="EN1" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="EO1" s="163"/>
-      <c r="EP1" s="163"/>
-      <c r="EQ1" s="163"/>
-      <c r="ER1" s="163"/>
-      <c r="ES1" s="163"/>
+      <c r="EO1" s="162"/>
+      <c r="EP1" s="162"/>
+      <c r="EQ1" s="162"/>
+      <c r="ER1" s="162"/>
+      <c r="ES1" s="162"/>
       <c r="ET1" s="57"/>
-      <c r="EU1" s="162" t="s">
-        <v>435</v>
-      </c>
-      <c r="EV1" s="163"/>
-      <c r="EW1" s="163"/>
-      <c r="EX1" s="163"/>
-      <c r="EY1" s="163"/>
-      <c r="EZ1" s="164"/>
+      <c r="EU1" s="161" t="s">
+        <v>434</v>
+      </c>
+      <c r="EV1" s="162"/>
+      <c r="EW1" s="162"/>
+      <c r="EX1" s="162"/>
+      <c r="EY1" s="162"/>
+      <c r="EZ1" s="163"/>
       <c r="FA1" s="57"/>
       <c r="FB1" s="57"/>
       <c r="FC1" s="57"/>
@@ -7582,68 +7582,68 @@
       <c r="FR1" s="57"/>
     </row>
     <row r="2" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="167" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="167" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="178" t="s">
+      <c r="L2" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="178" t="s">
+      <c r="M2" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="178" t="s">
+      <c r="N2" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="178" t="s">
+      <c r="O2" s="167" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="31"/>
-      <c r="Q2" s="174" t="s">
+      <c r="Q2" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="174" t="s">
+      <c r="R2" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="S2" s="174" t="s">
+      <c r="S2" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="174" t="s">
+      <c r="T2" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="174" t="s">
+      <c r="U2" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="174" t="s">
+      <c r="V2" s="171" t="s">
         <v>67</v>
       </c>
       <c r="W2" s="31"/>
@@ -7723,18 +7723,18 @@
       <c r="AW2" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="AX2" s="171" t="s">
+      <c r="AX2" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="171" t="s">
+      <c r="AY2" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="171" t="s">
+      <c r="AZ2" s="174" t="s">
         <v>104</v>
       </c>
       <c r="BA2" s="31"/>
       <c r="BB2" s="169" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="BC2" s="169" t="s">
         <v>93</v>
@@ -7754,15 +7754,15 @@
       <c r="BH2" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="174" t="s">
+      <c r="BI2" s="171" t="s">
         <v>96</v>
       </c>
       <c r="BJ2" s="169" t="s">
         <v>88</v>
       </c>
       <c r="BK2" s="31"/>
-      <c r="BL2" s="175" t="s">
-        <v>468</v>
+      <c r="BL2" s="177" t="s">
+        <v>467</v>
       </c>
       <c r="BM2" s="109" t="s">
         <v>48</v>
@@ -7900,133 +7900,133 @@
         <v>89</v>
       </c>
       <c r="DF2" s="31"/>
-      <c r="DG2" s="173" t="s">
+      <c r="DG2" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="DH2" s="173" t="s">
+      <c r="DH2" s="176" t="s">
         <v>168</v>
       </c>
       <c r="DI2" s="31"/>
-      <c r="DJ2" s="167" t="s">
+      <c r="DJ2" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="DK2" s="165" t="s">
+      <c r="DK2" s="164" t="s">
         <v>373</v>
       </c>
-      <c r="DL2" s="165" t="s">
+      <c r="DL2" s="164" t="s">
         <v>383</v>
       </c>
-      <c r="DM2" s="165" t="s">
+      <c r="DM2" s="164" t="s">
         <v>384</v>
       </c>
-      <c r="DN2" s="165" t="s">
+      <c r="DN2" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="DO2" s="165" t="s">
+      <c r="DO2" s="164" t="s">
         <v>209</v>
       </c>
-      <c r="DP2" s="165" t="s">
+      <c r="DP2" s="164" t="s">
         <v>314</v>
       </c>
-      <c r="DQ2" s="165" t="s">
+      <c r="DQ2" s="164" t="s">
         <v>315</v>
       </c>
-      <c r="DR2" s="165" t="s">
+      <c r="DR2" s="164" t="s">
         <v>411</v>
       </c>
-      <c r="DS2" s="165" t="s">
+      <c r="DS2" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="DT2" s="165" t="s">
+      <c r="DT2" s="164" t="s">
         <v>317</v>
       </c>
-      <c r="DU2" s="165" t="s">
+      <c r="DU2" s="164" t="s">
         <v>213</v>
       </c>
       <c r="DV2" s="31"/>
-      <c r="DW2" s="165" t="s">
+      <c r="DW2" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="DX2" s="165" t="s">
+      <c r="DX2" s="164" t="s">
         <v>386</v>
       </c>
-      <c r="DY2" s="165" t="s">
+      <c r="DY2" s="164" t="s">
         <v>387</v>
       </c>
-      <c r="DZ2" s="165" t="s">
+      <c r="DZ2" s="164" t="s">
         <v>388</v>
       </c>
-      <c r="EA2" s="165" t="s">
+      <c r="EA2" s="164" t="s">
         <v>389</v>
       </c>
       <c r="EB2" s="31"/>
-      <c r="EC2" s="167" t="s">
+      <c r="EC2" s="159" t="s">
         <v>412</v>
       </c>
-      <c r="ED2" s="167" t="s">
+      <c r="ED2" s="159" t="s">
+        <v>442</v>
+      </c>
+      <c r="EE2" s="159" t="s">
+        <v>413</v>
+      </c>
+      <c r="EF2" s="159" t="s">
+        <v>257</v>
+      </c>
+      <c r="EG2" s="159" t="s">
+        <v>369</v>
+      </c>
+      <c r="EH2" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="EI2" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="EJ2" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="EK2" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="EL2" s="159" t="s">
+        <v>415</v>
+      </c>
+      <c r="EM2" s="31"/>
+      <c r="EN2" s="164" t="s">
+        <v>374</v>
+      </c>
+      <c r="EO2" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="EP2" s="164" t="s">
+        <v>375</v>
+      </c>
+      <c r="EQ2" s="164" t="s">
+        <v>421</v>
+      </c>
+      <c r="ER2" s="164" t="s">
+        <v>425</v>
+      </c>
+      <c r="ES2" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="ET2" s="31"/>
+      <c r="EU2" s="164" t="s">
+        <v>445</v>
+      </c>
+      <c r="EV2" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="EW2" s="164" t="s">
+        <v>453</v>
+      </c>
+      <c r="EX2" s="164" t="s">
         <v>443</v>
       </c>
-      <c r="EE2" s="167" t="s">
-        <v>413</v>
-      </c>
-      <c r="EF2" s="167" t="s">
-        <v>257</v>
-      </c>
-      <c r="EG2" s="167" t="s">
-        <v>369</v>
-      </c>
-      <c r="EH2" s="167" t="s">
-        <v>367</v>
-      </c>
-      <c r="EI2" s="167" t="s">
-        <v>368</v>
-      </c>
-      <c r="EJ2" s="167" t="s">
-        <v>370</v>
-      </c>
-      <c r="EK2" s="167" t="s">
-        <v>371</v>
-      </c>
-      <c r="EL2" s="167" t="s">
-        <v>415</v>
-      </c>
-      <c r="EM2" s="31"/>
-      <c r="EN2" s="165" t="s">
-        <v>374</v>
-      </c>
-      <c r="EO2" s="165" t="s">
-        <v>376</v>
-      </c>
-      <c r="EP2" s="165" t="s">
-        <v>375</v>
-      </c>
-      <c r="EQ2" s="165" t="s">
-        <v>421</v>
-      </c>
-      <c r="ER2" s="165" t="s">
-        <v>425</v>
-      </c>
-      <c r="ES2" s="165" t="s">
-        <v>377</v>
-      </c>
-      <c r="ET2" s="31"/>
-      <c r="EU2" s="165" t="s">
-        <v>446</v>
-      </c>
-      <c r="EV2" s="165" t="s">
-        <v>271</v>
-      </c>
-      <c r="EW2" s="165" t="s">
-        <v>454</v>
-      </c>
-      <c r="EX2" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="EY2" s="165" t="s">
-        <v>436</v>
-      </c>
-      <c r="EZ2" s="165" t="s">
-        <v>442</v>
+      <c r="EY2" s="164" t="s">
+        <v>435</v>
+      </c>
+      <c r="EZ2" s="164" t="s">
+        <v>441</v>
       </c>
       <c r="FA2" s="31"/>
       <c r="FB2" s="31"/>
@@ -8048,28 +8048,28 @@
       <c r="FR2" s="31"/>
     </row>
     <row r="3" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
       <c r="P3" s="31"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
       <c r="W3" s="31"/>
       <c r="X3" s="170"/>
       <c r="Y3" s="170"/>
@@ -8097,9 +8097,9 @@
       <c r="AU3" s="170"/>
       <c r="AV3" s="170"/>
       <c r="AW3" s="170"/>
-      <c r="AX3" s="172"/>
-      <c r="AY3" s="172"/>
-      <c r="AZ3" s="172"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
       <c r="BA3" s="31"/>
       <c r="BB3" s="170"/>
       <c r="BC3" s="170"/>
@@ -8108,12 +8108,12 @@
       <c r="BF3" s="170"/>
       <c r="BG3" s="170"/>
       <c r="BH3" s="170"/>
-      <c r="BI3" s="174"/>
+      <c r="BI3" s="171"/>
       <c r="BJ3" s="170"/>
       <c r="BK3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="BL3" s="176"/>
+      <c r="BL3" s="178"/>
       <c r="BM3" s="94">
         <f>IF('Performance inputs'!B60&lt;&gt;"",'Performance inputs'!B60,"ERROR")</f>
         <v>0.16</v>
@@ -8295,52 +8295,52 @@
         <v>0.08</v>
       </c>
       <c r="DF3" s="31"/>
-      <c r="DG3" s="173"/>
-      <c r="DH3" s="173"/>
+      <c r="DG3" s="176"/>
+      <c r="DH3" s="176"/>
       <c r="DI3" s="31"/>
-      <c r="DJ3" s="168"/>
-      <c r="DK3" s="166"/>
-      <c r="DL3" s="166"/>
-      <c r="DM3" s="166"/>
-      <c r="DN3" s="166"/>
-      <c r="DO3" s="166"/>
-      <c r="DP3" s="166"/>
-      <c r="DQ3" s="166"/>
-      <c r="DR3" s="166"/>
-      <c r="DS3" s="166"/>
-      <c r="DT3" s="166"/>
-      <c r="DU3" s="166"/>
+      <c r="DJ3" s="160"/>
+      <c r="DK3" s="165"/>
+      <c r="DL3" s="165"/>
+      <c r="DM3" s="165"/>
+      <c r="DN3" s="165"/>
+      <c r="DO3" s="165"/>
+      <c r="DP3" s="165"/>
+      <c r="DQ3" s="165"/>
+      <c r="DR3" s="165"/>
+      <c r="DS3" s="165"/>
+      <c r="DT3" s="165"/>
+      <c r="DU3" s="165"/>
       <c r="DV3" s="31"/>
-      <c r="DW3" s="166"/>
-      <c r="DX3" s="166"/>
-      <c r="DY3" s="166"/>
-      <c r="DZ3" s="166"/>
-      <c r="EA3" s="166"/>
+      <c r="DW3" s="165"/>
+      <c r="DX3" s="165"/>
+      <c r="DY3" s="165"/>
+      <c r="DZ3" s="165"/>
+      <c r="EA3" s="165"/>
       <c r="EB3" s="31"/>
-      <c r="EC3" s="168"/>
-      <c r="ED3" s="168"/>
-      <c r="EE3" s="168"/>
-      <c r="EF3" s="168"/>
-      <c r="EG3" s="168"/>
-      <c r="EH3" s="168"/>
-      <c r="EI3" s="168"/>
-      <c r="EJ3" s="168"/>
-      <c r="EK3" s="168"/>
-      <c r="EL3" s="168"/>
+      <c r="EC3" s="160"/>
+      <c r="ED3" s="160"/>
+      <c r="EE3" s="160"/>
+      <c r="EF3" s="160"/>
+      <c r="EG3" s="160"/>
+      <c r="EH3" s="160"/>
+      <c r="EI3" s="160"/>
+      <c r="EJ3" s="160"/>
+      <c r="EK3" s="160"/>
+      <c r="EL3" s="160"/>
       <c r="EM3" s="31"/>
-      <c r="EN3" s="166"/>
-      <c r="EO3" s="166"/>
-      <c r="EP3" s="166"/>
-      <c r="EQ3" s="166"/>
-      <c r="ER3" s="166"/>
-      <c r="ES3" s="166"/>
+      <c r="EN3" s="165"/>
+      <c r="EO3" s="165"/>
+      <c r="EP3" s="165"/>
+      <c r="EQ3" s="165"/>
+      <c r="ER3" s="165"/>
+      <c r="ES3" s="165"/>
       <c r="ET3" s="31"/>
-      <c r="EU3" s="166"/>
-      <c r="EV3" s="166"/>
-      <c r="EW3" s="166"/>
-      <c r="EX3" s="166"/>
-      <c r="EY3" s="166"/>
-      <c r="EZ3" s="166"/>
+      <c r="EU3" s="165"/>
+      <c r="EV3" s="165"/>
+      <c r="EW3" s="165"/>
+      <c r="EX3" s="165"/>
+      <c r="EY3" s="165"/>
+      <c r="EZ3" s="165"/>
       <c r="FA3" s="31"/>
       <c r="FB3" s="31"/>
       <c r="FC3" s="31"/>
@@ -8594,8 +8594,8 @@
       <c r="DC4" s="55"/>
       <c r="DD4" s="55"/>
       <c r="DE4" s="55"/>
-      <c r="DG4" s="173"/>
-      <c r="DH4" s="173"/>
+      <c r="DG4" s="176"/>
+      <c r="DH4" s="176"/>
       <c r="DJ4" s="72" t="s">
         <v>90</v>
       </c>
@@ -9073,7 +9073,7 @@
       <c r="AR6" s="80"/>
       <c r="AS6" s="80"/>
       <c r="AU6" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AV6" s="72" t="s">
         <v>153</v>
@@ -9104,7 +9104,7 @@
         <v>154</v>
       </c>
       <c r="BE6" s="72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BF6" s="72" t="s">
         <v>111</v>
@@ -9295,7 +9295,7 @@
       <c r="AR7" s="80"/>
       <c r="AS7" s="80"/>
       <c r="AU7" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AV7" s="72" t="s">
         <v>153</v>
@@ -9320,13 +9320,13 @@
         <v>1</v>
       </c>
       <c r="BC7" s="81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BD7" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE7" s="72" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BF7" s="72" t="s">
         <v>113</v>
@@ -9521,7 +9521,7 @@
       <c r="AR8" s="80"/>
       <c r="AS8" s="80"/>
       <c r="AU8" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AV8" s="72" t="s">
         <v>153</v>
@@ -9546,13 +9546,13 @@
         <v>3</v>
       </c>
       <c r="BC8" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BD8" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE8" s="72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BF8" s="72" t="s">
         <v>113</v>
@@ -9741,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="AU9" s="61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AV9" s="72" t="s">
         <v>153</v>
@@ -9766,7 +9766,7 @@
         <v>4</v>
       </c>
       <c r="BC9" s="81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BD9" s="72" t="s">
         <v>153</v>
@@ -9907,7 +9907,7 @@
         <v>185</v>
       </c>
       <c r="Z10" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AA10" s="81"/>
       <c r="AB10" s="89" t="str">
@@ -9967,7 +9967,7 @@
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
       <c r="AU10" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AV10" s="72" t="s">
         <v>153</v>
@@ -9992,13 +9992,13 @@
         <v>5</v>
       </c>
       <c r="BC10" s="81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BD10" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE10" s="72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BF10" s="72" t="s">
         <v>113</v>
@@ -10168,7 +10168,7 @@
       <c r="AR11" s="80"/>
       <c r="AS11" s="80"/>
       <c r="AU11" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AV11" s="72" t="s">
         <v>153</v>
@@ -10193,13 +10193,13 @@
         <v>5</v>
       </c>
       <c r="BC11" s="81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BD11" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE11" s="72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BF11" s="72" t="s">
         <v>113</v>
@@ -10313,7 +10313,7 @@
         <v>173</v>
       </c>
       <c r="Z12" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA12" s="81">
         <v>7</v>
@@ -10373,7 +10373,7 @@
       <c r="AR12" s="80"/>
       <c r="AS12" s="80"/>
       <c r="AU12" s="61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AV12" s="72" t="s">
         <v>153</v>
@@ -10398,7 +10398,7 @@
         <v>3</v>
       </c>
       <c r="BC12" s="81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BD12" s="72" t="s">
         <v>153</v>
@@ -10523,7 +10523,7 @@
         <v>194</v>
       </c>
       <c r="Z13" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA13" s="81"/>
       <c r="AB13" s="89" t="str">
@@ -10583,7 +10583,7 @@
       <c r="AR13" s="80"/>
       <c r="AS13" s="80"/>
       <c r="AU13" s="61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AV13" s="72" t="s">
         <v>153</v>
@@ -10608,7 +10608,7 @@
         <v>4</v>
       </c>
       <c r="BC13" s="81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="BD13" s="72" t="s">
         <v>153</v>
@@ -10734,7 +10734,7 @@
         <v>157</v>
       </c>
       <c r="Z14" s="61" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA14" s="81"/>
       <c r="AB14" s="89" t="str">
@@ -10921,7 +10921,7 @@
         <v>173</v>
       </c>
       <c r="Z15" s="61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA15" s="81">
         <v>2</v>
@@ -11110,7 +11110,7 @@
         <v>173</v>
       </c>
       <c r="Z16" s="61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA16" s="81">
         <v>20</v>
@@ -11301,7 +11301,7 @@
         <v>159</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AA17" s="81"/>
       <c r="AB17" s="89" t="str">
@@ -11520,7 +11520,7 @@
         <v>160</v>
       </c>
       <c r="Z18" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA18" s="81"/>
       <c r="AB18" s="89" t="str">
@@ -11710,7 +11710,7 @@
         <v>173</v>
       </c>
       <c r="Z19" s="61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA19" s="81">
         <v>10</v>
@@ -11931,7 +11931,7 @@
         <v>185</v>
       </c>
       <c r="Z20" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA20" s="81"/>
       <c r="AB20" s="89" t="str">
@@ -12124,7 +12124,7 @@
         <v>185</v>
       </c>
       <c r="Z21" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA21" s="81"/>
       <c r="AB21" s="89" t="str">
@@ -18962,25 +18962,72 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="112">
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="DJ1:DU1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DO2:DO3"/>
-    <mergeCell ref="DP2:DP3"/>
-    <mergeCell ref="DQ2:DQ3"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DK3"/>
+    <mergeCell ref="X1:AS1"/>
+    <mergeCell ref="DG1:DH1"/>
+    <mergeCell ref="EU1:EZ1"/>
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="EW2:EW3"/>
+    <mergeCell ref="EN1:ES1"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="EC1:EL1"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="EP2:EP3"/>
+    <mergeCell ref="EQ2:EQ3"/>
+    <mergeCell ref="ER2:ER3"/>
+    <mergeCell ref="ES2:ES3"/>
+    <mergeCell ref="EU2:EU3"/>
+    <mergeCell ref="EX2:EX3"/>
+    <mergeCell ref="EZ2:EZ3"/>
+    <mergeCell ref="EY2:EY3"/>
+    <mergeCell ref="EV2:EV3"/>
+    <mergeCell ref="DL2:DL3"/>
+    <mergeCell ref="DM2:DM3"/>
+    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="DR2:DR3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="DG2:DG4"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="BL1:DE1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="AS2:AS3"/>
@@ -19005,75 +19052,28 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="DJ1:DU1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DO2:DO3"/>
+    <mergeCell ref="DP2:DP3"/>
+    <mergeCell ref="DQ2:DQ3"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DK3"/>
     <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="DG2:DG4"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="EF2:EF3"/>
     <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="X1:AS1"/>
-    <mergeCell ref="DG1:DH1"/>
-    <mergeCell ref="EU1:EZ1"/>
-    <mergeCell ref="EO2:EO3"/>
-    <mergeCell ref="EW2:EW3"/>
-    <mergeCell ref="EN1:ES1"/>
-    <mergeCell ref="EL2:EL3"/>
-    <mergeCell ref="EC1:EL1"/>
-    <mergeCell ref="EN2:EN3"/>
-    <mergeCell ref="EP2:EP3"/>
-    <mergeCell ref="EQ2:EQ3"/>
-    <mergeCell ref="ER2:ER3"/>
-    <mergeCell ref="ES2:ES3"/>
-    <mergeCell ref="EU2:EU3"/>
-    <mergeCell ref="EX2:EX3"/>
-    <mergeCell ref="EZ2:EZ3"/>
-    <mergeCell ref="EY2:EY3"/>
-    <mergeCell ref="EV2:EV3"/>
-    <mergeCell ref="DL2:DL3"/>
-    <mergeCell ref="DM2:DM3"/>
-    <mergeCell ref="DN2:DN3"/>
-    <mergeCell ref="EK2:EK3"/>
-    <mergeCell ref="DR2:DR3"/>
-    <mergeCell ref="EH2:EH3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="DH5:DH50">
@@ -19255,191 +19255,191 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX50">
-    <cfRule type="containsBlanks" dxfId="0" priority="104">
+    <cfRule type="containsBlanks" dxfId="40" priority="104">
       <formula>LEN(TRIM(AX4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AZ50">
-    <cfRule type="containsBlanks" dxfId="40" priority="105">
+    <cfRule type="containsBlanks" dxfId="39" priority="105">
       <formula>LEN(TRIM(AY4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG50">
-    <cfRule type="containsBlanks" dxfId="39" priority="100">
+    <cfRule type="containsBlanks" dxfId="38" priority="100">
       <formula>LEN(TRIM(AG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM50">
-    <cfRule type="containsBlanks" dxfId="38" priority="101">
+    <cfRule type="containsBlanks" dxfId="37" priority="101">
       <formula>LEN(TRIM(AM4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ50">
-    <cfRule type="containsBlanks" dxfId="37" priority="103">
+    <cfRule type="containsBlanks" dxfId="36" priority="103">
       <formula>LEN(TRIM(AQ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU4">
-    <cfRule type="containsBlanks" dxfId="36" priority="43">
+    <cfRule type="containsBlanks" dxfId="35" priority="43">
       <formula>LEN(TRIM(EU4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EC4">
-    <cfRule type="containsBlanks" dxfId="35" priority="42">
+    <cfRule type="containsBlanks" dxfId="34" priority="42">
       <formula>LEN(TRIM(EC4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DJ4">
-    <cfRule type="containsBlanks" dxfId="34" priority="41">
+    <cfRule type="containsBlanks" dxfId="33" priority="41">
       <formula>LEN(TRIM(DJ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX50">
-    <cfRule type="containsBlanks" dxfId="33" priority="40">
+    <cfRule type="containsBlanks" dxfId="32" priority="40">
       <formula>LEN(TRIM(CX5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF50">
-    <cfRule type="containsBlanks" dxfId="32" priority="98">
+    <cfRule type="containsBlanks" dxfId="31" priority="98">
       <formula>LEN(TRIM(AF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA50">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>AND($Y4="External wall",AA4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="30" priority="106">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="106">
       <formula>LEN(TRIM(AA4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD50">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>AND($Y4="Sheltered wall",AD4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="28" priority="88">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="88">
       <formula>LEN(TRIM(AD4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH50">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>AND($Y4="Party wall",AH4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="26" priority="69">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="69">
       <formula>LEN(TRIM(AH4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AJ50">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>AND($Y4="External roof",AJ4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="87">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="87">
       <formula>LEN(TRIM(AJ4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:L4 N4:O4">
-    <cfRule type="containsBlanks" dxfId="23" priority="28">
+    <cfRule type="containsBlanks" dxfId="22" priority="28">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS4:AS50">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND($Y4="Party floor",AS4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="30">
       <formula>LEN(TRIM(AS4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AR50">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>AND($Y4="Party ceiling",AR4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="23">
       <formula>LEN(TRIM(AR4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB51:AB1048576">
-    <cfRule type="containsBlanks" dxfId="18" priority="21">
+    <cfRule type="containsBlanks" dxfId="17" priority="21">
       <formula>LEN(TRIM(AB51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V51:V1048576">
-    <cfRule type="containsBlanks" dxfId="17" priority="20">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
       <formula>LEN(TRIM(V51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:U1048576">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(R4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:U50">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>AND($Y4="External wall",R4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:Q1048576">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(Q51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN1048576">
-    <cfRule type="containsBlanks" dxfId="13" priority="12">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
       <formula>LEN(TRIM(AN4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN50">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>AND($Y4="Heat loss floor",AN4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="11" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="13">
       <formula>LEN(TRIM(AN4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI51:BI1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(BI51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC5:BC1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(BC5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4:BF1048576">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(BF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BF2">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(BD2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE51:BE1048576">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(BE51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(BD4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB1048576">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(BB4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:Z49">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($Y4&lt;&gt;"",Z4&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="91">
       <formula>LEN(TRIM(Z4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE4:BE50">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(BE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19630,7 +19630,7 @@
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
         <v>414</v>
@@ -19641,7 +19641,7 @@
         <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
         <v>423</v>
@@ -20298,8 +20298,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -20386,10 +20386,10 @@
         <v>378</v>
       </c>
       <c r="T1" s="63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U1" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V1" s="63" t="s">
         <v>412</v>
@@ -20525,7 +20525,7 @@
         <v>431</v>
       </c>
       <c r="U3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V3" t="s">
         <v>207</v>
@@ -20578,7 +20578,7 @@
         <v>432</v>
       </c>
       <c r="U4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -20616,7 +20616,7 @@
         <v>433</v>
       </c>
       <c r="U5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -20636,10 +20636,10 @@
         <v>409</v>
       </c>
       <c r="T6" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="U6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -20680,6 +20680,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -20902,27 +20922,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20939,37 +20972,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C653155-33E5-4E81-9AA1-C6CB2DBD566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9BF60-BD0B-41E5-A392-7D8A5BB6EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1095" windowWidth="38640" windowHeight="21240" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -1506,6 +1506,9 @@
     <t>Modest</t>
   </si>
   <si>
+    <t>None Or Little</t>
+  </si>
+  <si>
     <t>PHOTOVOLTAICS</t>
   </si>
   <si>
@@ -1666,9 +1669,6 @@
   </si>
   <si>
     <t>W9</t>
-  </si>
-  <si>
-    <t>NoneOrLittle</t>
   </si>
 </sst>
 </file>
@@ -5067,32 +5067,32 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="126.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3"/>
-    <col min="4" max="4" width="6.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="94.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="126.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="94.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5109,19 +5109,19 @@
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,11 +5129,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5148,7 +5148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5169,16 +5169,16 @@
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="83"/>
       <c r="E13" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -5203,7 +5203,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -5284,26 +5284,26 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="122" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="122" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="122" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="123" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="122" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="122" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="122" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="123" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="122" customWidth="1"/>
     <col min="6" max="6" width="17" style="122" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="122" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="122" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="122" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="122" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="148" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" style="148" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="122" customWidth="1"/>
-    <col min="14" max="27" width="8.88671875" style="122" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="122"/>
+    <col min="7" max="7" width="8.85546875" style="122" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="122" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="122" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="122" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="148" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="148" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="122" customWidth="1"/>
+    <col min="14" max="27" width="8.85546875" style="122" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="K2" s="122"/>
       <c r="L2" s="122"/>
     </row>
-    <row r="3" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>1</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="K5" s="122"/>
       <c r="L5" s="122"/>
     </row>
-    <row r="6" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="129" t="s">
         <v>30</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="K6" s="122"/>
       <c r="L6" s="122"/>
     </row>
-    <row r="7" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
         <v>31</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="K7" s="122"/>
       <c r="L7" s="122"/>
     </row>
-    <row r="8" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="131"/>
       <c r="B8" s="132"/>
       <c r="J8" s="155"/>
@@ -5357,7 +5357,7 @@
       <c r="L8" s="155"/>
       <c r="M8" s="155"/>
     </row>
-    <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="130" t="s">
         <v>32</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="L9" s="155"/>
       <c r="M9" s="155"/>
     </row>
-    <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="130" t="s">
         <v>33</v>
       </c>
@@ -5379,25 +5379,25 @@
       <c r="L10" s="155"/>
       <c r="M10" s="155"/>
     </row>
-    <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="134"/>
       <c r="J11" s="155"/>
       <c r="K11" s="122"/>
       <c r="L11" s="155"/>
       <c r="M11" s="155"/>
     </row>
-    <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J12" s="155"/>
       <c r="K12" s="122"/>
       <c r="L12" s="155"/>
       <c r="M12" s="155"/>
     </row>
-    <row r="13" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="155"/>
       <c r="K13" s="122"/>
       <c r="L13" s="122"/>
     </row>
-    <row r="14" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J14" s="155"/>
       <c r="K14" s="122"/>
       <c r="L14" s="155"/>
@@ -5412,7 +5412,7 @@
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
     </row>
-    <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="128"/>
       <c r="B16" s="128"/>
       <c r="C16" s="128"/>
@@ -5423,7 +5423,7 @@
       <c r="L16" s="155"/>
       <c r="M16" s="155"/>
     </row>
-    <row r="17" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="137" t="s">
         <v>35</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="L17" s="155"/>
       <c r="M17" s="155"/>
     </row>
-    <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="116"/>
       <c r="B18" s="116"/>
       <c r="C18" s="150"/>
@@ -5456,7 +5456,7 @@
       <c r="L18" s="155"/>
       <c r="M18" s="155"/>
     </row>
-    <row r="19" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116"/>
       <c r="B19" s="116"/>
       <c r="C19" s="150"/>
@@ -5467,7 +5467,7 @@
       <c r="K19" s="122"/>
       <c r="L19" s="122"/>
     </row>
-    <row r="20" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="116"/>
       <c r="B20" s="116"/>
       <c r="C20" s="150"/>
@@ -5478,7 +5478,7 @@
       <c r="K20" s="122"/>
       <c r="L20" s="122"/>
     </row>
-    <row r="21" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="116"/>
       <c r="B21" s="116"/>
       <c r="C21" s="150"/>
@@ -5489,7 +5489,7 @@
       <c r="K21" s="122"/>
       <c r="L21" s="122"/>
     </row>
-    <row r="22" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="116"/>
       <c r="B22" s="116"/>
       <c r="C22" s="150"/>
@@ -5500,7 +5500,7 @@
       <c r="K22" s="122"/>
       <c r="L22" s="122"/>
     </row>
-    <row r="23" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="116"/>
       <c r="B23" s="116"/>
       <c r="C23" s="150"/>
@@ -5511,7 +5511,7 @@
       <c r="K23" s="122"/>
       <c r="L23" s="122"/>
     </row>
-    <row r="24" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="116"/>
       <c r="B24" s="116"/>
       <c r="C24" s="150"/>
@@ -5522,7 +5522,7 @@
       <c r="K24" s="122"/>
       <c r="L24" s="122"/>
     </row>
-    <row r="25" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="116"/>
       <c r="B25" s="116"/>
       <c r="C25" s="150"/>
@@ -5533,7 +5533,7 @@
       <c r="K25" s="122"/>
       <c r="L25" s="122"/>
     </row>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="116"/>
       <c r="B26" s="116"/>
       <c r="C26" s="150"/>
@@ -5544,7 +5544,7 @@
       <c r="K26" s="122"/>
       <c r="L26" s="122"/>
     </row>
-    <row r="27" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="116"/>
       <c r="B27" s="116"/>
       <c r="C27" s="150"/>
@@ -5555,7 +5555,7 @@
       <c r="K27" s="122"/>
       <c r="L27" s="122"/>
     </row>
-    <row r="28" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
       <c r="C28" s="150"/>
@@ -5566,7 +5566,7 @@
       <c r="K28" s="122"/>
       <c r="L28" s="122"/>
     </row>
-    <row r="29" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="150"/>
@@ -5577,7 +5577,7 @@
       <c r="K29" s="122"/>
       <c r="L29" s="122"/>
     </row>
-    <row r="30" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
       <c r="C30" s="150"/>
@@ -5588,7 +5588,7 @@
       <c r="K30" s="122"/>
       <c r="L30" s="122"/>
     </row>
-    <row r="31" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
       <c r="C31" s="150"/>
@@ -5599,7 +5599,7 @@
       <c r="K31" s="122"/>
       <c r="L31" s="122"/>
     </row>
-    <row r="32" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
       <c r="C32" s="150"/>
@@ -5610,7 +5610,7 @@
       <c r="K32" s="122"/>
       <c r="L32" s="122"/>
     </row>
-    <row r="33" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
       <c r="C33" s="150"/>
@@ -5621,7 +5621,7 @@
       <c r="K33" s="122"/>
       <c r="L33" s="122"/>
     </row>
-    <row r="34" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
       <c r="C34" s="150"/>
@@ -5632,7 +5632,7 @@
       <c r="K34" s="122"/>
       <c r="L34" s="122"/>
     </row>
-    <row r="35" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
       <c r="C35" s="150"/>
@@ -5643,7 +5643,7 @@
       <c r="K35" s="122"/>
       <c r="L35" s="122"/>
     </row>
-    <row r="36" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
       <c r="C36" s="150"/>
@@ -5654,7 +5654,7 @@
       <c r="K36" s="122"/>
       <c r="L36" s="122"/>
     </row>
-    <row r="37" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
       <c r="C37" s="150"/>
@@ -5665,7 +5665,7 @@
       <c r="K37" s="122"/>
       <c r="L37" s="122"/>
     </row>
-    <row r="38" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
       <c r="C38" s="150"/>
@@ -5676,7 +5676,7 @@
       <c r="K38" s="122"/>
       <c r="L38" s="122"/>
     </row>
-    <row r="39" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
       <c r="C39" s="150"/>
@@ -5687,7 +5687,7 @@
       <c r="K39" s="122"/>
       <c r="L39" s="122"/>
     </row>
-    <row r="40" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
       <c r="C40" s="150"/>
@@ -5698,7 +5698,7 @@
       <c r="K40" s="122"/>
       <c r="L40" s="122"/>
     </row>
-    <row r="41" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
       <c r="C41" s="150"/>
@@ -5709,7 +5709,7 @@
       <c r="K41" s="122"/>
       <c r="L41" s="122"/>
     </row>
-    <row r="42" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="152"/>
       <c r="B42" s="116"/>
       <c r="C42" s="150"/>
@@ -5720,7 +5720,7 @@
       <c r="K42" s="122"/>
       <c r="L42" s="122"/>
     </row>
-    <row r="43" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="152"/>
       <c r="B43" s="116"/>
       <c r="C43" s="150"/>
@@ -5731,7 +5731,7 @@
       <c r="K43" s="122"/>
       <c r="L43" s="122"/>
     </row>
-    <row r="44" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="139" t="s">
         <v>41</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="L44" s="155"/>
       <c r="M44" s="155"/>
     </row>
-    <row r="45" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="134"/>
       <c r="B45" s="134"/>
       <c r="C45" s="134"/>
@@ -5761,18 +5761,18 @@
       <c r="L46" s="155"/>
       <c r="M46" s="155"/>
     </row>
-    <row r="47" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="155"/>
       <c r="K47" s="122"/>
       <c r="L47" s="122"/>
     </row>
-    <row r="48" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="155"/>
       <c r="K48" s="122"/>
       <c r="L48" s="155"/>
       <c r="M48" s="155"/>
     </row>
-    <row r="49" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="155"/>
       <c r="K49" s="122"/>
       <c r="L49" s="155"/>
@@ -5790,7 +5790,7 @@
       <c r="L50" s="155"/>
       <c r="M50" s="155"/>
     </row>
-    <row r="51" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="143"/>
       <c r="B51" s="144"/>
       <c r="C51" s="144"/>
@@ -5800,7 +5800,7 @@
       <c r="L51" s="155"/>
       <c r="M51" s="155"/>
     </row>
-    <row r="52" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="146" t="s">
         <v>43</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="L52" s="155"/>
       <c r="M52" s="155"/>
     </row>
-    <row r="53" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153"/>
       <c r="B53" s="153"/>
       <c r="C53" s="153"/>
@@ -5830,7 +5830,7 @@
       <c r="L53" s="155"/>
       <c r="M53" s="155"/>
     </row>
-    <row r="54" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="134"/>
       <c r="B54" s="134"/>
       <c r="C54" s="134"/>
@@ -5841,78 +5841,78 @@
       <c r="L54" s="155"/>
       <c r="M54" s="155"/>
     </row>
-    <row r="55" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H55" s="155"/>
       <c r="J55" s="155"/>
       <c r="K55" s="122"/>
       <c r="L55" s="155"/>
       <c r="M55" s="155"/>
     </row>
-    <row r="56" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H56" s="155"/>
       <c r="J56" s="155"/>
       <c r="K56" s="122"/>
       <c r="L56" s="155"/>
       <c r="M56" s="155"/>
     </row>
-    <row r="57" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="155"/>
       <c r="J57" s="155"/>
       <c r="K57" s="122"/>
       <c r="L57" s="155"/>
       <c r="M57" s="155"/>
     </row>
-    <row r="58" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H58" s="155"/>
       <c r="J58" s="155"/>
       <c r="K58" s="122"/>
       <c r="L58" s="155"/>
       <c r="M58" s="155"/>
     </row>
-    <row r="59" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H59" s="155"/>
       <c r="J59" s="155"/>
       <c r="K59" s="122"/>
       <c r="L59" s="155"/>
       <c r="M59" s="155"/>
     </row>
-    <row r="60" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="155"/>
       <c r="K60" s="122"/>
       <c r="L60" s="155"/>
       <c r="M60" s="155"/>
     </row>
-    <row r="61" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="155"/>
       <c r="K61" s="122"/>
       <c r="L61" s="155"/>
       <c r="M61" s="155"/>
     </row>
-    <row r="62" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="155"/>
       <c r="K62" s="122"/>
       <c r="L62" s="155"/>
       <c r="M62" s="155"/>
     </row>
-    <row r="63" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="155"/>
       <c r="K63" s="122"/>
       <c r="L63" s="155"/>
       <c r="M63" s="155"/>
     </row>
-    <row r="64" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="155"/>
       <c r="K64" s="122"/>
       <c r="L64" s="155"/>
       <c r="M64" s="155"/>
     </row>
-    <row r="65" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="155"/>
       <c r="K65" s="122"/>
       <c r="L65" s="155"/>
       <c r="M65" s="155"/>
     </row>
-    <row r="66" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="155"/>
       <c r="K66" s="122"/>
       <c r="L66" s="155"/>
@@ -5930,7 +5930,7 @@
       <c r="L68" s="155"/>
       <c r="M68" s="155"/>
     </row>
-    <row r="69" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="155"/>
       <c r="K69" s="122"/>
       <c r="L69" s="155"/>
@@ -6112,18 +6112,18 @@
   </sheetPr>
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>392</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="B2" s="157"/>
       <c r="C2" s="158"/>
     </row>
-    <row r="3" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="99" t="s">
         <v>192</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>293</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="99" t="s">
         <v>196</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
         <v>193</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>284</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>308</v>
       </c>
@@ -6262,9 +6262,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B14" s="75">
         <v>0.8</v>
@@ -6379,7 +6379,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="99" t="s">
         <v>317</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="108" t="s">
         <v>213</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108" t="s">
         <v>212</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="108" t="s">
         <v>415</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="108" t="s">
         <v>377</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>271</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C50" s="112" t="s">
         <v>307</v>
@@ -6660,7 +6660,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="112" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -6679,15 +6679,15 @@
         <v>280</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C53" s="112" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="108" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" s="106" t="s">
         <v>433</v>
@@ -6846,7 +6846,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
         <v>336</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="108" t="s">
         <v>366</v>
       </c>
@@ -7278,110 +7278,109 @@
   </sheetPr>
   <dimension ref="A1:FR83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX25" sqref="AX25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX12:AY13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="31" customWidth="1"/>
     <col min="2" max="2" width="13" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="18.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.77734375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.33203125" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.88671875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.44140625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="7.6640625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.77734375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.88671875" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.5546875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.5546875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.21875" style="35" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.6640625" style="32" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="56" customWidth="1"/>
-    <col min="18" max="21" width="12.44140625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="3.6640625" style="32" customWidth="1"/>
-    <col min="24" max="24" width="21.21875" style="30" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="16.21875" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.6640625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.6640625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="12.5546875" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="18.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.28515625" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.85546875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="14.42578125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.85546875" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.5703125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.5703125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.28515625" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.7109375" style="32" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="56" customWidth="1"/>
+    <col min="18" max="21" width="12.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.7109375" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.28515625" style="30" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="16.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.7109375" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.7109375" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="12.5703125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="8" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="39" width="11.21875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="39" width="11.28515625" style="29" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="8" style="29" customWidth="1" outlineLevel="1"/>
     <col min="41" max="43" width="13" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="11.88671875" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="11.85546875" style="29" customWidth="1" outlineLevel="1"/>
     <col min="45" max="45" width="10" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="3.6640625" style="32" customWidth="1"/>
-    <col min="47" max="47" width="16.6640625" style="29" customWidth="1"/>
+    <col min="46" max="46" width="3.7109375" style="32" customWidth="1"/>
+    <col min="47" max="47" width="16.7109375" style="29" customWidth="1"/>
     <col min="48" max="48" width="9" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="11.33203125" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="52" width="23.109375" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="3.6640625" style="32" customWidth="1"/>
-    <col min="54" max="54" width="15.77734375" style="30" customWidth="1"/>
-    <col min="55" max="55" width="14.44140625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="12.33203125" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="15" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="12.33203125" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="60" width="14.44140625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="12.6640625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="17.33203125" style="32" customWidth="1"/>
+    <col min="49" max="49" width="11.28515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="52" width="23.140625" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="3.7109375" style="32" customWidth="1"/>
+    <col min="54" max="54" width="15.7109375" style="30" customWidth="1"/>
+    <col min="55" max="55" width="14.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="12.28515625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="15" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="12.28515625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="60" width="14.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.7109375" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="12.7109375" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="17.28515625" style="32" customWidth="1" collapsed="1"/>
     <col min="64" max="64" width="15" style="59" customWidth="1"/>
-    <col min="65" max="109" width="9.44140625" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="110" max="110" width="3.6640625" style="32" customWidth="1"/>
+    <col min="65" max="109" width="9.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="110" max="110" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
     <col min="111" max="111" width="12" style="59" customWidth="1"/>
-    <col min="112" max="112" width="10.109375" style="59" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="3.6640625" style="32" customWidth="1"/>
-    <col min="114" max="114" width="20.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.5546875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="22.33203125" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="14.109375" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="10.33203125" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="119" max="119" width="12.88671875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="14.44140625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="121" max="121" width="13.44140625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="122" max="122" width="10.88671875" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="19" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="8.21875" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="20.44140625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="3.6640625" style="32" customWidth="1"/>
-    <col min="127" max="127" width="14.6640625" style="31" customWidth="1"/>
-    <col min="128" max="131" width="14.6640625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="3.6640625" style="32" customWidth="1"/>
-    <col min="133" max="133" width="17.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="21" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="17.88671875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="20.21875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="8.33203125" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="13.21875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="139" max="139" width="13.33203125" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="140" max="140" width="15" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="141" width="14" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="142" width="13.21875" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="143" max="143" width="3.6640625" style="32" customWidth="1"/>
-    <col min="144" max="144" width="15.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="145" max="149" width="14.6640625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="3.6640625" style="32" customWidth="1"/>
+    <col min="112" max="112" width="10.140625" style="59" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="3.7109375" style="32" customWidth="1"/>
+    <col min="114" max="114" width="20.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="16.5703125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="22.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="14.140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="10.28515625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="12.85546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="14.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="13.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="10.85546875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="19" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="124" max="124" width="8.28515625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="20.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="14.7109375" style="31" customWidth="1"/>
+    <col min="128" max="131" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="21" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="17.85546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="20.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="8.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="139" width="13.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="140" max="140" width="15" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="141" max="141" width="14" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="142" width="13.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="143" max="143" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="145" max="149" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
     <col min="151" max="151" width="26" style="31" customWidth="1"/>
-    <col min="152" max="152" width="26" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="156" width="14.6640625" style="31" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="3.6640625" style="32" customWidth="1"/>
-    <col min="158" max="174" width="6.44140625" style="32" customWidth="1" collapsed="1"/>
-    <col min="175" max="16384" width="8.88671875" style="15"/>
+    <col min="152" max="152" width="26" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="156" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="158" max="174" width="6.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="175" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:174" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>98</v>
       </c>
@@ -7555,7 +7554,7 @@
       <c r="ES1" s="162"/>
       <c r="ET1" s="57"/>
       <c r="EU1" s="161" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="EV1" s="162"/>
       <c r="EW1" s="162"/>
@@ -7581,7 +7580,7 @@
       <c r="FQ1" s="57"/>
       <c r="FR1" s="57"/>
     </row>
-    <row r="2" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="167" t="s">
         <v>147</v>
       </c>
@@ -7734,7 +7733,7 @@
       </c>
       <c r="BA2" s="31"/>
       <c r="BB2" s="169" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BC2" s="169" t="s">
         <v>93</v>
@@ -7762,7 +7761,7 @@
       </c>
       <c r="BK2" s="31"/>
       <c r="BL2" s="177" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BM2" s="109" t="s">
         <v>48</v>
@@ -7964,7 +7963,7 @@
         <v>412</v>
       </c>
       <c r="ED2" s="159" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="EE2" s="159" t="s">
         <v>413</v>
@@ -8011,22 +8010,22 @@
       </c>
       <c r="ET2" s="31"/>
       <c r="EU2" s="164" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EV2" s="164" t="s">
         <v>271</v>
       </c>
       <c r="EW2" s="164" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="EX2" s="164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EY2" s="164" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="EZ2" s="164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="FA2" s="31"/>
       <c r="FB2" s="31"/>
@@ -8360,7 +8359,7 @@
       <c r="FQ3" s="31"/>
       <c r="FR3" s="31"/>
     </row>
-    <row r="4" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Unit 1</v>
@@ -8747,7 +8746,7 @@
         <v>Modest</v>
       </c>
     </row>
-    <row r="5" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
@@ -8985,7 +8984,7 @@
       <c r="DR5" s="34"/>
       <c r="DT5" s="34"/>
     </row>
-    <row r="6" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6" s="89">
         <f t="shared" ref="Q6:Q50" si="8">IF(S6&gt;0,Q5+1,"")</f>
         <v>3</v>
@@ -9073,7 +9072,7 @@
       <c r="AR6" s="80"/>
       <c r="AS6" s="80"/>
       <c r="AU6" s="61" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AV6" s="72" t="s">
         <v>153</v>
@@ -9104,7 +9103,7 @@
         <v>154</v>
       </c>
       <c r="BE6" s="72" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BF6" s="72" t="s">
         <v>111</v>
@@ -9204,7 +9203,7 @@
       <c r="DR6" s="34"/>
       <c r="DT6" s="34"/>
     </row>
-    <row r="7" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="34"/>
       <c r="J7" s="34"/>
       <c r="L7" s="33"/>
@@ -9295,7 +9294,7 @@
       <c r="AR7" s="80"/>
       <c r="AS7" s="80"/>
       <c r="AU7" s="61" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AV7" s="72" t="s">
         <v>153</v>
@@ -9320,13 +9319,13 @@
         <v>1</v>
       </c>
       <c r="BC7" s="81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BD7" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE7" s="72" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BF7" s="72" t="s">
         <v>113</v>
@@ -9426,7 +9425,7 @@
       <c r="DR7" s="34"/>
       <c r="DT7" s="34"/>
     </row>
-    <row r="8" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
@@ -9521,7 +9520,7 @@
       <c r="AR8" s="80"/>
       <c r="AS8" s="80"/>
       <c r="AU8" s="61" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AV8" s="72" t="s">
         <v>153</v>
@@ -9546,13 +9545,13 @@
         <v>3</v>
       </c>
       <c r="BC8" s="81" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BD8" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE8" s="72" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BF8" s="72" t="s">
         <v>113</v>
@@ -9654,7 +9653,7 @@
       <c r="DR8" s="34"/>
       <c r="DT8" s="34"/>
     </row>
-    <row r="9" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -9741,7 +9740,7 @@
         <v>2</v>
       </c>
       <c r="AU9" s="61" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AV9" s="72" t="s">
         <v>153</v>
@@ -9766,7 +9765,7 @@
         <v>4</v>
       </c>
       <c r="BC9" s="81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BD9" s="72" t="s">
         <v>153</v>
@@ -9880,7 +9879,7 @@
       <c r="DR9" s="34"/>
       <c r="DT9" s="34"/>
     </row>
-    <row r="10" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
@@ -9907,7 +9906,7 @@
         <v>185</v>
       </c>
       <c r="Z10" s="61" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA10" s="81"/>
       <c r="AB10" s="89" t="str">
@@ -9967,7 +9966,7 @@
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
       <c r="AU10" s="61" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AV10" s="72" t="s">
         <v>153</v>
@@ -9992,13 +9991,13 @@
         <v>5</v>
       </c>
       <c r="BC10" s="81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BD10" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE10" s="72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BF10" s="72" t="s">
         <v>113</v>
@@ -10088,7 +10087,7 @@
       <c r="DR10" s="34"/>
       <c r="DT10" s="34"/>
     </row>
-    <row r="11" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q11" s="89" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -10168,7 +10167,7 @@
       <c r="AR11" s="80"/>
       <c r="AS11" s="80"/>
       <c r="AU11" s="61" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AV11" s="72" t="s">
         <v>153</v>
@@ -10193,13 +10192,13 @@
         <v>5</v>
       </c>
       <c r="BC11" s="81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BD11" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE11" s="72" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BF11" s="72" t="s">
         <v>113</v>
@@ -10284,7 +10283,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
       <c r="D12" s="37"/>
       <c r="F12" s="37"/>
@@ -10313,7 +10312,7 @@
         <v>173</v>
       </c>
       <c r="Z12" s="61" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA12" s="81">
         <v>7</v>
@@ -10373,7 +10372,7 @@
       <c r="AR12" s="80"/>
       <c r="AS12" s="80"/>
       <c r="AU12" s="61" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AV12" s="72" t="s">
         <v>153</v>
@@ -10398,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="BC12" s="81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BD12" s="72" t="s">
         <v>153</v>
@@ -10495,7 +10494,7 @@
       <c r="DQ12" s="37"/>
       <c r="DS12" s="37"/>
     </row>
-    <row r="13" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
       <c r="D13" s="38"/>
       <c r="F13" s="38"/>
@@ -10523,7 +10522,7 @@
         <v>194</v>
       </c>
       <c r="Z13" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA13" s="81"/>
       <c r="AB13" s="89" t="str">
@@ -10583,7 +10582,7 @@
       <c r="AR13" s="80"/>
       <c r="AS13" s="80"/>
       <c r="AU13" s="61" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AV13" s="72" t="s">
         <v>153</v>
@@ -10608,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="BC13" s="81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BD13" s="72" t="s">
         <v>153</v>
@@ -10705,7 +10704,7 @@
       <c r="DQ13" s="38"/>
       <c r="DS13" s="38"/>
     </row>
-    <row r="14" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="D14" s="39"/>
       <c r="F14" s="39"/>
@@ -10734,7 +10733,7 @@
         <v>157</v>
       </c>
       <c r="Z14" s="61" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA14" s="81"/>
       <c r="AB14" s="89" t="str">
@@ -10796,18 +10795,9 @@
       <c r="AU14" s="61"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="72"/>
-      <c r="AX14" s="119" t="str">
-        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$10,IF($AV14="SolidDoor",'Performance inputs'!B$13,""))</f>
-        <v/>
-      </c>
-      <c r="AY14" s="119" t="str">
-        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$11,"")</f>
-        <v/>
-      </c>
-      <c r="AZ14" s="119" t="str">
-        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$12,IF(AV14="SolidDoor",'Performance inputs'!$B$14,""))</f>
-        <v/>
-      </c>
+      <c r="AX14" s="119"/>
+      <c r="AY14" s="119"/>
+      <c r="AZ14" s="119"/>
       <c r="BB14" s="72"/>
       <c r="BC14" s="81"/>
       <c r="BD14" s="72"/>
@@ -10893,7 +10883,7 @@
       <c r="DQ14" s="39"/>
       <c r="DS14" s="39"/>
     </row>
-    <row r="15" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="D15" s="39"/>
       <c r="F15" s="39"/>
@@ -10921,7 +10911,7 @@
         <v>173</v>
       </c>
       <c r="Z15" s="61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA15" s="81">
         <v>2</v>
@@ -10983,18 +10973,9 @@
       <c r="AU15" s="61"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="72"/>
-      <c r="AX15" s="119" t="str">
-        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$10,IF($AV15="SolidDoor",'Performance inputs'!B$13,""))</f>
-        <v/>
-      </c>
-      <c r="AY15" s="119" t="str">
-        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$11,"")</f>
-        <v/>
-      </c>
-      <c r="AZ15" s="119" t="str">
-        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$12,IF(AV15="SolidDoor",'Performance inputs'!$B$14,""))</f>
-        <v/>
-      </c>
+      <c r="AX15" s="119"/>
+      <c r="AY15" s="119"/>
+      <c r="AZ15" s="119"/>
       <c r="BB15" s="72"/>
       <c r="BC15" s="81"/>
       <c r="BD15" s="72"/>
@@ -11080,7 +11061,7 @@
       <c r="DQ15" s="39"/>
       <c r="DS15" s="39"/>
     </row>
-    <row r="16" spans="1:174" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="D16" s="39"/>
       <c r="F16" s="39"/>
@@ -11110,7 +11091,7 @@
         <v>173</v>
       </c>
       <c r="Z16" s="61" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA16" s="81">
         <v>20</v>
@@ -11172,18 +11153,9 @@
       <c r="AU16" s="61"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="72"/>
-      <c r="AX16" s="119" t="str">
-        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$10,IF($AV16="SolidDoor",'Performance inputs'!B$13,""))</f>
-        <v/>
-      </c>
-      <c r="AY16" s="119" t="str">
-        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$11,"")</f>
-        <v/>
-      </c>
-      <c r="AZ16" s="119" t="str">
-        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$12,IF(AV16="SolidDoor",'Performance inputs'!$B$14,""))</f>
-        <v/>
-      </c>
+      <c r="AX16" s="119"/>
+      <c r="AY16" s="119"/>
+      <c r="AZ16" s="119"/>
       <c r="BB16" s="72"/>
       <c r="BC16" s="81"/>
       <c r="BD16" s="72"/>
@@ -11269,7 +11241,7 @@
       <c r="DQ16" s="39"/>
       <c r="DS16" s="39"/>
     </row>
-    <row r="17" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="38"/>
       <c r="C17" s="41"/>
@@ -11301,7 +11273,7 @@
         <v>159</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA17" s="81"/>
       <c r="AB17" s="89" t="str">
@@ -11363,18 +11335,9 @@
       <c r="AU17" s="61"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="72"/>
-      <c r="AX17" s="119" t="str">
-        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$10,IF($AV17="SolidDoor",'Performance inputs'!B$13,""))</f>
-        <v/>
-      </c>
-      <c r="AY17" s="119" t="str">
-        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$11,"")</f>
-        <v/>
-      </c>
-      <c r="AZ17" s="119" t="str">
-        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$12,IF(AV17="SolidDoor",'Performance inputs'!$B$14,""))</f>
-        <v/>
-      </c>
+      <c r="AX17" s="119"/>
+      <c r="AY17" s="119"/>
+      <c r="AZ17" s="119"/>
       <c r="BB17" s="72"/>
       <c r="BC17" s="81"/>
       <c r="BD17" s="72"/>
@@ -11490,7 +11453,7 @@
       <c r="EY17" s="41"/>
       <c r="EZ17" s="41"/>
     </row>
-    <row r="18" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="D18" s="39"/>
       <c r="F18" s="39"/>
@@ -11520,7 +11483,7 @@
         <v>160</v>
       </c>
       <c r="Z18" s="61" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA18" s="81"/>
       <c r="AB18" s="89" t="str">
@@ -11582,18 +11545,9 @@
       <c r="AU18" s="61"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="72"/>
-      <c r="AX18" s="119" t="str">
-        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$10,IF($AV18="SolidDoor",'Performance inputs'!B$13,""))</f>
-        <v/>
-      </c>
-      <c r="AY18" s="119" t="str">
-        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$11,"")</f>
-        <v/>
-      </c>
-      <c r="AZ18" s="119" t="str">
-        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$12,IF(AV18="SolidDoor",'Performance inputs'!$B$14,""))</f>
-        <v/>
-      </c>
+      <c r="AX18" s="119"/>
+      <c r="AY18" s="119"/>
+      <c r="AZ18" s="119"/>
       <c r="BB18" s="72"/>
       <c r="BC18" s="81"/>
       <c r="BD18" s="72"/>
@@ -11679,7 +11633,7 @@
       <c r="DQ18" s="39"/>
       <c r="DS18" s="39"/>
     </row>
-    <row r="19" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="39"/>
       <c r="C19" s="41"/>
@@ -11710,7 +11664,7 @@
         <v>173</v>
       </c>
       <c r="Z19" s="61" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA19" s="81">
         <v>10</v>
@@ -11902,7 +11856,7 @@
       <c r="EY19" s="41"/>
       <c r="EZ19" s="41"/>
     </row>
-    <row r="20" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
       <c r="D20" s="39"/>
       <c r="F20" s="39"/>
@@ -11931,7 +11885,7 @@
         <v>185</v>
       </c>
       <c r="Z20" s="61" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA20" s="81"/>
       <c r="AB20" s="89" t="str">
@@ -12093,7 +12047,7 @@
       <c r="DQ20" s="39"/>
       <c r="DS20" s="39"/>
     </row>
-    <row r="21" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="39"/>
       <c r="C21" s="41"/>
@@ -12124,7 +12078,7 @@
         <v>185</v>
       </c>
       <c r="Z21" s="61" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA21" s="81"/>
       <c r="AB21" s="89" t="str">
@@ -12316,7 +12270,7 @@
       <c r="EY21" s="41"/>
       <c r="EZ21" s="41"/>
     </row>
-    <row r="22" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="39"/>
       <c r="C22" s="41"/>
@@ -12532,7 +12486,7 @@
       <c r="EY22" s="41"/>
       <c r="EZ22" s="41"/>
     </row>
-    <row r="23" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="39"/>
       <c r="C23" s="41"/>
@@ -12747,7 +12701,7 @@
       <c r="EY23" s="41"/>
       <c r="EZ23" s="41"/>
     </row>
-    <row r="24" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="39"/>
       <c r="C24" s="41"/>
@@ -12963,7 +12917,7 @@
       <c r="EY24" s="41"/>
       <c r="EZ24" s="41"/>
     </row>
-    <row r="25" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q25" s="89" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13131,7 +13085,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="44"/>
@@ -13348,7 +13302,7 @@
       <c r="EY26" s="44"/>
       <c r="EZ26" s="44"/>
     </row>
-    <row r="27" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="D27" s="38"/>
       <c r="F27" s="38"/>
@@ -13531,7 +13485,7 @@
       <c r="DQ27" s="38"/>
       <c r="DS27" s="38"/>
     </row>
-    <row r="28" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="39"/>
       <c r="C28" s="41"/>
@@ -13748,7 +13702,7 @@
       <c r="EY28" s="41"/>
       <c r="EZ28" s="41"/>
     </row>
-    <row r="29" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="39"/>
       <c r="C29" s="41"/>
@@ -13964,7 +13918,7 @@
       <c r="EY29" s="41"/>
       <c r="EZ29" s="41"/>
     </row>
-    <row r="30" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="39"/>
       <c r="C30" s="41"/>
@@ -14181,7 +14135,7 @@
       <c r="EY30" s="41"/>
       <c r="EZ30" s="41"/>
     </row>
-    <row r="31" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="38"/>
       <c r="C31" s="41"/>
@@ -14397,7 +14351,7 @@
       <c r="EY31" s="41"/>
       <c r="EZ31" s="41"/>
     </row>
-    <row r="32" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="46"/>
       <c r="D32" s="46"/>
       <c r="F32" s="46"/>
@@ -14581,7 +14535,7 @@
       <c r="DQ32" s="46"/>
       <c r="DS32" s="46"/>
     </row>
-    <row r="33" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q33" s="89" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -14749,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44"/>
       <c r="B34" s="45"/>
       <c r="C34" s="44"/>
@@ -14965,7 +14919,7 @@
       <c r="EY34" s="44"/>
       <c r="EZ34" s="44"/>
     </row>
-    <row r="35" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="48"/>
@@ -15153,7 +15107,7 @@
       <c r="DS35" s="38"/>
       <c r="DT35" s="48"/>
     </row>
-    <row r="36" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="39"/>
       <c r="C36" s="41"/>
@@ -15375,7 +15329,7 @@
       <c r="EY36" s="41"/>
       <c r="EZ36" s="41"/>
     </row>
-    <row r="37" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="39"/>
       <c r="C37" s="41"/>
@@ -15596,7 +15550,7 @@
       <c r="EY37" s="41"/>
       <c r="EZ37" s="41"/>
     </row>
-    <row r="38" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="39"/>
       <c r="C38" s="41"/>
@@ -15818,7 +15772,7 @@
       <c r="EY38" s="41"/>
       <c r="EZ38" s="41"/>
     </row>
-    <row r="39" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38"/>
       <c r="D39" s="38"/>
       <c r="F39" s="38"/>
@@ -16351,7 +16305,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
       <c r="C42" s="44"/>
@@ -16567,7 +16521,7 @@
       <c r="EY42" s="44"/>
       <c r="EZ42" s="44"/>
     </row>
-    <row r="43" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="42"/>
       <c r="D43" s="42"/>
       <c r="F43" s="42"/>
@@ -16749,7 +16703,7 @@
       <c r="DQ43" s="42"/>
       <c r="DS43" s="42"/>
     </row>
-    <row r="44" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="48"/>
@@ -16938,7 +16892,7 @@
       <c r="DS44" s="42"/>
       <c r="DT44" s="48"/>
     </row>
-    <row r="45" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="51"/>
       <c r="C45" s="41"/>
@@ -17159,7 +17113,7 @@
       <c r="EY45" s="41"/>
       <c r="EZ45" s="41"/>
     </row>
-    <row r="46" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="51"/>
       <c r="C46" s="41"/>
@@ -17381,7 +17335,7 @@
       <c r="EY46" s="41"/>
       <c r="EZ46" s="41"/>
     </row>
-    <row r="47" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="51"/>
       <c r="C47" s="41"/>
@@ -17602,7 +17556,7 @@
       <c r="EY47" s="41"/>
       <c r="EZ47" s="41"/>
     </row>
-    <row r="48" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="42"/>
       <c r="D48" s="42"/>
       <c r="F48" s="42"/>
@@ -17967,7 +17921,7 @@
       <c r="DQ49" s="52"/>
       <c r="DS49" s="52"/>
     </row>
-    <row r="50" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L50" s="33"/>
       <c r="Q50" s="89" t="str">
         <f t="shared" si="8"/>
@@ -18136,7 +18090,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="44"/>
       <c r="B51" s="45"/>
       <c r="C51" s="44"/>
@@ -18187,7 +18141,7 @@
       <c r="EY51" s="44"/>
       <c r="EZ51" s="44"/>
     </row>
-    <row r="52" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="42"/>
       <c r="D52" s="42"/>
       <c r="F52" s="42"/>
@@ -18206,7 +18160,7 @@
       <c r="DQ52" s="42"/>
       <c r="DS52" s="42"/>
     </row>
-    <row r="53" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="42"/>
       <c r="D53" s="42"/>
       <c r="E53" s="48"/>
@@ -18230,7 +18184,7 @@
       <c r="DS53" s="42"/>
       <c r="DT53" s="48"/>
     </row>
-    <row r="54" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="51"/>
       <c r="D54" s="51"/>
       <c r="E54" s="53"/>
@@ -18253,7 +18207,7 @@
       <c r="DS54" s="51"/>
       <c r="DT54" s="53"/>
     </row>
-    <row r="55" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="53"/>
@@ -18275,7 +18229,7 @@
       <c r="DS55" s="51"/>
       <c r="DT55" s="53"/>
     </row>
-    <row r="56" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="51"/>
       <c r="D56" s="51"/>
       <c r="E56" s="53"/>
@@ -18298,7 +18252,7 @@
       <c r="DS56" s="51"/>
       <c r="DT56" s="53"/>
     </row>
-    <row r="57" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="51"/>
       <c r="D57" s="51"/>
       <c r="E57" s="53"/>
@@ -18320,7 +18274,7 @@
       <c r="DS57" s="51"/>
       <c r="DT57" s="53"/>
     </row>
-    <row r="58" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="51"/>
       <c r="D58" s="51"/>
       <c r="E58" s="53"/>
@@ -18343,7 +18297,7 @@
       <c r="DS58" s="51"/>
       <c r="DT58" s="53"/>
     </row>
-    <row r="59" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="41"/>
       <c r="B59" s="51"/>
       <c r="C59" s="41"/>
@@ -18398,7 +18352,7 @@
       <c r="EY59" s="41"/>
       <c r="EZ59" s="41"/>
     </row>
-    <row r="60" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="41"/>
       <c r="B60" s="51"/>
       <c r="C60" s="41"/>
@@ -18454,7 +18408,7 @@
       <c r="EY60" s="41"/>
       <c r="EZ60" s="41"/>
     </row>
-    <row r="61" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="41"/>
       <c r="B61" s="51"/>
       <c r="C61" s="41"/>
@@ -18509,11 +18463,11 @@
       <c r="EY61" s="41"/>
       <c r="EZ61" s="41"/>
     </row>
-    <row r="62" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="42"/>
       <c r="D64" s="42"/>
       <c r="F64" s="42"/>
@@ -18530,7 +18484,7 @@
       <c r="DQ64" s="42"/>
       <c r="DS64" s="42"/>
     </row>
-    <row r="65" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="52"/>
       <c r="D65" s="52"/>
       <c r="F65" s="52"/>
@@ -18546,10 +18500,10 @@
       <c r="DQ65" s="52"/>
       <c r="DS65" s="52"/>
     </row>
-    <row r="66" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="44"/>
       <c r="B67" s="45"/>
       <c r="C67" s="44"/>
@@ -18598,7 +18552,7 @@
       <c r="EY67" s="44"/>
       <c r="EZ67" s="44"/>
     </row>
-    <row r="68" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
       <c r="D68" s="42"/>
       <c r="F68" s="42"/>
@@ -18615,7 +18569,7 @@
       <c r="DQ68" s="42"/>
       <c r="DS68" s="42"/>
     </row>
-    <row r="69" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="42"/>
       <c r="D69" s="42"/>
       <c r="E69" s="48"/>
@@ -18637,7 +18591,7 @@
       <c r="DS69" s="42"/>
       <c r="DT69" s="48"/>
     </row>
-    <row r="70" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="41"/>
       <c r="B70" s="51"/>
       <c r="C70" s="41"/>
@@ -18693,7 +18647,7 @@
       <c r="EY70" s="41"/>
       <c r="EZ70" s="41"/>
     </row>
-    <row r="71" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="41"/>
       <c r="B71" s="51"/>
       <c r="C71" s="41"/>
@@ -18748,7 +18702,7 @@
       <c r="EY71" s="41"/>
       <c r="EZ71" s="41"/>
     </row>
-    <row r="72" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="41"/>
       <c r="B72" s="51"/>
       <c r="C72" s="41"/>
@@ -18804,7 +18758,7 @@
       <c r="EY72" s="41"/>
       <c r="EZ72" s="41"/>
     </row>
-    <row r="73" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="41"/>
       <c r="B73" s="51"/>
       <c r="C73" s="41"/>
@@ -18859,7 +18813,7 @@
       <c r="EY73" s="41"/>
       <c r="EZ73" s="41"/>
     </row>
-    <row r="74" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="41"/>
       <c r="B74" s="51"/>
       <c r="C74" s="41"/>
@@ -18915,7 +18869,7 @@
       <c r="EY74" s="41"/>
       <c r="EZ74" s="41"/>
     </row>
-    <row r="75" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="42"/>
       <c r="D75" s="42"/>
       <c r="F75" s="42"/>
@@ -18931,7 +18885,7 @@
       <c r="DQ75" s="42"/>
       <c r="DS75" s="42"/>
     </row>
-    <row r="76" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="52"/>
       <c r="D76" s="52"/>
       <c r="F76" s="52"/>
@@ -18948,17 +18902,17 @@
       <c r="DQ76" s="52"/>
       <c r="DS76" s="52"/>
     </row>
-    <row r="77" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L78" s="33"/>
     </row>
-    <row r="79" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:156" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:156" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L80" s="33"/>
     </row>
-    <row r="81" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="112">
@@ -19458,7 +19412,7 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BG4:BH50 AF4:AF50 AA4:AA50 AM51:AM53 R4:U50 AC4:AD50 AQ51:AQ53 AS4:AS50 AN4:AO50 AH4:AH50 AR4:AR53 AJ4:AK50 AX4:AX50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="AX4:AX50 AF4:AF50 AA4:AA50 AM51:AM53 R4:U50 AC4:AD50 AQ51:AQ53 AS4:AS50 AN4:AO50 AH4:AH50 AR4:AR53 AJ4:AK50 BG4:BH50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
@@ -19605,13 +19559,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -19630,7 +19584,7 @@
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
         <v>414</v>
@@ -19641,7 +19595,7 @@
         <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
         <v>423</v>
@@ -20298,33 +20252,33 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -20386,10 +20340,10 @@
         <v>378</v>
       </c>
       <c r="T1" s="63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U1" s="63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V1" s="63" t="s">
         <v>412</v>
@@ -20525,7 +20479,7 @@
         <v>431</v>
       </c>
       <c r="U3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V3" t="s">
         <v>207</v>
@@ -20578,7 +20532,7 @@
         <v>432</v>
       </c>
       <c r="U4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -20616,7 +20570,7 @@
         <v>433</v>
       </c>
       <c r="U5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -20636,10 +20590,10 @@
         <v>409</v>
       </c>
       <c r="T6" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="U6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -20680,17 +20634,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20699,7 +20647,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -20922,24 +20870,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -20947,7 +20884,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -20955,7 +20892,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20972,4 +20909,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9BF60-BD0B-41E5-A392-7D8A5BB6EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EB0D1-B886-4613-8334-6566835BF975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1095" windowWidth="38640" windowHeight="21240" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -1506,9 +1506,6 @@
     <t>Modest</t>
   </si>
   <si>
-    <t>None Or Little</t>
-  </si>
-  <si>
     <t>PHOTOVOLTAICS</t>
   </si>
   <si>
@@ -1669,6 +1666,9 @@
   </si>
   <si>
     <t>W9</t>
+  </si>
+  <si>
+    <t>NoneOrLittle</t>
   </si>
 </sst>
 </file>
@@ -3225,11 +3225,14 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3246,13 +3249,10 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,15 +3260,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="34" borderId="22" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3279,14 +3270,23 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5063,7 +5063,7 @@
   </sheetPr>
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
@@ -5117,11 +5117,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,11 +5129,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5169,13 +5169,13 @@
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="83"/>
       <c r="E13" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5989,26 +5989,15 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -6022,15 +6011,26 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
@@ -6113,7 +6113,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C55"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="14" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B14" s="75">
         <v>0.8</v>
@@ -6646,7 +6646,7 @@
         <v>271</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="112" t="s">
         <v>307</v>
@@ -6660,7 +6660,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="112" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>280</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="112" t="s">
         <v>307</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="54" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" s="106" t="s">
         <v>433</v>
@@ -7278,8 +7278,8 @@
   </sheetPr>
   <dimension ref="A1:FR83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX12:AY13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7301,9 +7301,9 @@
     <col min="15" max="15" width="9.28515625" style="35" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="3.7109375" style="32" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="56" customWidth="1"/>
-    <col min="18" max="21" width="12.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.7109375" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="18" max="21" width="12.42578125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.7109375" style="32" customWidth="1"/>
     <col min="24" max="24" width="21.28515625" style="30" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" style="30" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="16.28515625" style="29" customWidth="1" outlineLevel="1"/>
@@ -7329,238 +7329,238 @@
     <col min="50" max="52" width="23.140625" style="120" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="3.7109375" style="32" customWidth="1"/>
     <col min="54" max="54" width="15.7109375" style="30" customWidth="1"/>
-    <col min="55" max="55" width="14.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="12.28515625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="15" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="12.28515625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="60" width="14.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.7109375" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="12.7109375" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="17.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="14.42578125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="12.28515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="15" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="12.28515625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="60" width="14.42578125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.7109375" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="12.7109375" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="17.28515625" style="32" customWidth="1"/>
     <col min="64" max="64" width="15" style="59" customWidth="1"/>
-    <col min="65" max="109" width="9.42578125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="110" max="110" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="65" max="109" width="9.42578125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="110" max="110" width="3.7109375" style="32" customWidth="1"/>
     <col min="111" max="111" width="12" style="59" customWidth="1"/>
     <col min="112" max="112" width="10.140625" style="59" customWidth="1" outlineLevel="1"/>
     <col min="113" max="113" width="3.7109375" style="32" customWidth="1"/>
     <col min="114" max="114" width="20.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.5703125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="22.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="14.140625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="10.28515625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="119" max="119" width="12.85546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="14.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="121" max="121" width="13.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="122" max="122" width="10.85546875" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="19" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="8.28515625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="20.42578125" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="16.5703125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="22.28515625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="14.140625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="10.28515625" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="12.85546875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="14.42578125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="13.42578125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="10.85546875" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="19" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="124" max="124" width="8.28515625" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="20.42578125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="3.7109375" style="32" customWidth="1"/>
     <col min="127" max="127" width="14.7109375" style="31" customWidth="1"/>
-    <col min="128" max="131" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="128" max="131" width="14.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="3.7109375" style="32" customWidth="1"/>
     <col min="133" max="133" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="21" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="17.85546875" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="20.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="8.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="139" width="13.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="140" max="140" width="15" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="141" width="14" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="142" width="13.28515625" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="143" max="143" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="21" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="17.85546875" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="20.28515625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="8.28515625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="139" width="13.28515625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="140" max="140" width="15" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="141" max="141" width="14" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="142" width="13.28515625" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="143" max="143" width="3.7109375" style="32" customWidth="1"/>
     <col min="144" max="144" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="145" max="149" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="145" max="149" width="14.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="3.7109375" style="32" customWidth="1"/>
     <col min="151" max="151" width="26" style="31" customWidth="1"/>
-    <col min="152" max="152" width="26" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="156" width="14.7109375" style="31" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="3.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="26" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="156" width="14.7109375" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="3.7109375" style="32" customWidth="1"/>
     <col min="158" max="174" width="6.42578125" style="32" customWidth="1" collapsed="1"/>
     <col min="175" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="166"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="177"/>
       <c r="P1" s="57"/>
-      <c r="Q1" s="162" t="s">
+      <c r="Q1" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
       <c r="W1" s="57"/>
-      <c r="X1" s="172" t="s">
+      <c r="X1" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="160"/>
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="160"/>
+      <c r="AL1" s="160"/>
+      <c r="AM1" s="160"/>
+      <c r="AN1" s="160"/>
+      <c r="AO1" s="160"/>
+      <c r="AP1" s="160"/>
+      <c r="AQ1" s="160"/>
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="57"/>
-      <c r="AU1" s="161" t="s">
+      <c r="AU1" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
       <c r="BA1" s="57"/>
-      <c r="BB1" s="172" t="s">
+      <c r="BB1" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="173"/>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
+      <c r="BC1" s="160"/>
+      <c r="BD1" s="160"/>
+      <c r="BE1" s="160"/>
+      <c r="BF1" s="160"/>
+      <c r="BG1" s="160"/>
+      <c r="BH1" s="160"/>
+      <c r="BI1" s="160"/>
+      <c r="BJ1" s="160"/>
       <c r="BK1" s="58"/>
-      <c r="BL1" s="161" t="s">
+      <c r="BL1" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="BM1" s="162"/>
-      <c r="BN1" s="162"/>
-      <c r="BO1" s="162"/>
-      <c r="BP1" s="162"/>
-      <c r="BQ1" s="162"/>
-      <c r="BR1" s="162"/>
-      <c r="BS1" s="162"/>
-      <c r="BT1" s="162"/>
-      <c r="BU1" s="162"/>
-      <c r="BV1" s="162"/>
-      <c r="BW1" s="162"/>
-      <c r="BX1" s="162"/>
-      <c r="BY1" s="162"/>
-      <c r="BZ1" s="162"/>
-      <c r="CA1" s="162"/>
-      <c r="CB1" s="162"/>
-      <c r="CC1" s="162"/>
-      <c r="CD1" s="162"/>
-      <c r="CE1" s="162"/>
-      <c r="CF1" s="162"/>
-      <c r="CG1" s="162"/>
-      <c r="CH1" s="162"/>
-      <c r="CI1" s="162"/>
-      <c r="CJ1" s="162"/>
-      <c r="CK1" s="162"/>
-      <c r="CL1" s="162"/>
-      <c r="CM1" s="162"/>
-      <c r="CN1" s="162"/>
-      <c r="CO1" s="162"/>
-      <c r="CP1" s="162"/>
-      <c r="CQ1" s="162"/>
-      <c r="CR1" s="162"/>
-      <c r="CS1" s="162"/>
-      <c r="CT1" s="162"/>
-      <c r="CU1" s="162"/>
-      <c r="CV1" s="162"/>
-      <c r="CW1" s="162"/>
-      <c r="CX1" s="162"/>
-      <c r="CY1" s="162"/>
-      <c r="CZ1" s="162"/>
-      <c r="DA1" s="162"/>
-      <c r="DB1" s="162"/>
-      <c r="DC1" s="162"/>
-      <c r="DD1" s="162"/>
-      <c r="DE1" s="166"/>
+      <c r="BM1" s="163"/>
+      <c r="BN1" s="163"/>
+      <c r="BO1" s="163"/>
+      <c r="BP1" s="163"/>
+      <c r="BQ1" s="163"/>
+      <c r="BR1" s="163"/>
+      <c r="BS1" s="163"/>
+      <c r="BT1" s="163"/>
+      <c r="BU1" s="163"/>
+      <c r="BV1" s="163"/>
+      <c r="BW1" s="163"/>
+      <c r="BX1" s="163"/>
+      <c r="BY1" s="163"/>
+      <c r="BZ1" s="163"/>
+      <c r="CA1" s="163"/>
+      <c r="CB1" s="163"/>
+      <c r="CC1" s="163"/>
+      <c r="CD1" s="163"/>
+      <c r="CE1" s="163"/>
+      <c r="CF1" s="163"/>
+      <c r="CG1" s="163"/>
+      <c r="CH1" s="163"/>
+      <c r="CI1" s="163"/>
+      <c r="CJ1" s="163"/>
+      <c r="CK1" s="163"/>
+      <c r="CL1" s="163"/>
+      <c r="CM1" s="163"/>
+      <c r="CN1" s="163"/>
+      <c r="CO1" s="163"/>
+      <c r="CP1" s="163"/>
+      <c r="CQ1" s="163"/>
+      <c r="CR1" s="163"/>
+      <c r="CS1" s="163"/>
+      <c r="CT1" s="163"/>
+      <c r="CU1" s="163"/>
+      <c r="CV1" s="163"/>
+      <c r="CW1" s="163"/>
+      <c r="CX1" s="163"/>
+      <c r="CY1" s="163"/>
+      <c r="CZ1" s="163"/>
+      <c r="DA1" s="163"/>
+      <c r="DB1" s="163"/>
+      <c r="DC1" s="163"/>
+      <c r="DD1" s="163"/>
+      <c r="DE1" s="177"/>
       <c r="DF1" s="57"/>
-      <c r="DG1" s="179" t="s">
+      <c r="DG1" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="DH1" s="179"/>
+      <c r="DH1" s="161"/>
       <c r="DI1" s="57"/>
-      <c r="DJ1" s="161" t="s">
+      <c r="DJ1" s="162" t="s">
         <v>268</v>
       </c>
-      <c r="DK1" s="162"/>
-      <c r="DL1" s="162"/>
-      <c r="DM1" s="162"/>
-      <c r="DN1" s="162"/>
-      <c r="DO1" s="162"/>
-      <c r="DP1" s="162"/>
-      <c r="DQ1" s="162"/>
-      <c r="DR1" s="162"/>
-      <c r="DS1" s="162"/>
-      <c r="DT1" s="162"/>
-      <c r="DU1" s="162"/>
+      <c r="DK1" s="163"/>
+      <c r="DL1" s="163"/>
+      <c r="DM1" s="163"/>
+      <c r="DN1" s="163"/>
+      <c r="DO1" s="163"/>
+      <c r="DP1" s="163"/>
+      <c r="DQ1" s="163"/>
+      <c r="DR1" s="163"/>
+      <c r="DS1" s="163"/>
+      <c r="DT1" s="163"/>
+      <c r="DU1" s="163"/>
       <c r="DV1" s="57"/>
-      <c r="DW1" s="161" t="s">
+      <c r="DW1" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="DX1" s="162"/>
-      <c r="DY1" s="162"/>
-      <c r="DZ1" s="162"/>
-      <c r="EA1" s="163"/>
+      <c r="DX1" s="163"/>
+      <c r="DY1" s="163"/>
+      <c r="DZ1" s="163"/>
+      <c r="EA1" s="164"/>
       <c r="EB1" s="57"/>
-      <c r="EC1" s="161" t="s">
+      <c r="EC1" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="ED1" s="162"/>
-      <c r="EE1" s="162"/>
-      <c r="EF1" s="162"/>
-      <c r="EG1" s="162"/>
-      <c r="EH1" s="162"/>
-      <c r="EI1" s="162"/>
-      <c r="EJ1" s="162"/>
-      <c r="EK1" s="162"/>
-      <c r="EL1" s="162"/>
+      <c r="ED1" s="163"/>
+      <c r="EE1" s="163"/>
+      <c r="EF1" s="163"/>
+      <c r="EG1" s="163"/>
+      <c r="EH1" s="163"/>
+      <c r="EI1" s="163"/>
+      <c r="EJ1" s="163"/>
+      <c r="EK1" s="163"/>
+      <c r="EL1" s="163"/>
       <c r="EM1" s="57"/>
-      <c r="EN1" s="161" t="s">
+      <c r="EN1" s="162" t="s">
         <v>427</v>
       </c>
-      <c r="EO1" s="162"/>
-      <c r="EP1" s="162"/>
-      <c r="EQ1" s="162"/>
-      <c r="ER1" s="162"/>
-      <c r="ES1" s="162"/>
+      <c r="EO1" s="163"/>
+      <c r="EP1" s="163"/>
+      <c r="EQ1" s="163"/>
+      <c r="ER1" s="163"/>
+      <c r="ES1" s="163"/>
       <c r="ET1" s="57"/>
-      <c r="EU1" s="161" t="s">
-        <v>435</v>
-      </c>
-      <c r="EV1" s="162"/>
-      <c r="EW1" s="162"/>
-      <c r="EX1" s="162"/>
-      <c r="EY1" s="162"/>
-      <c r="EZ1" s="163"/>
+      <c r="EU1" s="162" t="s">
+        <v>434</v>
+      </c>
+      <c r="EV1" s="163"/>
+      <c r="EW1" s="163"/>
+      <c r="EX1" s="163"/>
+      <c r="EY1" s="163"/>
+      <c r="EZ1" s="164"/>
       <c r="FA1" s="57"/>
       <c r="FB1" s="57"/>
       <c r="FC1" s="57"/>
@@ -7581,68 +7581,68 @@
       <c r="FR1" s="57"/>
     </row>
     <row r="2" spans="1:174" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="167" t="s">
+      <c r="G2" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="167" t="s">
+      <c r="K2" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="167" t="s">
+      <c r="L2" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="167" t="s">
+      <c r="M2" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="167" t="s">
+      <c r="N2" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="167" t="s">
+      <c r="O2" s="178" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="31"/>
-      <c r="Q2" s="171" t="s">
+      <c r="Q2" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="171" t="s">
+      <c r="R2" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="S2" s="171" t="s">
+      <c r="S2" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="171" t="s">
+      <c r="T2" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="171" t="s">
+      <c r="U2" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="171" t="s">
+      <c r="V2" s="174" t="s">
         <v>67</v>
       </c>
       <c r="W2" s="31"/>
@@ -7722,18 +7722,18 @@
       <c r="AW2" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="AX2" s="174" t="s">
+      <c r="AX2" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="174" t="s">
+      <c r="AY2" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="174" t="s">
+      <c r="AZ2" s="171" t="s">
         <v>104</v>
       </c>
       <c r="BA2" s="31"/>
       <c r="BB2" s="169" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="BC2" s="169" t="s">
         <v>93</v>
@@ -7753,15 +7753,15 @@
       <c r="BH2" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="171" t="s">
+      <c r="BI2" s="174" t="s">
         <v>96</v>
       </c>
       <c r="BJ2" s="169" t="s">
         <v>88</v>
       </c>
       <c r="BK2" s="31"/>
-      <c r="BL2" s="177" t="s">
-        <v>468</v>
+      <c r="BL2" s="175" t="s">
+        <v>467</v>
       </c>
       <c r="BM2" s="109" t="s">
         <v>48</v>
@@ -7899,133 +7899,133 @@
         <v>89</v>
       </c>
       <c r="DF2" s="31"/>
-      <c r="DG2" s="176" t="s">
+      <c r="DG2" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="DH2" s="176" t="s">
+      <c r="DH2" s="173" t="s">
         <v>168</v>
       </c>
       <c r="DI2" s="31"/>
-      <c r="DJ2" s="159" t="s">
+      <c r="DJ2" s="167" t="s">
         <v>263</v>
       </c>
-      <c r="DK2" s="164" t="s">
+      <c r="DK2" s="165" t="s">
         <v>373</v>
       </c>
-      <c r="DL2" s="164" t="s">
+      <c r="DL2" s="165" t="s">
         <v>383</v>
       </c>
-      <c r="DM2" s="164" t="s">
+      <c r="DM2" s="165" t="s">
         <v>384</v>
       </c>
-      <c r="DN2" s="164" t="s">
+      <c r="DN2" s="165" t="s">
         <v>208</v>
       </c>
-      <c r="DO2" s="164" t="s">
+      <c r="DO2" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="DP2" s="164" t="s">
+      <c r="DP2" s="165" t="s">
         <v>314</v>
       </c>
-      <c r="DQ2" s="164" t="s">
+      <c r="DQ2" s="165" t="s">
         <v>315</v>
       </c>
-      <c r="DR2" s="164" t="s">
+      <c r="DR2" s="165" t="s">
         <v>411</v>
       </c>
-      <c r="DS2" s="164" t="s">
+      <c r="DS2" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="DT2" s="164" t="s">
+      <c r="DT2" s="165" t="s">
         <v>317</v>
       </c>
-      <c r="DU2" s="164" t="s">
+      <c r="DU2" s="165" t="s">
         <v>213</v>
       </c>
       <c r="DV2" s="31"/>
-      <c r="DW2" s="164" t="s">
+      <c r="DW2" s="165" t="s">
         <v>390</v>
       </c>
-      <c r="DX2" s="164" t="s">
+      <c r="DX2" s="165" t="s">
         <v>386</v>
       </c>
-      <c r="DY2" s="164" t="s">
+      <c r="DY2" s="165" t="s">
         <v>387</v>
       </c>
-      <c r="DZ2" s="164" t="s">
+      <c r="DZ2" s="165" t="s">
         <v>388</v>
       </c>
-      <c r="EA2" s="164" t="s">
+      <c r="EA2" s="165" t="s">
         <v>389</v>
       </c>
       <c r="EB2" s="31"/>
-      <c r="EC2" s="159" t="s">
+      <c r="EC2" s="167" t="s">
         <v>412</v>
       </c>
-      <c r="ED2" s="159" t="s">
+      <c r="ED2" s="167" t="s">
+        <v>442</v>
+      </c>
+      <c r="EE2" s="167" t="s">
+        <v>413</v>
+      </c>
+      <c r="EF2" s="167" t="s">
+        <v>257</v>
+      </c>
+      <c r="EG2" s="167" t="s">
+        <v>369</v>
+      </c>
+      <c r="EH2" s="167" t="s">
+        <v>367</v>
+      </c>
+      <c r="EI2" s="167" t="s">
+        <v>368</v>
+      </c>
+      <c r="EJ2" s="167" t="s">
+        <v>370</v>
+      </c>
+      <c r="EK2" s="167" t="s">
+        <v>371</v>
+      </c>
+      <c r="EL2" s="167" t="s">
+        <v>415</v>
+      </c>
+      <c r="EM2" s="31"/>
+      <c r="EN2" s="165" t="s">
+        <v>374</v>
+      </c>
+      <c r="EO2" s="165" t="s">
+        <v>376</v>
+      </c>
+      <c r="EP2" s="165" t="s">
+        <v>375</v>
+      </c>
+      <c r="EQ2" s="165" t="s">
+        <v>421</v>
+      </c>
+      <c r="ER2" s="165" t="s">
+        <v>425</v>
+      </c>
+      <c r="ES2" s="165" t="s">
+        <v>377</v>
+      </c>
+      <c r="ET2" s="31"/>
+      <c r="EU2" s="165" t="s">
+        <v>445</v>
+      </c>
+      <c r="EV2" s="165" t="s">
+        <v>271</v>
+      </c>
+      <c r="EW2" s="165" t="s">
+        <v>453</v>
+      </c>
+      <c r="EX2" s="165" t="s">
         <v>443</v>
       </c>
-      <c r="EE2" s="159" t="s">
-        <v>413</v>
-      </c>
-      <c r="EF2" s="159" t="s">
-        <v>257</v>
-      </c>
-      <c r="EG2" s="159" t="s">
-        <v>369</v>
-      </c>
-      <c r="EH2" s="159" t="s">
-        <v>367</v>
-      </c>
-      <c r="EI2" s="159" t="s">
-        <v>368</v>
-      </c>
-      <c r="EJ2" s="159" t="s">
-        <v>370</v>
-      </c>
-      <c r="EK2" s="159" t="s">
-        <v>371</v>
-      </c>
-      <c r="EL2" s="159" t="s">
-        <v>415</v>
-      </c>
-      <c r="EM2" s="31"/>
-      <c r="EN2" s="164" t="s">
-        <v>374</v>
-      </c>
-      <c r="EO2" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="EP2" s="164" t="s">
-        <v>375</v>
-      </c>
-      <c r="EQ2" s="164" t="s">
-        <v>421</v>
-      </c>
-      <c r="ER2" s="164" t="s">
-        <v>425</v>
-      </c>
-      <c r="ES2" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="ET2" s="31"/>
-      <c r="EU2" s="164" t="s">
-        <v>446</v>
-      </c>
-      <c r="EV2" s="164" t="s">
-        <v>271</v>
-      </c>
-      <c r="EW2" s="164" t="s">
-        <v>454</v>
-      </c>
-      <c r="EX2" s="164" t="s">
-        <v>444</v>
-      </c>
-      <c r="EY2" s="164" t="s">
-        <v>436</v>
-      </c>
-      <c r="EZ2" s="164" t="s">
-        <v>442</v>
+      <c r="EY2" s="165" t="s">
+        <v>435</v>
+      </c>
+      <c r="EZ2" s="165" t="s">
+        <v>441</v>
       </c>
       <c r="FA2" s="31"/>
       <c r="FB2" s="31"/>
@@ -8047,28 +8047,28 @@
       <c r="FR2" s="31"/>
     </row>
     <row r="3" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="31"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
       <c r="W3" s="31"/>
       <c r="X3" s="170"/>
       <c r="Y3" s="170"/>
@@ -8096,9 +8096,9 @@
       <c r="AU3" s="170"/>
       <c r="AV3" s="170"/>
       <c r="AW3" s="170"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
       <c r="BA3" s="31"/>
       <c r="BB3" s="170"/>
       <c r="BC3" s="170"/>
@@ -8107,12 +8107,12 @@
       <c r="BF3" s="170"/>
       <c r="BG3" s="170"/>
       <c r="BH3" s="170"/>
-      <c r="BI3" s="171"/>
+      <c r="BI3" s="174"/>
       <c r="BJ3" s="170"/>
       <c r="BK3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="BL3" s="178"/>
+      <c r="BL3" s="176"/>
       <c r="BM3" s="94">
         <f>IF('Performance inputs'!B60&lt;&gt;"",'Performance inputs'!B60,"ERROR")</f>
         <v>0.16</v>
@@ -8294,52 +8294,52 @@
         <v>0.08</v>
       </c>
       <c r="DF3" s="31"/>
-      <c r="DG3" s="176"/>
-      <c r="DH3" s="176"/>
+      <c r="DG3" s="173"/>
+      <c r="DH3" s="173"/>
       <c r="DI3" s="31"/>
-      <c r="DJ3" s="160"/>
-      <c r="DK3" s="165"/>
-      <c r="DL3" s="165"/>
-      <c r="DM3" s="165"/>
-      <c r="DN3" s="165"/>
-      <c r="DO3" s="165"/>
-      <c r="DP3" s="165"/>
-      <c r="DQ3" s="165"/>
-      <c r="DR3" s="165"/>
-      <c r="DS3" s="165"/>
-      <c r="DT3" s="165"/>
-      <c r="DU3" s="165"/>
+      <c r="DJ3" s="168"/>
+      <c r="DK3" s="166"/>
+      <c r="DL3" s="166"/>
+      <c r="DM3" s="166"/>
+      <c r="DN3" s="166"/>
+      <c r="DO3" s="166"/>
+      <c r="DP3" s="166"/>
+      <c r="DQ3" s="166"/>
+      <c r="DR3" s="166"/>
+      <c r="DS3" s="166"/>
+      <c r="DT3" s="166"/>
+      <c r="DU3" s="166"/>
       <c r="DV3" s="31"/>
-      <c r="DW3" s="165"/>
-      <c r="DX3" s="165"/>
-      <c r="DY3" s="165"/>
-      <c r="DZ3" s="165"/>
-      <c r="EA3" s="165"/>
+      <c r="DW3" s="166"/>
+      <c r="DX3" s="166"/>
+      <c r="DY3" s="166"/>
+      <c r="DZ3" s="166"/>
+      <c r="EA3" s="166"/>
       <c r="EB3" s="31"/>
-      <c r="EC3" s="160"/>
-      <c r="ED3" s="160"/>
-      <c r="EE3" s="160"/>
-      <c r="EF3" s="160"/>
-      <c r="EG3" s="160"/>
-      <c r="EH3" s="160"/>
-      <c r="EI3" s="160"/>
-      <c r="EJ3" s="160"/>
-      <c r="EK3" s="160"/>
-      <c r="EL3" s="160"/>
+      <c r="EC3" s="168"/>
+      <c r="ED3" s="168"/>
+      <c r="EE3" s="168"/>
+      <c r="EF3" s="168"/>
+      <c r="EG3" s="168"/>
+      <c r="EH3" s="168"/>
+      <c r="EI3" s="168"/>
+      <c r="EJ3" s="168"/>
+      <c r="EK3" s="168"/>
+      <c r="EL3" s="168"/>
       <c r="EM3" s="31"/>
-      <c r="EN3" s="165"/>
-      <c r="EO3" s="165"/>
-      <c r="EP3" s="165"/>
-      <c r="EQ3" s="165"/>
-      <c r="ER3" s="165"/>
-      <c r="ES3" s="165"/>
+      <c r="EN3" s="166"/>
+      <c r="EO3" s="166"/>
+      <c r="EP3" s="166"/>
+      <c r="EQ3" s="166"/>
+      <c r="ER3" s="166"/>
+      <c r="ES3" s="166"/>
       <c r="ET3" s="31"/>
-      <c r="EU3" s="165"/>
-      <c r="EV3" s="165"/>
-      <c r="EW3" s="165"/>
-      <c r="EX3" s="165"/>
-      <c r="EY3" s="165"/>
-      <c r="EZ3" s="165"/>
+      <c r="EU3" s="166"/>
+      <c r="EV3" s="166"/>
+      <c r="EW3" s="166"/>
+      <c r="EX3" s="166"/>
+      <c r="EY3" s="166"/>
+      <c r="EZ3" s="166"/>
       <c r="FA3" s="31"/>
       <c r="FB3" s="31"/>
       <c r="FC3" s="31"/>
@@ -8593,8 +8593,8 @@
       <c r="DC4" s="55"/>
       <c r="DD4" s="55"/>
       <c r="DE4" s="55"/>
-      <c r="DG4" s="176"/>
-      <c r="DH4" s="176"/>
+      <c r="DG4" s="173"/>
+      <c r="DH4" s="173"/>
       <c r="DJ4" s="72" t="s">
         <v>90</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="AR6" s="80"/>
       <c r="AS6" s="80"/>
       <c r="AU6" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AV6" s="72" t="s">
         <v>153</v>
@@ -9103,7 +9103,7 @@
         <v>154</v>
       </c>
       <c r="BE6" s="72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BF6" s="72" t="s">
         <v>111</v>
@@ -9294,7 +9294,7 @@
       <c r="AR7" s="80"/>
       <c r="AS7" s="80"/>
       <c r="AU7" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AV7" s="72" t="s">
         <v>153</v>
@@ -9319,13 +9319,13 @@
         <v>1</v>
       </c>
       <c r="BC7" s="81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BD7" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE7" s="72" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BF7" s="72" t="s">
         <v>113</v>
@@ -9520,7 +9520,7 @@
       <c r="AR8" s="80"/>
       <c r="AS8" s="80"/>
       <c r="AU8" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AV8" s="72" t="s">
         <v>153</v>
@@ -9545,13 +9545,13 @@
         <v>3</v>
       </c>
       <c r="BC8" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BD8" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE8" s="72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BF8" s="72" t="s">
         <v>113</v>
@@ -9740,7 +9740,7 @@
         <v>2</v>
       </c>
       <c r="AU9" s="61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AV9" s="72" t="s">
         <v>153</v>
@@ -9765,7 +9765,7 @@
         <v>4</v>
       </c>
       <c r="BC9" s="81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BD9" s="72" t="s">
         <v>153</v>
@@ -9906,7 +9906,7 @@
         <v>185</v>
       </c>
       <c r="Z10" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AA10" s="81"/>
       <c r="AB10" s="89" t="str">
@@ -9966,7 +9966,7 @@
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
       <c r="AU10" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AV10" s="72" t="s">
         <v>153</v>
@@ -9991,13 +9991,13 @@
         <v>5</v>
       </c>
       <c r="BC10" s="81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BD10" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE10" s="72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BF10" s="72" t="s">
         <v>113</v>
@@ -10167,7 +10167,7 @@
       <c r="AR11" s="80"/>
       <c r="AS11" s="80"/>
       <c r="AU11" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AV11" s="72" t="s">
         <v>153</v>
@@ -10192,13 +10192,13 @@
         <v>5</v>
       </c>
       <c r="BC11" s="81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BD11" s="72" t="s">
         <v>153</v>
       </c>
       <c r="BE11" s="72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BF11" s="72" t="s">
         <v>113</v>
@@ -10312,7 +10312,7 @@
         <v>173</v>
       </c>
       <c r="Z12" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA12" s="81">
         <v>7</v>
@@ -10372,7 +10372,7 @@
       <c r="AR12" s="80"/>
       <c r="AS12" s="80"/>
       <c r="AU12" s="61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AV12" s="72" t="s">
         <v>153</v>
@@ -10397,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="BC12" s="81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BD12" s="72" t="s">
         <v>153</v>
@@ -10522,7 +10522,7 @@
         <v>194</v>
       </c>
       <c r="Z13" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA13" s="81"/>
       <c r="AB13" s="89" t="str">
@@ -10582,7 +10582,7 @@
       <c r="AR13" s="80"/>
       <c r="AS13" s="80"/>
       <c r="AU13" s="61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AV13" s="72" t="s">
         <v>153</v>
@@ -10607,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="BC13" s="81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="BD13" s="72" t="s">
         <v>153</v>
@@ -10733,7 +10733,7 @@
         <v>157</v>
       </c>
       <c r="Z14" s="61" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA14" s="81"/>
       <c r="AB14" s="89" t="str">
@@ -10795,9 +10795,18 @@
       <c r="AU14" s="61"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="72"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="119"/>
+      <c r="AX14" s="119" t="str">
+        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$10,IF($AV14="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY14" s="119" t="str">
+        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ14" s="119" t="str">
+        <f>IF(OR($AV14="Window",$AV14="RoofWindow"),'Performance inputs'!$B$12,IF(AV14="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB14" s="72"/>
       <c r="BC14" s="81"/>
       <c r="BD14" s="72"/>
@@ -10911,7 +10920,7 @@
         <v>173</v>
       </c>
       <c r="Z15" s="61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA15" s="81">
         <v>2</v>
@@ -10973,9 +10982,18 @@
       <c r="AU15" s="61"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="72"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="119"/>
+      <c r="AX15" s="119" t="str">
+        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$10,IF($AV15="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY15" s="119" t="str">
+        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ15" s="119" t="str">
+        <f>IF(OR($AV15="Window",$AV15="RoofWindow"),'Performance inputs'!$B$12,IF(AV15="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB15" s="72"/>
       <c r="BC15" s="81"/>
       <c r="BD15" s="72"/>
@@ -11091,7 +11109,7 @@
         <v>173</v>
       </c>
       <c r="Z16" s="61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA16" s="81">
         <v>20</v>
@@ -11153,9 +11171,18 @@
       <c r="AU16" s="61"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="72"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="119"/>
+      <c r="AX16" s="119" t="str">
+        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$10,IF($AV16="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY16" s="119" t="str">
+        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ16" s="119" t="str">
+        <f>IF(OR($AV16="Window",$AV16="RoofWindow"),'Performance inputs'!$B$12,IF(AV16="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB16" s="72"/>
       <c r="BC16" s="81"/>
       <c r="BD16" s="72"/>
@@ -11273,7 +11300,7 @@
         <v>159</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AA17" s="81"/>
       <c r="AB17" s="89" t="str">
@@ -11335,9 +11362,18 @@
       <c r="AU17" s="61"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="72"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
+      <c r="AX17" s="119" t="str">
+        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$10,IF($AV17="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY17" s="119" t="str">
+        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ17" s="119" t="str">
+        <f>IF(OR($AV17="Window",$AV17="RoofWindow"),'Performance inputs'!$B$12,IF(AV17="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB17" s="72"/>
       <c r="BC17" s="81"/>
       <c r="BD17" s="72"/>
@@ -11483,7 +11519,7 @@
         <v>160</v>
       </c>
       <c r="Z18" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA18" s="81"/>
       <c r="AB18" s="89" t="str">
@@ -11545,9 +11581,18 @@
       <c r="AU18" s="61"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="72"/>
-      <c r="AX18" s="119"/>
-      <c r="AY18" s="119"/>
-      <c r="AZ18" s="119"/>
+      <c r="AX18" s="119" t="str">
+        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$10,IF($AV18="SolidDoor",'Performance inputs'!B$13,""))</f>
+        <v/>
+      </c>
+      <c r="AY18" s="119" t="str">
+        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ18" s="119" t="str">
+        <f>IF(OR($AV18="Window",$AV18="RoofWindow"),'Performance inputs'!$B$12,IF(AV18="SolidDoor",'Performance inputs'!$B$14,""))</f>
+        <v/>
+      </c>
       <c r="BB18" s="72"/>
       <c r="BC18" s="81"/>
       <c r="BD18" s="72"/>
@@ -11664,7 +11709,7 @@
         <v>173</v>
       </c>
       <c r="Z19" s="61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA19" s="81">
         <v>10</v>
@@ -11885,7 +11930,7 @@
         <v>185</v>
       </c>
       <c r="Z20" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA20" s="81"/>
       <c r="AB20" s="89" t="str">
@@ -12078,7 +12123,7 @@
         <v>185</v>
       </c>
       <c r="Z21" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA21" s="81"/>
       <c r="AB21" s="89" t="str">
@@ -18916,6 +18961,94 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="112">
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="DJ1:DU1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DO2:DO3"/>
+    <mergeCell ref="DP2:DP3"/>
+    <mergeCell ref="DQ2:DQ3"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DK3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="BL1:DE1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="DG2:DG4"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="X1:AS1"/>
     <mergeCell ref="DG1:DH1"/>
     <mergeCell ref="EU1:EZ1"/>
@@ -18940,94 +19073,6 @@
     <mergeCell ref="EK2:EK3"/>
     <mergeCell ref="DR2:DR3"/>
     <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="DG2:DG4"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="BL1:DE1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="DJ1:DU1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DO2:DO3"/>
-    <mergeCell ref="DP2:DP3"/>
-    <mergeCell ref="DQ2:DQ3"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DK3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="DH5:DH50">
@@ -19412,7 +19457,7 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="AX4:AX50 AF4:AF50 AA4:AA50 AM51:AM53 R4:U50 AC4:AD50 AQ51:AQ53 AS4:AS50 AN4:AO50 AH4:AH50 AR4:AR53 AJ4:AK50 BG4:BH50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BG4:BH50 AF4:AF50 AA4:AA50 AM51:AM53 R4:U50 AC4:AD50 AQ51:AQ53 AS4:AS50 AN4:AO50 AH4:AH50 AR4:AR53 AJ4:AK50 AX4:AX50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
@@ -19584,7 +19629,7 @@
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
         <v>414</v>
@@ -19595,7 +19640,7 @@
         <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
         <v>423</v>
@@ -20252,8 +20297,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -20340,10 +20385,10 @@
         <v>378</v>
       </c>
       <c r="T1" s="63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U1" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V1" s="63" t="s">
         <v>412</v>
@@ -20479,7 +20524,7 @@
         <v>431</v>
       </c>
       <c r="U3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V3" t="s">
         <v>207</v>
@@ -20532,7 +20577,7 @@
         <v>432</v>
       </c>
       <c r="U4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -20570,7 +20615,7 @@
         <v>433</v>
       </c>
       <c r="U5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -20590,10 +20635,10 @@
         <v>409</v>
       </c>
       <c r="T6" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="U6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -20635,11 +20680,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -20647,7 +20687,18 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -20870,13 +20921,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -20884,15 +20937,24 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B55ABE-CD8D-41D8-B2FB-D998CB8542B7}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20909,21 +20971,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639286D8-D45E-4331-923B-A639490D8667}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF78ECE-ABF6-42D1-ADE4-2C28FB46501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C2BBF-2CA9-4788-B7C4-5CDF0C2E54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="495">
   <si>
     <t>SAP</t>
   </si>
@@ -3220,75 +3220,6 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="30" borderId="20" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3308,6 +3239,24 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="23" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3316,6 +3265,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3347,34 +3347,7 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total line above" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="472">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -3817,72 +3790,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3993,2731 +3916,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8027,8 +5225,8 @@
   </sheetPr>
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -8099,10 +5297,10 @@
     <row r="8" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="124"/>
       <c r="B8" s="125"/>
-      <c r="J8" s="149"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="115"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
     </row>
     <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="123" t="s">
@@ -8110,10 +5308,10 @@
       </c>
       <c r="B9" s="111"/>
       <c r="C9" s="118"/>
-      <c r="J9" s="149"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="115"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
     </row>
     <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="123" t="s">
@@ -8121,43 +5319,43 @@
       </c>
       <c r="B10" s="111"/>
       <c r="C10" s="126"/>
-      <c r="J10" s="149"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="115"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
     </row>
     <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="127"/>
-      <c r="J11" s="149"/>
+      <c r="J11" s="154"/>
       <c r="K11" s="115"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="149"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
     </row>
     <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J12" s="149"/>
+      <c r="J12" s="154"/>
       <c r="K12" s="115"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="149"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
     </row>
     <row r="13" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="149"/>
+      <c r="J13" s="154"/>
       <c r="K13" s="115"/>
       <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="149"/>
+      <c r="J14" s="154"/>
       <c r="K14" s="115"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="149"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="115"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
     </row>
     <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="121"/>
@@ -8165,10 +5363,10 @@
       <c r="C16" s="121"/>
       <c r="D16" s="129"/>
       <c r="E16" s="121"/>
-      <c r="J16" s="149"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="115"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
     </row>
     <row r="17" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="130" t="s">
@@ -8186,10 +5384,10 @@
       <c r="E17" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="149"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="115"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="149"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
     </row>
     <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="111" t="s">
@@ -8198,14 +5396,16 @@
       <c r="B18" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="C18" s="143"/>
+      <c r="C18" s="143" t="s">
+        <v>296</v>
+      </c>
       <c r="D18" s="144"/>
       <c r="E18" s="111"/>
       <c r="F18" s="118"/>
-      <c r="J18" s="149"/>
+      <c r="J18" s="154"/>
       <c r="K18" s="115"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
     </row>
     <row r="19" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="111"/>
@@ -8214,7 +5414,7 @@
       <c r="D19" s="144"/>
       <c r="E19" s="111"/>
       <c r="F19" s="118"/>
-      <c r="J19" s="149"/>
+      <c r="J19" s="154"/>
       <c r="K19" s="115"/>
       <c r="L19" s="115"/>
     </row>
@@ -8225,7 +5425,7 @@
       <c r="D20" s="144"/>
       <c r="E20" s="111"/>
       <c r="F20" s="118"/>
-      <c r="J20" s="149"/>
+      <c r="J20" s="154"/>
       <c r="K20" s="115"/>
       <c r="L20" s="115"/>
     </row>
@@ -8236,7 +5436,7 @@
       <c r="D21" s="144"/>
       <c r="E21" s="111"/>
       <c r="F21" s="118"/>
-      <c r="J21" s="149"/>
+      <c r="J21" s="154"/>
       <c r="K21" s="115"/>
       <c r="L21" s="115"/>
     </row>
@@ -8247,7 +5447,7 @@
       <c r="D22" s="144"/>
       <c r="E22" s="111"/>
       <c r="F22" s="118"/>
-      <c r="J22" s="149"/>
+      <c r="J22" s="154"/>
       <c r="K22" s="115"/>
       <c r="L22" s="115"/>
     </row>
@@ -8258,7 +5458,7 @@
       <c r="D23" s="144"/>
       <c r="E23" s="111"/>
       <c r="F23" s="118"/>
-      <c r="J23" s="149"/>
+      <c r="J23" s="154"/>
       <c r="K23" s="115"/>
       <c r="L23" s="115"/>
     </row>
@@ -8269,7 +5469,7 @@
       <c r="D24" s="144"/>
       <c r="E24" s="111"/>
       <c r="F24" s="118"/>
-      <c r="J24" s="149"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="115"/>
       <c r="L24" s="115"/>
     </row>
@@ -8280,7 +5480,7 @@
       <c r="D25" s="144"/>
       <c r="E25" s="111"/>
       <c r="F25" s="118"/>
-      <c r="J25" s="149"/>
+      <c r="J25" s="154"/>
       <c r="K25" s="115"/>
       <c r="L25" s="115"/>
     </row>
@@ -8291,7 +5491,7 @@
       <c r="D26" s="144"/>
       <c r="E26" s="111"/>
       <c r="F26" s="118"/>
-      <c r="J26" s="149"/>
+      <c r="J26" s="154"/>
       <c r="K26" s="115"/>
       <c r="L26" s="115"/>
     </row>
@@ -8302,7 +5502,7 @@
       <c r="D27" s="144"/>
       <c r="E27" s="111"/>
       <c r="F27" s="118"/>
-      <c r="J27" s="149"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="115"/>
       <c r="L27" s="115"/>
     </row>
@@ -8313,7 +5513,7 @@
       <c r="D28" s="144"/>
       <c r="E28" s="111"/>
       <c r="F28" s="118"/>
-      <c r="J28" s="149"/>
+      <c r="J28" s="154"/>
       <c r="K28" s="115"/>
       <c r="L28" s="115"/>
     </row>
@@ -8324,7 +5524,7 @@
       <c r="D29" s="144"/>
       <c r="E29" s="111"/>
       <c r="F29" s="118"/>
-      <c r="J29" s="149"/>
+      <c r="J29" s="154"/>
       <c r="K29" s="115"/>
       <c r="L29" s="115"/>
     </row>
@@ -8335,7 +5535,7 @@
       <c r="D30" s="144"/>
       <c r="E30" s="111"/>
       <c r="F30" s="118"/>
-      <c r="J30" s="149"/>
+      <c r="J30" s="154"/>
       <c r="K30" s="115"/>
       <c r="L30" s="115"/>
     </row>
@@ -8346,7 +5546,7 @@
       <c r="D31" s="144"/>
       <c r="E31" s="111"/>
       <c r="F31" s="118"/>
-      <c r="J31" s="149"/>
+      <c r="J31" s="154"/>
       <c r="K31" s="115"/>
       <c r="L31" s="115"/>
     </row>
@@ -8357,7 +5557,7 @@
       <c r="D32" s="144"/>
       <c r="E32" s="111"/>
       <c r="F32" s="118"/>
-      <c r="J32" s="149"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="115"/>
       <c r="L32" s="115"/>
     </row>
@@ -8368,7 +5568,7 @@
       <c r="D33" s="144"/>
       <c r="E33" s="111"/>
       <c r="F33" s="118"/>
-      <c r="J33" s="149"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="115"/>
       <c r="L33" s="115"/>
     </row>
@@ -8379,7 +5579,7 @@
       <c r="D34" s="144"/>
       <c r="E34" s="111"/>
       <c r="F34" s="118"/>
-      <c r="J34" s="149"/>
+      <c r="J34" s="154"/>
       <c r="K34" s="115"/>
       <c r="L34" s="115"/>
     </row>
@@ -8390,7 +5590,7 @@
       <c r="D35" s="144"/>
       <c r="E35" s="111"/>
       <c r="F35" s="118"/>
-      <c r="J35" s="149"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="115"/>
       <c r="L35" s="115"/>
     </row>
@@ -8401,7 +5601,7 @@
       <c r="D36" s="144"/>
       <c r="E36" s="111"/>
       <c r="F36" s="118"/>
-      <c r="J36" s="149"/>
+      <c r="J36" s="154"/>
       <c r="K36" s="115"/>
       <c r="L36" s="115"/>
     </row>
@@ -8412,7 +5612,7 @@
       <c r="D37" s="144"/>
       <c r="E37" s="111"/>
       <c r="F37" s="118"/>
-      <c r="J37" s="149"/>
+      <c r="J37" s="154"/>
       <c r="K37" s="115"/>
       <c r="L37" s="115"/>
     </row>
@@ -8423,7 +5623,7 @@
       <c r="D38" s="144"/>
       <c r="E38" s="111"/>
       <c r="F38" s="118"/>
-      <c r="J38" s="149"/>
+      <c r="J38" s="154"/>
       <c r="K38" s="115"/>
       <c r="L38" s="115"/>
     </row>
@@ -8434,7 +5634,7 @@
       <c r="D39" s="144"/>
       <c r="E39" s="111"/>
       <c r="F39" s="118"/>
-      <c r="J39" s="149"/>
+      <c r="J39" s="154"/>
       <c r="K39" s="115"/>
       <c r="L39" s="115"/>
     </row>
@@ -8445,7 +5645,7 @@
       <c r="D40" s="144"/>
       <c r="E40" s="111"/>
       <c r="F40" s="118"/>
-      <c r="J40" s="149"/>
+      <c r="J40" s="154"/>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
     </row>
@@ -8456,7 +5656,7 @@
       <c r="D41" s="144"/>
       <c r="E41" s="111"/>
       <c r="F41" s="118"/>
-      <c r="J41" s="149"/>
+      <c r="J41" s="154"/>
       <c r="K41" s="115"/>
       <c r="L41" s="115"/>
     </row>
@@ -8467,7 +5667,7 @@
       <c r="D42" s="144"/>
       <c r="E42" s="111"/>
       <c r="F42" s="118"/>
-      <c r="J42" s="149"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="115"/>
       <c r="L42" s="115"/>
     </row>
@@ -8478,7 +5678,7 @@
       <c r="D43" s="144"/>
       <c r="E43" s="111"/>
       <c r="F43" s="118"/>
-      <c r="J43" s="149"/>
+      <c r="J43" s="154"/>
       <c r="K43" s="115"/>
       <c r="L43" s="115"/>
     </row>
@@ -8490,10 +5690,10 @@
       <c r="C44" s="133"/>
       <c r="D44" s="134"/>
       <c r="E44" s="133"/>
-      <c r="J44" s="149"/>
+      <c r="J44" s="154"/>
       <c r="K44" s="115"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="149"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="127"/>
@@ -8501,33 +5701,33 @@
       <c r="C45" s="127"/>
       <c r="D45" s="135"/>
       <c r="E45" s="127"/>
-      <c r="J45" s="149"/>
+      <c r="J45" s="154"/>
       <c r="K45" s="115"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J46" s="149"/>
+      <c r="J46" s="154"/>
       <c r="K46" s="115"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="149"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="149"/>
+      <c r="J47" s="154"/>
       <c r="K47" s="115"/>
       <c r="L47" s="115"/>
     </row>
     <row r="48" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J48" s="149"/>
+      <c r="J48" s="154"/>
       <c r="K48" s="115"/>
-      <c r="L48" s="149"/>
-      <c r="M48" s="149"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
     </row>
     <row r="49" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J49" s="149"/>
+      <c r="J49" s="154"/>
       <c r="K49" s="115"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="128" t="s">
@@ -8536,20 +5736,20 @@
       <c r="B50" s="121"/>
       <c r="C50" s="121"/>
       <c r="D50" s="129"/>
-      <c r="J50" s="149"/>
+      <c r="J50" s="154"/>
       <c r="K50" s="115"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="149"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="136"/>
       <c r="B51" s="137"/>
       <c r="C51" s="137"/>
       <c r="D51" s="138"/>
-      <c r="J51" s="149"/>
+      <c r="J51" s="154"/>
       <c r="K51" s="115"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="149"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="139" t="s">
@@ -8565,10 +5765,10 @@
         <v>46</v>
       </c>
       <c r="E52" s="118"/>
-      <c r="J52" s="149"/>
+      <c r="J52" s="154"/>
       <c r="K52" s="115"/>
-      <c r="L52" s="149"/>
-      <c r="M52" s="149"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="146"/>
@@ -8576,122 +5776,122 @@
       <c r="C53" s="146"/>
       <c r="D53" s="147"/>
       <c r="E53" s="118"/>
-      <c r="J53" s="149"/>
+      <c r="J53" s="154"/>
       <c r="K53" s="115"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
     </row>
     <row r="54" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="127"/>
       <c r="B54" s="127"/>
       <c r="C54" s="127"/>
       <c r="D54" s="135"/>
-      <c r="H54" s="149"/>
-      <c r="J54" s="149"/>
+      <c r="H54" s="154"/>
+      <c r="J54" s="154"/>
       <c r="K54" s="115"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="149"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="149"/>
-      <c r="J55" s="149"/>
+      <c r="H55" s="154"/>
+      <c r="J55" s="154"/>
       <c r="K55" s="115"/>
-      <c r="L55" s="149"/>
-      <c r="M55" s="149"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="149"/>
-      <c r="J56" s="149"/>
+      <c r="H56" s="154"/>
+      <c r="J56" s="154"/>
       <c r="K56" s="115"/>
-      <c r="L56" s="149"/>
-      <c r="M56" s="149"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="149"/>
-      <c r="J57" s="149"/>
+      <c r="H57" s="154"/>
+      <c r="J57" s="154"/>
       <c r="K57" s="115"/>
-      <c r="L57" s="149"/>
-      <c r="M57" s="149"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
     </row>
     <row r="58" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="149"/>
-      <c r="J58" s="149"/>
+      <c r="H58" s="154"/>
+      <c r="J58" s="154"/>
       <c r="K58" s="115"/>
-      <c r="L58" s="149"/>
-      <c r="M58" s="149"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
     </row>
     <row r="59" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="149"/>
-      <c r="J59" s="149"/>
+      <c r="H59" s="154"/>
+      <c r="J59" s="154"/>
       <c r="K59" s="115"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="149"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
     </row>
     <row r="60" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J60" s="149"/>
+      <c r="J60" s="154"/>
       <c r="K60" s="115"/>
-      <c r="L60" s="149"/>
-      <c r="M60" s="149"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
     </row>
     <row r="61" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J61" s="149"/>
+      <c r="J61" s="154"/>
       <c r="K61" s="115"/>
-      <c r="L61" s="149"/>
-      <c r="M61" s="149"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
     </row>
     <row r="62" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J62" s="149"/>
+      <c r="J62" s="154"/>
       <c r="K62" s="115"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="149"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J63" s="149"/>
+      <c r="J63" s="154"/>
       <c r="K63" s="115"/>
-      <c r="L63" s="149"/>
-      <c r="M63" s="149"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J64" s="149"/>
+      <c r="J64" s="154"/>
       <c r="K64" s="115"/>
-      <c r="L64" s="149"/>
-      <c r="M64" s="149"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J65" s="149"/>
+      <c r="J65" s="154"/>
       <c r="K65" s="115"/>
-      <c r="L65" s="149"/>
-      <c r="M65" s="149"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J66" s="149"/>
+      <c r="J66" s="154"/>
       <c r="K66" s="115"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="149"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J67" s="149"/>
+      <c r="J67" s="154"/>
       <c r="K67" s="115"/>
-      <c r="L67" s="149"/>
-      <c r="M67" s="149"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
     </row>
     <row r="68" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J68" s="149"/>
+      <c r="J68" s="154"/>
       <c r="K68" s="115"/>
-      <c r="L68" s="149"/>
-      <c r="M68" s="149"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="10:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J69" s="149"/>
+      <c r="J69" s="154"/>
       <c r="K69" s="115"/>
-      <c r="L69" s="149"/>
-      <c r="M69" s="149"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J70" s="149"/>
+      <c r="J70" s="154"/>
       <c r="K70" s="115"/>
-      <c r="L70" s="149"/>
-      <c r="M70" s="149"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="10:18" x14ac:dyDescent="0.2">
       <c r="K71" s="115"/>
@@ -8740,26 +5940,15 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -8773,69 +5962,80 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="75" priority="11">
       <formula>($E$17="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O20 O23:O24 O36:O70">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="74" priority="10">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45 E47:E54 E58:E61 E63 E67:E71 P8:P20 P23:P24 P36:P70">
-    <cfRule type="expression" dxfId="84" priority="59">
+    <cfRule type="expression" dxfId="73" priority="59">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O22">
-    <cfRule type="expression" dxfId="83" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21:P22">
-    <cfRule type="expression" dxfId="82" priority="8">
+    <cfRule type="expression" dxfId="71" priority="8">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25 O33:O35">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="70" priority="5">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25 P33:P35">
-    <cfRule type="expression" dxfId="80" priority="6">
+    <cfRule type="expression" dxfId="69" priority="6">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O32">
-    <cfRule type="expression" dxfId="79" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P32">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:O28">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P28">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8844,9 +6044,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{202F113E-84B5-4FD2-A683-6366224CDA66}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAA3310E-5F96-4019-BB00-83764D7C715D}">
           <x14:formula1>
-            <xm:f>'Drop down list'!$C$2:$C$3</xm:f>
+            <xm:f>'Drop down list'!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>C18:C43</xm:sqref>
         </x14:dataValidation>
@@ -8886,11 +6086,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="155" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="157"/>
     </row>
     <row r="3" spans="1:3" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
@@ -9025,11 +6225,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="155" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="157"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="94" t="s">
@@ -9153,11 +6353,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
@@ -9193,11 +6393,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="150" t="s">
+      <c r="A31" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="157"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="94" t="s">
@@ -9315,11 +6515,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="150" t="s">
+      <c r="A42" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="152"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="94" t="s">
@@ -9386,11 +6586,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="150" t="s">
+      <c r="A49" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="157"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="94" t="s">
@@ -9448,11 +6648,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="150" t="s">
+      <c r="A55" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="151"/>
-      <c r="C55" s="152"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="157"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="94" t="s">
@@ -10035,8 +7235,8 @@
   </sheetPr>
   <dimension ref="A1:FV83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10142,190 +7342,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="43.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="179"/>
       <c r="Q1" s="57"/>
-      <c r="R1" s="156" t="s">
+      <c r="R1" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
       <c r="X1" s="57"/>
-      <c r="Y1" s="166" t="s">
+      <c r="Y1" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="167"/>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="167"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="167"/>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="167"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="167"/>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="167"/>
-      <c r="AT1" s="167"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
       <c r="AU1" s="57"/>
-      <c r="AV1" s="155" t="s">
+      <c r="AV1" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="AW1" s="156"/>
-      <c r="AX1" s="156"/>
-      <c r="AY1" s="156"/>
-      <c r="AZ1" s="156"/>
-      <c r="BA1" s="156"/>
+      <c r="AW1" s="167"/>
+      <c r="AX1" s="167"/>
+      <c r="AY1" s="167"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="167"/>
       <c r="BB1" s="57"/>
-      <c r="BC1" s="166" t="s">
+      <c r="BC1" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="167"/>
-      <c r="BE1" s="167"/>
-      <c r="BF1" s="167"/>
-      <c r="BG1" s="167"/>
-      <c r="BH1" s="167"/>
-      <c r="BI1" s="167"/>
-      <c r="BJ1" s="167"/>
-      <c r="BK1" s="167"/>
+      <c r="BD1" s="164"/>
+      <c r="BE1" s="164"/>
+      <c r="BF1" s="164"/>
+      <c r="BG1" s="164"/>
+      <c r="BH1" s="164"/>
+      <c r="BI1" s="164"/>
+      <c r="BJ1" s="164"/>
+      <c r="BK1" s="164"/>
       <c r="BL1" s="58"/>
-      <c r="BM1" s="155" t="s">
+      <c r="BM1" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="156"/>
-      <c r="BO1" s="156"/>
-      <c r="BP1" s="156"/>
-      <c r="BQ1" s="156"/>
-      <c r="BR1" s="156"/>
-      <c r="BS1" s="156"/>
-      <c r="BT1" s="156"/>
-      <c r="BU1" s="156"/>
-      <c r="BV1" s="156"/>
-      <c r="BW1" s="156"/>
-      <c r="BX1" s="156"/>
-      <c r="BY1" s="156"/>
-      <c r="BZ1" s="156"/>
-      <c r="CA1" s="156"/>
-      <c r="CB1" s="156"/>
-      <c r="CC1" s="156"/>
-      <c r="CD1" s="156"/>
-      <c r="CE1" s="156"/>
-      <c r="CF1" s="156"/>
-      <c r="CG1" s="156"/>
-      <c r="CH1" s="156"/>
-      <c r="CI1" s="156"/>
-      <c r="CJ1" s="156"/>
-      <c r="CK1" s="156"/>
-      <c r="CL1" s="156"/>
-      <c r="CM1" s="156"/>
-      <c r="CN1" s="156"/>
-      <c r="CO1" s="156"/>
-      <c r="CP1" s="156"/>
-      <c r="CQ1" s="156"/>
-      <c r="CR1" s="156"/>
-      <c r="CS1" s="156"/>
-      <c r="CT1" s="156"/>
-      <c r="CU1" s="156"/>
-      <c r="CV1" s="156"/>
-      <c r="CW1" s="156"/>
-      <c r="CX1" s="156"/>
-      <c r="CY1" s="156"/>
-      <c r="CZ1" s="156"/>
-      <c r="DA1" s="156"/>
-      <c r="DB1" s="156"/>
-      <c r="DC1" s="156"/>
-      <c r="DD1" s="156"/>
-      <c r="DE1" s="156"/>
-      <c r="DF1" s="160"/>
+      <c r="BN1" s="167"/>
+      <c r="BO1" s="167"/>
+      <c r="BP1" s="167"/>
+      <c r="BQ1" s="167"/>
+      <c r="BR1" s="167"/>
+      <c r="BS1" s="167"/>
+      <c r="BT1" s="167"/>
+      <c r="BU1" s="167"/>
+      <c r="BV1" s="167"/>
+      <c r="BW1" s="167"/>
+      <c r="BX1" s="167"/>
+      <c r="BY1" s="167"/>
+      <c r="BZ1" s="167"/>
+      <c r="CA1" s="167"/>
+      <c r="CB1" s="167"/>
+      <c r="CC1" s="167"/>
+      <c r="CD1" s="167"/>
+      <c r="CE1" s="167"/>
+      <c r="CF1" s="167"/>
+      <c r="CG1" s="167"/>
+      <c r="CH1" s="167"/>
+      <c r="CI1" s="167"/>
+      <c r="CJ1" s="167"/>
+      <c r="CK1" s="167"/>
+      <c r="CL1" s="167"/>
+      <c r="CM1" s="167"/>
+      <c r="CN1" s="167"/>
+      <c r="CO1" s="167"/>
+      <c r="CP1" s="167"/>
+      <c r="CQ1" s="167"/>
+      <c r="CR1" s="167"/>
+      <c r="CS1" s="167"/>
+      <c r="CT1" s="167"/>
+      <c r="CU1" s="167"/>
+      <c r="CV1" s="167"/>
+      <c r="CW1" s="167"/>
+      <c r="CX1" s="167"/>
+      <c r="CY1" s="167"/>
+      <c r="CZ1" s="167"/>
+      <c r="DA1" s="167"/>
+      <c r="DB1" s="167"/>
+      <c r="DC1" s="167"/>
+      <c r="DD1" s="167"/>
+      <c r="DE1" s="167"/>
+      <c r="DF1" s="179"/>
       <c r="DG1" s="57"/>
-      <c r="DH1" s="171" t="s">
+      <c r="DH1" s="165" t="s">
         <v>426</v>
       </c>
-      <c r="DI1" s="171"/>
-      <c r="DJ1" s="171"/>
-      <c r="DK1" s="171"/>
-      <c r="DL1" s="171"/>
+      <c r="DI1" s="165"/>
+      <c r="DJ1" s="165"/>
+      <c r="DK1" s="165"/>
+      <c r="DL1" s="165"/>
       <c r="DM1" s="57"/>
-      <c r="DN1" s="155" t="s">
+      <c r="DN1" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="DO1" s="156"/>
-      <c r="DP1" s="156"/>
-      <c r="DQ1" s="156"/>
-      <c r="DR1" s="156"/>
-      <c r="DS1" s="156"/>
-      <c r="DT1" s="156"/>
-      <c r="DU1" s="156"/>
-      <c r="DV1" s="156"/>
-      <c r="DW1" s="156"/>
-      <c r="DX1" s="156"/>
-      <c r="DY1" s="156"/>
+      <c r="DO1" s="167"/>
+      <c r="DP1" s="167"/>
+      <c r="DQ1" s="167"/>
+      <c r="DR1" s="167"/>
+      <c r="DS1" s="167"/>
+      <c r="DT1" s="167"/>
+      <c r="DU1" s="167"/>
+      <c r="DV1" s="167"/>
+      <c r="DW1" s="167"/>
+      <c r="DX1" s="167"/>
+      <c r="DY1" s="167"/>
       <c r="DZ1" s="57"/>
-      <c r="EA1" s="155" t="s">
+      <c r="EA1" s="166" t="s">
         <v>267</v>
       </c>
-      <c r="EB1" s="156"/>
-      <c r="EC1" s="156"/>
-      <c r="ED1" s="156"/>
-      <c r="EE1" s="157"/>
+      <c r="EB1" s="167"/>
+      <c r="EC1" s="167"/>
+      <c r="ED1" s="167"/>
+      <c r="EE1" s="168"/>
       <c r="EF1" s="57"/>
-      <c r="EG1" s="155" t="s">
+      <c r="EG1" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="EH1" s="156"/>
-      <c r="EI1" s="156"/>
-      <c r="EJ1" s="156"/>
-      <c r="EK1" s="156"/>
-      <c r="EL1" s="156"/>
-      <c r="EM1" s="156"/>
-      <c r="EN1" s="156"/>
-      <c r="EO1" s="156"/>
-      <c r="EP1" s="156"/>
+      <c r="EH1" s="167"/>
+      <c r="EI1" s="167"/>
+      <c r="EJ1" s="167"/>
+      <c r="EK1" s="167"/>
+      <c r="EL1" s="167"/>
+      <c r="EM1" s="167"/>
+      <c r="EN1" s="167"/>
+      <c r="EO1" s="167"/>
+      <c r="EP1" s="167"/>
       <c r="EQ1" s="57"/>
-      <c r="ER1" s="155" t="s">
+      <c r="ER1" s="166" t="s">
         <v>427</v>
       </c>
-      <c r="ES1" s="156"/>
-      <c r="ET1" s="156"/>
-      <c r="EU1" s="156"/>
-      <c r="EV1" s="156"/>
-      <c r="EW1" s="156"/>
+      <c r="ES1" s="167"/>
+      <c r="ET1" s="167"/>
+      <c r="EU1" s="167"/>
+      <c r="EV1" s="167"/>
+      <c r="EW1" s="167"/>
       <c r="EX1" s="57"/>
-      <c r="EY1" s="155" t="s">
+      <c r="EY1" s="166" t="s">
         <v>434</v>
       </c>
-      <c r="EZ1" s="156"/>
-      <c r="FA1" s="156"/>
-      <c r="FB1" s="156"/>
-      <c r="FC1" s="156"/>
-      <c r="FD1" s="157"/>
+      <c r="EZ1" s="167"/>
+      <c r="FA1" s="167"/>
+      <c r="FB1" s="167"/>
+      <c r="FC1" s="167"/>
+      <c r="FD1" s="168"/>
       <c r="FE1" s="57"/>
       <c r="FF1" s="57"/>
       <c r="FG1" s="57"/>
@@ -10346,189 +7546,189 @@
       <c r="FV1" s="57"/>
     </row>
     <row r="2" spans="1:178" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="158" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="161" t="s">
+      <c r="J2" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="161" t="s">
+      <c r="L2" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="161" t="s">
+      <c r="M2" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="161" t="s">
+      <c r="N2" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="161" t="s">
+      <c r="O2" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="161" t="s">
+      <c r="P2" s="158" t="s">
         <v>54</v>
       </c>
       <c r="Q2" s="31"/>
-      <c r="R2" s="165" t="s">
+      <c r="R2" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="165" t="s">
+      <c r="S2" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="165" t="s">
+      <c r="T2" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="U2" s="165" t="s">
+      <c r="U2" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="165" t="s">
+      <c r="V2" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="165" t="s">
+      <c r="W2" s="176" t="s">
         <v>67</v>
       </c>
       <c r="X2" s="31"/>
-      <c r="Y2" s="163" t="s">
+      <c r="Y2" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="Z2" s="163" t="s">
+      <c r="Z2" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="163" t="s">
+      <c r="AA2" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="AB2" s="163" t="s">
+      <c r="AB2" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AC2" s="163" t="s">
+      <c r="AC2" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="163" t="s">
+      <c r="AD2" s="173" t="s">
         <v>192</v>
       </c>
-      <c r="AE2" s="163" t="s">
+      <c r="AE2" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="163" t="s">
+      <c r="AF2" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="163" t="s">
+      <c r="AG2" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="AH2" s="163" t="s">
+      <c r="AH2" s="173" t="s">
         <v>303</v>
       </c>
-      <c r="AI2" s="163" t="s">
+      <c r="AI2" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AJ2" s="163" t="s">
+      <c r="AJ2" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="AK2" s="163" t="s">
+      <c r="AK2" s="173" t="s">
         <v>292</v>
       </c>
-      <c r="AL2" s="163" t="s">
+      <c r="AL2" s="173" t="s">
         <v>293</v>
       </c>
-      <c r="AM2" s="163" t="s">
+      <c r="AM2" s="173" t="s">
         <v>288</v>
       </c>
-      <c r="AN2" s="163" t="s">
+      <c r="AN2" s="173" t="s">
         <v>305</v>
       </c>
-      <c r="AO2" s="163" t="s">
+      <c r="AO2" s="173" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="163" t="s">
+      <c r="AP2" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="163" t="s">
+      <c r="AQ2" s="173" t="s">
         <v>297</v>
       </c>
-      <c r="AR2" s="163" t="s">
+      <c r="AR2" s="173" t="s">
         <v>304</v>
       </c>
-      <c r="AS2" s="163" t="s">
+      <c r="AS2" s="173" t="s">
         <v>306</v>
       </c>
-      <c r="AT2" s="163" t="s">
+      <c r="AT2" s="173" t="s">
         <v>172</v>
       </c>
       <c r="AU2" s="31"/>
-      <c r="AV2" s="163" t="s">
+      <c r="AV2" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="AW2" s="163" t="s">
+      <c r="AW2" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="163" t="s">
+      <c r="AX2" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="AY2" s="163" t="s">
+      <c r="AY2" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="AZ2" s="163" t="s">
+      <c r="AZ2" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="163" t="s">
+      <c r="BA2" s="173" t="s">
         <v>104</v>
       </c>
       <c r="BB2" s="31"/>
-      <c r="BC2" s="163" t="s">
+      <c r="BC2" s="173" t="s">
         <v>484</v>
       </c>
-      <c r="BD2" s="163" t="s">
+      <c r="BD2" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="163" t="s">
+      <c r="BE2" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="BF2" s="163" t="s">
+      <c r="BF2" s="173" t="s">
         <v>167</v>
       </c>
-      <c r="BG2" s="163" t="s">
+      <c r="BG2" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="BH2" s="163" t="s">
+      <c r="BH2" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="163" t="s">
+      <c r="BI2" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="165" t="s">
+      <c r="BJ2" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="163" t="s">
+      <c r="BK2" s="173" t="s">
         <v>88</v>
       </c>
       <c r="BL2" s="31"/>
-      <c r="BM2" s="169" t="s">
+      <c r="BM2" s="177" t="s">
         <v>466</v>
       </c>
       <c r="BN2" s="104" t="s">
@@ -10667,141 +7867,141 @@
         <v>89</v>
       </c>
       <c r="DG2" s="31"/>
-      <c r="DH2" s="168" t="s">
+      <c r="DH2" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="DI2" s="177" t="s">
+      <c r="DI2" s="160" t="s">
         <v>492</v>
       </c>
-      <c r="DJ2" s="177" t="s">
+      <c r="DJ2" s="160" t="s">
         <v>490</v>
       </c>
-      <c r="DK2" s="177" t="s">
+      <c r="DK2" s="160" t="s">
         <v>491</v>
       </c>
-      <c r="DL2" s="168" t="s">
+      <c r="DL2" s="175" t="s">
         <v>168</v>
       </c>
       <c r="DM2" s="31"/>
-      <c r="DN2" s="153" t="s">
+      <c r="DN2" s="171" t="s">
         <v>263</v>
       </c>
-      <c r="DO2" s="158" t="s">
+      <c r="DO2" s="169" t="s">
         <v>373</v>
       </c>
-      <c r="DP2" s="158" t="s">
+      <c r="DP2" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="DQ2" s="158" t="s">
+      <c r="DQ2" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="DR2" s="158" t="s">
+      <c r="DR2" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="DS2" s="158" t="s">
+      <c r="DS2" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="DT2" s="158" t="s">
+      <c r="DT2" s="169" t="s">
         <v>314</v>
       </c>
-      <c r="DU2" s="158" t="s">
+      <c r="DU2" s="169" t="s">
         <v>315</v>
       </c>
-      <c r="DV2" s="158" t="s">
+      <c r="DV2" s="169" t="s">
         <v>411</v>
       </c>
-      <c r="DW2" s="158" t="s">
+      <c r="DW2" s="169" t="s">
         <v>316</v>
       </c>
-      <c r="DX2" s="158" t="s">
+      <c r="DX2" s="169" t="s">
         <v>317</v>
       </c>
-      <c r="DY2" s="158" t="s">
+      <c r="DY2" s="169" t="s">
         <v>213</v>
       </c>
       <c r="DZ2" s="31"/>
-      <c r="EA2" s="158" t="s">
+      <c r="EA2" s="169" t="s">
         <v>390</v>
       </c>
-      <c r="EB2" s="158" t="s">
+      <c r="EB2" s="169" t="s">
         <v>386</v>
       </c>
-      <c r="EC2" s="158" t="s">
+      <c r="EC2" s="169" t="s">
         <v>387</v>
       </c>
-      <c r="ED2" s="158" t="s">
+      <c r="ED2" s="169" t="s">
         <v>388</v>
       </c>
-      <c r="EE2" s="158" t="s">
+      <c r="EE2" s="169" t="s">
         <v>389</v>
       </c>
       <c r="EF2" s="31"/>
-      <c r="EG2" s="153" t="s">
+      <c r="EG2" s="171" t="s">
         <v>412</v>
       </c>
-      <c r="EH2" s="153" t="s">
+      <c r="EH2" s="171" t="s">
         <v>442</v>
       </c>
-      <c r="EI2" s="153" t="s">
+      <c r="EI2" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="EJ2" s="153" t="s">
+      <c r="EJ2" s="171" t="s">
         <v>257</v>
       </c>
-      <c r="EK2" s="153" t="s">
+      <c r="EK2" s="171" t="s">
         <v>369</v>
       </c>
-      <c r="EL2" s="153" t="s">
+      <c r="EL2" s="171" t="s">
         <v>367</v>
       </c>
-      <c r="EM2" s="153" t="s">
+      <c r="EM2" s="171" t="s">
         <v>368</v>
       </c>
-      <c r="EN2" s="153" t="s">
+      <c r="EN2" s="171" t="s">
         <v>370</v>
       </c>
-      <c r="EO2" s="153" t="s">
+      <c r="EO2" s="171" t="s">
         <v>371</v>
       </c>
-      <c r="EP2" s="153" t="s">
+      <c r="EP2" s="171" t="s">
         <v>415</v>
       </c>
       <c r="EQ2" s="31"/>
-      <c r="ER2" s="158" t="s">
+      <c r="ER2" s="169" t="s">
         <v>374</v>
       </c>
-      <c r="ES2" s="158" t="s">
+      <c r="ES2" s="169" t="s">
         <v>376</v>
       </c>
-      <c r="ET2" s="158" t="s">
+      <c r="ET2" s="169" t="s">
         <v>375</v>
       </c>
-      <c r="EU2" s="158" t="s">
+      <c r="EU2" s="169" t="s">
         <v>421</v>
       </c>
-      <c r="EV2" s="158" t="s">
+      <c r="EV2" s="169" t="s">
         <v>425</v>
       </c>
-      <c r="EW2" s="158" t="s">
+      <c r="EW2" s="169" t="s">
         <v>377</v>
       </c>
       <c r="EX2" s="31"/>
-      <c r="EY2" s="158" t="s">
+      <c r="EY2" s="169" t="s">
         <v>445</v>
       </c>
-      <c r="EZ2" s="158" t="s">
+      <c r="EZ2" s="169" t="s">
         <v>271</v>
       </c>
-      <c r="FA2" s="158" t="s">
+      <c r="FA2" s="169" t="s">
         <v>488</v>
       </c>
-      <c r="FB2" s="158" t="s">
+      <c r="FB2" s="169" t="s">
         <v>443</v>
       </c>
-      <c r="FC2" s="158" t="s">
+      <c r="FC2" s="169" t="s">
         <v>435</v>
       </c>
-      <c r="FD2" s="158" t="s">
+      <c r="FD2" s="169" t="s">
         <v>441</v>
       </c>
       <c r="FE2" s="31"/>
@@ -10824,73 +8024,73 @@
       <c r="FV2" s="31"/>
     </row>
     <row r="3" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
       <c r="Q3" s="31"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
       <c r="X3" s="31"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="164"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="164"/>
-      <c r="AT3" s="164"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
       <c r="AU3" s="31"/>
-      <c r="AV3" s="164"/>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="164"/>
-      <c r="AY3" s="164"/>
-      <c r="AZ3" s="164"/>
-      <c r="BA3" s="164"/>
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="174"/>
       <c r="BB3" s="31"/>
-      <c r="BC3" s="164"/>
-      <c r="BD3" s="164"/>
-      <c r="BE3" s="164"/>
-      <c r="BF3" s="164"/>
-      <c r="BG3" s="164"/>
-      <c r="BH3" s="164"/>
-      <c r="BI3" s="164"/>
-      <c r="BJ3" s="165"/>
-      <c r="BK3" s="164"/>
+      <c r="BC3" s="174"/>
+      <c r="BD3" s="174"/>
+      <c r="BE3" s="174"/>
+      <c r="BF3" s="174"/>
+      <c r="BG3" s="174"/>
+      <c r="BH3" s="174"/>
+      <c r="BI3" s="174"/>
+      <c r="BJ3" s="176"/>
+      <c r="BK3" s="174"/>
       <c r="BL3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="BM3" s="170"/>
+      <c r="BM3" s="178"/>
       <c r="BN3" s="90">
         <f>IF('Performance inputs'!B60&lt;&gt;"",'Performance inputs'!B60,"ERROR")</f>
         <v>0.16</v>
@@ -11072,55 +8272,55 @@
         <v>0.08</v>
       </c>
       <c r="DG3" s="31"/>
-      <c r="DH3" s="168"/>
-      <c r="DI3" s="178"/>
-      <c r="DJ3" s="178"/>
-      <c r="DK3" s="178"/>
-      <c r="DL3" s="168"/>
+      <c r="DH3" s="175"/>
+      <c r="DI3" s="161"/>
+      <c r="DJ3" s="161"/>
+      <c r="DK3" s="161"/>
+      <c r="DL3" s="175"/>
       <c r="DM3" s="31"/>
-      <c r="DN3" s="154"/>
-      <c r="DO3" s="159"/>
-      <c r="DP3" s="159"/>
-      <c r="DQ3" s="159"/>
-      <c r="DR3" s="159"/>
-      <c r="DS3" s="159"/>
-      <c r="DT3" s="159"/>
-      <c r="DU3" s="159"/>
-      <c r="DV3" s="159"/>
-      <c r="DW3" s="159"/>
-      <c r="DX3" s="159"/>
-      <c r="DY3" s="159"/>
+      <c r="DN3" s="172"/>
+      <c r="DO3" s="170"/>
+      <c r="DP3" s="170"/>
+      <c r="DQ3" s="170"/>
+      <c r="DR3" s="170"/>
+      <c r="DS3" s="170"/>
+      <c r="DT3" s="170"/>
+      <c r="DU3" s="170"/>
+      <c r="DV3" s="170"/>
+      <c r="DW3" s="170"/>
+      <c r="DX3" s="170"/>
+      <c r="DY3" s="170"/>
       <c r="DZ3" s="31"/>
-      <c r="EA3" s="159"/>
-      <c r="EB3" s="159"/>
-      <c r="EC3" s="159"/>
-      <c r="ED3" s="159"/>
-      <c r="EE3" s="159"/>
+      <c r="EA3" s="170"/>
+      <c r="EB3" s="170"/>
+      <c r="EC3" s="170"/>
+      <c r="ED3" s="170"/>
+      <c r="EE3" s="170"/>
       <c r="EF3" s="31"/>
-      <c r="EG3" s="154"/>
-      <c r="EH3" s="154"/>
-      <c r="EI3" s="154"/>
-      <c r="EJ3" s="154"/>
-      <c r="EK3" s="154"/>
-      <c r="EL3" s="154"/>
-      <c r="EM3" s="154"/>
-      <c r="EN3" s="154"/>
-      <c r="EO3" s="154"/>
-      <c r="EP3" s="154"/>
+      <c r="EG3" s="172"/>
+      <c r="EH3" s="172"/>
+      <c r="EI3" s="172"/>
+      <c r="EJ3" s="172"/>
+      <c r="EK3" s="172"/>
+      <c r="EL3" s="172"/>
+      <c r="EM3" s="172"/>
+      <c r="EN3" s="172"/>
+      <c r="EO3" s="172"/>
+      <c r="EP3" s="172"/>
       <c r="EQ3" s="31"/>
-      <c r="ER3" s="159"/>
-      <c r="ES3" s="159"/>
-      <c r="ET3" s="159"/>
-      <c r="EU3" s="159"/>
-      <c r="EV3" s="159"/>
-      <c r="EW3" s="159"/>
+      <c r="ER3" s="170"/>
+      <c r="ES3" s="170"/>
+      <c r="ET3" s="170"/>
+      <c r="EU3" s="170"/>
+      <c r="EV3" s="170"/>
+      <c r="EW3" s="170"/>
       <c r="EX3" s="31"/>
-      <c r="EY3" s="159"/>
-      <c r="EZ3" s="159"/>
-      <c r="FA3" s="159"/>
-      <c r="FB3" s="159"/>
-      <c r="FC3" s="159"/>
-      <c r="FD3" s="159"/>
+      <c r="EY3" s="170"/>
+      <c r="EZ3" s="170"/>
+      <c r="FA3" s="170"/>
+      <c r="FB3" s="170"/>
+      <c r="FC3" s="170"/>
+      <c r="FD3" s="170"/>
       <c r="FE3" s="31"/>
       <c r="FF3" s="31"/>
       <c r="FG3" s="31"/>
@@ -11206,7 +8406,7 @@
       <c r="V4" s="79">
         <v>25</v>
       </c>
-      <c r="W4" s="172">
+      <c r="W4" s="149">
         <f>IF(SUMIF($Y$4:$Y$50,R4,$AB$4:$AB$50)+SUMIF($Y$4:$Y$50,R4,$AE$4:$AE$50)=0,"",SUMIF($Y$4:$Y$50,R4,$AB$4:$AB$50)+SUMIF($Y$4:$Y$50,R4,$AE$4:$AE$50))</f>
         <v>32</v>
       </c>
@@ -11222,7 +8422,7 @@
       <c r="AB4" s="79">
         <v>15</v>
       </c>
-      <c r="AC4" s="172">
+      <c r="AC4" s="149">
         <f>IF(AND(Z4="External wall",AB4&gt;0),AB4*VLOOKUP($Y4,$R$4:$U$50,3,FALSE),"")</f>
         <v>42</v>
       </c>
@@ -11231,7 +8431,7 @@
         <v>0.18</v>
       </c>
       <c r="AE4" s="79"/>
-      <c r="AF4" s="172" t="str">
+      <c r="AF4" s="149" t="str">
         <f t="shared" ref="AF4:AF50" si="0">IF(AND(Z4="Sheltered wall",AE4&gt;0),AE4*VLOOKUP($Y4,$R$4:$U$50,3,FALSE),"")</f>
         <v/>
       </c>
@@ -11244,7 +8444,7 @@
         <v/>
       </c>
       <c r="AI4" s="79"/>
-      <c r="AJ4" s="172" t="str">
+      <c r="AJ4" s="149" t="str">
         <f t="shared" ref="AJ4:AJ50" si="1">IF(AND(Z4="Party wall",AI4&gt;0),AI4*VLOOKUP($Y4,$R$4:$U$50,3,FALSE),"")</f>
         <v/>
       </c>
@@ -11253,7 +8453,7 @@
         <f>IF(AND($Z4="External roof",AK4&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM4" s="173" t="str">
+      <c r="AM4" s="150" t="str">
         <f>IF(AND(Z4="External roof",AK4&gt;0),"ExternalPlane","")</f>
         <v/>
       </c>
@@ -11266,7 +8466,7 @@
         <f>IF(AND($Z4="Heat loss floor",AO4&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ4" s="173" t="str">
+      <c r="AQ4" s="150" t="str">
         <f>IF(AND(Z4="Heat loss floor",AO4&gt;0),"GroundSolid","")</f>
         <v/>
       </c>
@@ -11313,17 +8513,17 @@
       <c r="BG4" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="BH4" s="174">
+      <c r="BH4" s="151">
         <v>1</v>
       </c>
-      <c r="BI4" s="174">
+      <c r="BI4" s="151">
         <v>1.5</v>
       </c>
-      <c r="BJ4" s="172">
+      <c r="BJ4" s="149">
         <f t="shared" ref="BJ4:BJ50" si="2">IF(AND(BH4&gt;0,BI4&gt;0),BH4*BI4,"")</f>
         <v>1.5</v>
       </c>
-      <c r="BK4" s="174" t="s">
+      <c r="BK4" s="151" t="s">
         <v>90</v>
       </c>
       <c r="BL4" s="54" t="s">
@@ -11377,11 +8577,11 @@
       <c r="DD4" s="55"/>
       <c r="DE4" s="55"/>
       <c r="DF4" s="55"/>
-      <c r="DH4" s="168"/>
-      <c r="DI4" s="179"/>
-      <c r="DJ4" s="179"/>
-      <c r="DK4" s="179"/>
-      <c r="DL4" s="168"/>
+      <c r="DH4" s="175"/>
+      <c r="DI4" s="162"/>
+      <c r="DJ4" s="162"/>
+      <c r="DK4" s="162"/>
+      <c r="DL4" s="175"/>
       <c r="DN4" s="71" t="s">
         <v>90</v>
       </c>
@@ -11431,11 +8631,11 @@
       <c r="EA4" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="EB4" s="176">
+      <c r="EB4" s="153">
         <f>'Performance inputs'!B29</f>
         <v>90</v>
       </c>
-      <c r="EC4" s="176">
+      <c r="EC4" s="153">
         <f>'Performance inputs'!B28</f>
         <v>7</v>
       </c>
@@ -11443,7 +8643,7 @@
         <f>EC4*EB4</f>
         <v>630</v>
       </c>
-      <c r="EE4" s="175">
+      <c r="EE4" s="152">
         <f>'Performance inputs'!B30</f>
         <v>10</v>
       </c>
@@ -11466,7 +8666,7 @@
         <f>'Performance inputs'!B36</f>
         <v>Electricity</v>
       </c>
-      <c r="EL4" s="176">
+      <c r="EL4" s="153">
         <f>'Performance inputs'!B37</f>
         <v>1.29</v>
       </c>
@@ -11478,7 +8678,7 @@
         <f>'Performance inputs'!B39</f>
         <v>100</v>
       </c>
-      <c r="EO4" s="176">
+      <c r="EO4" s="153">
         <f>'Performance inputs'!B40</f>
         <v>300</v>
       </c>
@@ -11494,7 +8694,7 @@
         <f>'Performance inputs'!B44</f>
         <v>FromMains</v>
       </c>
-      <c r="ET4" s="175">
+      <c r="ET4" s="152">
         <f>'Performance inputs'!B45</f>
         <v>1</v>
       </c>
@@ -11502,7 +8702,7 @@
         <f>'Performance inputs'!B46</f>
         <v>CombiOrUnvented</v>
       </c>
-      <c r="EV4" s="176">
+      <c r="EV4" s="153">
         <f>'Performance inputs'!B47</f>
         <v>8</v>
       </c>
@@ -11517,7 +8717,7 @@
         <f>'Performance inputs'!B50</f>
         <v>MoreDwellingsConnected</v>
       </c>
-      <c r="FA4" s="176">
+      <c r="FA4" s="153">
         <v>10</v>
       </c>
       <c r="FB4" s="88" t="str">
@@ -11555,7 +8755,7 @@
       <c r="V5" s="79">
         <v>30</v>
       </c>
-      <c r="W5" s="172">
+      <c r="W5" s="149">
         <f>IF(SUMIF($Y$4:$Y$50,R5,$AB$4:$AB$50)+SUMIF($Y$4:$Y$50,R5,$AE$4:$AE$50)=0,"",SUMIF($Y$4:$Y$50,R5,$AB$4:$AB$50)+SUMIF($Y$4:$Y$50,R5,$AE$4:$AE$50))</f>
         <v>7</v>
       </c>
@@ -11571,7 +8771,7 @@
       <c r="AB5" s="79">
         <v>15</v>
       </c>
-      <c r="AC5" s="172">
+      <c r="AC5" s="149">
         <f t="shared" ref="AC5:AC50" si="3">IF(AND(Z5="External wall",AB5&gt;0),AB5*VLOOKUP($Y5,$R$4:$U$50,3,FALSE),"")</f>
         <v>42</v>
       </c>
@@ -11580,7 +8780,7 @@
         <v>0.18</v>
       </c>
       <c r="AE5" s="79"/>
-      <c r="AF5" s="172" t="str">
+      <c r="AF5" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11593,7 +8793,7 @@
         <v/>
       </c>
       <c r="AI5" s="79"/>
-      <c r="AJ5" s="172" t="str">
+      <c r="AJ5" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -11602,7 +8802,7 @@
         <f>IF(AND($Z5="External roof",AK5&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM5" s="173" t="str">
+      <c r="AM5" s="150" t="str">
         <f t="shared" ref="AM5:AM50" si="4">IF(AND(Z5="External roof",AK5&gt;0),"ExternalPlane","")</f>
         <v/>
       </c>
@@ -11615,7 +8815,7 @@
         <f>IF(AND($Z5="Heat loss floor",AO5&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ5" s="173" t="str">
+      <c r="AQ5" s="150" t="str">
         <f t="shared" ref="AQ5:AQ50" si="5">IF(AND(Z5="Heat loss floor",AO5&gt;0),"GroundSolid","")</f>
         <v/>
       </c>
@@ -11668,7 +8868,7 @@
       <c r="BI5" s="79">
         <v>1.5</v>
       </c>
-      <c r="BJ5" s="172">
+      <c r="BJ5" s="149">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -11800,7 +9000,7 @@
       <c r="V6" s="79">
         <v>30</v>
       </c>
-      <c r="W6" s="172">
+      <c r="W6" s="149">
         <f t="shared" ref="W6:W50" si="9">IF(SUMIF($Y$4:$Y$50,R6,$AB$4:$AB$50)+SUMIF($Y$4:$Y$50,R6,$AE$4:$AE$50)=0,"",SUMIF($Y$4:$Y$50,R6,$AB$4:$AB$50)+SUMIF($Y$4:$Y$50,R6,$AE$4:$AE$50))</f>
         <v>22</v>
       </c>
@@ -11814,7 +9014,7 @@
         <v>179</v>
       </c>
       <c r="AB6" s="79"/>
-      <c r="AC6" s="172" t="str">
+      <c r="AC6" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -11825,7 +9025,7 @@
       <c r="AE6" s="79">
         <v>2</v>
       </c>
-      <c r="AF6" s="172">
+      <c r="AF6" s="149">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
@@ -11838,7 +9038,7 @@
         <v>0.6</v>
       </c>
       <c r="AI6" s="79"/>
-      <c r="AJ6" s="172" t="str">
+      <c r="AJ6" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -11847,7 +9047,7 @@
         <f>IF(AND($Z6="External roof",AK6&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM6" s="173" t="str">
+      <c r="AM6" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11860,7 +9060,7 @@
         <f>IF(AND($Z6="Heat loss floor",AO6&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ6" s="173" t="str">
+      <c r="AQ6" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -11913,7 +9113,7 @@
       <c r="BI6" s="79">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BJ6" s="172">
+      <c r="BJ6" s="149">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
@@ -12034,7 +9234,7 @@
       <c r="V7" s="79">
         <v>30</v>
       </c>
-      <c r="W7" s="172">
+      <c r="W7" s="149">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
@@ -12048,7 +9248,7 @@
         <v>178</v>
       </c>
       <c r="AB7" s="79"/>
-      <c r="AC7" s="172" t="str">
+      <c r="AC7" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12057,7 +9257,7 @@
         <v/>
       </c>
       <c r="AE7" s="79"/>
-      <c r="AF7" s="172" t="str">
+      <c r="AF7" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12072,7 +9272,7 @@
       <c r="AI7" s="79">
         <v>2</v>
       </c>
-      <c r="AJ7" s="172">
+      <c r="AJ7" s="149">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
@@ -12081,7 +9281,7 @@
         <f>IF(AND($Z7="External roof",AK7&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM7" s="173" t="str">
+      <c r="AM7" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -12094,7 +9294,7 @@
         <f>IF(AND($Z7="Heat loss floor",AO7&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ7" s="173" t="str">
+      <c r="AQ7" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -12147,7 +9347,7 @@
       <c r="BI7" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ7" s="172">
+      <c r="BJ7" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -12272,7 +9472,7 @@
       <c r="V8" s="79">
         <v>30</v>
       </c>
-      <c r="W8" s="172">
+      <c r="W8" s="149">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -12286,7 +9486,7 @@
         <v>294</v>
       </c>
       <c r="AB8" s="79"/>
-      <c r="AC8" s="172" t="str">
+      <c r="AC8" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12295,7 +9495,7 @@
         <v/>
       </c>
       <c r="AE8" s="79"/>
-      <c r="AF8" s="172" t="str">
+      <c r="AF8" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12308,7 +9508,7 @@
         <v/>
       </c>
       <c r="AI8" s="79"/>
-      <c r="AJ8" s="172" t="str">
+      <c r="AJ8" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -12319,7 +9519,7 @@
         <f>IF(AND($Z8="External roof",AK8&gt;0),'Performance inputs'!$B$4,"")</f>
         <v>0.11</v>
       </c>
-      <c r="AM8" s="173" t="str">
+      <c r="AM8" s="150" t="str">
         <f t="shared" si="4"/>
         <v>ExternalPlane</v>
       </c>
@@ -12332,7 +9532,7 @@
         <f>IF(AND($Z8="Heat loss floor",AO8&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ8" s="173" t="str">
+      <c r="AQ8" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -12385,7 +9585,7 @@
       <c r="BI8" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ8" s="172">
+      <c r="BJ8" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -12504,7 +9704,7 @@
       <c r="T9" s="79"/>
       <c r="U9" s="79"/>
       <c r="V9" s="79"/>
-      <c r="W9" s="172" t="str">
+      <c r="W9" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -12518,7 +9718,7 @@
         <v>182</v>
       </c>
       <c r="AB9" s="79"/>
-      <c r="AC9" s="172" t="str">
+      <c r="AC9" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12527,7 +9727,7 @@
         <v/>
       </c>
       <c r="AE9" s="79"/>
-      <c r="AF9" s="172" t="str">
+      <c r="AF9" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12540,7 +9740,7 @@
         <v/>
       </c>
       <c r="AI9" s="79"/>
-      <c r="AJ9" s="172" t="str">
+      <c r="AJ9" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -12549,7 +9749,7 @@
         <f>IF(AND($Z9="External roof",AK9&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM9" s="173" t="str">
+      <c r="AM9" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -12562,7 +9762,7 @@
         <f>IF(AND($Z9="Heat loss floor",AO9&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ9" s="173" t="str">
+      <c r="AQ9" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -12617,7 +9817,7 @@
       <c r="BI9" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ9" s="172">
+      <c r="BJ9" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -12742,7 +9942,7 @@
       <c r="T10" s="79"/>
       <c r="U10" s="79"/>
       <c r="V10" s="79"/>
-      <c r="W10" s="172" t="str">
+      <c r="W10" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -12756,7 +9956,7 @@
         <v>465</v>
       </c>
       <c r="AB10" s="79"/>
-      <c r="AC10" s="172" t="str">
+      <c r="AC10" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12765,7 +9965,7 @@
         <v/>
       </c>
       <c r="AE10" s="79"/>
-      <c r="AF10" s="172" t="str">
+      <c r="AF10" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12778,7 +9978,7 @@
         <v/>
       </c>
       <c r="AI10" s="79"/>
-      <c r="AJ10" s="172" t="str">
+      <c r="AJ10" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -12789,7 +9989,7 @@
         <f>IF(AND($Z10="External roof",AK10&gt;0),'Performance inputs'!$B$4,"")</f>
         <v>0.11</v>
       </c>
-      <c r="AM10" s="173" t="str">
+      <c r="AM10" s="150" t="str">
         <f t="shared" si="4"/>
         <v>ExternalPlane</v>
       </c>
@@ -12802,7 +10002,7 @@
         <f>IF(AND($Z10="Heat loss floor",AO10&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ10" s="173" t="str">
+      <c r="AQ10" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -12855,7 +10055,7 @@
       <c r="BI10" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ10" s="172">
+      <c r="BJ10" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -12951,7 +10151,7 @@
       <c r="T11" s="79"/>
       <c r="U11" s="79"/>
       <c r="V11" s="79"/>
-      <c r="W11" s="172" t="str">
+      <c r="W11" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -12965,7 +10165,7 @@
         <v>295</v>
       </c>
       <c r="AB11" s="79"/>
-      <c r="AC11" s="172" t="str">
+      <c r="AC11" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -12974,7 +10174,7 @@
         <v/>
       </c>
       <c r="AE11" s="79"/>
-      <c r="AF11" s="172" t="str">
+      <c r="AF11" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12987,7 +10187,7 @@
         <v/>
       </c>
       <c r="AI11" s="79"/>
-      <c r="AJ11" s="172" t="str">
+      <c r="AJ11" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -12996,7 +10196,7 @@
         <f>IF(AND($Z11="External roof",AK11&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM11" s="173" t="str">
+      <c r="AM11" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13011,7 +10211,7 @@
         <f>IF(AND($Z11="Heat loss floor",AO11&gt;0),'Performance inputs'!$B$6,"")</f>
         <v>0.13</v>
       </c>
-      <c r="AQ11" s="173" t="str">
+      <c r="AQ11" s="150" t="str">
         <f t="shared" si="5"/>
         <v>GroundSolid</v>
       </c>
@@ -13064,7 +10264,7 @@
       <c r="BI11" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ11" s="172">
+      <c r="BJ11" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -13164,7 +10364,7 @@
       <c r="T12" s="79"/>
       <c r="U12" s="79"/>
       <c r="V12" s="79"/>
-      <c r="W12" s="172" t="str">
+      <c r="W12" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -13180,7 +10380,7 @@
       <c r="AB12" s="79">
         <v>7</v>
       </c>
-      <c r="AC12" s="172">
+      <c r="AC12" s="149">
         <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
@@ -13189,7 +10389,7 @@
         <v>0.18</v>
       </c>
       <c r="AE12" s="79"/>
-      <c r="AF12" s="172" t="str">
+      <c r="AF12" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -13202,7 +10402,7 @@
         <v/>
       </c>
       <c r="AI12" s="79"/>
-      <c r="AJ12" s="172" t="str">
+      <c r="AJ12" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -13211,7 +10411,7 @@
         <f>IF(AND($Z12="External roof",AK12&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM12" s="173" t="str">
+      <c r="AM12" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13224,7 +10424,7 @@
         <f>IF(AND($Z12="Heat loss floor",AO12&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ12" s="173" t="str">
+      <c r="AQ12" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -13277,7 +10477,7 @@
       <c r="BI12" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ12" s="172">
+      <c r="BJ12" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -13382,7 +10582,7 @@
       <c r="T13" s="79"/>
       <c r="U13" s="79"/>
       <c r="V13" s="79"/>
-      <c r="W13" s="172" t="str">
+      <c r="W13" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -13396,7 +10596,7 @@
         <v>468</v>
       </c>
       <c r="AB13" s="79"/>
-      <c r="AC13" s="172" t="str">
+      <c r="AC13" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13405,7 +10605,7 @@
         <v/>
       </c>
       <c r="AE13" s="79"/>
-      <c r="AF13" s="172" t="str">
+      <c r="AF13" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -13418,7 +10618,7 @@
         <v/>
       </c>
       <c r="AI13" s="79"/>
-      <c r="AJ13" s="172" t="str">
+      <c r="AJ13" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -13427,7 +10627,7 @@
         <f>IF(AND($Z13="External roof",AK13&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM13" s="173" t="str">
+      <c r="AM13" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13442,7 +10642,7 @@
         <f>IF(AND($Z13="Heat loss floor",AO13&gt;0),'Performance inputs'!$B$6,"")</f>
         <v>0.13</v>
       </c>
-      <c r="AQ13" s="173" t="str">
+      <c r="AQ13" s="150" t="str">
         <f t="shared" si="5"/>
         <v>GroundSolid</v>
       </c>
@@ -13495,7 +10695,7 @@
       <c r="BI13" s="79">
         <v>1.7</v>
       </c>
-      <c r="BJ13" s="172">
+      <c r="BJ13" s="149">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -13601,7 +10801,7 @@
       <c r="T14" s="79"/>
       <c r="U14" s="79"/>
       <c r="V14" s="79"/>
-      <c r="W14" s="172" t="str">
+      <c r="W14" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -13615,7 +10815,7 @@
         <v>480</v>
       </c>
       <c r="AB14" s="79"/>
-      <c r="AC14" s="172" t="str">
+      <c r="AC14" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -13624,7 +10824,7 @@
         <v/>
       </c>
       <c r="AE14" s="79"/>
-      <c r="AF14" s="172" t="str">
+      <c r="AF14" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -13637,7 +10837,7 @@
         <v/>
       </c>
       <c r="AI14" s="79"/>
-      <c r="AJ14" s="172" t="str">
+      <c r="AJ14" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -13646,7 +10846,7 @@
         <f>IF(AND($Z14="External roof",AK14&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM14" s="173" t="str">
+      <c r="AM14" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13659,7 +10859,7 @@
         <f>IF(AND($Z14="Heat loss floor",AO14&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ14" s="173" t="str">
+      <c r="AQ14" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -13693,7 +10893,7 @@
       <c r="BG14" s="71"/>
       <c r="BH14" s="79"/>
       <c r="BI14" s="79"/>
-      <c r="BJ14" s="172" t="str">
+      <c r="BJ14" s="149" t="str">
         <f>IF(AND(BH14&gt;0,BI14&gt;0),BH14*BI14,"")</f>
         <v/>
       </c>
@@ -13796,7 +10996,7 @@
       <c r="T15" s="79"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
-      <c r="W15" s="172" t="str">
+      <c r="W15" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -13812,7 +11012,7 @@
       <c r="AB15" s="79">
         <v>2</v>
       </c>
-      <c r="AC15" s="172">
+      <c r="AC15" s="149">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
@@ -13821,7 +11021,7 @@
         <v>0.18</v>
       </c>
       <c r="AE15" s="79"/>
-      <c r="AF15" s="172" t="str">
+      <c r="AF15" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -13834,7 +11034,7 @@
         <v/>
       </c>
       <c r="AI15" s="79"/>
-      <c r="AJ15" s="172" t="str">
+      <c r="AJ15" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -13843,7 +11043,7 @@
         <f>IF(AND($Z15="External roof",AK15&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM15" s="173" t="str">
+      <c r="AM15" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13856,7 +11056,7 @@
         <f>IF(AND($Z15="Heat loss floor",AO15&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ15" s="173" t="str">
+      <c r="AQ15" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -13888,7 +11088,7 @@
       <c r="BG15" s="71"/>
       <c r="BH15" s="79"/>
       <c r="BI15" s="79"/>
-      <c r="BJ15" s="172" t="str">
+      <c r="BJ15" s="149" t="str">
         <f>IF(AND(BH15&gt;0,BI15&gt;0),BH15*BI15,"")</f>
         <v/>
       </c>
@@ -13993,7 +11193,7 @@
       <c r="T16" s="79"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
-      <c r="W16" s="172" t="str">
+      <c r="W16" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -14009,7 +11209,7 @@
       <c r="AB16" s="79">
         <v>20</v>
       </c>
-      <c r="AC16" s="172">
+      <c r="AC16" s="149">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -14018,7 +11218,7 @@
         <v>0.18</v>
       </c>
       <c r="AE16" s="79"/>
-      <c r="AF16" s="172" t="str">
+      <c r="AF16" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -14031,7 +11231,7 @@
         <v/>
       </c>
       <c r="AI16" s="79"/>
-      <c r="AJ16" s="172" t="str">
+      <c r="AJ16" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14040,7 +11240,7 @@
         <f>IF(AND($Z16="External roof",AK16&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM16" s="173" t="str">
+      <c r="AM16" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -14053,7 +11253,7 @@
         <f>IF(AND($Z16="Heat loss floor",AO16&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ16" s="173" t="str">
+      <c r="AQ16" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14085,7 +11285,7 @@
       <c r="BG16" s="71"/>
       <c r="BH16" s="79"/>
       <c r="BI16" s="79"/>
-      <c r="BJ16" s="172" t="str">
+      <c r="BJ16" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -14193,7 +11393,7 @@
       <c r="T17" s="79"/>
       <c r="U17" s="79"/>
       <c r="V17" s="79"/>
-      <c r="W17" s="172" t="str">
+      <c r="W17" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -14207,7 +11407,7 @@
         <v>477</v>
       </c>
       <c r="AB17" s="79"/>
-      <c r="AC17" s="172" t="str">
+      <c r="AC17" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -14218,7 +11418,7 @@
       <c r="AE17" s="79">
         <v>15</v>
       </c>
-      <c r="AF17" s="172">
+      <c r="AF17" s="149">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -14231,7 +11431,7 @@
         <v>0.6</v>
       </c>
       <c r="AI17" s="79"/>
-      <c r="AJ17" s="172" t="str">
+      <c r="AJ17" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14240,7 +11440,7 @@
         <f>IF(AND($Z17="External roof",AK17&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM17" s="173" t="str">
+      <c r="AM17" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -14253,7 +11453,7 @@
         <f>IF(AND($Z17="Heat loss floor",AO17&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ17" s="173" t="str">
+      <c r="AQ17" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14285,7 +11485,7 @@
       <c r="BG17" s="71"/>
       <c r="BH17" s="79"/>
       <c r="BI17" s="79"/>
-      <c r="BJ17" s="172" t="str">
+      <c r="BJ17" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -14420,7 +11620,7 @@
       <c r="T18" s="79"/>
       <c r="U18" s="79"/>
       <c r="V18" s="79"/>
-      <c r="W18" s="172" t="str">
+      <c r="W18" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -14434,7 +11634,7 @@
         <v>478</v>
       </c>
       <c r="AB18" s="79"/>
-      <c r="AC18" s="172" t="str">
+      <c r="AC18" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -14443,7 +11643,7 @@
         <v/>
       </c>
       <c r="AE18" s="79"/>
-      <c r="AF18" s="172" t="str">
+      <c r="AF18" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -14458,7 +11658,7 @@
       <c r="AI18" s="79">
         <v>2</v>
       </c>
-      <c r="AJ18" s="172">
+      <c r="AJ18" s="149">
         <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
@@ -14467,7 +11667,7 @@
         <f>IF(AND($Z18="External roof",AK18&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM18" s="173" t="str">
+      <c r="AM18" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -14480,7 +11680,7 @@
         <f>IF(AND($Z18="Heat loss floor",AO18&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ18" s="173" t="str">
+      <c r="AQ18" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14512,7 +11712,7 @@
       <c r="BG18" s="71"/>
       <c r="BH18" s="79"/>
       <c r="BI18" s="79"/>
-      <c r="BJ18" s="172" t="str">
+      <c r="BJ18" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -14619,7 +11819,7 @@
       <c r="T19" s="79"/>
       <c r="U19" s="79"/>
       <c r="V19" s="79"/>
-      <c r="W19" s="172" t="str">
+      <c r="W19" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -14635,7 +11835,7 @@
       <c r="AB19" s="79">
         <v>10</v>
       </c>
-      <c r="AC19" s="172">
+      <c r="AC19" s="149">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -14644,7 +11844,7 @@
         <v>0.18</v>
       </c>
       <c r="AE19" s="79"/>
-      <c r="AF19" s="172" t="str">
+      <c r="AF19" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -14657,7 +11857,7 @@
         <v/>
       </c>
       <c r="AI19" s="79"/>
-      <c r="AJ19" s="172" t="str">
+      <c r="AJ19" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14666,7 +11866,7 @@
         <f>IF(AND($Z19="External roof",AK19&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM19" s="173" t="str">
+      <c r="AM19" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -14679,7 +11879,7 @@
         <f>IF(AND($Z19="Heat loss floor",AO19&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ19" s="173" t="str">
+      <c r="AQ19" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14714,7 +11914,7 @@
       <c r="BG19" s="71"/>
       <c r="BH19" s="79"/>
       <c r="BI19" s="79"/>
-      <c r="BJ19" s="172" t="str">
+      <c r="BJ19" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -14848,7 +12048,7 @@
       <c r="T20" s="79"/>
       <c r="U20" s="79"/>
       <c r="V20" s="79"/>
-      <c r="W20" s="172" t="str">
+      <c r="W20" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -14862,7 +12062,7 @@
         <v>467</v>
       </c>
       <c r="AB20" s="79"/>
-      <c r="AC20" s="172" t="str">
+      <c r="AC20" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -14871,7 +12071,7 @@
         <v/>
       </c>
       <c r="AE20" s="79"/>
-      <c r="AF20" s="172" t="str">
+      <c r="AF20" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -14884,7 +12084,7 @@
         <v/>
       </c>
       <c r="AI20" s="79"/>
-      <c r="AJ20" s="172" t="str">
+      <c r="AJ20" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -14895,7 +12095,7 @@
         <f>IF(AND($Z20="External roof",AK20&gt;0),'Performance inputs'!$B$4,"")</f>
         <v>0.11</v>
       </c>
-      <c r="AM20" s="173" t="str">
+      <c r="AM20" s="150" t="str">
         <f t="shared" si="4"/>
         <v>ExternalPlane</v>
       </c>
@@ -14908,7 +12108,7 @@
         <f>IF(AND($Z20="Heat loss floor",AO20&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ20" s="173" t="str">
+      <c r="AQ20" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14943,7 +12143,7 @@
       <c r="BG20" s="71"/>
       <c r="BH20" s="79"/>
       <c r="BI20" s="79"/>
-      <c r="BJ20" s="172" t="str">
+      <c r="BJ20" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15050,7 +12250,7 @@
       <c r="T21" s="79"/>
       <c r="U21" s="79"/>
       <c r="V21" s="79"/>
-      <c r="W21" s="172" t="str">
+      <c r="W21" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -15064,7 +12264,7 @@
         <v>479</v>
       </c>
       <c r="AB21" s="79"/>
-      <c r="AC21" s="172" t="str">
+      <c r="AC21" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -15073,7 +12273,7 @@
         <v/>
       </c>
       <c r="AE21" s="79"/>
-      <c r="AF21" s="172" t="str">
+      <c r="AF21" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -15086,7 +12286,7 @@
         <v/>
       </c>
       <c r="AI21" s="79"/>
-      <c r="AJ21" s="172" t="str">
+      <c r="AJ21" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -15097,7 +12297,7 @@
         <f>IF(AND($Z21="External roof",AK21&gt;0),'Performance inputs'!$B$4,"")</f>
         <v>0.11</v>
       </c>
-      <c r="AM21" s="173" t="str">
+      <c r="AM21" s="150" t="str">
         <f t="shared" si="4"/>
         <v>ExternalPlane</v>
       </c>
@@ -15110,7 +12310,7 @@
         <f>IF(AND($Z21="Heat loss floor",AO21&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ21" s="173" t="str">
+      <c r="AQ21" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15145,7 +12345,7 @@
       <c r="BG21" s="71"/>
       <c r="BH21" s="79"/>
       <c r="BI21" s="79"/>
-      <c r="BJ21" s="172" t="str">
+      <c r="BJ21" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15283,7 +12483,7 @@
       <c r="T22" s="79"/>
       <c r="U22" s="79"/>
       <c r="V22" s="79"/>
-      <c r="W22" s="172" t="str">
+      <c r="W22" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -15291,7 +12491,7 @@
       <c r="Z22" s="71"/>
       <c r="AA22" s="61"/>
       <c r="AB22" s="79"/>
-      <c r="AC22" s="172" t="str">
+      <c r="AC22" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -15300,7 +12500,7 @@
         <v/>
       </c>
       <c r="AE22" s="79"/>
-      <c r="AF22" s="172" t="str">
+      <c r="AF22" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -15313,7 +12513,7 @@
         <v/>
       </c>
       <c r="AI22" s="79"/>
-      <c r="AJ22" s="172" t="str">
+      <c r="AJ22" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -15322,7 +12522,7 @@
         <f>IF(AND($Z22="External roof",AK22&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM22" s="173" t="str">
+      <c r="AM22" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -15335,7 +12535,7 @@
         <f>IF(AND($Z22="Heat loss floor",AO22&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ22" s="173" t="str">
+      <c r="AQ22" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15370,7 +12570,7 @@
       <c r="BG22" s="71"/>
       <c r="BH22" s="79"/>
       <c r="BI22" s="79"/>
-      <c r="BJ22" s="172" t="str">
+      <c r="BJ22" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15507,7 +12707,7 @@
       <c r="T23" s="79"/>
       <c r="U23" s="79"/>
       <c r="V23" s="79"/>
-      <c r="W23" s="172" t="str">
+      <c r="W23" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -15515,7 +12715,7 @@
       <c r="Z23" s="71"/>
       <c r="AA23" s="61"/>
       <c r="AB23" s="79"/>
-      <c r="AC23" s="172" t="str">
+      <c r="AC23" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -15524,7 +12724,7 @@
         <v/>
       </c>
       <c r="AE23" s="79"/>
-      <c r="AF23" s="172" t="str">
+      <c r="AF23" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -15537,7 +12737,7 @@
         <v/>
       </c>
       <c r="AI23" s="79"/>
-      <c r="AJ23" s="172" t="str">
+      <c r="AJ23" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -15546,7 +12746,7 @@
         <f>IF(AND($Z23="External roof",AK23&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM23" s="173" t="str">
+      <c r="AM23" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -15559,7 +12759,7 @@
         <f>IF(AND($Z23="Heat loss floor",AO23&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ23" s="173" t="str">
+      <c r="AQ23" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15594,7 +12794,7 @@
       <c r="BG23" s="71"/>
       <c r="BH23" s="79"/>
       <c r="BI23" s="79"/>
-      <c r="BJ23" s="172" t="str">
+      <c r="BJ23" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15732,7 +12932,7 @@
       <c r="T24" s="79"/>
       <c r="U24" s="79"/>
       <c r="V24" s="79"/>
-      <c r="W24" s="172" t="str">
+      <c r="W24" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -15740,7 +12940,7 @@
       <c r="Z24" s="71"/>
       <c r="AA24" s="61"/>
       <c r="AB24" s="79"/>
-      <c r="AC24" s="172" t="str">
+      <c r="AC24" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -15749,7 +12949,7 @@
         <v/>
       </c>
       <c r="AE24" s="79"/>
-      <c r="AF24" s="172" t="str">
+      <c r="AF24" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -15762,7 +12962,7 @@
         <v/>
       </c>
       <c r="AI24" s="79"/>
-      <c r="AJ24" s="172" t="str">
+      <c r="AJ24" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -15771,7 +12971,7 @@
         <f>IF(AND($Z24="External roof",AK24&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM24" s="173" t="str">
+      <c r="AM24" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -15784,7 +12984,7 @@
         <f>IF(AND($Z24="Heat loss floor",AO24&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ24" s="173" t="str">
+      <c r="AQ24" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15819,7 +13019,7 @@
       <c r="BG24" s="71"/>
       <c r="BH24" s="79"/>
       <c r="BI24" s="79"/>
-      <c r="BJ24" s="172" t="str">
+      <c r="BJ24" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15944,7 +13144,7 @@
       <c r="T25" s="79"/>
       <c r="U25" s="79"/>
       <c r="V25" s="79"/>
-      <c r="W25" s="172" t="str">
+      <c r="W25" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -15952,7 +13152,7 @@
       <c r="Z25" s="71"/>
       <c r="AA25" s="61"/>
       <c r="AB25" s="79"/>
-      <c r="AC25" s="172" t="str">
+      <c r="AC25" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -15961,7 +13161,7 @@
         <v/>
       </c>
       <c r="AE25" s="79"/>
-      <c r="AF25" s="172" t="str">
+      <c r="AF25" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -15974,7 +13174,7 @@
         <v/>
       </c>
       <c r="AI25" s="79"/>
-      <c r="AJ25" s="172" t="str">
+      <c r="AJ25" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -15983,7 +13183,7 @@
         <f>IF(AND($Z25="External roof",AK25&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM25" s="173" t="str">
+      <c r="AM25" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -15996,7 +13196,7 @@
         <f>IF(AND($Z25="Heat loss floor",AO25&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ25" s="173" t="str">
+      <c r="AQ25" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -16031,7 +13231,7 @@
       <c r="BG25" s="71"/>
       <c r="BH25" s="79"/>
       <c r="BI25" s="79"/>
-      <c r="BJ25" s="172" t="str">
+      <c r="BJ25" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16134,7 +13334,7 @@
       <c r="T26" s="79"/>
       <c r="U26" s="79"/>
       <c r="V26" s="79"/>
-      <c r="W26" s="172" t="str">
+      <c r="W26" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -16142,7 +13342,7 @@
       <c r="Z26" s="71"/>
       <c r="AA26" s="61"/>
       <c r="AB26" s="79"/>
-      <c r="AC26" s="172" t="str">
+      <c r="AC26" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -16151,7 +13351,7 @@
         <v/>
       </c>
       <c r="AE26" s="79"/>
-      <c r="AF26" s="172" t="str">
+      <c r="AF26" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -16164,7 +13364,7 @@
         <v/>
       </c>
       <c r="AI26" s="79"/>
-      <c r="AJ26" s="172" t="str">
+      <c r="AJ26" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -16173,7 +13373,7 @@
         <f>IF(AND($Z26="External roof",AK26&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM26" s="173" t="str">
+      <c r="AM26" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -16186,7 +13386,7 @@
         <f>IF(AND($Z26="Heat loss floor",AO26&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ26" s="173" t="str">
+      <c r="AQ26" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -16221,7 +13421,7 @@
       <c r="BG26" s="71"/>
       <c r="BH26" s="79"/>
       <c r="BI26" s="79"/>
-      <c r="BJ26" s="172" t="str">
+      <c r="BJ26" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16355,7 +13555,7 @@
       <c r="T27" s="79"/>
       <c r="U27" s="79"/>
       <c r="V27" s="79"/>
-      <c r="W27" s="172" t="str">
+      <c r="W27" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -16363,7 +13563,7 @@
       <c r="Z27" s="71"/>
       <c r="AA27" s="61"/>
       <c r="AB27" s="79"/>
-      <c r="AC27" s="172" t="str">
+      <c r="AC27" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -16372,7 +13572,7 @@
         <v/>
       </c>
       <c r="AE27" s="79"/>
-      <c r="AF27" s="172" t="str">
+      <c r="AF27" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -16385,7 +13585,7 @@
         <v/>
       </c>
       <c r="AI27" s="79"/>
-      <c r="AJ27" s="172" t="str">
+      <c r="AJ27" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -16394,7 +13594,7 @@
         <f>IF(AND($Z27="External roof",AK27&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM27" s="173" t="str">
+      <c r="AM27" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -16407,7 +13607,7 @@
         <f>IF(AND($Z27="Heat loss floor",AO27&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ27" s="173" t="str">
+      <c r="AQ27" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -16442,7 +13642,7 @@
       <c r="BG27" s="71"/>
       <c r="BH27" s="79"/>
       <c r="BI27" s="79"/>
-      <c r="BJ27" s="172" t="str">
+      <c r="BJ27" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16551,7 +13751,7 @@
       <c r="T28" s="79"/>
       <c r="U28" s="79"/>
       <c r="V28" s="79"/>
-      <c r="W28" s="172" t="str">
+      <c r="W28" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -16559,7 +13759,7 @@
       <c r="Z28" s="71"/>
       <c r="AA28" s="61"/>
       <c r="AB28" s="79"/>
-      <c r="AC28" s="172" t="str">
+      <c r="AC28" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -16568,7 +13768,7 @@
         <v/>
       </c>
       <c r="AE28" s="79"/>
-      <c r="AF28" s="172" t="str">
+      <c r="AF28" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -16581,7 +13781,7 @@
         <v/>
       </c>
       <c r="AI28" s="79"/>
-      <c r="AJ28" s="172" t="str">
+      <c r="AJ28" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -16590,7 +13790,7 @@
         <f>IF(AND($Z28="External roof",AK28&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM28" s="173" t="str">
+      <c r="AM28" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -16603,7 +13803,7 @@
         <f>IF(AND($Z28="Heat loss floor",AO28&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ28" s="173" t="str">
+      <c r="AQ28" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -16638,7 +13838,7 @@
       <c r="BG28" s="71"/>
       <c r="BH28" s="79"/>
       <c r="BI28" s="79"/>
-      <c r="BJ28" s="172" t="str">
+      <c r="BJ28" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16776,7 +13976,7 @@
       <c r="T29" s="79"/>
       <c r="U29" s="79"/>
       <c r="V29" s="79"/>
-      <c r="W29" s="172" t="str">
+      <c r="W29" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -16784,7 +13984,7 @@
       <c r="Z29" s="71"/>
       <c r="AA29" s="61"/>
       <c r="AB29" s="79"/>
-      <c r="AC29" s="172" t="str">
+      <c r="AC29" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -16793,7 +13993,7 @@
         <v/>
       </c>
       <c r="AE29" s="79"/>
-      <c r="AF29" s="172" t="str">
+      <c r="AF29" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -16806,7 +14006,7 @@
         <v/>
       </c>
       <c r="AI29" s="79"/>
-      <c r="AJ29" s="172" t="str">
+      <c r="AJ29" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -16815,7 +14015,7 @@
         <f>IF(AND($Z29="External roof",AK29&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM29" s="173" t="str">
+      <c r="AM29" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -16828,7 +14028,7 @@
         <f>IF(AND($Z29="Heat loss floor",AO29&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ29" s="173" t="str">
+      <c r="AQ29" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -16863,7 +14063,7 @@
       <c r="BG29" s="71"/>
       <c r="BH29" s="79"/>
       <c r="BI29" s="79"/>
-      <c r="BJ29" s="172" t="str">
+      <c r="BJ29" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -17002,7 +14202,7 @@
       <c r="T30" s="79"/>
       <c r="U30" s="79"/>
       <c r="V30" s="79"/>
-      <c r="W30" s="172" t="str">
+      <c r="W30" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -17010,7 +14210,7 @@
       <c r="Z30" s="71"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="79"/>
-      <c r="AC30" s="172" t="str">
+      <c r="AC30" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -17019,7 +14219,7 @@
         <v/>
       </c>
       <c r="AE30" s="79"/>
-      <c r="AF30" s="172" t="str">
+      <c r="AF30" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -17032,7 +14232,7 @@
         <v/>
       </c>
       <c r="AI30" s="79"/>
-      <c r="AJ30" s="172" t="str">
+      <c r="AJ30" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -17041,7 +14241,7 @@
         <f>IF(AND($Z30="External roof",AK30&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM30" s="173" t="str">
+      <c r="AM30" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -17054,7 +14254,7 @@
         <f>IF(AND($Z30="Heat loss floor",AO30&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ30" s="173" t="str">
+      <c r="AQ30" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -17089,7 +14289,7 @@
       <c r="BG30" s="71"/>
       <c r="BH30" s="79"/>
       <c r="BI30" s="79"/>
-      <c r="BJ30" s="172" t="str">
+      <c r="BJ30" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -17227,7 +14427,7 @@
       <c r="T31" s="79"/>
       <c r="U31" s="79"/>
       <c r="V31" s="79"/>
-      <c r="W31" s="172" t="str">
+      <c r="W31" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -17235,7 +14435,7 @@
       <c r="Z31" s="71"/>
       <c r="AA31" s="61"/>
       <c r="AB31" s="79"/>
-      <c r="AC31" s="172" t="str">
+      <c r="AC31" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -17244,7 +14444,7 @@
         <v/>
       </c>
       <c r="AE31" s="79"/>
-      <c r="AF31" s="172" t="str">
+      <c r="AF31" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -17257,7 +14457,7 @@
         <v/>
       </c>
       <c r="AI31" s="79"/>
-      <c r="AJ31" s="172" t="str">
+      <c r="AJ31" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -17266,7 +14466,7 @@
         <f>IF(AND($Z31="External roof",AK31&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM31" s="173" t="str">
+      <c r="AM31" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -17279,7 +14479,7 @@
         <f>IF(AND($Z31="Heat loss floor",AO31&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ31" s="173" t="str">
+      <c r="AQ31" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -17314,7 +14514,7 @@
       <c r="BG31" s="71"/>
       <c r="BH31" s="79"/>
       <c r="BI31" s="79"/>
-      <c r="BJ31" s="172" t="str">
+      <c r="BJ31" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -17449,7 +14649,7 @@
       <c r="T32" s="79"/>
       <c r="U32" s="79"/>
       <c r="V32" s="79"/>
-      <c r="W32" s="172" t="str">
+      <c r="W32" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -17457,7 +14657,7 @@
       <c r="Z32" s="71"/>
       <c r="AA32" s="61"/>
       <c r="AB32" s="79"/>
-      <c r="AC32" s="172" t="str">
+      <c r="AC32" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -17466,7 +14666,7 @@
         <v/>
       </c>
       <c r="AE32" s="79"/>
-      <c r="AF32" s="172" t="str">
+      <c r="AF32" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -17479,7 +14679,7 @@
         <v/>
       </c>
       <c r="AI32" s="79"/>
-      <c r="AJ32" s="172" t="str">
+      <c r="AJ32" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -17488,7 +14688,7 @@
         <f>IF(AND($Z32="External roof",AK32&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM32" s="173" t="str">
+      <c r="AM32" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -17501,7 +14701,7 @@
         <f>IF(AND($Z32="Heat loss floor",AO32&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ32" s="173" t="str">
+      <c r="AQ32" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -17536,7 +14736,7 @@
       <c r="BG32" s="71"/>
       <c r="BH32" s="79"/>
       <c r="BI32" s="79"/>
-      <c r="BJ32" s="172" t="str">
+      <c r="BJ32" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -17631,7 +14831,7 @@
       <c r="T33" s="79"/>
       <c r="U33" s="79"/>
       <c r="V33" s="79"/>
-      <c r="W33" s="172" t="str">
+      <c r="W33" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -17639,7 +14839,7 @@
       <c r="Z33" s="71"/>
       <c r="AA33" s="61"/>
       <c r="AB33" s="79"/>
-      <c r="AC33" s="172" t="str">
+      <c r="AC33" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -17648,7 +14848,7 @@
         <v/>
       </c>
       <c r="AE33" s="79"/>
-      <c r="AF33" s="172" t="str">
+      <c r="AF33" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -17661,7 +14861,7 @@
         <v/>
       </c>
       <c r="AI33" s="79"/>
-      <c r="AJ33" s="172" t="str">
+      <c r="AJ33" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -17670,7 +14870,7 @@
         <f>IF(AND($Z33="External roof",AK33&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM33" s="173" t="str">
+      <c r="AM33" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -17683,7 +14883,7 @@
         <f>IF(AND($Z33="Heat loss floor",AO33&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ33" s="173" t="str">
+      <c r="AQ33" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -17718,7 +14918,7 @@
       <c r="BG33" s="71"/>
       <c r="BH33" s="79"/>
       <c r="BI33" s="79"/>
-      <c r="BJ33" s="172" t="str">
+      <c r="BJ33" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -17820,7 +15020,7 @@
       <c r="T34" s="79"/>
       <c r="U34" s="79"/>
       <c r="V34" s="79"/>
-      <c r="W34" s="172" t="str">
+      <c r="W34" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -17828,7 +15028,7 @@
       <c r="Z34" s="71"/>
       <c r="AA34" s="61"/>
       <c r="AB34" s="79"/>
-      <c r="AC34" s="172" t="str">
+      <c r="AC34" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -17837,7 +15037,7 @@
         <v/>
       </c>
       <c r="AE34" s="79"/>
-      <c r="AF34" s="172" t="str">
+      <c r="AF34" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -17850,7 +15050,7 @@
         <v/>
       </c>
       <c r="AI34" s="79"/>
-      <c r="AJ34" s="172" t="str">
+      <c r="AJ34" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -17859,7 +15059,7 @@
         <f>IF(AND($Z34="External roof",AK34&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM34" s="173" t="str">
+      <c r="AM34" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -17872,7 +15072,7 @@
         <f>IF(AND($Z34="Heat loss floor",AO34&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ34" s="173" t="str">
+      <c r="AQ34" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -17907,7 +15107,7 @@
       <c r="BG34" s="71"/>
       <c r="BH34" s="79"/>
       <c r="BI34" s="79"/>
-      <c r="BJ34" s="172" t="str">
+      <c r="BJ34" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -18043,7 +15243,7 @@
       <c r="T35" s="79"/>
       <c r="U35" s="79"/>
       <c r="V35" s="79"/>
-      <c r="W35" s="172" t="str">
+      <c r="W35" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -18051,7 +15251,7 @@
       <c r="Z35" s="71"/>
       <c r="AA35" s="61"/>
       <c r="AB35" s="79"/>
-      <c r="AC35" s="172" t="str">
+      <c r="AC35" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -18060,7 +15260,7 @@
         <v/>
       </c>
       <c r="AE35" s="79"/>
-      <c r="AF35" s="172" t="str">
+      <c r="AF35" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18073,7 +15273,7 @@
         <v/>
       </c>
       <c r="AI35" s="79"/>
-      <c r="AJ35" s="172" t="str">
+      <c r="AJ35" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -18082,7 +15282,7 @@
         <f>IF(AND($Z35="External roof",AK35&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM35" s="173" t="str">
+      <c r="AM35" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -18095,7 +15295,7 @@
         <f>IF(AND($Z35="Heat loss floor",AO35&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ35" s="173" t="str">
+      <c r="AQ35" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -18130,7 +15330,7 @@
       <c r="BG35" s="71"/>
       <c r="BH35" s="79"/>
       <c r="BI35" s="79"/>
-      <c r="BJ35" s="172" t="str">
+      <c r="BJ35" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -18244,7 +15444,7 @@
       <c r="T36" s="79"/>
       <c r="U36" s="79"/>
       <c r="V36" s="79"/>
-      <c r="W36" s="172" t="str">
+      <c r="W36" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -18252,7 +15452,7 @@
       <c r="Z36" s="71"/>
       <c r="AA36" s="61"/>
       <c r="AB36" s="79"/>
-      <c r="AC36" s="172" t="str">
+      <c r="AC36" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -18261,7 +15461,7 @@
         <v/>
       </c>
       <c r="AE36" s="79"/>
-      <c r="AF36" s="172" t="str">
+      <c r="AF36" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18274,7 +15474,7 @@
         <v/>
       </c>
       <c r="AI36" s="79"/>
-      <c r="AJ36" s="172" t="str">
+      <c r="AJ36" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -18283,7 +15483,7 @@
         <f>IF(AND($Z36="External roof",AK36&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM36" s="173" t="str">
+      <c r="AM36" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -18296,7 +15496,7 @@
         <f>IF(AND($Z36="Heat loss floor",AO36&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ36" s="173" t="str">
+      <c r="AQ36" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -18331,7 +15531,7 @@
       <c r="BG36" s="71"/>
       <c r="BH36" s="79"/>
       <c r="BI36" s="79"/>
-      <c r="BJ36" s="172" t="str">
+      <c r="BJ36" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -18474,7 +15674,7 @@
       <c r="T37" s="79"/>
       <c r="U37" s="79"/>
       <c r="V37" s="79"/>
-      <c r="W37" s="172" t="str">
+      <c r="W37" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -18482,7 +15682,7 @@
       <c r="Z37" s="71"/>
       <c r="AA37" s="61"/>
       <c r="AB37" s="79"/>
-      <c r="AC37" s="172" t="str">
+      <c r="AC37" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -18491,7 +15691,7 @@
         <v/>
       </c>
       <c r="AE37" s="79"/>
-      <c r="AF37" s="172" t="str">
+      <c r="AF37" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18504,7 +15704,7 @@
         <v/>
       </c>
       <c r="AI37" s="79"/>
-      <c r="AJ37" s="172" t="str">
+      <c r="AJ37" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -18513,7 +15713,7 @@
         <f>IF(AND($Z37="External roof",AK37&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM37" s="173" t="str">
+      <c r="AM37" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -18526,7 +15726,7 @@
         <f>IF(AND($Z37="Heat loss floor",AO37&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ37" s="173" t="str">
+      <c r="AQ37" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -18561,7 +15761,7 @@
       <c r="BG37" s="71"/>
       <c r="BH37" s="79"/>
       <c r="BI37" s="79"/>
-      <c r="BJ37" s="172" t="str">
+      <c r="BJ37" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -18705,7 +15905,7 @@
       <c r="T38" s="79"/>
       <c r="U38" s="79"/>
       <c r="V38" s="79"/>
-      <c r="W38" s="172" t="str">
+      <c r="W38" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -18713,7 +15913,7 @@
       <c r="Z38" s="71"/>
       <c r="AA38" s="61"/>
       <c r="AB38" s="79"/>
-      <c r="AC38" s="172" t="str">
+      <c r="AC38" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -18722,7 +15922,7 @@
         <v/>
       </c>
       <c r="AE38" s="79"/>
-      <c r="AF38" s="172" t="str">
+      <c r="AF38" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18735,7 +15935,7 @@
         <v/>
       </c>
       <c r="AI38" s="79"/>
-      <c r="AJ38" s="172" t="str">
+      <c r="AJ38" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -18744,7 +15944,7 @@
         <f>IF(AND($Z38="External roof",AK38&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM38" s="173" t="str">
+      <c r="AM38" s="150" t="str">
         <f>IF(AND(Z38="External roof",AK38&gt;0),"ExternalPlane","")</f>
         <v/>
       </c>
@@ -18757,7 +15957,7 @@
         <f>IF(AND($Z38="Heat loss floor",AO38&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ38" s="173" t="str">
+      <c r="AQ38" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -18792,7 +15992,7 @@
       <c r="BG38" s="71"/>
       <c r="BH38" s="79"/>
       <c r="BI38" s="79"/>
-      <c r="BJ38" s="172" t="str">
+      <c r="BJ38" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -18928,7 +16128,7 @@
       <c r="T39" s="79"/>
       <c r="U39" s="79"/>
       <c r="V39" s="79"/>
-      <c r="W39" s="172" t="str">
+      <c r="W39" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -18936,7 +16136,7 @@
       <c r="Z39" s="71"/>
       <c r="AA39" s="61"/>
       <c r="AB39" s="79"/>
-      <c r="AC39" s="172" t="str">
+      <c r="AC39" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -18945,7 +16145,7 @@
         <v/>
       </c>
       <c r="AE39" s="79"/>
-      <c r="AF39" s="172" t="str">
+      <c r="AF39" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18958,7 +16158,7 @@
         <v/>
       </c>
       <c r="AI39" s="79"/>
-      <c r="AJ39" s="172" t="str">
+      <c r="AJ39" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -18967,7 +16167,7 @@
         <f>IF(AND($Z39="External roof",AK39&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM39" s="173" t="str">
+      <c r="AM39" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -18980,7 +16180,7 @@
         <f>IF(AND($Z39="Heat loss floor",AO39&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ39" s="173" t="str">
+      <c r="AQ39" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -19015,7 +16215,7 @@
       <c r="BG39" s="71"/>
       <c r="BH39" s="79"/>
       <c r="BI39" s="79"/>
-      <c r="BJ39" s="172" t="str">
+      <c r="BJ39" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -19119,7 +16319,7 @@
       <c r="T40" s="79"/>
       <c r="U40" s="79"/>
       <c r="V40" s="79"/>
-      <c r="W40" s="172" t="str">
+      <c r="W40" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -19127,7 +16327,7 @@
       <c r="Z40" s="71"/>
       <c r="AA40" s="61"/>
       <c r="AB40" s="79"/>
-      <c r="AC40" s="172" t="str">
+      <c r="AC40" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -19136,7 +16336,7 @@
         <v/>
       </c>
       <c r="AE40" s="79"/>
-      <c r="AF40" s="172" t="str">
+      <c r="AF40" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19149,7 +16349,7 @@
         <v/>
       </c>
       <c r="AI40" s="79"/>
-      <c r="AJ40" s="172" t="str">
+      <c r="AJ40" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -19158,7 +16358,7 @@
         <f>IF(AND($Z40="External roof",AK40&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM40" s="173" t="str">
+      <c r="AM40" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -19171,7 +16371,7 @@
         <f>IF(AND($Z40="Heat loss floor",AO40&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ40" s="173" t="str">
+      <c r="AQ40" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -19206,7 +16406,7 @@
       <c r="BG40" s="71"/>
       <c r="BH40" s="79"/>
       <c r="BI40" s="79"/>
-      <c r="BJ40" s="172" t="str">
+      <c r="BJ40" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -19301,7 +16501,7 @@
       <c r="T41" s="79"/>
       <c r="U41" s="79"/>
       <c r="V41" s="79"/>
-      <c r="W41" s="172" t="str">
+      <c r="W41" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -19309,7 +16509,7 @@
       <c r="Z41" s="71"/>
       <c r="AA41" s="61"/>
       <c r="AB41" s="79"/>
-      <c r="AC41" s="172" t="str">
+      <c r="AC41" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -19318,7 +16518,7 @@
         <v/>
       </c>
       <c r="AE41" s="79"/>
-      <c r="AF41" s="172" t="str">
+      <c r="AF41" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19331,7 +16531,7 @@
         <v/>
       </c>
       <c r="AI41" s="79"/>
-      <c r="AJ41" s="172" t="str">
+      <c r="AJ41" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -19340,7 +16540,7 @@
         <f>IF(AND($Z41="External roof",AK41&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM41" s="173" t="str">
+      <c r="AM41" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -19353,7 +16553,7 @@
         <f>IF(AND($Z41="Heat loss floor",AO41&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ41" s="173" t="str">
+      <c r="AQ41" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -19388,7 +16588,7 @@
       <c r="BG41" s="71"/>
       <c r="BH41" s="79"/>
       <c r="BI41" s="79"/>
-      <c r="BJ41" s="172" t="str">
+      <c r="BJ41" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -19490,7 +16690,7 @@
       <c r="T42" s="79"/>
       <c r="U42" s="79"/>
       <c r="V42" s="79"/>
-      <c r="W42" s="172" t="str">
+      <c r="W42" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -19498,7 +16698,7 @@
       <c r="Z42" s="71"/>
       <c r="AA42" s="61"/>
       <c r="AB42" s="79"/>
-      <c r="AC42" s="172" t="str">
+      <c r="AC42" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -19507,7 +16707,7 @@
         <v/>
       </c>
       <c r="AE42" s="79"/>
-      <c r="AF42" s="172" t="str">
+      <c r="AF42" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19520,7 +16720,7 @@
         <v/>
       </c>
       <c r="AI42" s="79"/>
-      <c r="AJ42" s="172" t="str">
+      <c r="AJ42" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -19529,7 +16729,7 @@
         <f>IF(AND($Z42="External roof",AK42&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM42" s="173" t="str">
+      <c r="AM42" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -19542,7 +16742,7 @@
         <f>IF(AND($Z42="Heat loss floor",AO42&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ42" s="173" t="str">
+      <c r="AQ42" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -19577,7 +16777,7 @@
       <c r="BG42" s="71"/>
       <c r="BH42" s="79"/>
       <c r="BI42" s="79"/>
-      <c r="BJ42" s="172" t="str">
+      <c r="BJ42" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -19710,7 +16910,7 @@
       <c r="T43" s="79"/>
       <c r="U43" s="79"/>
       <c r="V43" s="79"/>
-      <c r="W43" s="172" t="str">
+      <c r="W43" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -19718,7 +16918,7 @@
       <c r="Z43" s="71"/>
       <c r="AA43" s="61"/>
       <c r="AB43" s="79"/>
-      <c r="AC43" s="172" t="str">
+      <c r="AC43" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -19727,7 +16927,7 @@
         <v/>
       </c>
       <c r="AE43" s="79"/>
-      <c r="AF43" s="172" t="str">
+      <c r="AF43" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19740,7 +16940,7 @@
         <v/>
       </c>
       <c r="AI43" s="79"/>
-      <c r="AJ43" s="172" t="str">
+      <c r="AJ43" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -19749,7 +16949,7 @@
         <f>IF(AND($Z43="External roof",AK43&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM43" s="173" t="str">
+      <c r="AM43" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -19762,7 +16962,7 @@
         <f>IF(AND($Z43="Heat loss floor",AO43&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ43" s="173" t="str">
+      <c r="AQ43" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -19797,7 +16997,7 @@
       <c r="BG43" s="71"/>
       <c r="BH43" s="79"/>
       <c r="BI43" s="79"/>
-      <c r="BJ43" s="172" t="str">
+      <c r="BJ43" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -19904,7 +17104,7 @@
       <c r="T44" s="79"/>
       <c r="U44" s="79"/>
       <c r="V44" s="79"/>
-      <c r="W44" s="172" t="str">
+      <c r="W44" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -19912,7 +17112,7 @@
       <c r="Z44" s="71"/>
       <c r="AA44" s="61"/>
       <c r="AB44" s="79"/>
-      <c r="AC44" s="172" t="str">
+      <c r="AC44" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -19921,7 +17121,7 @@
         <v/>
       </c>
       <c r="AE44" s="79"/>
-      <c r="AF44" s="172" t="str">
+      <c r="AF44" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19934,7 +17134,7 @@
         <v/>
       </c>
       <c r="AI44" s="79"/>
-      <c r="AJ44" s="172" t="str">
+      <c r="AJ44" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -19943,7 +17143,7 @@
         <f>IF(AND($Z44="External roof",AK44&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM44" s="173" t="str">
+      <c r="AM44" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -19956,7 +17156,7 @@
         <f>IF(AND($Z44="Heat loss floor",AO44&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ44" s="173" t="str">
+      <c r="AQ44" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -19991,7 +17191,7 @@
       <c r="BG44" s="71"/>
       <c r="BH44" s="79"/>
       <c r="BI44" s="79"/>
-      <c r="BJ44" s="172" t="str">
+      <c r="BJ44" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -20104,7 +17304,7 @@
       <c r="T45" s="79"/>
       <c r="U45" s="79"/>
       <c r="V45" s="79"/>
-      <c r="W45" s="172" t="str">
+      <c r="W45" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -20112,7 +17312,7 @@
       <c r="Z45" s="71"/>
       <c r="AA45" s="61"/>
       <c r="AB45" s="79"/>
-      <c r="AC45" s="172" t="str">
+      <c r="AC45" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -20121,7 +17321,7 @@
         <v/>
       </c>
       <c r="AE45" s="79"/>
-      <c r="AF45" s="172" t="str">
+      <c r="AF45" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20134,7 +17334,7 @@
         <v/>
       </c>
       <c r="AI45" s="79"/>
-      <c r="AJ45" s="172" t="str">
+      <c r="AJ45" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -20143,7 +17343,7 @@
         <f>IF(AND($Z45="External roof",AK45&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM45" s="173" t="str">
+      <c r="AM45" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -20156,7 +17356,7 @@
         <f>IF(AND($Z45="Heat loss floor",AO45&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ45" s="173" t="str">
+      <c r="AQ45" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -20191,7 +17391,7 @@
       <c r="BG45" s="71"/>
       <c r="BH45" s="79"/>
       <c r="BI45" s="79"/>
-      <c r="BJ45" s="172" t="str">
+      <c r="BJ45" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -20335,7 +17535,7 @@
       <c r="T46" s="79"/>
       <c r="U46" s="79"/>
       <c r="V46" s="79"/>
-      <c r="W46" s="172" t="str">
+      <c r="W46" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -20343,7 +17543,7 @@
       <c r="Z46" s="71"/>
       <c r="AA46" s="61"/>
       <c r="AB46" s="79"/>
-      <c r="AC46" s="172" t="str">
+      <c r="AC46" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -20352,7 +17552,7 @@
         <v/>
       </c>
       <c r="AE46" s="79"/>
-      <c r="AF46" s="172" t="str">
+      <c r="AF46" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20365,7 +17565,7 @@
         <v/>
       </c>
       <c r="AI46" s="79"/>
-      <c r="AJ46" s="172" t="str">
+      <c r="AJ46" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -20374,7 +17574,7 @@
         <f>IF(AND($Z46="External roof",AK46&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM46" s="173" t="str">
+      <c r="AM46" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -20387,7 +17587,7 @@
         <f>IF(AND($Z46="Heat loss floor",AO46&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ46" s="173" t="str">
+      <c r="AQ46" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -20422,7 +17622,7 @@
       <c r="BG46" s="71"/>
       <c r="BH46" s="79"/>
       <c r="BI46" s="79"/>
-      <c r="BJ46" s="172" t="str">
+      <c r="BJ46" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -20565,7 +17765,7 @@
       <c r="T47" s="79"/>
       <c r="U47" s="79"/>
       <c r="V47" s="79"/>
-      <c r="W47" s="172" t="str">
+      <c r="W47" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -20573,7 +17773,7 @@
       <c r="Z47" s="71"/>
       <c r="AA47" s="61"/>
       <c r="AB47" s="79"/>
-      <c r="AC47" s="172" t="str">
+      <c r="AC47" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -20582,7 +17782,7 @@
         <v/>
       </c>
       <c r="AE47" s="79"/>
-      <c r="AF47" s="172" t="str">
+      <c r="AF47" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20595,7 +17795,7 @@
         <v/>
       </c>
       <c r="AI47" s="79"/>
-      <c r="AJ47" s="172" t="str">
+      <c r="AJ47" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -20604,7 +17804,7 @@
         <f>IF(AND($Z47="External roof",AK47&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM47" s="173" t="str">
+      <c r="AM47" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -20617,7 +17817,7 @@
         <f>IF(AND($Z47="Heat loss floor",AO47&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ47" s="173" t="str">
+      <c r="AQ47" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -20652,7 +17852,7 @@
       <c r="BG47" s="71"/>
       <c r="BH47" s="79"/>
       <c r="BI47" s="79"/>
-      <c r="BJ47" s="172" t="str">
+      <c r="BJ47" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -20789,7 +17989,7 @@
       <c r="T48" s="79"/>
       <c r="U48" s="79"/>
       <c r="V48" s="79"/>
-      <c r="W48" s="172" t="str">
+      <c r="W48" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -20797,7 +17997,7 @@
       <c r="Z48" s="71"/>
       <c r="AA48" s="61"/>
       <c r="AB48" s="79"/>
-      <c r="AC48" s="172" t="str">
+      <c r="AC48" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -20806,7 +18006,7 @@
         <v/>
       </c>
       <c r="AE48" s="79"/>
-      <c r="AF48" s="172" t="str">
+      <c r="AF48" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20819,7 +18019,7 @@
         <v/>
       </c>
       <c r="AI48" s="79"/>
-      <c r="AJ48" s="172" t="str">
+      <c r="AJ48" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -20828,7 +18028,7 @@
         <f>IF(AND($Z48="External roof",AK48&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM48" s="173" t="str">
+      <c r="AM48" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -20841,7 +18041,7 @@
         <f>IF(AND($Z48="Heat loss floor",AO48&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ48" s="173" t="str">
+      <c r="AQ48" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -20876,7 +18076,7 @@
       <c r="BG48" s="71"/>
       <c r="BH48" s="79"/>
       <c r="BI48" s="79"/>
-      <c r="BJ48" s="172" t="str">
+      <c r="BJ48" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -20979,7 +18179,7 @@
       <c r="T49" s="79"/>
       <c r="U49" s="79"/>
       <c r="V49" s="79"/>
-      <c r="W49" s="172" t="str">
+      <c r="W49" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -20987,7 +18187,7 @@
       <c r="Z49" s="71"/>
       <c r="AA49" s="61"/>
       <c r="AB49" s="79"/>
-      <c r="AC49" s="172" t="str">
+      <c r="AC49" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -20996,7 +18196,7 @@
         <v/>
       </c>
       <c r="AE49" s="79"/>
-      <c r="AF49" s="172" t="str">
+      <c r="AF49" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21009,7 +18209,7 @@
         <v/>
       </c>
       <c r="AI49" s="79"/>
-      <c r="AJ49" s="172" t="str">
+      <c r="AJ49" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -21018,7 +18218,7 @@
         <f>IF(AND($Z49="External roof",AK49&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM49" s="173" t="str">
+      <c r="AM49" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -21031,7 +18231,7 @@
         <f>IF(AND($Z49="Heat loss floor",AO49&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ49" s="173" t="str">
+      <c r="AQ49" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -21066,7 +18266,7 @@
       <c r="BG49" s="71"/>
       <c r="BH49" s="79"/>
       <c r="BI49" s="79"/>
-      <c r="BJ49" s="172" t="str">
+      <c r="BJ49" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -21162,7 +18362,7 @@
       <c r="T50" s="79"/>
       <c r="U50" s="79"/>
       <c r="V50" s="79"/>
-      <c r="W50" s="172" t="str">
+      <c r="W50" s="149" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -21170,7 +18370,7 @@
       <c r="Z50" s="71"/>
       <c r="AA50" s="61"/>
       <c r="AB50" s="79"/>
-      <c r="AC50" s="172" t="str">
+      <c r="AC50" s="149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -21179,7 +18379,7 @@
         <v/>
       </c>
       <c r="AE50" s="79"/>
-      <c r="AF50" s="172" t="str">
+      <c r="AF50" s="149" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21192,7 +18392,7 @@
         <v/>
       </c>
       <c r="AI50" s="79"/>
-      <c r="AJ50" s="172" t="str">
+      <c r="AJ50" s="149" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -21201,7 +18401,7 @@
         <f>IF(AND($Z50="External roof",AK50&gt;0),'Performance inputs'!$B$4,"")</f>
         <v/>
       </c>
-      <c r="AM50" s="173" t="str">
+      <c r="AM50" s="150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -21214,7 +18414,7 @@
         <f>IF(AND($Z50="Heat loss floor",AO50&gt;0),'Performance inputs'!$B$6,"")</f>
         <v/>
       </c>
-      <c r="AQ50" s="173" t="str">
+      <c r="AQ50" s="150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -21249,7 +18449,7 @@
       <c r="BG50" s="71"/>
       <c r="BH50" s="79"/>
       <c r="BI50" s="79"/>
-      <c r="BJ50" s="172" t="str">
+      <c r="BJ50" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -22157,8 +19357,100 @@
     <row r="82" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="116">
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="DN1:DY1"/>
+    <mergeCell ref="EA1:EE1"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="EB2:EB3"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="DO2:DO3"/>
+    <mergeCell ref="BM1:DF1"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BC1:BK1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="DR2:DR3"/>
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="DV2:DV3"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="DL2:DL4"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="EM2:EM3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="DJ2:DJ4"/>
     <mergeCell ref="DK2:DK4"/>
@@ -22183,399 +19475,307 @@
     <mergeCell ref="EZ2:EZ3"/>
     <mergeCell ref="DP2:DP3"/>
     <mergeCell ref="DQ2:DQ3"/>
-    <mergeCell ref="DR2:DR3"/>
-    <mergeCell ref="EO2:EO3"/>
-    <mergeCell ref="DV2:DV3"/>
-    <mergeCell ref="EL2:EL3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="DL2:DL4"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="AV1:BA1"/>
-    <mergeCell ref="BC1:BK1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="BM1:DF1"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="EN2:EN3"/>
-    <mergeCell ref="DN1:DY1"/>
-    <mergeCell ref="EA1:EE1"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="EB2:EB3"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DN2:DN3"/>
-    <mergeCell ref="DO2:DO3"/>
-    <mergeCell ref="EM2:EM3"/>
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="EK2:EK3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="DL5:DL50">
-    <cfRule type="containsText" dxfId="2" priority="97" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="64" priority="97" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",DL5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="98" operator="containsText" text="correct">
+    <cfRule type="containsText" dxfId="63" priority="98" operator="containsText" text="correct">
       <formula>NOT(ISERROR(SEARCH("correct",DL5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Z1048576">
-    <cfRule type="containsBlanks" dxfId="75" priority="94">
+    <cfRule type="containsBlanks" dxfId="62" priority="94">
       <formula>LEN(TRIM(Y4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AB1048576">
-    <cfRule type="containsBlanks" dxfId="74" priority="5">
+    <cfRule type="containsBlanks" dxfId="61" priority="5">
       <formula>LEN(TRIM(AA4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB50">
-    <cfRule type="containsBlanks" dxfId="73" priority="91">
+    <cfRule type="containsBlanks" dxfId="60" priority="91">
       <formula>LEN(TRIM(AB4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE1048576">
-    <cfRule type="containsBlanks" dxfId="72" priority="36">
+    <cfRule type="containsBlanks" dxfId="59" priority="36">
       <formula>LEN(TRIM(AE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT1048576 AK4:AK1048576">
-    <cfRule type="containsBlanks" dxfId="71" priority="31">
+    <cfRule type="containsBlanks" dxfId="58" priority="31">
       <formula>LEN(TRIM(AK4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51:AF1048576">
-    <cfRule type="containsBlanks" dxfId="70" priority="88">
+    <cfRule type="containsBlanks" dxfId="57" priority="88">
       <formula>LEN(TRIM(AF51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ51:AJ1048576">
-    <cfRule type="containsBlanks" dxfId="69" priority="87">
+    <cfRule type="containsBlanks" dxfId="56" priority="87">
       <formula>LEN(TRIM(AJ51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2 AV4:AV1048576">
-    <cfRule type="containsBlanks" dxfId="68" priority="86">
+    <cfRule type="containsBlanks" dxfId="55" priority="86">
       <formula>LEN(TRIM(AV2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW1048576">
-    <cfRule type="containsBlanks" dxfId="67" priority="85">
+    <cfRule type="containsBlanks" dxfId="54" priority="85">
       <formula>LEN(TRIM(AW4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX1048576">
-    <cfRule type="containsBlanks" dxfId="66" priority="84">
+    <cfRule type="containsBlanks" dxfId="53" priority="84">
       <formula>LEN(TRIM(AX4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2:AX2">
-    <cfRule type="containsBlanks" dxfId="64" priority="82">
+    <cfRule type="containsBlanks" dxfId="52" priority="82">
       <formula>LEN(TRIM(AW2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BI1048576">
-    <cfRule type="containsBlanks" dxfId="63" priority="81">
+    <cfRule type="containsBlanks" dxfId="51" priority="81">
       <formula>LEN(TRIM(BH5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK5:BK1048576">
-    <cfRule type="containsBlanks" dxfId="62" priority="80">
+    <cfRule type="containsBlanks" dxfId="50" priority="80">
       <formula>LEN(TRIM(BK5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2 BD2 BH2:BI2">
-    <cfRule type="containsBlanks" dxfId="61" priority="78">
+    <cfRule type="containsBlanks" dxfId="49" priority="78">
       <formula>LEN(TRIM(BD2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC5:DF1048576 BN3:DF3 BN5:CP1048576 CZ5:DA1048576 CS5:CW1048576 BN5:DF50">
-    <cfRule type="containsBlanks" dxfId="60" priority="77">
+    <cfRule type="containsBlanks" dxfId="48" priority="77">
       <formula>LEN(TRIM(BN3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AH1048576">
-    <cfRule type="containsBlanks" dxfId="59" priority="76">
+    <cfRule type="containsBlanks" dxfId="47" priority="76">
       <formula>LEN(TRIM(AH51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AH1048576">
-    <cfRule type="containsBlanks" dxfId="58" priority="75">
+    <cfRule type="containsBlanks" dxfId="46" priority="75">
       <formula>LEN(TRIM(AH51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG51:AG1048576">
-    <cfRule type="containsBlanks" dxfId="57" priority="72">
+    <cfRule type="containsBlanks" dxfId="45" priority="72">
       <formula>LEN(TRIM(AG51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI1048576">
-    <cfRule type="containsBlanks" dxfId="56" priority="34">
+    <cfRule type="containsBlanks" dxfId="44" priority="34">
       <formula>LEN(TRIM(AI4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM1048576">
-    <cfRule type="containsBlanks" dxfId="55" priority="70">
+    <cfRule type="containsBlanks" dxfId="43" priority="70">
       <formula>LEN(TRIM(AM4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ1048576 AS4:AS1048576">
-    <cfRule type="containsBlanks" dxfId="54" priority="69">
+    <cfRule type="containsBlanks" dxfId="42" priority="69">
       <formula>LEN(TRIM(AQ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB5:DB1048576">
-    <cfRule type="containsBlanks" dxfId="53" priority="68">
+    <cfRule type="containsBlanks" dxfId="41" priority="68">
       <formula>LEN(TRIM(DB5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX1048576">
-    <cfRule type="containsBlanks" dxfId="52" priority="67">
+    <cfRule type="containsBlanks" dxfId="40" priority="67">
       <formula>LEN(TRIM(CX5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY51:CY1048576">
-    <cfRule type="containsBlanks" dxfId="51" priority="66">
+    <cfRule type="containsBlanks" dxfId="39" priority="66">
       <formula>LEN(TRIM(CY51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ5:CR1048576">
-    <cfRule type="containsBlanks" dxfId="50" priority="65">
+    <cfRule type="containsBlanks" dxfId="38" priority="65">
       <formula>LEN(TRIM(CQ5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM50">
-    <cfRule type="containsBlanks" dxfId="49" priority="64">
+    <cfRule type="containsBlanks" dxfId="37" priority="64">
       <formula>LEN(TRIM(AM4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsBlanks" dxfId="47" priority="62">
+    <cfRule type="containsBlanks" dxfId="36" priority="62">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EY4">
-    <cfRule type="containsBlanks" dxfId="39" priority="45">
+    <cfRule type="containsBlanks" dxfId="35" priority="45">
       <formula>LEN(TRIM(EY4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG4">
-    <cfRule type="containsBlanks" dxfId="38" priority="44">
+    <cfRule type="containsBlanks" dxfId="34" priority="44">
       <formula>LEN(TRIM(EG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN4">
-    <cfRule type="containsBlanks" dxfId="37" priority="43">
+    <cfRule type="containsBlanks" dxfId="33" priority="43">
       <formula>LEN(TRIM(DN4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY5:CY50">
-    <cfRule type="containsBlanks" dxfId="36" priority="42">
+    <cfRule type="containsBlanks" dxfId="32" priority="42">
       <formula>LEN(TRIM(CY5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB50">
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>AND($Z4="External wall",AB4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="33" priority="108">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="108">
       <formula>LEN(TRIM(AB4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE50">
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>AND($Z4="Sheltered wall",AE4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="31" priority="90">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="90">
       <formula>LEN(TRIM(AE4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI50">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>AND($Z4="Party wall",AI4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="71">
       <formula>LEN(TRIM(AI4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK50">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>AND($Z4="External roof",AK4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="89">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="89">
       <formula>LEN(TRIM(AK4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M4 O4:P4">
-    <cfRule type="containsBlanks" dxfId="26" priority="30">
+    <cfRule type="containsBlanks" dxfId="23" priority="30">
       <formula>LEN(TRIM(I4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT50">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>AND($Z4="Party floor",AT4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="32">
       <formula>LEN(TRIM(AT4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS4:AS50">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND($Z4="Party ceiling",AS4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="25">
       <formula>LEN(TRIM(AS4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC51:AC1048576">
-    <cfRule type="containsBlanks" dxfId="21" priority="23">
+    <cfRule type="containsBlanks" dxfId="18" priority="23">
       <formula>LEN(TRIM(AC51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:W1048576">
-    <cfRule type="containsBlanks" dxfId="20" priority="22">
+    <cfRule type="containsBlanks" dxfId="17" priority="22">
       <formula>LEN(TRIM(W51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:V1048576">
-    <cfRule type="containsBlanks" dxfId="19" priority="20">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
       <formula>LEN(TRIM(S4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:V50">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>AND($Z4="External wall",S4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R51:R1048576">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
+    <cfRule type="containsBlanks" dxfId="14" priority="17">
       <formula>LEN(TRIM(R51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AO1048576">
-    <cfRule type="containsBlanks" dxfId="16" priority="14">
+    <cfRule type="containsBlanks" dxfId="13" priority="14">
       <formula>LEN(TRIM(AO4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AO50">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>AND($Z4="Heat loss floor",AO4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="15">
       <formula>LEN(TRIM(AO4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ51:BJ1048576">
-    <cfRule type="containsBlanks" dxfId="13" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(BJ51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD5:BD1048576">
-    <cfRule type="containsBlanks" dxfId="12" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(BD5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG1048576">
-    <cfRule type="containsBlanks" dxfId="11" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(BG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE2:BG2">
-    <cfRule type="containsBlanks" dxfId="10" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(BE2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF51:BF1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(BF51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE4:BE1048576">
-    <cfRule type="containsBlanks" dxfId="8" priority="7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(BE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BC1048576">
-    <cfRule type="containsBlanks" dxfId="7" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(BC4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA49">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($Z4&lt;&gt;"",AA4&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="93">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="93">
       <formula>LEN(TRIM(AA4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4:BF50">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(BF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23439,8 +20639,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -23821,6 +21021,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -24043,17 +21254,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24064,20 +21264,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
-    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24100,9 +21289,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
+    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
+++ b/CALC-XX-XX-SAP CALC TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C2BBF-2CA9-4788-B7C4-5CDF0C2E54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6C2B3-36B0-4B61-A726-023A07E1F254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="507" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="42" r:id="rId1"/>
@@ -1560,9 +1560,6 @@
     <t>Non-editable defaults referenced from the 'Performance inputs' tab. These can only be edited in the 'Performance inputs' tab</t>
   </si>
   <si>
-    <t>Warning: Entered opaque element area does not match element type</t>
-  </si>
-  <si>
     <t>Door frame factor</t>
   </si>
   <si>
@@ -1687,6 +1684,9 @@
   </si>
   <si>
     <t>Test 1</t>
+  </si>
+  <si>
+    <t>Warning: Entered input does not not match element type</t>
   </si>
 </sst>
 </file>
@@ -3251,29 +3251,11 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="42" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3290,10 +3272,13 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3302,10 +3287,16 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3314,7 +3305,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="42" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="28" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3347,7 +3347,14 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total line above" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5008,8 +5015,8 @@
   </sheetPr>
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5054,7 +5061,7 @@
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5066,7 +5073,7 @@
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5078,7 +5085,7 @@
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5114,13 +5121,13 @@
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="82"/>
       <c r="E13" s="3" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5225,8 +5232,8 @@
   </sheetPr>
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5391,10 +5398,10 @@
     </row>
     <row r="18" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="111" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="111" t="s">
         <v>493</v>
-      </c>
-      <c r="B18" s="111" t="s">
-        <v>494</v>
       </c>
       <c r="C18" s="143" t="s">
         <v>296</v>
@@ -5940,15 +5947,26 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J8:J43"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="J53:J58"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:H59"/>
@@ -5962,80 +5980,69 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J8:J43"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D45 E44 D47:D54 D58:D61 D63 D67:D71">
-    <cfRule type="expression" dxfId="75" priority="11">
+    <cfRule type="expression" dxfId="76" priority="11">
       <formula>($E$17="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O20 O23:O24 O36:O70">
-    <cfRule type="expression" dxfId="74" priority="10">
+    <cfRule type="expression" dxfId="75" priority="10">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45 E47:E54 E58:E61 E63 E67:E71 P8:P20 P23:P24 P36:P70">
-    <cfRule type="expression" dxfId="73" priority="59">
+    <cfRule type="expression" dxfId="74" priority="59">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O22">
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="73" priority="7">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21:P22">
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="72" priority="8">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25 O33:O35">
-    <cfRule type="expression" dxfId="70" priority="5">
+    <cfRule type="expression" dxfId="71" priority="5">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25 P33:P35">
-    <cfRule type="expression" dxfId="69" priority="6">
+    <cfRule type="expression" dxfId="70" priority="6">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O32">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="69" priority="3">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P32">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:O28">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$O$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P28">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>(#REF!="-")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6215,7 +6222,7 @@
     </row>
     <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" s="74">
         <v>0.8</v>
@@ -7235,8 +7242,8 @@
   </sheetPr>
   <dimension ref="A1:FV83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7276,10 +7283,10 @@
     <col min="36" max="36" width="9.6640625" style="56" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="8" style="29" customWidth="1" outlineLevel="1"/>
     <col min="38" max="40" width="11.33203125" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="8" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.21875" style="29" customWidth="1" outlineLevel="1"/>
     <col min="42" max="42" width="11.33203125" style="29" customWidth="1" outlineLevel="1"/>
     <col min="43" max="43" width="13" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="11.33203125" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="13.21875" style="29" customWidth="1" outlineLevel="1"/>
     <col min="45" max="45" width="11.88671875" style="29" customWidth="1" outlineLevel="1"/>
     <col min="46" max="46" width="10" style="29" customWidth="1" outlineLevel="1"/>
     <col min="47" max="47" width="3.6640625" style="32" customWidth="1"/>
@@ -7342,190 +7349,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="43.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="179"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="165"/>
       <c r="Q1" s="57"/>
-      <c r="R1" s="167" t="s">
+      <c r="R1" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
       <c r="X1" s="57"/>
-      <c r="Y1" s="163" t="s">
+      <c r="Y1" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
-      <c r="AS1" s="164"/>
-      <c r="AT1" s="164"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
       <c r="AU1" s="57"/>
-      <c r="AV1" s="166" t="s">
+      <c r="AV1" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="AW1" s="167"/>
-      <c r="AX1" s="167"/>
-      <c r="AY1" s="167"/>
-      <c r="AZ1" s="167"/>
-      <c r="BA1" s="167"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="161"/>
+      <c r="BA1" s="161"/>
       <c r="BB1" s="57"/>
-      <c r="BC1" s="163" t="s">
+      <c r="BC1" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="164"/>
-      <c r="BE1" s="164"/>
-      <c r="BF1" s="164"/>
-      <c r="BG1" s="164"/>
-      <c r="BH1" s="164"/>
-      <c r="BI1" s="164"/>
-      <c r="BJ1" s="164"/>
-      <c r="BK1" s="164"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
+      <c r="BF1" s="172"/>
+      <c r="BG1" s="172"/>
+      <c r="BH1" s="172"/>
+      <c r="BI1" s="172"/>
+      <c r="BJ1" s="172"/>
+      <c r="BK1" s="172"/>
       <c r="BL1" s="58"/>
-      <c r="BM1" s="166" t="s">
+      <c r="BM1" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="167"/>
-      <c r="BO1" s="167"/>
-      <c r="BP1" s="167"/>
-      <c r="BQ1" s="167"/>
-      <c r="BR1" s="167"/>
-      <c r="BS1" s="167"/>
-      <c r="BT1" s="167"/>
-      <c r="BU1" s="167"/>
-      <c r="BV1" s="167"/>
-      <c r="BW1" s="167"/>
-      <c r="BX1" s="167"/>
-      <c r="BY1" s="167"/>
-      <c r="BZ1" s="167"/>
-      <c r="CA1" s="167"/>
-      <c r="CB1" s="167"/>
-      <c r="CC1" s="167"/>
-      <c r="CD1" s="167"/>
-      <c r="CE1" s="167"/>
-      <c r="CF1" s="167"/>
-      <c r="CG1" s="167"/>
-      <c r="CH1" s="167"/>
-      <c r="CI1" s="167"/>
-      <c r="CJ1" s="167"/>
-      <c r="CK1" s="167"/>
-      <c r="CL1" s="167"/>
-      <c r="CM1" s="167"/>
-      <c r="CN1" s="167"/>
-      <c r="CO1" s="167"/>
-      <c r="CP1" s="167"/>
-      <c r="CQ1" s="167"/>
-      <c r="CR1" s="167"/>
-      <c r="CS1" s="167"/>
-      <c r="CT1" s="167"/>
-      <c r="CU1" s="167"/>
-      <c r="CV1" s="167"/>
-      <c r="CW1" s="167"/>
-      <c r="CX1" s="167"/>
-      <c r="CY1" s="167"/>
-      <c r="CZ1" s="167"/>
-      <c r="DA1" s="167"/>
-      <c r="DB1" s="167"/>
-      <c r="DC1" s="167"/>
-      <c r="DD1" s="167"/>
-      <c r="DE1" s="167"/>
-      <c r="DF1" s="179"/>
+      <c r="BN1" s="161"/>
+      <c r="BO1" s="161"/>
+      <c r="BP1" s="161"/>
+      <c r="BQ1" s="161"/>
+      <c r="BR1" s="161"/>
+      <c r="BS1" s="161"/>
+      <c r="BT1" s="161"/>
+      <c r="BU1" s="161"/>
+      <c r="BV1" s="161"/>
+      <c r="BW1" s="161"/>
+      <c r="BX1" s="161"/>
+      <c r="BY1" s="161"/>
+      <c r="BZ1" s="161"/>
+      <c r="CA1" s="161"/>
+      <c r="CB1" s="161"/>
+      <c r="CC1" s="161"/>
+      <c r="CD1" s="161"/>
+      <c r="CE1" s="161"/>
+      <c r="CF1" s="161"/>
+      <c r="CG1" s="161"/>
+      <c r="CH1" s="161"/>
+      <c r="CI1" s="161"/>
+      <c r="CJ1" s="161"/>
+      <c r="CK1" s="161"/>
+      <c r="CL1" s="161"/>
+      <c r="CM1" s="161"/>
+      <c r="CN1" s="161"/>
+      <c r="CO1" s="161"/>
+      <c r="CP1" s="161"/>
+      <c r="CQ1" s="161"/>
+      <c r="CR1" s="161"/>
+      <c r="CS1" s="161"/>
+      <c r="CT1" s="161"/>
+      <c r="CU1" s="161"/>
+      <c r="CV1" s="161"/>
+      <c r="CW1" s="161"/>
+      <c r="CX1" s="161"/>
+      <c r="CY1" s="161"/>
+      <c r="CZ1" s="161"/>
+      <c r="DA1" s="161"/>
+      <c r="DB1" s="161"/>
+      <c r="DC1" s="161"/>
+      <c r="DD1" s="161"/>
+      <c r="DE1" s="161"/>
+      <c r="DF1" s="165"/>
       <c r="DG1" s="57"/>
-      <c r="DH1" s="165" t="s">
+      <c r="DH1" s="179" t="s">
         <v>426</v>
       </c>
-      <c r="DI1" s="165"/>
-      <c r="DJ1" s="165"/>
-      <c r="DK1" s="165"/>
-      <c r="DL1" s="165"/>
+      <c r="DI1" s="179"/>
+      <c r="DJ1" s="179"/>
+      <c r="DK1" s="179"/>
+      <c r="DL1" s="179"/>
       <c r="DM1" s="57"/>
-      <c r="DN1" s="166" t="s">
+      <c r="DN1" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="DO1" s="167"/>
-      <c r="DP1" s="167"/>
-      <c r="DQ1" s="167"/>
-      <c r="DR1" s="167"/>
-      <c r="DS1" s="167"/>
-      <c r="DT1" s="167"/>
-      <c r="DU1" s="167"/>
-      <c r="DV1" s="167"/>
-      <c r="DW1" s="167"/>
-      <c r="DX1" s="167"/>
-      <c r="DY1" s="167"/>
+      <c r="DO1" s="161"/>
+      <c r="DP1" s="161"/>
+      <c r="DQ1" s="161"/>
+      <c r="DR1" s="161"/>
+      <c r="DS1" s="161"/>
+      <c r="DT1" s="161"/>
+      <c r="DU1" s="161"/>
+      <c r="DV1" s="161"/>
+      <c r="DW1" s="161"/>
+      <c r="DX1" s="161"/>
+      <c r="DY1" s="161"/>
       <c r="DZ1" s="57"/>
-      <c r="EA1" s="166" t="s">
+      <c r="EA1" s="160" t="s">
         <v>267</v>
       </c>
-      <c r="EB1" s="167"/>
-      <c r="EC1" s="167"/>
-      <c r="ED1" s="167"/>
-      <c r="EE1" s="168"/>
+      <c r="EB1" s="161"/>
+      <c r="EC1" s="161"/>
+      <c r="ED1" s="161"/>
+      <c r="EE1" s="162"/>
       <c r="EF1" s="57"/>
-      <c r="EG1" s="166" t="s">
+      <c r="EG1" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="EH1" s="167"/>
-      <c r="EI1" s="167"/>
-      <c r="EJ1" s="167"/>
-      <c r="EK1" s="167"/>
-      <c r="EL1" s="167"/>
-      <c r="EM1" s="167"/>
-      <c r="EN1" s="167"/>
-      <c r="EO1" s="167"/>
-      <c r="EP1" s="167"/>
+      <c r="EH1" s="161"/>
+      <c r="EI1" s="161"/>
+      <c r="EJ1" s="161"/>
+      <c r="EK1" s="161"/>
+      <c r="EL1" s="161"/>
+      <c r="EM1" s="161"/>
+      <c r="EN1" s="161"/>
+      <c r="EO1" s="161"/>
+      <c r="EP1" s="161"/>
       <c r="EQ1" s="57"/>
-      <c r="ER1" s="166" t="s">
+      <c r="ER1" s="160" t="s">
         <v>427</v>
       </c>
-      <c r="ES1" s="167"/>
-      <c r="ET1" s="167"/>
-      <c r="EU1" s="167"/>
-      <c r="EV1" s="167"/>
-      <c r="EW1" s="167"/>
+      <c r="ES1" s="161"/>
+      <c r="ET1" s="161"/>
+      <c r="EU1" s="161"/>
+      <c r="EV1" s="161"/>
+      <c r="EW1" s="161"/>
       <c r="EX1" s="57"/>
-      <c r="EY1" s="166" t="s">
+      <c r="EY1" s="160" t="s">
         <v>434</v>
       </c>
-      <c r="EZ1" s="167"/>
-      <c r="FA1" s="167"/>
-      <c r="FB1" s="167"/>
-      <c r="FC1" s="167"/>
-      <c r="FD1" s="168"/>
+      <c r="EZ1" s="161"/>
+      <c r="FA1" s="161"/>
+      <c r="FB1" s="161"/>
+      <c r="FC1" s="161"/>
+      <c r="FD1" s="162"/>
       <c r="FE1" s="57"/>
       <c r="FF1" s="57"/>
       <c r="FG1" s="57"/>
@@ -7546,190 +7553,190 @@
       <c r="FV1" s="57"/>
     </row>
     <row r="2" spans="1:178" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="158" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="158" t="s">
+      <c r="B2" s="166" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="166" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="158" t="s">
+      <c r="E2" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="G2" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="158" t="s">
+      <c r="H2" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="158" t="s">
+      <c r="J2" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="158" t="s">
+      <c r="K2" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="158" t="s">
+      <c r="L2" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="158" t="s">
+      <c r="M2" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="158" t="s">
+      <c r="N2" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="158" t="s">
+      <c r="O2" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="158" t="s">
+      <c r="P2" s="166" t="s">
         <v>54</v>
       </c>
       <c r="Q2" s="31"/>
-      <c r="R2" s="176" t="s">
+      <c r="R2" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="176" t="s">
+      <c r="S2" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="176" t="s">
+      <c r="T2" s="170" t="s">
         <v>175</v>
       </c>
-      <c r="U2" s="176" t="s">
+      <c r="U2" s="170" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="176" t="s">
+      <c r="V2" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="176" t="s">
+      <c r="W2" s="170" t="s">
         <v>67</v>
       </c>
       <c r="X2" s="31"/>
-      <c r="Y2" s="173" t="s">
+      <c r="Y2" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="Z2" s="173" t="s">
+      <c r="Z2" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="173" t="s">
+      <c r="AA2" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="AB2" s="173" t="s">
+      <c r="AB2" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="AC2" s="173" t="s">
+      <c r="AC2" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="173" t="s">
+      <c r="AD2" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="AE2" s="173" t="s">
+      <c r="AE2" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="173" t="s">
+      <c r="AG2" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="AH2" s="173" t="s">
+      <c r="AH2" s="168" t="s">
         <v>303</v>
       </c>
-      <c r="AI2" s="173" t="s">
+      <c r="AI2" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="AJ2" s="173" t="s">
+      <c r="AJ2" s="168" t="s">
         <v>191</v>
       </c>
-      <c r="AK2" s="173" t="s">
+      <c r="AK2" s="168" t="s">
         <v>292</v>
       </c>
-      <c r="AL2" s="173" t="s">
+      <c r="AL2" s="168" t="s">
         <v>293</v>
       </c>
-      <c r="AM2" s="173" t="s">
+      <c r="AM2" s="168" t="s">
         <v>288</v>
       </c>
-      <c r="AN2" s="173" t="s">
+      <c r="AN2" s="168" t="s">
         <v>305</v>
       </c>
-      <c r="AO2" s="173" t="s">
+      <c r="AO2" s="168" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="173" t="s">
+      <c r="AP2" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="173" t="s">
+      <c r="AQ2" s="168" t="s">
         <v>297</v>
       </c>
-      <c r="AR2" s="173" t="s">
+      <c r="AR2" s="168" t="s">
         <v>304</v>
       </c>
-      <c r="AS2" s="173" t="s">
+      <c r="AS2" s="168" t="s">
         <v>306</v>
       </c>
-      <c r="AT2" s="173" t="s">
+      <c r="AT2" s="168" t="s">
         <v>172</v>
       </c>
       <c r="AU2" s="31"/>
-      <c r="AV2" s="173" t="s">
+      <c r="AV2" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="AW2" s="173" t="s">
+      <c r="AW2" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="173" t="s">
+      <c r="AX2" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="AY2" s="173" t="s">
+      <c r="AY2" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="AZ2" s="173" t="s">
+      <c r="AZ2" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="173" t="s">
+      <c r="BA2" s="168" t="s">
         <v>104</v>
       </c>
       <c r="BB2" s="31"/>
-      <c r="BC2" s="173" t="s">
-        <v>484</v>
-      </c>
-      <c r="BD2" s="173" t="s">
+      <c r="BC2" s="168" t="s">
+        <v>483</v>
+      </c>
+      <c r="BD2" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="173" t="s">
+      <c r="BE2" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="BF2" s="173" t="s">
+      <c r="BF2" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="BG2" s="173" t="s">
+      <c r="BG2" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="BH2" s="173" t="s">
+      <c r="BH2" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="173" t="s">
+      <c r="BI2" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="176" t="s">
+      <c r="BJ2" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="173" t="s">
+      <c r="BK2" s="168" t="s">
         <v>88</v>
       </c>
       <c r="BL2" s="31"/>
-      <c r="BM2" s="177" t="s">
-        <v>466</v>
+      <c r="BM2" s="174" t="s">
+        <v>465</v>
       </c>
       <c r="BN2" s="104" t="s">
         <v>48</v>
@@ -7867,141 +7874,141 @@
         <v>89</v>
       </c>
       <c r="DG2" s="31"/>
-      <c r="DH2" s="175" t="s">
+      <c r="DH2" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="DI2" s="160" t="s">
-        <v>492</v>
-      </c>
-      <c r="DJ2" s="160" t="s">
+      <c r="DI2" s="176" t="s">
+        <v>491</v>
+      </c>
+      <c r="DJ2" s="176" t="s">
+        <v>489</v>
+      </c>
+      <c r="DK2" s="176" t="s">
         <v>490</v>
       </c>
-      <c r="DK2" s="160" t="s">
-        <v>491</v>
-      </c>
-      <c r="DL2" s="175" t="s">
+      <c r="DL2" s="173" t="s">
         <v>168</v>
       </c>
       <c r="DM2" s="31"/>
-      <c r="DN2" s="171" t="s">
+      <c r="DN2" s="158" t="s">
         <v>263</v>
       </c>
-      <c r="DO2" s="169" t="s">
+      <c r="DO2" s="163" t="s">
         <v>373</v>
       </c>
-      <c r="DP2" s="169" t="s">
+      <c r="DP2" s="163" t="s">
         <v>383</v>
       </c>
-      <c r="DQ2" s="169" t="s">
+      <c r="DQ2" s="163" t="s">
         <v>384</v>
       </c>
-      <c r="DR2" s="169" t="s">
+      <c r="DR2" s="163" t="s">
         <v>208</v>
       </c>
-      <c r="DS2" s="169" t="s">
+      <c r="DS2" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="DT2" s="169" t="s">
+      <c r="DT2" s="163" t="s">
         <v>314</v>
       </c>
-      <c r="DU2" s="169" t="s">
+      <c r="DU2" s="163" t="s">
         <v>315</v>
       </c>
-      <c r="DV2" s="169" t="s">
+      <c r="DV2" s="163" t="s">
         <v>411</v>
       </c>
-      <c r="DW2" s="169" t="s">
+      <c r="DW2" s="163" t="s">
         <v>316</v>
       </c>
-      <c r="DX2" s="169" t="s">
+      <c r="DX2" s="163" t="s">
         <v>317</v>
       </c>
-      <c r="DY2" s="169" t="s">
+      <c r="DY2" s="163" t="s">
         <v>213</v>
       </c>
       <c r="DZ2" s="31"/>
-      <c r="EA2" s="169" t="s">
+      <c r="EA2" s="163" t="s">
         <v>390</v>
       </c>
-      <c r="EB2" s="169" t="s">
+      <c r="EB2" s="163" t="s">
         <v>386</v>
       </c>
-      <c r="EC2" s="169" t="s">
+      <c r="EC2" s="163" t="s">
         <v>387</v>
       </c>
-      <c r="ED2" s="169" t="s">
+      <c r="ED2" s="163" t="s">
         <v>388</v>
       </c>
-      <c r="EE2" s="169" t="s">
+      <c r="EE2" s="163" t="s">
         <v>389</v>
       </c>
       <c r="EF2" s="31"/>
-      <c r="EG2" s="171" t="s">
+      <c r="EG2" s="158" t="s">
         <v>412</v>
       </c>
-      <c r="EH2" s="171" t="s">
+      <c r="EH2" s="158" t="s">
         <v>442</v>
       </c>
-      <c r="EI2" s="171" t="s">
+      <c r="EI2" s="158" t="s">
         <v>413</v>
       </c>
-      <c r="EJ2" s="171" t="s">
+      <c r="EJ2" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="EK2" s="171" t="s">
+      <c r="EK2" s="158" t="s">
         <v>369</v>
       </c>
-      <c r="EL2" s="171" t="s">
+      <c r="EL2" s="158" t="s">
         <v>367</v>
       </c>
-      <c r="EM2" s="171" t="s">
+      <c r="EM2" s="158" t="s">
         <v>368</v>
       </c>
-      <c r="EN2" s="171" t="s">
+      <c r="EN2" s="158" t="s">
         <v>370</v>
       </c>
-      <c r="EO2" s="171" t="s">
+      <c r="EO2" s="158" t="s">
         <v>371</v>
       </c>
-      <c r="EP2" s="171" t="s">
+      <c r="EP2" s="158" t="s">
         <v>415</v>
       </c>
       <c r="EQ2" s="31"/>
-      <c r="ER2" s="169" t="s">
+      <c r="ER2" s="163" t="s">
         <v>374</v>
       </c>
-      <c r="ES2" s="169" t="s">
+      <c r="ES2" s="163" t="s">
         <v>376</v>
       </c>
-      <c r="ET2" s="169" t="s">
+      <c r="ET2" s="163" t="s">
         <v>375</v>
       </c>
-      <c r="EU2" s="169" t="s">
+      <c r="EU2" s="163" t="s">
         <v>421</v>
       </c>
-      <c r="EV2" s="169" t="s">
+      <c r="EV2" s="163" t="s">
         <v>425</v>
       </c>
-      <c r="EW2" s="169" t="s">
+      <c r="EW2" s="163" t="s">
         <v>377</v>
       </c>
       <c r="EX2" s="31"/>
-      <c r="EY2" s="169" t="s">
+      <c r="EY2" s="163" t="s">
         <v>445</v>
       </c>
-      <c r="EZ2" s="169" t="s">
+      <c r="EZ2" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="FA2" s="169" t="s">
-        <v>488</v>
-      </c>
-      <c r="FB2" s="169" t="s">
+      <c r="FA2" s="163" t="s">
+        <v>487</v>
+      </c>
+      <c r="FB2" s="163" t="s">
         <v>443</v>
       </c>
-      <c r="FC2" s="169" t="s">
+      <c r="FC2" s="163" t="s">
         <v>435</v>
       </c>
-      <c r="FD2" s="169" t="s">
+      <c r="FD2" s="163" t="s">
         <v>441</v>
       </c>
       <c r="FE2" s="31"/>
@@ -8024,73 +8031,73 @@
       <c r="FV2" s="31"/>
     </row>
     <row r="3" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
       <c r="Q3" s="31"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
       <c r="X3" s="31"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="174"/>
-      <c r="AM3" s="174"/>
-      <c r="AN3" s="174"/>
-      <c r="AO3" s="174"/>
-      <c r="AP3" s="174"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="174"/>
-      <c r="AS3" s="174"/>
-      <c r="AT3" s="174"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="169"/>
+      <c r="AK3" s="169"/>
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="169"/>
+      <c r="AN3" s="169"/>
+      <c r="AO3" s="169"/>
+      <c r="AP3" s="169"/>
+      <c r="AQ3" s="169"/>
+      <c r="AR3" s="169"/>
+      <c r="AS3" s="169"/>
+      <c r="AT3" s="169"/>
       <c r="AU3" s="31"/>
-      <c r="AV3" s="174"/>
-      <c r="AW3" s="174"/>
-      <c r="AX3" s="174"/>
-      <c r="AY3" s="174"/>
-      <c r="AZ3" s="174"/>
-      <c r="BA3" s="174"/>
+      <c r="AV3" s="169"/>
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="169"/>
+      <c r="AZ3" s="169"/>
+      <c r="BA3" s="169"/>
       <c r="BB3" s="31"/>
-      <c r="BC3" s="174"/>
-      <c r="BD3" s="174"/>
-      <c r="BE3" s="174"/>
-      <c r="BF3" s="174"/>
-      <c r="BG3" s="174"/>
-      <c r="BH3" s="174"/>
-      <c r="BI3" s="174"/>
-      <c r="BJ3" s="176"/>
-      <c r="BK3" s="174"/>
+      <c r="BC3" s="169"/>
+      <c r="BD3" s="169"/>
+      <c r="BE3" s="169"/>
+      <c r="BF3" s="169"/>
+      <c r="BG3" s="169"/>
+      <c r="BH3" s="169"/>
+      <c r="BI3" s="169"/>
+      <c r="BJ3" s="170"/>
+      <c r="BK3" s="169"/>
       <c r="BL3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="BM3" s="178"/>
+      <c r="BM3" s="175"/>
       <c r="BN3" s="90">
         <f>IF('Performance inputs'!B60&lt;&gt;"",'Performance inputs'!B60,"ERROR")</f>
         <v>0.16</v>
@@ -8272,55 +8279,55 @@
         <v>0.08</v>
       </c>
       <c r="DG3" s="31"/>
-      <c r="DH3" s="175"/>
-      <c r="DI3" s="161"/>
-      <c r="DJ3" s="161"/>
-      <c r="DK3" s="161"/>
-      <c r="DL3" s="175"/>
+      <c r="DH3" s="173"/>
+      <c r="DI3" s="177"/>
+      <c r="DJ3" s="177"/>
+      <c r="DK3" s="177"/>
+      <c r="DL3" s="173"/>
       <c r="DM3" s="31"/>
-      <c r="DN3" s="172"/>
-      <c r="DO3" s="170"/>
-      <c r="DP3" s="170"/>
-      <c r="DQ3" s="170"/>
-      <c r="DR3" s="170"/>
-      <c r="DS3" s="170"/>
-      <c r="DT3" s="170"/>
-      <c r="DU3" s="170"/>
-      <c r="DV3" s="170"/>
-      <c r="DW3" s="170"/>
-      <c r="DX3" s="170"/>
-      <c r="DY3" s="170"/>
+      <c r="DN3" s="159"/>
+      <c r="DO3" s="164"/>
+      <c r="DP3" s="164"/>
+      <c r="DQ3" s="164"/>
+      <c r="DR3" s="164"/>
+      <c r="DS3" s="164"/>
+      <c r="DT3" s="164"/>
+      <c r="DU3" s="164"/>
+      <c r="DV3" s="164"/>
+      <c r="DW3" s="164"/>
+      <c r="DX3" s="164"/>
+      <c r="DY3" s="164"/>
       <c r="DZ3" s="31"/>
-      <c r="EA3" s="170"/>
-      <c r="EB3" s="170"/>
-      <c r="EC3" s="170"/>
-      <c r="ED3" s="170"/>
-      <c r="EE3" s="170"/>
+      <c r="EA3" s="164"/>
+      <c r="EB3" s="164"/>
+      <c r="EC3" s="164"/>
+      <c r="ED3" s="164"/>
+      <c r="EE3" s="164"/>
       <c r="EF3" s="31"/>
-      <c r="EG3" s="172"/>
-      <c r="EH3" s="172"/>
-      <c r="EI3" s="172"/>
-      <c r="EJ3" s="172"/>
-      <c r="EK3" s="172"/>
-      <c r="EL3" s="172"/>
-      <c r="EM3" s="172"/>
-      <c r="EN3" s="172"/>
-      <c r="EO3" s="172"/>
-      <c r="EP3" s="172"/>
+      <c r="EG3" s="159"/>
+      <c r="EH3" s="159"/>
+      <c r="EI3" s="159"/>
+      <c r="EJ3" s="159"/>
+      <c r="EK3" s="159"/>
+      <c r="EL3" s="159"/>
+      <c r="EM3" s="159"/>
+      <c r="EN3" s="159"/>
+      <c r="EO3" s="159"/>
+      <c r="EP3" s="159"/>
       <c r="EQ3" s="31"/>
-      <c r="ER3" s="170"/>
-      <c r="ES3" s="170"/>
-      <c r="ET3" s="170"/>
-      <c r="EU3" s="170"/>
-      <c r="EV3" s="170"/>
-      <c r="EW3" s="170"/>
+      <c r="ER3" s="164"/>
+      <c r="ES3" s="164"/>
+      <c r="ET3" s="164"/>
+      <c r="EU3" s="164"/>
+      <c r="EV3" s="164"/>
+      <c r="EW3" s="164"/>
       <c r="EX3" s="31"/>
-      <c r="EY3" s="170"/>
-      <c r="EZ3" s="170"/>
-      <c r="FA3" s="170"/>
-      <c r="FB3" s="170"/>
-      <c r="FC3" s="170"/>
-      <c r="FD3" s="170"/>
+      <c r="EY3" s="164"/>
+      <c r="EZ3" s="164"/>
+      <c r="FA3" s="164"/>
+      <c r="FB3" s="164"/>
+      <c r="FC3" s="164"/>
+      <c r="FD3" s="164"/>
       <c r="FE3" s="31"/>
       <c r="FF3" s="31"/>
       <c r="FG3" s="31"/>
@@ -8346,7 +8353,7 @@
         <v>Unit 1</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C4" s="67" t="s">
         <v>109</v>
@@ -8364,7 +8371,7 @@
         <v>140</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I4" s="60">
         <v>1</v>
@@ -8427,7 +8434,7 @@
         <v>42</v>
       </c>
       <c r="AD4" s="113">
-        <f>IF(AND($Z4="External wall",AB4&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z4="External wall",AC4&gt;0),'Performance inputs'!$B$3,"")</f>
         <v>0.18</v>
       </c>
       <c r="AE4" s="79"/>
@@ -8436,11 +8443,11 @@
         <v/>
       </c>
       <c r="AG4" s="113" t="str">
-        <f>IF(AND($Z4="Sheltered wall",AE4&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z4="Sheltered wall",AF4&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH4" s="113" t="str">
-        <f>IF(AND($Z4="Sheltered wall",AE4&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z4="Sheltered wall",AF4&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI4" s="79"/>
@@ -8577,11 +8584,11 @@
       <c r="DD4" s="55"/>
       <c r="DE4" s="55"/>
       <c r="DF4" s="55"/>
-      <c r="DH4" s="175"/>
-      <c r="DI4" s="162"/>
-      <c r="DJ4" s="162"/>
-      <c r="DK4" s="162"/>
-      <c r="DL4" s="175"/>
+      <c r="DH4" s="173"/>
+      <c r="DI4" s="178"/>
+      <c r="DJ4" s="178"/>
+      <c r="DK4" s="178"/>
+      <c r="DL4" s="173"/>
       <c r="DN4" s="71" t="s">
         <v>90</v>
       </c>
@@ -8776,7 +8783,7 @@
         <v>42</v>
       </c>
       <c r="AD5" s="113">
-        <f>IF(AND($Z5="External wall",AB5&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z5="External wall",AC5&gt;0),'Performance inputs'!$B$3,"")</f>
         <v>0.18</v>
       </c>
       <c r="AE5" s="79"/>
@@ -8785,11 +8792,11 @@
         <v/>
       </c>
       <c r="AG5" s="113" t="str">
-        <f>IF(AND($Z5="Sheltered wall",AE5&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z5="Sheltered wall",AF5&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH5" s="113" t="str">
-        <f>IF(AND($Z5="Sheltered wall",AE5&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z5="Sheltered wall",AF5&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI5" s="79"/>
@@ -9019,7 +9026,7 @@
         <v/>
       </c>
       <c r="AD6" s="113" t="str">
-        <f>IF(AND($Z6="External wall",AB6&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z6="External wall",AC6&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE6" s="79">
@@ -9030,11 +9037,11 @@
         <v>5.6</v>
       </c>
       <c r="AG6" s="113">
-        <f>IF(AND($Z6="Sheltered wall",AE6&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z6="Sheltered wall",AF6&gt;0),'Performance inputs'!$B$8,"")</f>
         <v>0.2</v>
       </c>
       <c r="AH6" s="113">
-        <f>IF(AND($Z6="Sheltered wall",AE6&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z6="Sheltered wall",AF6&gt;0),'Performance inputs'!$B$9,"")</f>
         <v>0.6</v>
       </c>
       <c r="AI6" s="79"/>
@@ -9071,7 +9078,7 @@
       <c r="AS6" s="79"/>
       <c r="AT6" s="79"/>
       <c r="AV6" s="61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AW6" s="71" t="s">
         <v>153</v>
@@ -9102,7 +9109,7 @@
         <v>154</v>
       </c>
       <c r="BF6" s="71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BG6" s="71" t="s">
         <v>111</v>
@@ -9253,7 +9260,7 @@
         <v/>
       </c>
       <c r="AD7" s="113" t="str">
-        <f>IF(AND($Z7="External wall",AB7&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z7="External wall",AC7&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE7" s="79"/>
@@ -9262,11 +9269,11 @@
         <v/>
       </c>
       <c r="AG7" s="113" t="str">
-        <f>IF(AND($Z7="Sheltered wall",AE7&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z7="Sheltered wall",AF7&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH7" s="113" t="str">
-        <f>IF(AND($Z7="Sheltered wall",AE7&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z7="Sheltered wall",AF7&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI7" s="79">
@@ -9305,7 +9312,7 @@
       <c r="AS7" s="79"/>
       <c r="AT7" s="79"/>
       <c r="AV7" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AW7" s="71" t="s">
         <v>153</v>
@@ -9336,7 +9343,7 @@
         <v>153</v>
       </c>
       <c r="BF7" s="71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BG7" s="71" t="s">
         <v>113</v>
@@ -9491,7 +9498,7 @@
         <v/>
       </c>
       <c r="AD8" s="113" t="str">
-        <f>IF(AND($Z8="External wall",AB8&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z8="External wall",AC8&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE8" s="79"/>
@@ -9500,11 +9507,11 @@
         <v/>
       </c>
       <c r="AG8" s="113" t="str">
-        <f>IF(AND($Z8="Sheltered wall",AE8&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z8="Sheltered wall",AF8&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH8" s="113" t="str">
-        <f>IF(AND($Z8="Sheltered wall",AE8&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z8="Sheltered wall",AF8&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI8" s="79"/>
@@ -9543,7 +9550,7 @@
       <c r="AS8" s="79"/>
       <c r="AT8" s="79"/>
       <c r="AV8" s="61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AW8" s="71" t="s">
         <v>153</v>
@@ -9568,13 +9575,13 @@
         <v>3</v>
       </c>
       <c r="BD8" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BE8" s="71" t="s">
         <v>153</v>
       </c>
       <c r="BF8" s="71" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BG8" s="71" t="s">
         <v>113</v>
@@ -9723,7 +9730,7 @@
         <v/>
       </c>
       <c r="AD9" s="113" t="str">
-        <f>IF(AND($Z9="External wall",AB9&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z9="External wall",AC9&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE9" s="79"/>
@@ -9732,11 +9739,11 @@
         <v/>
       </c>
       <c r="AG9" s="113" t="str">
-        <f>IF(AND($Z9="Sheltered wall",AE9&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z9="Sheltered wall",AF9&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH9" s="113" t="str">
-        <f>IF(AND($Z9="Sheltered wall",AE9&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z9="Sheltered wall",AF9&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI9" s="79"/>
@@ -9775,7 +9782,7 @@
         <v>2</v>
       </c>
       <c r="AV9" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AW9" s="71" t="s">
         <v>153</v>
@@ -9800,7 +9807,7 @@
         <v>4</v>
       </c>
       <c r="BD9" s="80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE9" s="71" t="s">
         <v>153</v>
@@ -9953,7 +9960,7 @@
         <v>185</v>
       </c>
       <c r="AA10" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB10" s="79"/>
       <c r="AC10" s="149" t="str">
@@ -9961,7 +9968,7 @@
         <v/>
       </c>
       <c r="AD10" s="113" t="str">
-        <f>IF(AND($Z10="External wall",AB10&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z10="External wall",AC10&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE10" s="79"/>
@@ -9970,11 +9977,11 @@
         <v/>
       </c>
       <c r="AG10" s="113" t="str">
-        <f>IF(AND($Z10="Sheltered wall",AE10&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z10="Sheltered wall",AF10&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH10" s="113" t="str">
-        <f>IF(AND($Z10="Sheltered wall",AE10&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z10="Sheltered wall",AF10&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI10" s="79"/>
@@ -10013,7 +10020,7 @@
       <c r="AS10" s="79"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AW10" s="71" t="s">
         <v>153</v>
@@ -10038,13 +10045,13 @@
         <v>5</v>
       </c>
       <c r="BD10" s="80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BE10" s="71" t="s">
         <v>153</v>
       </c>
       <c r="BF10" s="71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BG10" s="71" t="s">
         <v>113</v>
@@ -10170,7 +10177,7 @@
         <v/>
       </c>
       <c r="AD11" s="113" t="str">
-        <f>IF(AND($Z11="External wall",AB11&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z11="External wall",AC11&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE11" s="79"/>
@@ -10179,11 +10186,11 @@
         <v/>
       </c>
       <c r="AG11" s="113" t="str">
-        <f>IF(AND($Z11="Sheltered wall",AE11&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z11="Sheltered wall",AF11&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH11" s="113" t="str">
-        <f>IF(AND($Z11="Sheltered wall",AE11&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z11="Sheltered wall",AF11&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI11" s="79"/>
@@ -10222,7 +10229,7 @@
       <c r="AS11" s="79"/>
       <c r="AT11" s="79"/>
       <c r="AV11" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AW11" s="71" t="s">
         <v>153</v>
@@ -10247,13 +10254,13 @@
         <v>5</v>
       </c>
       <c r="BD11" s="80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BE11" s="71" t="s">
         <v>153</v>
       </c>
       <c r="BF11" s="71" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BG11" s="71" t="s">
         <v>113</v>
@@ -10375,7 +10382,7 @@
         <v>173</v>
       </c>
       <c r="AA12" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AB12" s="79">
         <v>7</v>
@@ -10385,7 +10392,7 @@
         <v>16.8</v>
       </c>
       <c r="AD12" s="113">
-        <f>IF(AND($Z12="External wall",AB12&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z12="External wall",AC12&gt;0),'Performance inputs'!$B$3,"")</f>
         <v>0.18</v>
       </c>
       <c r="AE12" s="79"/>
@@ -10394,11 +10401,11 @@
         <v/>
       </c>
       <c r="AG12" s="113" t="str">
-        <f>IF(AND($Z12="Sheltered wall",AE12&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z12="Sheltered wall",AF12&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH12" s="113" t="str">
-        <f>IF(AND($Z12="Sheltered wall",AE12&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z12="Sheltered wall",AF12&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI12" s="79"/>
@@ -10435,7 +10442,7 @@
       <c r="AS12" s="79"/>
       <c r="AT12" s="79"/>
       <c r="AV12" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AW12" s="71" t="s">
         <v>153</v>
@@ -10460,7 +10467,7 @@
         <v>3</v>
       </c>
       <c r="BD12" s="80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BE12" s="71" t="s">
         <v>153</v>
@@ -10593,7 +10600,7 @@
         <v>194</v>
       </c>
       <c r="AA13" s="61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AB13" s="79"/>
       <c r="AC13" s="149" t="str">
@@ -10601,7 +10608,7 @@
         <v/>
       </c>
       <c r="AD13" s="113" t="str">
-        <f>IF(AND($Z13="External wall",AB13&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z13="External wall",AC13&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE13" s="79"/>
@@ -10610,11 +10617,11 @@
         <v/>
       </c>
       <c r="AG13" s="113" t="str">
-        <f>IF(AND($Z13="Sheltered wall",AE13&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z13="Sheltered wall",AF13&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH13" s="113" t="str">
-        <f>IF(AND($Z13="Sheltered wall",AE13&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z13="Sheltered wall",AF13&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI13" s="79"/>
@@ -10653,7 +10660,7 @@
       <c r="AS13" s="79"/>
       <c r="AT13" s="79"/>
       <c r="AV13" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AW13" s="71" t="s">
         <v>153</v>
@@ -10678,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="BD13" s="80" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="BE13" s="71" t="s">
         <v>153</v>
@@ -10812,7 +10819,7 @@
         <v>157</v>
       </c>
       <c r="AA14" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB14" s="79"/>
       <c r="AC14" s="149" t="str">
@@ -10820,7 +10827,7 @@
         <v/>
       </c>
       <c r="AD14" s="113" t="str">
-        <f>IF(AND($Z14="External wall",AB14&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z14="External wall",AC14&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE14" s="79"/>
@@ -10829,11 +10836,11 @@
         <v/>
       </c>
       <c r="AG14" s="113" t="str">
-        <f>IF(AND($Z14="Sheltered wall",AE14&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z14="Sheltered wall",AF14&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH14" s="113" t="str">
-        <f>IF(AND($Z14="Sheltered wall",AE14&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z14="Sheltered wall",AF14&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI14" s="79"/>
@@ -11007,7 +11014,7 @@
         <v>173</v>
       </c>
       <c r="AA15" s="61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AB15" s="79">
         <v>2</v>
@@ -11017,7 +11024,7 @@
         <v>4.8</v>
       </c>
       <c r="AD15" s="113">
-        <f>IF(AND($Z15="External wall",AB15&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z15="External wall",AC15&gt;0),'Performance inputs'!$B$3,"")</f>
         <v>0.18</v>
       </c>
       <c r="AE15" s="79"/>
@@ -11026,11 +11033,11 @@
         <v/>
       </c>
       <c r="AG15" s="113" t="str">
-        <f>IF(AND($Z15="Sheltered wall",AE15&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z15="Sheltered wall",AF15&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH15" s="113" t="str">
-        <f>IF(AND($Z15="Sheltered wall",AE15&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z15="Sheltered wall",AF15&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI15" s="79"/>
@@ -11204,7 +11211,7 @@
         <v>173</v>
       </c>
       <c r="AA16" s="61" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB16" s="79">
         <v>20</v>
@@ -11214,7 +11221,7 @@
         <v>48</v>
       </c>
       <c r="AD16" s="113">
-        <f>IF(AND($Z16="External wall",AB16&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z16="External wall",AC16&gt;0),'Performance inputs'!$B$3,"")</f>
         <v>0.18</v>
       </c>
       <c r="AE16" s="79"/>
@@ -11223,11 +11230,11 @@
         <v/>
       </c>
       <c r="AG16" s="113" t="str">
-        <f>IF(AND($Z16="Sheltered wall",AE16&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z16="Sheltered wall",AF16&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH16" s="113" t="str">
-        <f>IF(AND($Z16="Sheltered wall",AE16&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z16="Sheltered wall",AF16&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI16" s="79"/>
@@ -11404,7 +11411,7 @@
         <v>159</v>
       </c>
       <c r="AA17" s="61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AB17" s="79"/>
       <c r="AC17" s="149" t="str">
@@ -11412,7 +11419,7 @@
         <v/>
       </c>
       <c r="AD17" s="113" t="str">
-        <f>IF(AND($Z17="External wall",AB17&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z17="External wall",AC17&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE17" s="79">
@@ -11423,11 +11430,11 @@
         <v>36</v>
       </c>
       <c r="AG17" s="113">
-        <f>IF(AND($Z17="Sheltered wall",AE17&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z17="Sheltered wall",AF17&gt;0),'Performance inputs'!$B$8,"")</f>
         <v>0.2</v>
       </c>
       <c r="AH17" s="113">
-        <f>IF(AND($Z17="Sheltered wall",AE17&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z17="Sheltered wall",AF17&gt;0),'Performance inputs'!$B$9,"")</f>
         <v>0.6</v>
       </c>
       <c r="AI17" s="79"/>
@@ -11631,7 +11638,7 @@
         <v>160</v>
       </c>
       <c r="AA18" s="61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB18" s="79"/>
       <c r="AC18" s="149" t="str">
@@ -11639,7 +11646,7 @@
         <v/>
       </c>
       <c r="AD18" s="113" t="str">
-        <f>IF(AND($Z18="External wall",AB18&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z18="External wall",AC18&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE18" s="79"/>
@@ -11648,11 +11655,11 @@
         <v/>
       </c>
       <c r="AG18" s="113" t="str">
-        <f>IF(AND($Z18="Sheltered wall",AE18&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z18="Sheltered wall",AF18&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH18" s="113" t="str">
-        <f>IF(AND($Z18="Sheltered wall",AE18&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z18="Sheltered wall",AF18&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI18" s="79">
@@ -11830,7 +11837,7 @@
         <v>173</v>
       </c>
       <c r="AA19" s="61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB19" s="79">
         <v>10</v>
@@ -11840,7 +11847,7 @@
         <v>24</v>
       </c>
       <c r="AD19" s="113">
-        <f>IF(AND($Z19="External wall",AB19&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z19="External wall",AC19&gt;0),'Performance inputs'!$B$3,"")</f>
         <v>0.18</v>
       </c>
       <c r="AE19" s="79"/>
@@ -11849,11 +11856,11 @@
         <v/>
       </c>
       <c r="AG19" s="113" t="str">
-        <f>IF(AND($Z19="Sheltered wall",AE19&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z19="Sheltered wall",AF19&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH19" s="113" t="str">
-        <f>IF(AND($Z19="Sheltered wall",AE19&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z19="Sheltered wall",AF19&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI19" s="79"/>
@@ -12059,7 +12066,7 @@
         <v>185</v>
       </c>
       <c r="AA20" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AB20" s="79"/>
       <c r="AC20" s="149" t="str">
@@ -12067,7 +12074,7 @@
         <v/>
       </c>
       <c r="AD20" s="113" t="str">
-        <f>IF(AND($Z20="External wall",AB20&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z20="External wall",AC20&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE20" s="79"/>
@@ -12076,11 +12083,11 @@
         <v/>
       </c>
       <c r="AG20" s="113" t="str">
-        <f>IF(AND($Z20="Sheltered wall",AE20&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z20="Sheltered wall",AF20&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH20" s="113" t="str">
-        <f>IF(AND($Z20="Sheltered wall",AE20&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z20="Sheltered wall",AF20&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI20" s="79"/>
@@ -12261,7 +12268,7 @@
         <v>185</v>
       </c>
       <c r="AA21" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AB21" s="79"/>
       <c r="AC21" s="149" t="str">
@@ -12269,7 +12276,7 @@
         <v/>
       </c>
       <c r="AD21" s="113" t="str">
-        <f>IF(AND($Z21="External wall",AB21&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z21="External wall",AC21&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE21" s="79"/>
@@ -12278,11 +12285,11 @@
         <v/>
       </c>
       <c r="AG21" s="113" t="str">
-        <f>IF(AND($Z21="Sheltered wall",AE21&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z21="Sheltered wall",AF21&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH21" s="113" t="str">
-        <f>IF(AND($Z21="Sheltered wall",AE21&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z21="Sheltered wall",AF21&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI21" s="79"/>
@@ -12496,7 +12503,7 @@
         <v/>
       </c>
       <c r="AD22" s="113" t="str">
-        <f>IF(AND($Z22="External wall",AB22&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z22="External wall",AC22&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE22" s="79"/>
@@ -12505,11 +12512,11 @@
         <v/>
       </c>
       <c r="AG22" s="113" t="str">
-        <f>IF(AND($Z22="Sheltered wall",AE22&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z22="Sheltered wall",AF22&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH22" s="113" t="str">
-        <f>IF(AND($Z22="Sheltered wall",AE22&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z22="Sheltered wall",AF22&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI22" s="79"/>
@@ -12720,7 +12727,7 @@
         <v/>
       </c>
       <c r="AD23" s="113" t="str">
-        <f>IF(AND($Z23="External wall",AB23&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z23="External wall",AC23&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE23" s="79"/>
@@ -12729,11 +12736,11 @@
         <v/>
       </c>
       <c r="AG23" s="113" t="str">
-        <f>IF(AND($Z23="Sheltered wall",AE23&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z23="Sheltered wall",AF23&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH23" s="113" t="str">
-        <f>IF(AND($Z23="Sheltered wall",AE23&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z23="Sheltered wall",AF23&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI23" s="79"/>
@@ -12945,7 +12952,7 @@
         <v/>
       </c>
       <c r="AD24" s="113" t="str">
-        <f>IF(AND($Z24="External wall",AB24&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z24="External wall",AC24&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE24" s="79"/>
@@ -12954,11 +12961,11 @@
         <v/>
       </c>
       <c r="AG24" s="113" t="str">
-        <f>IF(AND($Z24="Sheltered wall",AE24&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z24="Sheltered wall",AF24&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH24" s="113" t="str">
-        <f>IF(AND($Z24="Sheltered wall",AE24&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z24="Sheltered wall",AF24&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI24" s="79"/>
@@ -13157,7 +13164,7 @@
         <v/>
       </c>
       <c r="AD25" s="113" t="str">
-        <f>IF(AND($Z25="External wall",AB25&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z25="External wall",AC25&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE25" s="79"/>
@@ -13166,11 +13173,11 @@
         <v/>
       </c>
       <c r="AG25" s="113" t="str">
-        <f>IF(AND($Z25="Sheltered wall",AE25&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z25="Sheltered wall",AF25&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH25" s="113" t="str">
-        <f>IF(AND($Z25="Sheltered wall",AE25&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z25="Sheltered wall",AF25&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI25" s="79"/>
@@ -13347,7 +13354,7 @@
         <v/>
       </c>
       <c r="AD26" s="113" t="str">
-        <f>IF(AND($Z26="External wall",AB26&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z26="External wall",AC26&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE26" s="79"/>
@@ -13356,11 +13363,11 @@
         <v/>
       </c>
       <c r="AG26" s="113" t="str">
-        <f>IF(AND($Z26="Sheltered wall",AE26&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z26="Sheltered wall",AF26&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH26" s="113" t="str">
-        <f>IF(AND($Z26="Sheltered wall",AE26&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z26="Sheltered wall",AF26&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI26" s="79"/>
@@ -13568,7 +13575,7 @@
         <v/>
       </c>
       <c r="AD27" s="113" t="str">
-        <f>IF(AND($Z27="External wall",AB27&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z27="External wall",AC27&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE27" s="79"/>
@@ -13577,11 +13584,11 @@
         <v/>
       </c>
       <c r="AG27" s="113" t="str">
-        <f>IF(AND($Z27="Sheltered wall",AE27&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z27="Sheltered wall",AF27&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH27" s="113" t="str">
-        <f>IF(AND($Z27="Sheltered wall",AE27&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z27="Sheltered wall",AF27&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI27" s="79"/>
@@ -13764,7 +13771,7 @@
         <v/>
       </c>
       <c r="AD28" s="113" t="str">
-        <f>IF(AND($Z28="External wall",AB28&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z28="External wall",AC28&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE28" s="79"/>
@@ -13773,11 +13780,11 @@
         <v/>
       </c>
       <c r="AG28" s="113" t="str">
-        <f>IF(AND($Z28="Sheltered wall",AE28&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z28="Sheltered wall",AF28&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH28" s="113" t="str">
-        <f>IF(AND($Z28="Sheltered wall",AE28&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z28="Sheltered wall",AF28&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI28" s="79"/>
@@ -13989,7 +13996,7 @@
         <v/>
       </c>
       <c r="AD29" s="113" t="str">
-        <f>IF(AND($Z29="External wall",AB29&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z29="External wall",AC29&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE29" s="79"/>
@@ -13998,11 +14005,11 @@
         <v/>
       </c>
       <c r="AG29" s="113" t="str">
-        <f>IF(AND($Z29="Sheltered wall",AE29&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z29="Sheltered wall",AF29&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH29" s="113" t="str">
-        <f>IF(AND($Z29="Sheltered wall",AE29&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z29="Sheltered wall",AF29&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI29" s="79"/>
@@ -14215,7 +14222,7 @@
         <v/>
       </c>
       <c r="AD30" s="113" t="str">
-        <f>IF(AND($Z30="External wall",AB30&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z30="External wall",AC30&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE30" s="79"/>
@@ -14224,11 +14231,11 @@
         <v/>
       </c>
       <c r="AG30" s="113" t="str">
-        <f>IF(AND($Z30="Sheltered wall",AE30&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z30="Sheltered wall",AF30&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH30" s="113" t="str">
-        <f>IF(AND($Z30="Sheltered wall",AE30&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z30="Sheltered wall",AF30&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI30" s="79"/>
@@ -14440,7 +14447,7 @@
         <v/>
       </c>
       <c r="AD31" s="113" t="str">
-        <f>IF(AND($Z31="External wall",AB31&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z31="External wall",AC31&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE31" s="79"/>
@@ -14449,11 +14456,11 @@
         <v/>
       </c>
       <c r="AG31" s="113" t="str">
-        <f>IF(AND($Z31="Sheltered wall",AE31&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z31="Sheltered wall",AF31&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH31" s="113" t="str">
-        <f>IF(AND($Z31="Sheltered wall",AE31&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z31="Sheltered wall",AF31&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI31" s="79"/>
@@ -14662,7 +14669,7 @@
         <v/>
       </c>
       <c r="AD32" s="113" t="str">
-        <f>IF(AND($Z32="External wall",AB32&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z32="External wall",AC32&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE32" s="79"/>
@@ -14671,11 +14678,11 @@
         <v/>
       </c>
       <c r="AG32" s="113" t="str">
-        <f>IF(AND($Z32="Sheltered wall",AE32&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z32="Sheltered wall",AF32&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH32" s="113" t="str">
-        <f>IF(AND($Z32="Sheltered wall",AE32&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z32="Sheltered wall",AF32&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI32" s="79"/>
@@ -14844,7 +14851,7 @@
         <v/>
       </c>
       <c r="AD33" s="113" t="str">
-        <f>IF(AND($Z33="External wall",AB33&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z33="External wall",AC33&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE33" s="79"/>
@@ -14853,11 +14860,11 @@
         <v/>
       </c>
       <c r="AG33" s="113" t="str">
-        <f>IF(AND($Z33="Sheltered wall",AE33&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z33="Sheltered wall",AF33&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH33" s="113" t="str">
-        <f>IF(AND($Z33="Sheltered wall",AE33&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z33="Sheltered wall",AF33&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI33" s="79"/>
@@ -15033,7 +15040,7 @@
         <v/>
       </c>
       <c r="AD34" s="113" t="str">
-        <f>IF(AND($Z34="External wall",AB34&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z34="External wall",AC34&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE34" s="79"/>
@@ -15042,11 +15049,11 @@
         <v/>
       </c>
       <c r="AG34" s="113" t="str">
-        <f>IF(AND($Z34="Sheltered wall",AE34&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z34="Sheltered wall",AF34&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH34" s="113" t="str">
-        <f>IF(AND($Z34="Sheltered wall",AE34&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z34="Sheltered wall",AF34&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI34" s="79"/>
@@ -15256,7 +15263,7 @@
         <v/>
       </c>
       <c r="AD35" s="113" t="str">
-        <f>IF(AND($Z35="External wall",AB35&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z35="External wall",AC35&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE35" s="79"/>
@@ -15265,11 +15272,11 @@
         <v/>
       </c>
       <c r="AG35" s="113" t="str">
-        <f>IF(AND($Z35="Sheltered wall",AE35&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z35="Sheltered wall",AF35&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH35" s="113" t="str">
-        <f>IF(AND($Z35="Sheltered wall",AE35&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z35="Sheltered wall",AF35&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI35" s="79"/>
@@ -15457,7 +15464,7 @@
         <v/>
       </c>
       <c r="AD36" s="113" t="str">
-        <f>IF(AND($Z36="External wall",AB36&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z36="External wall",AC36&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE36" s="79"/>
@@ -15466,11 +15473,11 @@
         <v/>
       </c>
       <c r="AG36" s="113" t="str">
-        <f>IF(AND($Z36="Sheltered wall",AE36&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z36="Sheltered wall",AF36&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH36" s="113" t="str">
-        <f>IF(AND($Z36="Sheltered wall",AE36&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z36="Sheltered wall",AF36&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI36" s="79"/>
@@ -15687,7 +15694,7 @@
         <v/>
       </c>
       <c r="AD37" s="113" t="str">
-        <f>IF(AND($Z37="External wall",AB37&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z37="External wall",AC37&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE37" s="79"/>
@@ -15696,11 +15703,11 @@
         <v/>
       </c>
       <c r="AG37" s="113" t="str">
-        <f>IF(AND($Z37="Sheltered wall",AE37&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z37="Sheltered wall",AF37&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH37" s="113" t="str">
-        <f>IF(AND($Z37="Sheltered wall",AE37&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z37="Sheltered wall",AF37&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI37" s="79"/>
@@ -15918,7 +15925,7 @@
         <v/>
       </c>
       <c r="AD38" s="113" t="str">
-        <f>IF(AND($Z38="External wall",AB38&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z38="External wall",AC38&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE38" s="79"/>
@@ -15927,11 +15934,11 @@
         <v/>
       </c>
       <c r="AG38" s="113" t="str">
-        <f>IF(AND($Z38="Sheltered wall",AE38&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z38="Sheltered wall",AF38&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH38" s="113" t="str">
-        <f>IF(AND($Z38="Sheltered wall",AE38&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z38="Sheltered wall",AF38&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI38" s="79"/>
@@ -16141,7 +16148,7 @@
         <v/>
       </c>
       <c r="AD39" s="113" t="str">
-        <f>IF(AND($Z39="External wall",AB39&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z39="External wall",AC39&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE39" s="79"/>
@@ -16150,11 +16157,11 @@
         <v/>
       </c>
       <c r="AG39" s="113" t="str">
-        <f>IF(AND($Z39="Sheltered wall",AE39&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z39="Sheltered wall",AF39&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH39" s="113" t="str">
-        <f>IF(AND($Z39="Sheltered wall",AE39&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z39="Sheltered wall",AF39&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI39" s="79"/>
@@ -16332,7 +16339,7 @@
         <v/>
       </c>
       <c r="AD40" s="113" t="str">
-        <f>IF(AND($Z40="External wall",AB40&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z40="External wall",AC40&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE40" s="79"/>
@@ -16341,11 +16348,11 @@
         <v/>
       </c>
       <c r="AG40" s="113" t="str">
-        <f>IF(AND($Z40="Sheltered wall",AE40&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z40="Sheltered wall",AF40&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH40" s="113" t="str">
-        <f>IF(AND($Z40="Sheltered wall",AE40&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z40="Sheltered wall",AF40&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI40" s="79"/>
@@ -16514,7 +16521,7 @@
         <v/>
       </c>
       <c r="AD41" s="113" t="str">
-        <f>IF(AND($Z41="External wall",AB41&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z41="External wall",AC41&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE41" s="79"/>
@@ -16523,11 +16530,11 @@
         <v/>
       </c>
       <c r="AG41" s="113" t="str">
-        <f>IF(AND($Z41="Sheltered wall",AE41&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z41="Sheltered wall",AF41&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH41" s="113" t="str">
-        <f>IF(AND($Z41="Sheltered wall",AE41&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z41="Sheltered wall",AF41&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI41" s="79"/>
@@ -16703,7 +16710,7 @@
         <v/>
       </c>
       <c r="AD42" s="113" t="str">
-        <f>IF(AND($Z42="External wall",AB42&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z42="External wall",AC42&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE42" s="79"/>
@@ -16712,11 +16719,11 @@
         <v/>
       </c>
       <c r="AG42" s="113" t="str">
-        <f>IF(AND($Z42="Sheltered wall",AE42&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z42="Sheltered wall",AF42&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH42" s="113" t="str">
-        <f>IF(AND($Z42="Sheltered wall",AE42&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z42="Sheltered wall",AF42&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI42" s="79"/>
@@ -16923,7 +16930,7 @@
         <v/>
       </c>
       <c r="AD43" s="113" t="str">
-        <f>IF(AND($Z43="External wall",AB43&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z43="External wall",AC43&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE43" s="79"/>
@@ -16932,11 +16939,11 @@
         <v/>
       </c>
       <c r="AG43" s="113" t="str">
-        <f>IF(AND($Z43="Sheltered wall",AE43&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z43="Sheltered wall",AF43&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH43" s="113" t="str">
-        <f>IF(AND($Z43="Sheltered wall",AE43&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z43="Sheltered wall",AF43&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI43" s="79"/>
@@ -17117,7 +17124,7 @@
         <v/>
       </c>
       <c r="AD44" s="113" t="str">
-        <f>IF(AND($Z44="External wall",AB44&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z44="External wall",AC44&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE44" s="79"/>
@@ -17126,11 +17133,11 @@
         <v/>
       </c>
       <c r="AG44" s="113" t="str">
-        <f>IF(AND($Z44="Sheltered wall",AE44&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z44="Sheltered wall",AF44&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH44" s="113" t="str">
-        <f>IF(AND($Z44="Sheltered wall",AE44&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z44="Sheltered wall",AF44&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI44" s="79"/>
@@ -17317,7 +17324,7 @@
         <v/>
       </c>
       <c r="AD45" s="113" t="str">
-        <f>IF(AND($Z45="External wall",AB45&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z45="External wall",AC45&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE45" s="79"/>
@@ -17326,11 +17333,11 @@
         <v/>
       </c>
       <c r="AG45" s="113" t="str">
-        <f>IF(AND($Z45="Sheltered wall",AE45&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z45="Sheltered wall",AF45&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH45" s="113" t="str">
-        <f>IF(AND($Z45="Sheltered wall",AE45&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z45="Sheltered wall",AF45&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI45" s="79"/>
@@ -17548,7 +17555,7 @@
         <v/>
       </c>
       <c r="AD46" s="113" t="str">
-        <f>IF(AND($Z46="External wall",AB46&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z46="External wall",AC46&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE46" s="79"/>
@@ -17557,11 +17564,11 @@
         <v/>
       </c>
       <c r="AG46" s="113" t="str">
-        <f>IF(AND($Z46="Sheltered wall",AE46&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z46="Sheltered wall",AF46&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH46" s="113" t="str">
-        <f>IF(AND($Z46="Sheltered wall",AE46&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z46="Sheltered wall",AF46&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI46" s="79"/>
@@ -17778,7 +17785,7 @@
         <v/>
       </c>
       <c r="AD47" s="113" t="str">
-        <f>IF(AND($Z47="External wall",AB47&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z47="External wall",AC47&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE47" s="79"/>
@@ -17787,11 +17794,11 @@
         <v/>
       </c>
       <c r="AG47" s="113" t="str">
-        <f>IF(AND($Z47="Sheltered wall",AE47&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z47="Sheltered wall",AF47&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH47" s="113" t="str">
-        <f>IF(AND($Z47="Sheltered wall",AE47&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z47="Sheltered wall",AF47&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI47" s="79"/>
@@ -18002,7 +18009,7 @@
         <v/>
       </c>
       <c r="AD48" s="113" t="str">
-        <f>IF(AND($Z48="External wall",AB48&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z48="External wall",AC48&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE48" s="79"/>
@@ -18011,11 +18018,11 @@
         <v/>
       </c>
       <c r="AG48" s="113" t="str">
-        <f>IF(AND($Z48="Sheltered wall",AE48&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z48="Sheltered wall",AF48&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH48" s="113" t="str">
-        <f>IF(AND($Z48="Sheltered wall",AE48&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z48="Sheltered wall",AF48&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI48" s="79"/>
@@ -18192,7 +18199,7 @@
         <v/>
       </c>
       <c r="AD49" s="113" t="str">
-        <f>IF(AND($Z49="External wall",AB49&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z49="External wall",AC49&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE49" s="79"/>
@@ -18201,11 +18208,11 @@
         <v/>
       </c>
       <c r="AG49" s="113" t="str">
-        <f>IF(AND($Z49="Sheltered wall",AE49&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z49="Sheltered wall",AF49&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH49" s="113" t="str">
-        <f>IF(AND($Z49="Sheltered wall",AE49&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z49="Sheltered wall",AF49&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI49" s="79"/>
@@ -18375,7 +18382,7 @@
         <v/>
       </c>
       <c r="AD50" s="113" t="str">
-        <f>IF(AND($Z50="External wall",AB50&gt;0),'Performance inputs'!$B$3,"")</f>
+        <f>IF(AND($Z50="External wall",AC50&gt;0),'Performance inputs'!$B$3,"")</f>
         <v/>
       </c>
       <c r="AE50" s="79"/>
@@ -18384,11 +18391,11 @@
         <v/>
       </c>
       <c r="AG50" s="113" t="str">
-        <f>IF(AND($Z50="Sheltered wall",AE50&gt;0),'Performance inputs'!$B$8,"")</f>
+        <f>IF(AND($Z50="Sheltered wall",AF50&gt;0),'Performance inputs'!$B$8,"")</f>
         <v/>
       </c>
       <c r="AH50" s="113" t="str">
-        <f>IF(AND($Z50="Sheltered wall",AE50&gt;0),'Performance inputs'!$B$9,"")</f>
+        <f>IF(AND($Z50="Sheltered wall",AF50&gt;0),'Performance inputs'!$B$9,"")</f>
         <v/>
       </c>
       <c r="AI50" s="79"/>
@@ -19359,26 +19366,77 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="116">
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="EK2:EK3"/>
-    <mergeCell ref="DN1:DY1"/>
-    <mergeCell ref="EA1:EE1"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="EB2:EB3"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DN2:DN3"/>
-    <mergeCell ref="DO2:DO3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="DJ2:DJ4"/>
+    <mergeCell ref="DK2:DK4"/>
+    <mergeCell ref="DI2:DI4"/>
+    <mergeCell ref="Y1:AT1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="EY1:FD1"/>
+    <mergeCell ref="ES2:ES3"/>
+    <mergeCell ref="FA2:FA3"/>
+    <mergeCell ref="ER1:EW1"/>
+    <mergeCell ref="EP2:EP3"/>
+    <mergeCell ref="EG1:EP1"/>
+    <mergeCell ref="ER2:ER3"/>
+    <mergeCell ref="ET2:ET3"/>
+    <mergeCell ref="EU2:EU3"/>
+    <mergeCell ref="EV2:EV3"/>
+    <mergeCell ref="EW2:EW3"/>
+    <mergeCell ref="EY2:EY3"/>
+    <mergeCell ref="FB2:FB3"/>
+    <mergeCell ref="FD2:FD3"/>
+    <mergeCell ref="FC2:FC3"/>
+    <mergeCell ref="EZ2:EZ3"/>
+    <mergeCell ref="DP2:DP3"/>
+    <mergeCell ref="DQ2:DQ3"/>
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="DV2:DV3"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="DL2:DL4"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="DH2:DH4"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="EM2:EM3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BC1:BK1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="BM1:DF1"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="AT2:AT3"/>
@@ -19403,388 +19461,342 @@
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="AV1:BA1"/>
-    <mergeCell ref="BC1:BK1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="DN1:DY1"/>
+    <mergeCell ref="EA1:EE1"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="EB2:EB3"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="DO2:DO3"/>
     <mergeCell ref="DR2:DR3"/>
-    <mergeCell ref="EO2:EO3"/>
-    <mergeCell ref="DV2:DV3"/>
-    <mergeCell ref="EL2:EL3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="DL2:DL4"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="DH2:DH4"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="EN2:EN3"/>
-    <mergeCell ref="EM2:EM3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="DJ2:DJ4"/>
-    <mergeCell ref="DK2:DK4"/>
-    <mergeCell ref="DI2:DI4"/>
-    <mergeCell ref="Y1:AT1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="EY1:FD1"/>
-    <mergeCell ref="ES2:ES3"/>
-    <mergeCell ref="FA2:FA3"/>
-    <mergeCell ref="ER1:EW1"/>
-    <mergeCell ref="EP2:EP3"/>
-    <mergeCell ref="EG1:EP1"/>
-    <mergeCell ref="ER2:ER3"/>
-    <mergeCell ref="ET2:ET3"/>
-    <mergeCell ref="EU2:EU3"/>
-    <mergeCell ref="EV2:EV3"/>
-    <mergeCell ref="EW2:EW3"/>
-    <mergeCell ref="EY2:EY3"/>
-    <mergeCell ref="FB2:FB3"/>
-    <mergeCell ref="FD2:FD3"/>
-    <mergeCell ref="FC2:FC3"/>
-    <mergeCell ref="EZ2:EZ3"/>
-    <mergeCell ref="DP2:DP3"/>
-    <mergeCell ref="DQ2:DQ3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="DL5:DL50">
-    <cfRule type="containsText" dxfId="64" priority="97" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="65" priority="99" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",DL5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="98" operator="containsText" text="correct">
+    <cfRule type="containsText" dxfId="64" priority="100" operator="containsText" text="correct">
       <formula>NOT(ISERROR(SEARCH("correct",DL5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Z1048576">
-    <cfRule type="containsBlanks" dxfId="62" priority="94">
+    <cfRule type="containsBlanks" dxfId="63" priority="96">
       <formula>LEN(TRIM(Y4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AB1048576">
-    <cfRule type="containsBlanks" dxfId="61" priority="5">
+    <cfRule type="containsBlanks" dxfId="62" priority="7">
       <formula>LEN(TRIM(AA4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB50">
-    <cfRule type="containsBlanks" dxfId="60" priority="91">
+    <cfRule type="containsBlanks" dxfId="61" priority="93">
       <formula>LEN(TRIM(AB4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE1048576">
-    <cfRule type="containsBlanks" dxfId="59" priority="36">
+    <cfRule type="containsBlanks" dxfId="60" priority="38">
       <formula>LEN(TRIM(AE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT1048576 AK4:AK1048576">
-    <cfRule type="containsBlanks" dxfId="58" priority="31">
+    <cfRule type="containsBlanks" dxfId="59" priority="33">
       <formula>LEN(TRIM(AK4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51:AF1048576">
-    <cfRule type="containsBlanks" dxfId="57" priority="88">
+    <cfRule type="containsBlanks" dxfId="58" priority="90">
       <formula>LEN(TRIM(AF51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ51:AJ1048576">
-    <cfRule type="containsBlanks" dxfId="56" priority="87">
+    <cfRule type="containsBlanks" dxfId="57" priority="89">
       <formula>LEN(TRIM(AJ51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2 AV4:AV1048576">
-    <cfRule type="containsBlanks" dxfId="55" priority="86">
+    <cfRule type="containsBlanks" dxfId="56" priority="88">
       <formula>LEN(TRIM(AV2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW1048576">
-    <cfRule type="containsBlanks" dxfId="54" priority="85">
+    <cfRule type="containsBlanks" dxfId="55" priority="87">
       <formula>LEN(TRIM(AW4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX1048576">
-    <cfRule type="containsBlanks" dxfId="53" priority="84">
+    <cfRule type="containsBlanks" dxfId="54" priority="86">
       <formula>LEN(TRIM(AX4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2:AX2">
-    <cfRule type="containsBlanks" dxfId="52" priority="82">
+    <cfRule type="containsBlanks" dxfId="53" priority="84">
       <formula>LEN(TRIM(AW2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BI1048576">
-    <cfRule type="containsBlanks" dxfId="51" priority="81">
+    <cfRule type="containsBlanks" dxfId="52" priority="83">
       <formula>LEN(TRIM(BH5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK5:BK1048576">
-    <cfRule type="containsBlanks" dxfId="50" priority="80">
+    <cfRule type="containsBlanks" dxfId="51" priority="82">
       <formula>LEN(TRIM(BK5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2 BD2 BH2:BI2">
-    <cfRule type="containsBlanks" dxfId="49" priority="78">
+    <cfRule type="containsBlanks" dxfId="50" priority="80">
       <formula>LEN(TRIM(BD2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC5:DF1048576 BN3:DF3 BN5:CP1048576 CZ5:DA1048576 CS5:CW1048576 BN5:DF50">
-    <cfRule type="containsBlanks" dxfId="48" priority="77">
+    <cfRule type="containsBlanks" dxfId="49" priority="79">
       <formula>LEN(TRIM(BN3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AH1048576">
-    <cfRule type="containsBlanks" dxfId="47" priority="76">
+    <cfRule type="containsBlanks" dxfId="48" priority="78">
       <formula>LEN(TRIM(AH51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AH1048576">
-    <cfRule type="containsBlanks" dxfId="46" priority="75">
+    <cfRule type="containsBlanks" dxfId="47" priority="77">
       <formula>LEN(TRIM(AH51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG51:AG1048576">
-    <cfRule type="containsBlanks" dxfId="45" priority="72">
+    <cfRule type="containsBlanks" dxfId="46" priority="74">
       <formula>LEN(TRIM(AG51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI1048576">
-    <cfRule type="containsBlanks" dxfId="44" priority="34">
+    <cfRule type="containsBlanks" dxfId="45" priority="36">
       <formula>LEN(TRIM(AI4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM1048576">
-    <cfRule type="containsBlanks" dxfId="43" priority="70">
+    <cfRule type="containsBlanks" dxfId="44" priority="72">
       <formula>LEN(TRIM(AM4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ1048576 AS4:AS1048576">
-    <cfRule type="containsBlanks" dxfId="42" priority="69">
+    <cfRule type="containsBlanks" dxfId="43" priority="71">
       <formula>LEN(TRIM(AQ4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB5:DB1048576">
-    <cfRule type="containsBlanks" dxfId="41" priority="68">
+    <cfRule type="containsBlanks" dxfId="42" priority="70">
       <formula>LEN(TRIM(DB5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX1048576">
-    <cfRule type="containsBlanks" dxfId="40" priority="67">
+    <cfRule type="containsBlanks" dxfId="41" priority="69">
       <formula>LEN(TRIM(CX5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY51:CY1048576">
-    <cfRule type="containsBlanks" dxfId="39" priority="66">
+    <cfRule type="containsBlanks" dxfId="40" priority="68">
       <formula>LEN(TRIM(CY51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ5:CR1048576">
-    <cfRule type="containsBlanks" dxfId="38" priority="65">
+    <cfRule type="containsBlanks" dxfId="39" priority="67">
       <formula>LEN(TRIM(CQ5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM50">
-    <cfRule type="containsBlanks" dxfId="37" priority="64">
+    <cfRule type="containsBlanks" dxfId="38" priority="66">
       <formula>LEN(TRIM(AM4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsBlanks" dxfId="36" priority="62">
+    <cfRule type="containsBlanks" dxfId="37" priority="64">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EY4">
-    <cfRule type="containsBlanks" dxfId="35" priority="45">
+    <cfRule type="containsBlanks" dxfId="36" priority="47">
       <formula>LEN(TRIM(EY4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG4">
-    <cfRule type="containsBlanks" dxfId="34" priority="44">
+    <cfRule type="containsBlanks" dxfId="35" priority="46">
       <formula>LEN(TRIM(EG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN4">
-    <cfRule type="containsBlanks" dxfId="33" priority="43">
+    <cfRule type="containsBlanks" dxfId="34" priority="45">
       <formula>LEN(TRIM(DN4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY5:CY50">
-    <cfRule type="containsBlanks" dxfId="32" priority="42">
+    <cfRule type="containsBlanks" dxfId="33" priority="44">
       <formula>LEN(TRIM(CY5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB50">
-    <cfRule type="expression" dxfId="31" priority="37">
+    <cfRule type="expression" dxfId="32" priority="39">
       <formula>AND($Z4="External wall",AB4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="30" priority="108">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="110">
       <formula>LEN(TRIM(AB4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE50">
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>AND($Z4="Sheltered wall",AE4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="28" priority="90">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="92">
       <formula>LEN(TRIM(AE4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI50">
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>AND($Z4="Party wall",AI4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="26" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="73">
       <formula>LEN(TRIM(AI4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK50">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>AND($Z4="External roof",AK4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="89">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="91">
       <formula>LEN(TRIM(AK4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M4 O4:P4">
-    <cfRule type="containsBlanks" dxfId="23" priority="30">
+    <cfRule type="containsBlanks" dxfId="24" priority="32">
       <formula>LEN(TRIM(I4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT50">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>AND($Z4="Party floor",AT4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="34">
       <formula>LEN(TRIM(AT4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS4:AS50">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>AND($Z4="Party ceiling",AS4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="27">
       <formula>LEN(TRIM(AS4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC51:AC1048576">
-    <cfRule type="containsBlanks" dxfId="18" priority="23">
+    <cfRule type="containsBlanks" dxfId="19" priority="25">
       <formula>LEN(TRIM(AC51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:W1048576">
-    <cfRule type="containsBlanks" dxfId="17" priority="22">
+    <cfRule type="containsBlanks" dxfId="18" priority="24">
       <formula>LEN(TRIM(W51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:V1048576">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
+    <cfRule type="containsBlanks" dxfId="17" priority="22">
       <formula>LEN(TRIM(S4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:V50">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>AND($Z4="External wall",S4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R51:R1048576">
-    <cfRule type="containsBlanks" dxfId="14" priority="17">
+    <cfRule type="containsBlanks" dxfId="15" priority="19">
       <formula>LEN(TRIM(R51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AO1048576">
-    <cfRule type="containsBlanks" dxfId="13" priority="14">
+    <cfRule type="containsBlanks" dxfId="14" priority="16">
       <formula>LEN(TRIM(AO4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AO50">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>AND($Z4="Heat loss floor",AO4&gt;0)</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="11" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="17">
       <formula>LEN(TRIM(AO4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ51:BJ1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="11" priority="14">
       <formula>LEN(TRIM(BJ51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD5:BD1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="13">
       <formula>LEN(TRIM(BD5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG1048576">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="12">
       <formula>LEN(TRIM(BG4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE2:BG2">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="11">
       <formula>LEN(TRIM(BE2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF51:BF1048576">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="7" priority="10">
       <formula>LEN(TRIM(BF51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE4:BE1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(BE4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BC1048576">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(BC4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA49">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND($Z4&lt;&gt;"",AA4&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="93">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="95">
       <formula>LEN(TRIM(AA4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4:BF50">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(BF4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(OR($H$4="GroundFloorFlat",$H$4="BasementFlat"),$I$4&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE50" xr:uid="{7D5BEB02-59BB-4A62-A979-6A8481CE1E2D}">
       <formula1>$AV$4:$AV$10</formula1>
     </dataValidation>
@@ -19799,7 +19811,7 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BH4:BI50 AG4:AG50 AB4:AB50 AN51:AN53 S4:V50 AD4:AE50 AR51:AR53 AT4:AT50 AO4:AP50 AI4:AI50 AS4:AS53 AK4:AL50 AY4:AY50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a number." sqref="BH4:BI50 AY4:AY50 AB4:AB50 AN51:AN53 S4:V50 AD4:AE50 AR51:AR53 AT4:AT50 AO4:AP50 AI4:AI50 AS4:AS53 AK4:AL50 AG4:AG50" xr:uid="{BBBAE76F-29F9-424E-918F-60B88D495267}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
@@ -19823,16 +19835,17 @@
       <formula1>-999</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a decimal number between 0 and 1." sqref="AR4:AR50 AN4:AN50 AH4:AH50 AZ4:BA50" xr:uid="{A82779AE-586B-4B42-9C95-A6C738E38468}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a decimal number between 0 and 1." sqref="AR4:AR50 AN4:AN50 AZ4:BA50" xr:uid="{A82779AE-586B-4B42-9C95-A6C738E38468}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Type Error" error="The input needs to be a decimal number between 0 and 1." sqref="AH4:AH50" xr:uid="{851DED7C-0C19-4BDE-B803-FC2A0F494136}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="AD4" unlockedFormula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
@@ -19971,7 +19984,7 @@
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D3" t="s">
         <v>414</v>
@@ -19982,7 +19995,7 @@
         <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
         <v>423</v>
@@ -20977,7 +20990,7 @@
         <v>409</v>
       </c>
       <c r="T6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U6" t="s">
         <v>439</v>
@@ -21021,17 +21034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8D139315C878D4E9F640E4ADE8A15B2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e8d6f7bfafeb41af70e4f1efef6af39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71af528-52a3-4b07-90a6-cd2ccd711fe9" xmlns:ns3="2ca186d5-ef53-4dc5-85e4-3eef54649419" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb621a6446d14e012056219756f39a0" ns2:_="" ns3:_="">
     <xsd:import namespace="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
@@ -21254,6 +21256,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="945324bc-12cd-45a4-acda-e03bc371c2db" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21264,9 +21277,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
+    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21289,20 +21313,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8264F84-C34B-4A86-97FA-E705A33C6A3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD888CC6-74D1-4BA8-BEDF-9DDCAF190D8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d71af528-52a3-4b07-90a6-cd2ccd711fe9"/>
-    <ds:schemaRef ds:uri="2ca186d5-ef53-4dc5-85e4-3eef54649419"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
